--- a/sample/ExcelMacro/kabuSTATION_API_function_sample.xlsx
+++ b/sample/ExcelMacro/kabuSTATION_API_function_sample.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gs.sat-satou\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\案件\202010_kabuステAPI_Ph2\20.基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D627920-0A2A-4EB4-86B1-4F87FD1F33DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12840" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12840" tabRatio="739" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="注文取消" sheetId="1" r:id="rId1"/>
@@ -21,8 +22,10 @@
     <sheet name="銘柄登録" sheetId="7" r:id="rId7"/>
     <sheet name="銘柄登録解除" sheetId="8" r:id="rId8"/>
     <sheet name="銘柄登録全解除" sheetId="9" r:id="rId9"/>
+    <sheet name="先物銘柄コード取得" sheetId="10" r:id="rId10"/>
+    <sheet name="オプション銘柄コード取得" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="276">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -72,10 +75,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>=CANCELORDER(C8,D8,E8)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>注文番号</t>
     <rPh sb="0" eb="2">
       <t>チュウモン</t>
@@ -861,10 +860,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>=WALLET.CASH(C8,D8)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>現物株式買付可能額</t>
     <rPh sb="0" eb="2">
       <t>ゲンブツ</t>
@@ -1263,14 +1258,266 @@
     <rPh sb="14" eb="16">
       <t>カイジョ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>先物銘柄コードを取得する</t>
+    <rPh sb="0" eb="2">
+      <t>サキモノ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>メイガラ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SYMBOLNAME.FUTURE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>=SYMBOLNAME.FUTURE(C8,D8)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>先物コード</t>
+    <rPh sb="0" eb="1">
+      <t>サキモノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>限月</t>
+    <rPh sb="0" eb="1">
+      <t>ゲンゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NK225</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>YYYYMM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日経平均先物 20/12</t>
+  </si>
+  <si>
+    <t>先物コード</t>
+    <rPh sb="0" eb="2">
+      <t>サキモノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NK225</t>
+  </si>
+  <si>
+    <t>日経平均先物</t>
+    <rPh sb="0" eb="2">
+      <t>ニッケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サキモノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NK225mini</t>
+  </si>
+  <si>
+    <t>日経225mini先物</t>
+    <rPh sb="0" eb="2">
+      <t>ニッケイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サキモノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOPIX</t>
+  </si>
+  <si>
+    <t>TOPIX先物</t>
+    <rPh sb="5" eb="7">
+      <t>サキモノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOPIXmini</t>
+  </si>
+  <si>
+    <t>ミニTOPIX先物</t>
+    <rPh sb="7" eb="9">
+      <t>サキモノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MOTHERS</t>
+  </si>
+  <si>
+    <t>東証マザーズ先物</t>
+  </si>
+  <si>
+    <t>JPX400</t>
+  </si>
+  <si>
+    <t>JPX日経400先物</t>
+  </si>
+  <si>
+    <t>DOW</t>
+  </si>
+  <si>
+    <t>NYダウ先物</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>日経平均VI先物</t>
+  </si>
+  <si>
+    <t>Core30</t>
+  </si>
+  <si>
+    <t>TOPIX Core30先物</t>
+  </si>
+  <si>
+    <t>REIT</t>
+  </si>
+  <si>
+    <t>東証REIT指数先物</t>
+  </si>
+  <si>
+    <t>SYMBOLNAME.OPTION</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>=SYMBOLNAME.OPTION(C8,D8,E8)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プット／コール区分</t>
+    <rPh sb="6" eb="8">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>権利行使価格</t>
+    <rPh sb="0" eb="1">
+      <t>ケンリ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XXXXX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日経平均オプション 20/12 コール 23250</t>
+  </si>
+  <si>
+    <t>プット/コール区分</t>
+    <rPh sb="7" eb="9">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CALL</t>
+  </si>
+  <si>
+    <t>先物：WALLET.FUTURE</t>
+    <rPh sb="0" eb="2">
+      <t>サキモノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オプション：WALLET.OPTION</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日通し</t>
+  </si>
+  <si>
+    <t>日中</t>
+  </si>
+  <si>
+    <t>夜間</t>
+  </si>
+  <si>
+    <t>現物</t>
+  </si>
+  <si>
+    <t>信用</t>
+  </si>
+  <si>
+    <t>先物</t>
+  </si>
+  <si>
+    <t>オプション</t>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SOR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>信用</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>=WALLET.CASH(C11,D11)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1325,6 +1572,20 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1346,7 +1607,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1522,11 +1783,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1561,9 +1833,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1843,17 +2126,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:I19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
     <col min="4" max="4" width="17.75" customWidth="1"/>
     <col min="5" max="5" width="14.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
@@ -1906,62 +2187,62 @@
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>220</v>
+        <v>11</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F7" s="27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>218</v>
+        <v>7</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
       <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
@@ -1970,7 +2251,7 @@
         <v>(D14に関数入力)</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
@@ -1978,23 +2259,23 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.4">
@@ -2003,7 +2284,7 @@
         <v>(D19に関数入力)</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2013,17 +2294,384 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:F25"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3087A225-5512-4F53-AF64-05FE5610D225}">
+  <dimension ref="A2:F27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="28.875" customWidth="1"/>
+    <col min="5" max="5" width="23.75" customWidth="1"/>
+    <col min="6" max="6" width="33.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="6"/>
+      <c r="C7" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="F7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B12" s="5"/>
+      <c r="C12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="6"/>
+      <c r="C14" s="30" t="str">
+        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
+        <v>(D14に関数入力)</v>
+      </c>
+      <c r="D14" s="41">
+        <v>165120018</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="6"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B17" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B18" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B19" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B20" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B21" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B22" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B23" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B24" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B25" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B26" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B27" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7408FCE1-C142-4BA4-B3FE-B205E86E1877}">
+  <dimension ref="A2:G19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="35.875" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B7" s="6"/>
+      <c r="C7" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="G7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B12" s="5"/>
+      <c r="C12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="6"/>
+      <c r="C14" s="30" t="str">
+        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
+        <v>(D14に関数入力)</v>
+      </c>
+      <c r="D14" s="41">
+        <v>145123218</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="6"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B17" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B18" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B19" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A2:F34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
     <col min="4" max="4" width="21.625" customWidth="1"/>
     <col min="5" max="6" width="18.25" bestFit="1" customWidth="1"/>
@@ -2042,146 +2690,244 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B4" s="1"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
     </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B5" s="32"/>
+      <c r="C5" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+    </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B8" s="5" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B8" s="6"/>
-      <c r="C8" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" s="6"/>
-      <c r="C9" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>193</v>
+      <c r="C9" s="6" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" s="6"/>
-      <c r="C10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D10" s="9"/>
+      <c r="C10" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" s="6"/>
-      <c r="C11" t="s">
+      <c r="C11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B12" s="6"/>
+      <c r="C12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B13" s="6"/>
+      <c r="C13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B15" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B17" s="5"/>
+      <c r="C17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="6"/>
+      <c r="C19" s="30" t="str">
+        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
+        <v>(D19に関数入力)</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B23" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B24" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="C24" s="26">
+        <v>1</v>
+      </c>
+      <c r="D24" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="5" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B25" s="36"/>
+      <c r="C25" s="26">
+        <v>3</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B26" s="36"/>
+      <c r="C26" s="26">
+        <v>5</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B27" s="36"/>
+      <c r="C27" s="26">
+        <v>6</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B28" s="37"/>
+      <c r="C28" s="26">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B15" s="5"/>
-      <c r="C15" t="s">
-        <v>202</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="6"/>
-      <c r="C17" s="27" t="str">
-        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
-        <v>(D17に関数入力)</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="28" t="s">
+      <c r="D28" s="26" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B29" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="C29" s="26">
+        <v>1</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B30" s="36"/>
+      <c r="C30" s="26">
+        <v>3</v>
+      </c>
+      <c r="D30" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="C21" s="28"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B22" s="26">
-        <v>1</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B23" s="26">
-        <v>3</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B24" s="26">
-        <v>5</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B25" s="26">
-        <v>6</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>200</v>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B31" s="37"/>
+      <c r="C31" s="26">
+        <v>9</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B32" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="C32" s="26">
+        <v>2</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B33" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="C33" s="26">
+        <v>23</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B34" s="37"/>
+      <c r="C34" s="26">
+        <v>24</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2192,16 +2938,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A2:CK26"/>
+  <dimension ref="A2:CK29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
     <col min="4" max="4" width="14.75" customWidth="1"/>
     <col min="5" max="6" width="10.375" customWidth="1"/>
@@ -2248,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -2259,7 +3006,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -2273,39 +3020,39 @@
     <row r="6" spans="1:89" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:89" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="C7" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>168</v>
-      </c>
       <c r="F7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:89" x14ac:dyDescent="0.4">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:89" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:89" x14ac:dyDescent="0.4">
@@ -2314,362 +3061,362 @@
     <row r="12" spans="1:89" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
       <c r="C12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AF12" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG12" s="11"/>
       <c r="AH12" s="11"/>
       <c r="AI12" s="12"/>
       <c r="AJ12" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK12" s="12"/>
       <c r="AL12" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM12" s="12"/>
       <c r="AN12" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO12" s="12"/>
       <c r="AP12" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ12" s="12"/>
       <c r="AR12" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS12" s="12"/>
       <c r="AT12" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU12" s="12"/>
       <c r="AV12" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW12" s="12"/>
       <c r="AX12" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY12" s="12"/>
       <c r="AZ12" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA12" s="12"/>
       <c r="BG12" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BH12" s="11"/>
       <c r="BI12" s="11"/>
       <c r="BJ12" s="12"/>
       <c r="BK12" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BL12" s="12"/>
       <c r="BM12" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BN12" s="12"/>
       <c r="BO12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BP12" s="12"/>
       <c r="BQ12" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="BR12" s="12"/>
       <c r="BS12" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BT12" s="12"/>
       <c r="BU12" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BV12" s="12"/>
       <c r="BW12" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="BX12" s="12"/>
       <c r="BY12" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BZ12" s="12"/>
       <c r="CA12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="CB12" s="12"/>
     </row>
     <row r="13" spans="1:89" x14ac:dyDescent="0.4">
       <c r="C13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="H13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="I13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="J13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="K13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="L13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="M13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="N13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="O13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="P13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="P13" s="8" t="s">
+      <c r="Q13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Q13" s="8" t="s">
+      <c r="R13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="R13" s="8" t="s">
+      <c r="S13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="S13" s="8" t="s">
+      <c r="T13" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="T13" s="8" t="s">
+      <c r="U13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="U13" s="8" t="s">
+      <c r="V13" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="V13" s="8" t="s">
+      <c r="W13" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="8" t="s">
+      <c r="X13" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="X13" s="8" t="s">
+      <c r="Y13" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Y13" s="8" t="s">
+      <c r="Z13" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="Z13" s="8" t="s">
+      <c r="AA13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AA13" s="8" t="s">
+      <c r="AB13" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="AB13" s="8" t="s">
+      <c r="AC13" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AC13" s="8" t="s">
+      <c r="AD13" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="AD13" s="8" t="s">
+      <c r="AE13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AE13" s="8" t="s">
+      <c r="AF13" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG13" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH13" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="AF13" s="8" t="s">
+      <c r="AI13" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="AG13" s="8" t="s">
+      <c r="AJ13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AZ13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BA13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC13" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG13" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="AH13" s="8" t="s">
+      <c r="BH13" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="AI13" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ13" s="8" t="s">
+      <c r="BI13" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="BJ13" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="AK13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL13" s="8" t="s">
+      <c r="BK13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AM13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN13" s="8" t="s">
+      <c r="BM13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AO13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP13" s="8" t="s">
+      <c r="BO13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BP13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AQ13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AR13" s="8" t="s">
+      <c r="BQ13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AS13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT13" s="8" t="s">
+      <c r="BS13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BT13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AU13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV13" s="8" t="s">
+      <c r="BU13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BV13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AW13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AX13" s="8" t="s">
+      <c r="BW13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BX13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AY13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AZ13" s="8" t="s">
+      <c r="BY13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BZ13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BA13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="BB13" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="BC13" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="BD13" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="BE13" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="BF13" s="8" t="s">
+      <c r="CA13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="CB13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="CC13" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="BG13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="BH13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI13" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ13" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="BK13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="BL13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="BM13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="BN13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="BO13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="BP13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="BQ13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="BS13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="BT13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="BU13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="BV13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="BW13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="BX13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="BY13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="BZ13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="CA13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="CB13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="CC13" s="8" t="s">
+      <c r="CD13" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="CD13" s="8" t="s">
+      <c r="CE13" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="CE13" s="8" t="s">
+      <c r="CF13" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="CF13" s="8" t="s">
+      <c r="CG13" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="CG13" s="8" t="s">
+      <c r="CH13" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="CH13" s="8" t="s">
+      <c r="CI13" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="CI13" s="8" t="s">
+      <c r="CJ13" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="CJ13" s="8" t="s">
+      <c r="CK13" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="CK13" s="8" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:89" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
-      <c r="C14" s="27" t="str">
+      <c r="C14" s="30" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
         <v>(D14に関数入力)</v>
       </c>
@@ -2677,259 +3424,259 @@
         <v>8411</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AA14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AE14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AI14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AK14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AL14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AM14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AN14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AP14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AQ14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AR14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AS14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AU14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AV14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AW14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AX14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AY14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AZ14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BA14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BB14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BC14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BD14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BE14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BF14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BG14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BH14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BI14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BJ14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BK14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BL14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BM14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BN14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BO14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BP14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BQ14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BR14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BS14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BT14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BU14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BV14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BW14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BX14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BY14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BZ14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CA14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CB14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CC14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CD14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CE14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CF14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CG14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CH14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CI14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CJ14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CK14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:89" x14ac:dyDescent="0.4">
@@ -2963,70 +3710,70 @@
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
       <c r="AF15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AI15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AK15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AL15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AM15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AN15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AP15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AQ15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AR15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AS15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AU15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AV15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AW15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AX15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AY15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AZ15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BA15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BB15" s="7"/>
       <c r="BC15" s="7"/>
@@ -3034,70 +3781,70 @@
       <c r="BE15" s="7"/>
       <c r="BF15" s="7"/>
       <c r="BG15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BH15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BI15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BJ15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BK15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BL15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BM15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BN15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BO15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BP15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BQ15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BR15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BS15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BT15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BU15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BV15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BW15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BX15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BY15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BZ15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CA15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CB15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CC15" s="7"/>
       <c r="CD15" s="7"/>
@@ -3140,70 +3887,70 @@
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
       <c r="AF16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AI16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AK16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AL16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AM16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AN16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AP16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AQ16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AR16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AS16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AU16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AV16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AW16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AX16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AY16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AZ16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BA16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BB16" s="7"/>
       <c r="BC16" s="7"/>
@@ -3211,70 +3958,70 @@
       <c r="BE16" s="7"/>
       <c r="BF16" s="7"/>
       <c r="BG16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BH16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BI16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BJ16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BK16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BL16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BM16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BN16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BO16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BP16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BQ16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BR16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BS16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BT16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BU16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BV16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BW16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BX16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BY16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BZ16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CA16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CB16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CC16" s="7"/>
       <c r="CD16" s="7"/>
@@ -3292,259 +4039,259 @@
         <v>5401</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AA17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AE17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AI17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AK17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AL17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AM17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AN17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AP17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AQ17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AR17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AS17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AU17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AV17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AW17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AX17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AY17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AZ17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BA17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BB17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BC17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BD17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BE17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BF17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BG17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BH17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BI17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BJ17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BK17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BL17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BM17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BN17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BO17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BP17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BQ17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BR17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BS17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BT17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BU17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BV17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BW17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BX17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BY17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BZ17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CA17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CB17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CC17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CD17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CE17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CF17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CG17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CH17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CI17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CJ17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CK17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:89" x14ac:dyDescent="0.4">
@@ -3578,70 +4325,70 @@
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
       <c r="AF18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AI18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AK18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AL18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AM18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AN18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AP18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AQ18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AR18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AS18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AU18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AV18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AW18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AX18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AY18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AZ18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BA18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BB18" s="7"/>
       <c r="BC18" s="7"/>
@@ -3649,70 +4396,70 @@
       <c r="BE18" s="7"/>
       <c r="BF18" s="7"/>
       <c r="BG18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BH18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BI18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BJ18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BK18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BL18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BM18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BN18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BO18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BP18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BQ18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BR18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BS18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BT18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BU18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BV18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BW18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BX18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BY18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BZ18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CA18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CB18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CC18" s="7"/>
       <c r="CD18" s="7"/>
@@ -3990,11 +4737,15 @@
       <c r="CK21" s="9"/>
     </row>
     <row r="22" spans="1:89" x14ac:dyDescent="0.4">
-      <c r="A22" s="6"/>
-      <c r="B22" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="C22" s="28"/>
+      <c r="B22" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>271</v>
+      </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -4082,14 +4833,15 @@
       <c r="CK22" s="9"/>
     </row>
     <row r="23" spans="1:89" x14ac:dyDescent="0.4">
-      <c r="A23" s="6"/>
-      <c r="B23" s="26">
+      <c r="B23" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23" s="26">
         <v>1</v>
       </c>
-      <c r="C23" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="D23" s="9"/>
+      <c r="D23" s="26" t="s">
+        <v>195</v>
+      </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -4177,27 +4929,63 @@
       <c r="CK23" s="9"/>
     </row>
     <row r="24" spans="1:89" x14ac:dyDescent="0.4">
-      <c r="B24" s="26">
+      <c r="B24" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="C24" s="26">
         <v>3</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="D24" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:89" x14ac:dyDescent="0.4">
+      <c r="B25" s="36"/>
+      <c r="C25" s="26">
+        <v>5</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:89" x14ac:dyDescent="0.4">
+      <c r="B26" s="37"/>
+      <c r="C26" s="26">
+        <v>6</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:89" x14ac:dyDescent="0.4">
-      <c r="B25" s="26">
-        <v>5</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="26" spans="1:89" x14ac:dyDescent="0.4">
-      <c r="B26" s="26">
-        <v>6</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>200</v>
+    <row r="27" spans="1:89" x14ac:dyDescent="0.4">
+      <c r="B27" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="C27" s="26">
+        <v>2</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:89" x14ac:dyDescent="0.4">
+      <c r="B28" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="C28" s="26">
+        <v>23</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:89" x14ac:dyDescent="0.4">
+      <c r="B29" s="37"/>
+      <c r="C29" s="26">
+        <v>24</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -4207,16 +4995,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A2:AA21"/>
+  <dimension ref="A2:AA24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:C17"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
     <col min="4" max="4" width="14.75" customWidth="1"/>
     <col min="5" max="6" width="8.5" bestFit="1" customWidth="1"/>
@@ -4242,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -4253,7 +5042,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -4267,39 +5056,39 @@
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="C7" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>168</v>
-      </c>
       <c r="F7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
@@ -4308,92 +5097,92 @@
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
       <c r="C12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="C13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="8" t="s">
+      <c r="J13" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="L13" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="X13" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y13" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z13" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA13" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="T13" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="U13" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="V13" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="W13" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="X13" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y13" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z13" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA13" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
-      <c r="C14" s="27" t="str">
+      <c r="C14" s="30" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
         <v>(D14に関数入力)</v>
       </c>
@@ -4401,73 +5190,73 @@
         <v>8411</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AA14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
@@ -4497,42 +5286,86 @@
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B17" s="28" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B17" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B18" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="C18" s="26">
+        <v>1</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B19" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" s="26">
+        <v>3</v>
+      </c>
+      <c r="D19" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="C17" s="28"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B18" s="26">
-        <v>1</v>
-      </c>
-      <c r="C18" s="26" t="s">
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B20" s="36"/>
+      <c r="C20" s="26">
+        <v>5</v>
+      </c>
+      <c r="D20" s="26" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B19" s="26">
-        <v>3</v>
-      </c>
-      <c r="C19" s="26" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B21" s="37"/>
+      <c r="C21" s="26">
+        <v>6</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B20" s="26">
-        <v>5</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B21" s="26">
-        <v>6</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>200</v>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B22" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="C22" s="26">
+        <v>2</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B23" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="C23" s="26">
+        <v>23</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B24" s="37"/>
+      <c r="C24" s="26">
+        <v>24</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -4542,16 +5375,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A2:AJ26"/>
+  <dimension ref="A2:AJ28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E8"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
     <col min="4" max="4" width="14.75" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
@@ -4583,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -4594,7 +5428,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -4608,19 +5442,19 @@
     <row r="6" spans="1:36" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="C7" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.4">
@@ -4629,12 +5463,12 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.4">
@@ -4643,13 +5477,13 @@
     <row r="12" spans="1:36" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
       <c r="C12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="W12" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X12" s="14"/>
       <c r="Y12" s="14"/>
@@ -4667,212 +5501,212 @@
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.4">
       <c r="C13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="H13" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="I13" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="J13" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="K13" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="L13" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="M13" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="N13" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="O13" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="P13" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="P13" s="8" t="s">
+      <c r="Q13" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="Q13" s="8" t="s">
+      <c r="R13" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="R13" s="8" t="s">
+      <c r="S13" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="S13" s="8" t="s">
+      <c r="T13" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="T13" s="8" t="s">
+      <c r="U13" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="U13" s="8" t="s">
+      <c r="V13" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="V13" s="8" t="s">
+      <c r="W13" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="W13" s="8" t="s">
+      <c r="X13" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="X13" s="8" t="s">
+      <c r="Y13" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="Y13" s="8" t="s">
+      <c r="Z13" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="Z13" s="8" t="s">
+      <c r="AA13" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="AA13" s="8" t="s">
+      <c r="AB13" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="AB13" s="8" t="s">
+      <c r="AC13" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="AC13" s="8" t="s">
+      <c r="AD13" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="AD13" s="8" t="s">
+      <c r="AE13" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="AE13" s="8" t="s">
+      <c r="AF13" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="AF13" s="8" t="s">
+      <c r="AG13" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="AG13" s="8" t="s">
+      <c r="AH13" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="AH13" s="8" t="s">
+      <c r="AI13" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="AI13" s="8" t="s">
+      <c r="AJ13" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="AJ13" s="8" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
-      <c r="C14" s="27" t="str">
+      <c r="C14" s="30" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
         <v>(D14に関数入力)</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AA14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AE14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AI14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.4">
@@ -4897,46 +5731,46 @@
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
       <c r="W15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AA15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AE15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AI15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.4">
@@ -4961,46 +5795,46 @@
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AA16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AE16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AI16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.4">
@@ -5025,148 +5859,148 @@
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AA17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AE17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AI17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A18" s="6"/>
       <c r="D18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AA18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AE18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AI18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.4">
@@ -5191,46 +6025,46 @@
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X19" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y19" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z19" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AA19" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB19" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC19" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD19" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AE19" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF19" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG19" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH19" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AI19" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ19" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.4">
@@ -5255,46 +6089,46 @@
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X20" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y20" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z20" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AA20" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB20" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC20" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD20" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AE20" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF20" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG20" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH20" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AI20" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ20" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.4">
@@ -5334,17 +6168,19 @@
       <c r="AJ21" s="9"/>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="B23" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="C23" s="28"/>
+      <c r="B23" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.4">
       <c r="B24" s="26">
         <v>0</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.4">
@@ -5352,7 +6188,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.4">
@@ -5360,13 +6196,29 @@
         <v>2</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="B27" s="39">
+        <v>3</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="B28" s="39">
+        <v>4</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"0,1,2"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5375,16 +6227,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A2:Y24"/>
+  <dimension ref="A2:Y26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
     <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
@@ -5412,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -5423,7 +6276,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -5437,19 +6290,19 @@
     <row r="6" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="C7" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.4">
@@ -5458,12 +6311,12 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.4">
@@ -5472,292 +6325,292 @@
     <row r="12" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.4">
       <c r="C13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="8" t="s">
+      <c r="K13" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="L13" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="M13" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="N13" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="O13" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="P13" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="P13" s="8" t="s">
+      <c r="Q13" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="Q13" s="8" t="s">
+      <c r="R13" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="R13" s="8" t="s">
+      <c r="S13" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="S13" s="8" t="s">
+      <c r="T13" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="T13" s="8" t="s">
+      <c r="U13" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="U13" s="8" t="s">
+      <c r="V13" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="V13" s="8" t="s">
+      <c r="W13" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="W13" s="8" t="s">
+      <c r="X13" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="X13" s="8" t="s">
+      <c r="Y13" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="Y13" s="8" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
-      <c r="C14" s="27" t="str">
+      <c r="C14" s="30" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
         <v>(D14に関数入力)</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A15" s="6"/>
       <c r="D15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
       <c r="D16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.4">
@@ -5786,17 +6639,19 @@
       <c r="Y17" s="9"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="B21" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="C21" s="28"/>
+      <c r="B21" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B22" s="26">
         <v>0</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.4">
@@ -5804,7 +6659,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.4">
@@ -5812,13 +6667,29 @@
         <v>2</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B25" s="39">
+        <v>3</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B26" s="39">
+        <v>4</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"0,1,2"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5827,16 +6698,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A2:I30"/>
+  <dimension ref="A2:I40"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
     <col min="4" max="4" width="21.625" customWidth="1"/>
     <col min="5" max="6" width="18.25" bestFit="1" customWidth="1"/>
@@ -5855,7 +6727,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -5866,7 +6738,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -5880,76 +6752,76 @@
     <row r="6" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E6" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>167</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="C7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="F7" s="18" t="s">
         <v>170</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8" s="6"/>
       <c r="C8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>173</v>
-      </c>
       <c r="F8" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" s="6"/>
       <c r="C9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>175</v>
-      </c>
       <c r="F9" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" s="6"/>
       <c r="E10" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" s="6"/>
       <c r="E11" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="6"/>
       <c r="E12" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
@@ -5957,7 +6829,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.4">
@@ -5966,21 +6838,21 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B17" s="5"/>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C18" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
@@ -5989,15 +6861,15 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="6"/>
-      <c r="C19" s="27" t="str">
+      <c r="C19" s="30" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
         <v>(D19に関数入力)</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
@@ -6007,10 +6879,10 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="6"/>
       <c r="D20" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
@@ -6020,10 +6892,10 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="6"/>
       <c r="D21" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
@@ -6033,10 +6905,10 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="6"/>
       <c r="D22" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
@@ -6046,10 +6918,10 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="6"/>
       <c r="D23" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
@@ -6059,10 +6931,10 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="6"/>
       <c r="D24" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
@@ -6081,7 +6953,7 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="6"/>
       <c r="B26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
@@ -6102,7 +6974,7 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="6"/>
       <c r="B28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -6113,12 +6985,94 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>190</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B33" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B34" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="C34" s="26">
+        <v>1</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B35" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="C35" s="26">
+        <v>3</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B36" s="36"/>
+      <c r="C36" s="26">
+        <v>5</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B37" s="37"/>
+      <c r="C37" s="26">
+        <v>6</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B38" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="C38" s="26">
+        <v>2</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B39" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="C39" s="26">
+        <v>23</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B40" s="37"/>
+      <c r="C40" s="26">
+        <v>24</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -6128,16 +7082,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A2:I27"/>
+  <dimension ref="A2:I37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
     <col min="4" max="4" width="21.625" customWidth="1"/>
     <col min="5" max="6" width="18.25" bestFit="1" customWidth="1"/>
@@ -6156,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -6167,7 +7122,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -6181,76 +7136,76 @@
     <row r="6" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E6" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>167</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="C7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="F7" s="18" t="s">
         <v>170</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8" s="6"/>
       <c r="C8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>173</v>
-      </c>
       <c r="F8" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" s="6"/>
       <c r="C9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>175</v>
-      </c>
       <c r="F9" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="6"/>
       <c r="E10" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" s="6"/>
       <c r="E11" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B12" s="6"/>
       <c r="E12" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
@@ -6258,7 +7213,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.4">
@@ -6267,21 +7222,21 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B17" s="5"/>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C18" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
@@ -6295,10 +7250,10 @@
         <v>(D19に関数入力)</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
@@ -6308,10 +7263,10 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="6"/>
       <c r="D20" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
@@ -6330,7 +7285,7 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="6"/>
       <c r="B22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -6342,7 +7297,7 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="6"/>
       <c r="B23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -6362,17 +7317,99 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>190</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B30" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B31" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="C31" s="26">
+        <v>1</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B32" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="C32" s="26">
+        <v>3</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B33" s="36"/>
+      <c r="C33" s="26">
+        <v>5</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B34" s="37"/>
+      <c r="C34" s="26">
+        <v>6</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B35" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="C35" s="26">
+        <v>2</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B36" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="C36" s="26">
+        <v>23</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B37" s="37"/>
+      <c r="C37" s="26">
+        <v>24</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -6382,12 +7419,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A2:I20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6410,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -6421,7 +7458,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -6435,18 +7472,18 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -6455,18 +7492,18 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
@@ -6499,7 +7536,7 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="6"/>
       <c r="B15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -6510,22 +7547,22 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/sample/ExcelMacro/kabuSTATION_API_function_sample.xlsx
+++ b/sample/ExcelMacro/kabuSTATION_API_function_sample.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\案件\202010_kabuステAPI_Ph2\20.基本設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kabusapi\sample\ExcelMacro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D627920-0A2A-4EB4-86B1-4F87FD1F33DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12840" tabRatio="739" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12840" tabRatio="739"/>
   </bookViews>
   <sheets>
     <sheet name="注文取消" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <sheet name="先物銘柄コード取得" sheetId="10" r:id="rId10"/>
     <sheet name="オプション銘柄コード取得" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="275">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -1498,10 +1497,6 @@
     <rPh sb="0" eb="2">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SOR</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1516,25 +1511,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1543,7 +1538,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1551,14 +1546,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1567,21 +1562,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2126,32 +2121,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:I19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1"/>
-    <col min="5" max="5" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2165,7 +2160,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2179,12 +2174,12 @@
       <c r="H3" s="3"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:9">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>11</v>
@@ -2193,7 +2188,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:9">
       <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -2205,7 +2200,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:9">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
         <v>7</v>
@@ -2217,18 +2212,18 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:9">
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:9">
       <c r="B11" s="5"/>
       <c r="C11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:9">
       <c r="B12" s="5"/>
       <c r="C12" t="s">
         <v>10</v>
@@ -2237,7 +2232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:9">
       <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
@@ -2245,7 +2240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:9">
       <c r="C14" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
         <v>(D14に関数入力)</v>
@@ -2254,15 +2249,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:9">
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:9">
       <c r="C16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:4">
       <c r="C17" t="s">
         <v>10</v>
       </c>
@@ -2270,7 +2265,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:4">
       <c r="C18" s="6" t="s">
         <v>12</v>
       </c>
@@ -2278,7 +2273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:4">
       <c r="C19" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
         <v>(D19に関数入力)</v>
@@ -2295,21 +2290,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3087A225-5512-4F53-AF64-05FE5610D225}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="28.875" customWidth="1"/>
-    <col min="5" max="5" width="23.75" customWidth="1"/>
-    <col min="6" max="6" width="33.25" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2318,7 +2313,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2327,12 +2322,12 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>224</v>
@@ -2341,7 +2336,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6">
       <c r="B7" s="6"/>
       <c r="C7" s="8" t="s">
         <v>225</v>
@@ -2353,7 +2348,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
         <v>227</v>
@@ -2365,15 +2360,15 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6">
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6">
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6">
       <c r="B12" s="5"/>
       <c r="C12" t="s">
         <v>200</v>
@@ -2382,7 +2377,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6">
       <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
@@ -2393,7 +2388,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6">
       <c r="A14" s="6"/>
       <c r="C14" s="30" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
@@ -2406,12 +2401,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6">
       <c r="A15" s="6"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:3">
       <c r="B17" s="34" t="s">
         <v>230</v>
       </c>
@@ -2419,7 +2414,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:3">
       <c r="B18" s="26" t="s">
         <v>231</v>
       </c>
@@ -2427,7 +2422,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:3">
       <c r="B19" s="26" t="s">
         <v>233</v>
       </c>
@@ -2435,7 +2430,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:3">
       <c r="B20" s="26" t="s">
         <v>235</v>
       </c>
@@ -2443,7 +2438,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:3">
       <c r="B21" s="26" t="s">
         <v>237</v>
       </c>
@@ -2451,7 +2446,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:3">
       <c r="B22" s="26" t="s">
         <v>239</v>
       </c>
@@ -2459,7 +2454,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:3">
       <c r="B23" s="26" t="s">
         <v>241</v>
       </c>
@@ -2467,7 +2462,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:3">
       <c r="B24" s="26" t="s">
         <v>243</v>
       </c>
@@ -2475,7 +2470,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:3">
       <c r="B25" s="26" t="s">
         <v>245</v>
       </c>
@@ -2483,7 +2478,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:3">
       <c r="B26" s="26" t="s">
         <v>247</v>
       </c>
@@ -2491,7 +2486,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:3">
       <c r="B27" s="26" t="s">
         <v>249</v>
       </c>
@@ -2506,23 +2501,23 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7408FCE1-C142-4BA4-B3FE-B205E86E1877}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="21.375" customWidth="1"/>
-    <col min="5" max="5" width="35.875" customWidth="1"/>
-    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2531,7 +2526,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2540,12 +2535,12 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>252</v>
@@ -2554,7 +2549,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="B7" s="6"/>
       <c r="C7" s="8" t="s">
         <v>226</v>
@@ -2569,7 +2564,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
         <v>228</v>
@@ -2584,15 +2579,15 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7">
       <c r="B12" s="5"/>
       <c r="C12" t="s">
         <v>200</v>
@@ -2601,7 +2596,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7">
       <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
@@ -2612,7 +2607,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7">
       <c r="A14" s="6"/>
       <c r="C14" s="30" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
@@ -2625,12 +2620,12 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7">
       <c r="A15" s="6"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:3">
       <c r="B17" s="34" t="s">
         <v>257</v>
       </c>
@@ -2638,7 +2633,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:3">
       <c r="B18" s="26" t="s">
         <v>258</v>
       </c>
@@ -2646,7 +2641,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:3">
       <c r="B19" s="26" t="s">
         <v>260</v>
       </c>
@@ -2661,31 +2656,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:F34"/>
+  <dimension ref="A2:F32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="21.625" customWidth="1"/>
-    <col min="5" max="6" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2696,7 +2691,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6">
       <c r="B3" s="31" t="s">
         <v>2</v>
       </c>
@@ -2707,7 +2702,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6">
       <c r="B4" s="32"/>
       <c r="C4" s="2" t="s">
         <v>183</v>
@@ -2716,7 +2711,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6">
       <c r="B5" s="32"/>
       <c r="C5" s="2" t="s">
         <v>262</v>
@@ -2725,7 +2720,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6">
       <c r="B6" s="33"/>
       <c r="C6" s="2" t="s">
         <v>263</v>
@@ -2734,18 +2729,18 @@
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6">
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6">
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10" s="6"/>
       <c r="C10" s="8" t="s">
         <v>166</v>
@@ -2754,7 +2749,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:6">
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
         <v>190</v>
@@ -2763,38 +2758,38 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:6">
       <c r="B12" s="6"/>
       <c r="C12" t="s">
         <v>192</v>
       </c>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:6">
       <c r="B13" s="6"/>
       <c r="C13" t="s">
         <v>193</v>
       </c>
       <c r="D13" s="9"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:6">
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:6">
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4">
       <c r="B17" s="5"/>
       <c r="C17" t="s">
         <v>200</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="C18" s="6" t="s">
         <v>12</v>
       </c>
@@ -2802,7 +2797,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4">
       <c r="A19" s="6"/>
       <c r="C19" s="30" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
@@ -2812,7 +2807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4">
       <c r="B23" s="34" t="s">
         <v>202</v>
       </c>
@@ -2823,7 +2818,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4">
       <c r="B24" s="35" t="s">
         <v>267</v>
       </c>
@@ -2834,7 +2829,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4">
       <c r="B25" s="36"/>
       <c r="C25" s="26">
         <v>3</v>
@@ -2843,7 +2838,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4">
       <c r="B26" s="36"/>
       <c r="C26" s="26">
         <v>5</v>
@@ -2852,7 +2847,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4">
       <c r="B27" s="36"/>
       <c r="C27" s="26">
         <v>6</v>
@@ -2861,72 +2856,54 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B28" s="37"/>
+    <row r="28" spans="1:4">
+      <c r="B28" s="35" t="s">
+        <v>273</v>
+      </c>
       <c r="C28" s="26">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B29" s="35" t="s">
-        <v>274</v>
-      </c>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" s="36"/>
       <c r="C29" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B30" s="36"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" s="38" t="s">
+        <v>269</v>
+      </c>
       <c r="C30" s="26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B31" s="37"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" s="36" t="s">
+        <v>270</v>
+      </c>
       <c r="C31" s="26">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B32" s="38" t="s">
-        <v>269</v>
-      </c>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" s="37"/>
       <c r="C32" s="26">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B33" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="C33" s="26">
-        <v>23</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B34" s="37"/>
-      <c r="C34" s="26">
-        <v>24</v>
-      </c>
-      <c r="D34" s="26" t="s">
         <v>266</v>
       </c>
     </row>
@@ -2938,59 +2915,57 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A2:CK29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="6" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="32" max="34" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="36" max="53" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="54" max="56" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="59" max="61" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="63" max="80" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="86" max="89" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="53" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="56" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="61" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="63" max="80" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="86" max="89" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:89">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3001,7 +2976,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:89">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3012,12 +2987,12 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="5" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:89">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:89">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>186</v>
@@ -3026,7 +3001,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:89">
       <c r="B7" s="6"/>
       <c r="C7" s="8" t="s">
         <v>166</v>
@@ -3038,7 +3013,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:89">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
         <v>190</v>
@@ -3050,15 +3025,15 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:89">
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:89">
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:89">
       <c r="B12" s="5"/>
       <c r="C12" t="s">
         <v>200</v>
@@ -3151,7 +3126,7 @@
       </c>
       <c r="CB12" s="12"/>
     </row>
-    <row r="13" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:89">
       <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
@@ -3414,7 +3389,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:89">
       <c r="A14" s="6"/>
       <c r="C14" s="30" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
@@ -3679,7 +3654,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:89">
       <c r="A15" s="6"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -3856,7 +3831,7 @@
       <c r="CJ15" s="7"/>
       <c r="CK15" s="7"/>
     </row>
-    <row r="16" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:89">
       <c r="A16" s="6"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -4033,7 +4008,7 @@
       <c r="CJ16" s="7"/>
       <c r="CK16" s="7"/>
     </row>
-    <row r="17" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:89">
       <c r="A17" s="6"/>
       <c r="D17" s="7">
         <v>5401</v>
@@ -4294,7 +4269,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:89">
       <c r="A18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -4471,7 +4446,7 @@
       <c r="CJ18" s="7"/>
       <c r="CK18" s="7"/>
     </row>
-    <row r="19" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:89">
       <c r="A19" s="6"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -4560,7 +4535,7 @@
       <c r="CJ19" s="9"/>
       <c r="CK19" s="9"/>
     </row>
-    <row r="20" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:89">
       <c r="A20" s="6"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -4648,7 +4623,7 @@
       <c r="CJ20" s="9"/>
       <c r="CK20" s="9"/>
     </row>
-    <row r="21" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:89">
       <c r="A21" s="6"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -4736,7 +4711,7 @@
       <c r="CJ21" s="9"/>
       <c r="CK21" s="9"/>
     </row>
-    <row r="22" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:89">
       <c r="B22" s="34" t="s">
         <v>202</v>
       </c>
@@ -4832,7 +4807,7 @@
       <c r="CJ22" s="9"/>
       <c r="CK22" s="9"/>
     </row>
-    <row r="23" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:89">
       <c r="B23" s="35" t="s">
         <v>267</v>
       </c>
@@ -4928,7 +4903,7 @@
       <c r="CJ23" s="9"/>
       <c r="CK23" s="9"/>
     </row>
-    <row r="24" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:89">
       <c r="B24" s="36" t="s">
         <v>268</v>
       </c>
@@ -4939,7 +4914,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:89">
       <c r="B25" s="36"/>
       <c r="C25" s="26">
         <v>5</v>
@@ -4948,7 +4923,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:89">
       <c r="B26" s="37"/>
       <c r="C26" s="26">
         <v>6</v>
@@ -4957,7 +4932,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="27" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:89">
       <c r="B27" s="38" t="s">
         <v>269</v>
       </c>
@@ -4968,7 +4943,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="28" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:89">
       <c r="B28" s="36" t="s">
         <v>270</v>
       </c>
@@ -4979,7 +4954,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="29" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:89">
       <c r="B29" s="37"/>
       <c r="C29" s="26">
         <v>24</v>
@@ -4995,38 +4970,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A2:AA24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5037,7 +5010,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5048,12 +5021,12 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>88</v>
@@ -5062,7 +5035,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27">
       <c r="B7" s="6"/>
       <c r="C7" s="8" t="s">
         <v>166</v>
@@ -5074,7 +5047,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
         <v>190</v>
@@ -5086,15 +5059,15 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:27">
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27">
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27">
       <c r="B12" s="5"/>
       <c r="C12" t="s">
         <v>200</v>
@@ -5103,7 +5076,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27">
       <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
@@ -5180,7 +5153,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:27">
       <c r="A14" s="6"/>
       <c r="C14" s="30" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
@@ -5259,7 +5232,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:27">
       <c r="A15" s="6"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -5286,7 +5259,7 @@
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4">
       <c r="B17" s="34" t="s">
         <v>202</v>
       </c>
@@ -5297,7 +5270,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4">
       <c r="B18" s="35" t="s">
         <v>267</v>
       </c>
@@ -5308,7 +5281,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4">
       <c r="B19" s="36" t="s">
         <v>268</v>
       </c>
@@ -5319,7 +5292,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4">
       <c r="B20" s="36"/>
       <c r="C20" s="26">
         <v>5</v>
@@ -5328,7 +5301,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:4">
       <c r="B21" s="37"/>
       <c r="C21" s="26">
         <v>6</v>
@@ -5337,7 +5310,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:4">
       <c r="B22" s="38" t="s">
         <v>269</v>
       </c>
@@ -5348,7 +5321,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:4">
       <c r="B23" s="36" t="s">
         <v>270</v>
       </c>
@@ -5359,7 +5332,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:4">
       <c r="B24" s="37"/>
       <c r="C24" s="26">
         <v>24</v>
@@ -5375,44 +5348,42 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:AJ28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:36">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5423,7 +5394,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:36">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5434,12 +5405,12 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:36">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:36">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>199</v>
@@ -5448,7 +5419,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:36">
       <c r="B7" s="6"/>
       <c r="C7" s="8" t="s">
         <v>201</v>
@@ -5457,7 +5428,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:36">
       <c r="B8" s="6"/>
       <c r="C8" s="7">
         <v>0</v>
@@ -5466,15 +5437,15 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:36">
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:36">
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:36">
       <c r="B12" s="5"/>
       <c r="C12" t="s">
         <v>200</v>
@@ -5499,7 +5470,7 @@
       <c r="AI12" s="14"/>
       <c r="AJ12" s="15"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:36">
       <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
@@ -5603,7 +5574,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:36">
       <c r="A14" s="6"/>
       <c r="C14" s="30" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
@@ -5709,7 +5680,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:36">
       <c r="A15" s="6"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -5773,7 +5744,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:36">
       <c r="A16" s="6"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -5837,7 +5808,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:36">
       <c r="A17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -5901,7 +5872,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:36">
       <c r="A18" s="6"/>
       <c r="D18" s="7" t="s">
         <v>85</v>
@@ -6003,7 +5974,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:36">
       <c r="A19" s="6"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -6067,7 +6038,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:36">
       <c r="A20" s="6"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -6131,7 +6102,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:36">
       <c r="A21" s="6"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -6167,7 +6138,7 @@
       <c r="AI21" s="9"/>
       <c r="AJ21" s="9"/>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:36">
       <c r="B23" s="34" t="s">
         <v>202</v>
       </c>
@@ -6175,7 +6146,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:36">
       <c r="B24" s="26">
         <v>0</v>
       </c>
@@ -6183,7 +6154,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:36">
       <c r="B25" s="26">
         <v>1</v>
       </c>
@@ -6191,7 +6162,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:36">
       <c r="B26" s="26">
         <v>2</v>
       </c>
@@ -6199,7 +6170,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:36">
       <c r="B27" s="39">
         <v>3</v>
       </c>
@@ -6207,7 +6178,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:36">
       <c r="B28" s="39">
         <v>4</v>
       </c>
@@ -6217,8 +6188,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0400-000000000000}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
       <formula1>"0,1,2"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6227,7 +6198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:Y26"/>
   <sheetViews>
@@ -6235,32 +6206,32 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6271,7 +6242,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -6282,12 +6253,12 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:25">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:25">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>206</v>
@@ -6296,7 +6267,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:25">
       <c r="B7" s="6"/>
       <c r="C7" s="8" t="s">
         <v>201</v>
@@ -6305,7 +6276,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:25">
       <c r="B8" s="6"/>
       <c r="C8" s="7">
         <v>0</v>
@@ -6314,15 +6285,15 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25">
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:25">
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:25">
       <c r="B12" s="5"/>
       <c r="C12" t="s">
         <v>10</v>
@@ -6331,7 +6302,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:25">
       <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
@@ -6402,7 +6373,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:25">
       <c r="A14" s="6"/>
       <c r="C14" s="30" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
@@ -6475,7 +6446,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:25">
       <c r="A15" s="6"/>
       <c r="D15" s="7" t="s">
         <v>85</v>
@@ -6544,7 +6515,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:25">
       <c r="A16" s="6"/>
       <c r="D16" s="7" t="s">
         <v>85</v>
@@ -6613,7 +6584,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:25">
       <c r="A17" s="6"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -6638,7 +6609,7 @@
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:25">
       <c r="B21" s="34" t="s">
         <v>202</v>
       </c>
@@ -6646,7 +6617,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:25">
       <c r="B22" s="26">
         <v>0</v>
       </c>
@@ -6654,7 +6625,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:25">
       <c r="B23" s="26">
         <v>1</v>
       </c>
@@ -6662,7 +6633,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:25">
       <c r="B24" s="26">
         <v>2</v>
       </c>
@@ -6670,7 +6641,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:25">
       <c r="B25" s="39">
         <v>3</v>
       </c>
@@ -6678,7 +6649,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:25">
       <c r="B26" s="39">
         <v>4</v>
       </c>
@@ -6689,7 +6660,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
       <formula1>"0,1,2"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6698,7 +6669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A2:I40"/>
   <sheetViews>
@@ -6706,23 +6677,23 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="21.625" customWidth="1"/>
-    <col min="5" max="6" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6733,7 +6704,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -6744,12 +6715,12 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:6" ht="15.75" thickBot="1">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>208</v>
@@ -6761,7 +6732,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6">
       <c r="B7" s="6"/>
       <c r="C7" t="s">
         <v>168</v>
@@ -6773,7 +6744,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6">
       <c r="B8" s="6"/>
       <c r="C8" t="s">
         <v>171</v>
@@ -6785,7 +6756,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6">
       <c r="B9" s="6"/>
       <c r="C9" t="s">
         <v>173</v>
@@ -6797,7 +6768,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6">
       <c r="B10" s="6"/>
       <c r="E10" s="19" t="s">
         <v>175</v>
@@ -6806,7 +6777,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:6">
       <c r="B11" s="6"/>
       <c r="E11" s="19" t="s">
         <v>176</v>
@@ -6815,7 +6786,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:6" ht="15.75" thickBot="1">
       <c r="B12" s="6"/>
       <c r="E12" s="21" t="s">
         <v>177</v>
@@ -6824,18 +6795,18 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:6">
       <c r="B13" s="6"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:6">
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:6">
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9">
       <c r="B17" s="5"/>
       <c r="C17" t="s">
         <v>10</v>
@@ -6844,7 +6815,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9">
       <c r="C18" s="6" t="s">
         <v>12</v>
       </c>
@@ -6859,7 +6830,7 @@
       <c r="H18" s="23"/>
       <c r="I18" s="24"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9">
       <c r="A19" s="6"/>
       <c r="C19" s="30" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
@@ -6876,7 +6847,7 @@
       <c r="H19" s="23"/>
       <c r="I19" s="24"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9">
       <c r="A20" s="6"/>
       <c r="D20" s="7" t="s">
         <v>172</v>
@@ -6889,7 +6860,7 @@
       <c r="H20" s="23"/>
       <c r="I20" s="24"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9">
       <c r="A21" s="6"/>
       <c r="D21" s="7" t="s">
         <v>174</v>
@@ -6902,7 +6873,7 @@
       <c r="H21" s="23"/>
       <c r="I21" s="24"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9">
       <c r="A22" s="6"/>
       <c r="D22" s="7" t="s">
         <v>175</v>
@@ -6915,7 +6886,7 @@
       <c r="H22" s="23"/>
       <c r="I22" s="24"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9">
       <c r="A23" s="6"/>
       <c r="D23" s="7" t="s">
         <v>176</v>
@@ -6928,7 +6899,7 @@
       <c r="H23" s="23"/>
       <c r="I23" s="24"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9">
       <c r="A24" s="6"/>
       <c r="D24" s="7" t="s">
         <v>177</v>
@@ -6941,7 +6912,7 @@
       <c r="H24" s="23"/>
       <c r="I24" s="24"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9">
       <c r="A25" s="6"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -6950,7 +6921,7 @@
       <c r="H25" s="23"/>
       <c r="I25" s="24"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9">
       <c r="A26" s="6"/>
       <c r="B26" t="s">
         <v>215</v>
@@ -6962,7 +6933,7 @@
       <c r="H26" s="23"/>
       <c r="I26" s="24"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9">
       <c r="A27" s="6"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
@@ -6971,7 +6942,7 @@
       <c r="H27" s="23"/>
       <c r="I27" s="24"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9">
       <c r="A28" s="6"/>
       <c r="B28" t="s">
         <v>187</v>
@@ -6983,17 +6954,17 @@
       <c r="H28" s="23"/>
       <c r="I28" s="24"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9">
       <c r="B29" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9">
       <c r="B30" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:4">
       <c r="B33" s="34" t="s">
         <v>202</v>
       </c>
@@ -7004,7 +6975,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:4">
       <c r="B34" s="35" t="s">
         <v>267</v>
       </c>
@@ -7015,7 +6986,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:4">
       <c r="B35" s="36" t="s">
         <v>268</v>
       </c>
@@ -7026,7 +6997,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:4">
       <c r="B36" s="36"/>
       <c r="C36" s="26">
         <v>5</v>
@@ -7035,7 +7006,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:4">
       <c r="B37" s="37"/>
       <c r="C37" s="26">
         <v>6</v>
@@ -7044,7 +7015,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:4">
       <c r="B38" s="38" t="s">
         <v>269</v>
       </c>
@@ -7055,7 +7026,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:4">
       <c r="B39" s="36" t="s">
         <v>270</v>
       </c>
@@ -7066,7 +7037,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:4">
       <c r="B40" s="37"/>
       <c r="C40" s="26">
         <v>24</v>
@@ -7082,7 +7053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A2:I37"/>
   <sheetViews>
@@ -7090,23 +7061,23 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="21.625" customWidth="1"/>
-    <col min="5" max="6" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7117,7 +7088,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -7128,12 +7099,12 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:6" ht="15.75" thickBot="1">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>210</v>
@@ -7145,7 +7116,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6">
       <c r="B7" s="6"/>
       <c r="C7" t="s">
         <v>168</v>
@@ -7157,7 +7128,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6">
       <c r="B8" s="6"/>
       <c r="C8" t="s">
         <v>171</v>
@@ -7169,7 +7140,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6">
       <c r="B9" s="6"/>
       <c r="C9" t="s">
         <v>173</v>
@@ -7181,7 +7152,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:6" ht="15.75" thickBot="1">
       <c r="B10" s="6"/>
       <c r="E10" s="21" t="s">
         <v>175</v>
@@ -7190,7 +7161,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:6">
       <c r="B11" s="6"/>
       <c r="E11" s="25" t="s">
         <v>176</v>
@@ -7199,7 +7170,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:6">
       <c r="B12" s="6"/>
       <c r="E12" s="7" t="s">
         <v>177</v>
@@ -7208,18 +7179,18 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:6">
       <c r="B13" s="6"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:6">
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:6">
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9">
       <c r="B17" s="5"/>
       <c r="C17" t="s">
         <v>10</v>
@@ -7228,7 +7199,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9">
       <c r="C18" s="6" t="s">
         <v>12</v>
       </c>
@@ -7243,7 +7214,7 @@
       <c r="H18" s="23"/>
       <c r="I18" s="24"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9">
       <c r="A19" s="6"/>
       <c r="C19" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
@@ -7260,7 +7231,7 @@
       <c r="H19" s="23"/>
       <c r="I19" s="24"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9">
       <c r="A20" s="6"/>
       <c r="D20" s="7" t="s">
         <v>177</v>
@@ -7273,7 +7244,7 @@
       <c r="H20" s="23"/>
       <c r="I20" s="24"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9">
       <c r="A21" s="6"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -7282,7 +7253,7 @@
       <c r="H21" s="23"/>
       <c r="I21" s="24"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9">
       <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>215</v>
@@ -7294,7 +7265,7 @@
       <c r="H22" s="23"/>
       <c r="I22" s="24"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9">
       <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>214</v>
@@ -7306,7 +7277,7 @@
       <c r="H23" s="23"/>
       <c r="I23" s="24"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9">
       <c r="A24" s="6"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -7315,22 +7286,22 @@
       <c r="H24" s="23"/>
       <c r="I24" s="24"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9">
       <c r="B25" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9">
       <c r="B26" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9">
       <c r="B27" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9">
       <c r="B30" s="34" t="s">
         <v>202</v>
       </c>
@@ -7341,7 +7312,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9">
       <c r="B31" s="35" t="s">
         <v>267</v>
       </c>
@@ -7352,7 +7323,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9">
       <c r="B32" s="36" t="s">
         <v>268</v>
       </c>
@@ -7363,7 +7334,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:4">
       <c r="B33" s="36"/>
       <c r="C33" s="26">
         <v>5</v>
@@ -7372,7 +7343,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:4">
       <c r="B34" s="37"/>
       <c r="C34" s="26">
         <v>6</v>
@@ -7381,7 +7352,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:4">
       <c r="B35" s="38" t="s">
         <v>269</v>
       </c>
@@ -7392,7 +7363,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:4">
       <c r="B36" s="36" t="s">
         <v>270</v>
       </c>
@@ -7403,7 +7374,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:4">
       <c r="B37" s="37"/>
       <c r="C37" s="26">
         <v>24</v>
@@ -7419,7 +7390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A2:I20"/>
   <sheetViews>
@@ -7427,22 +7398,22 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="21.625" customWidth="1"/>
-    <col min="5" max="6" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7453,7 +7424,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -7464,32 +7435,32 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9">
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9">
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9">
       <c r="B11" s="5"/>
       <c r="C11" t="s">
         <v>10</v>
@@ -7498,7 +7469,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9">
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
@@ -7510,7 +7481,7 @@
       <c r="H12" s="23"/>
       <c r="I12" s="24"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9">
       <c r="A13" s="6"/>
       <c r="C13" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
@@ -7524,7 +7495,7 @@
       <c r="H13" s="23"/>
       <c r="I13" s="24"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9">
       <c r="A14" s="6"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -7533,7 +7504,7 @@
       <c r="H14" s="23"/>
       <c r="I14" s="24"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9">
       <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>213</v>
@@ -7545,22 +7516,22 @@
       <c r="H15" s="23"/>
       <c r="I15" s="24"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:2">
       <c r="B20" t="s">
         <v>188</v>
       </c>

--- a/sample/ExcelMacro/kabuSTATION_API_function_sample.xlsx
+++ b/sample/ExcelMacro/kabuSTATION_API_function_sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fsv1\Develop\Vendor\JOL\プロジェクト\202012_kabuS12月リリース\70.リリース\GitHubリリース\function_sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,11 +18,12 @@
     <sheet name="注文約定照会" sheetId="5" r:id="rId4"/>
     <sheet name="銘柄情報" sheetId="4" r:id="rId5"/>
     <sheet name="残高照会" sheetId="6" r:id="rId6"/>
-    <sheet name="銘柄登録" sheetId="7" r:id="rId7"/>
-    <sheet name="銘柄登録解除" sheetId="8" r:id="rId8"/>
-    <sheet name="銘柄登録全解除" sheetId="9" r:id="rId9"/>
-    <sheet name="先物銘柄コード取得" sheetId="10" r:id="rId10"/>
-    <sheet name="オプション銘柄コード取得" sheetId="11" r:id="rId11"/>
+    <sheet name="詳細ランキング" sheetId="12" r:id="rId7"/>
+    <sheet name="銘柄登録" sheetId="7" r:id="rId8"/>
+    <sheet name="銘柄登録解除" sheetId="8" r:id="rId9"/>
+    <sheet name="銘柄登録全解除" sheetId="9" r:id="rId10"/>
+    <sheet name="先物銘柄コード取得" sheetId="10" r:id="rId11"/>
+    <sheet name="オプション銘柄コード取得" sheetId="11" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">注文約定照会!$B$5:$J$8</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="390">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -1638,6 +1639,602 @@
   </si>
   <si>
     <t>※いずれのパラメータの指定が必要です。</t>
+  </si>
+  <si>
+    <t>種別</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市場</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>種別</t>
+    <rPh sb="0" eb="2">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>市場</t>
+    <rPh sb="0" eb="2">
+      <t>シジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>順位</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トレンド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平均順位</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>銘柄コード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">銘柄名称    </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>現在値</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前日比</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>騰落率（%）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>時刻</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>売買高</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>売買代金</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>市場名</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業種名</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xxx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レスポンスボディ（種別：TICK回数）</t>
+    <rPh sb="9" eb="11">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>市場</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>順位</t>
+  </si>
+  <si>
+    <t>TICK回数</t>
+  </si>
+  <si>
+    <t>UP</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DOWN</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>騰落率（%）</t>
+  </si>
+  <si>
+    <t>業種名</t>
+  </si>
+  <si>
+    <t>レスポンスボディ（種別：売買高急増）</t>
+    <rPh sb="9" eb="11">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>バイバイダカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キュウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>売買高急増（％）</t>
+  </si>
+  <si>
+    <t>レスポンスボディ（種別：売買代金急増）</t>
+    <rPh sb="9" eb="11">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バイバイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ダイキン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キュウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>代金急増（％）</t>
+  </si>
+  <si>
+    <t>レスポンスボディ（種別：信用売残増、信用売残減、信用買残増、信用買残減、信用高倍率、信用低倍率）</t>
+    <rPh sb="9" eb="11">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>シンヨウウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ゾウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シンヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シンヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ゾウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シンヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シンヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バイリツ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シンヨウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>テイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>売残（千株）</t>
+  </si>
+  <si>
+    <t>売残前週比</t>
+  </si>
+  <si>
+    <t>買残（千株）</t>
+  </si>
+  <si>
+    <t>買残前週比</t>
+  </si>
+  <si>
+    <t>倍率</t>
+  </si>
+  <si>
+    <t>レスポンスボディ（種別：業種別値上がり率、業種別値下がり率）</t>
+    <rPh sb="9" eb="11">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ギョウシュ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ネア</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ネサ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業種コード</t>
+  </si>
+  <si>
+    <t>時刻</t>
+  </si>
+  <si>
+    <t>定義値</t>
+    <rPh sb="0" eb="3">
+      <t>テイギチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>値上がり率（デフォルト）</t>
+    <rPh sb="0" eb="2">
+      <t>ネア</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>値下がり率</t>
+    <rPh sb="0" eb="2">
+      <t>ネサ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>売買高上位</t>
+    <rPh sb="0" eb="3">
+      <t>バイバイダカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>売買代金</t>
+    <rPh sb="0" eb="2">
+      <t>バイバイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダイキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TICK回数</t>
+    <rPh sb="4" eb="6">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>売買高急増</t>
+    <rPh sb="0" eb="3">
+      <t>バイバイダカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キュウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>売買代金急増</t>
+    <rPh sb="0" eb="2">
+      <t>バイバイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダイキン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キュウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>信用売残増</t>
+    <rPh sb="0" eb="2">
+      <t>シンヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>信用売残減</t>
+    <rPh sb="0" eb="2">
+      <t>シンヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>信用買残増</t>
+    <rPh sb="0" eb="2">
+      <t>シンヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>信用買残減</t>
+    <rPh sb="0" eb="2">
+      <t>シンヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>信用高倍率</t>
+    <rPh sb="0" eb="2">
+      <t>シンヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>信用低倍率</t>
+    <rPh sb="0" eb="2">
+      <t>シンヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>テイバイリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業種別値上がり率</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウシュ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ネア</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業種別値下がり率</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウシュ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ネサ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全市場（デフォルト）</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンシジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東証全体</t>
+    <rPh sb="0" eb="2">
+      <t>トウショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>T1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東証一部</t>
+    <rPh sb="0" eb="2">
+      <t>トウショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>T2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東証二部</t>
+    <rPh sb="0" eb="2">
+      <t>トウショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マザーズ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JQ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JASDAQ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名証</t>
+    <rPh sb="0" eb="2">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>札証</t>
+    <rPh sb="0" eb="2">
+      <t>サッショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>詳細ランキングを取得する</t>
+  </si>
+  <si>
+    <t>RANKING</t>
+  </si>
+  <si>
+    <t>=RANKING(C9,D9)</t>
+  </si>
+  <si>
+    <t>レスポンスボディ（種別：値上がり率、値下がり率、売買高上位、売買代金）</t>
+    <rPh sb="9" eb="11">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ネア</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ネサ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>バイバイダカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バイバイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ダイキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数入力する際、「"」ダブルクォーテーションで囲む必要があります。</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +2244,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1726,6 +2323,27 @@
       <sz val="11"/>
       <color rgb="FF263238"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -2009,7 +2627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2156,16 +2774,37 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2174,17 +2813,23 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2198,38 +2843,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2680,6 +3341,158 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A2:I20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="5"/>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="6"/>
+      <c r="C13" t="str">
+        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
+        <v>(D13に関数入力)</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="6"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="6"/>
+      <c r="B15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -2889,7 +3702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G19"/>
   <sheetViews>
@@ -5359,7 +6172,9 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:AK319"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5508,80 +6323,80 @@
       <c r="C11" s="72" t="s">
         <v>306</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="81" t="s">
         <v>300</v>
       </c>
-      <c r="E11" s="87"/>
-      <c r="F11" s="86" t="s">
+      <c r="E11" s="82"/>
+      <c r="F11" s="81" t="s">
         <v>301</v>
       </c>
-      <c r="G11" s="87"/>
+      <c r="G11" s="82"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="80" t="s">
         <v>280</v>
       </c>
       <c r="C12" s="48">
         <v>0</v>
       </c>
-      <c r="D12" s="98" t="s">
+      <c r="D12" s="83" t="s">
         <v>204</v>
       </c>
-      <c r="E12" s="99"/>
-      <c r="F12" s="88" t="s">
+      <c r="E12" s="84"/>
+      <c r="F12" s="97" t="s">
         <v>302</v>
       </c>
-      <c r="G12" s="89"/>
+      <c r="G12" s="98"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="102"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="48">
         <v>1</v>
       </c>
-      <c r="D13" s="98" t="s">
+      <c r="D13" s="83" t="s">
         <v>203</v>
       </c>
-      <c r="E13" s="99"/>
-      <c r="F13" s="90" t="s">
+      <c r="E13" s="84"/>
+      <c r="F13" s="99" t="s">
         <v>309</v>
       </c>
-      <c r="G13" s="91"/>
+      <c r="G13" s="100"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="102"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="48">
         <v>2</v>
       </c>
-      <c r="D14" s="98" t="s">
+      <c r="D14" s="83" t="s">
         <v>202</v>
       </c>
-      <c r="E14" s="99"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="91"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="100"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="102"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="49">
         <v>3</v>
       </c>
-      <c r="D15" s="98" t="s">
+      <c r="D15" s="83" t="s">
         <v>267</v>
       </c>
-      <c r="E15" s="99"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="91"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="100"/>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="102"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="49">
         <v>4</v>
       </c>
-      <c r="D16" s="98" t="s">
+      <c r="D16" s="83" t="s">
         <v>268</v>
       </c>
-      <c r="E16" s="99"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="93"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="94"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="65" t="s">
@@ -5636,30 +6451,30 @@
       <c r="G20" s="69"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="100" t="s">
+      <c r="B21" s="78" t="s">
         <v>289</v>
       </c>
       <c r="C21" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="D21" s="98" t="s">
+      <c r="D21" s="83" t="s">
         <v>307</v>
       </c>
-      <c r="E21" s="99"/>
+      <c r="E21" s="84"/>
       <c r="F21" s="73" t="s">
         <v>302</v>
       </c>
       <c r="G21" s="74"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="100"/>
+      <c r="B22" s="78"/>
       <c r="C22" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="D22" s="98" t="s">
+      <c r="D22" s="83" t="s">
         <v>308</v>
       </c>
-      <c r="E22" s="99"/>
+      <c r="E22" s="84"/>
       <c r="F22" s="75" t="s">
         <v>310</v>
       </c>
@@ -5682,130 +6497,130 @@
       <c r="G23" s="71"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="100" t="s">
+      <c r="B24" s="78" t="s">
         <v>292</v>
       </c>
       <c r="C24" s="47">
         <v>1</v>
       </c>
-      <c r="D24" s="96" t="s">
+      <c r="D24" s="85" t="s">
         <v>290</v>
       </c>
-      <c r="E24" s="97"/>
-      <c r="F24" s="94" t="s">
+      <c r="E24" s="86"/>
+      <c r="F24" s="91" t="s">
         <v>302</v>
       </c>
-      <c r="G24" s="95"/>
+      <c r="G24" s="92"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="100"/>
+      <c r="B25" s="78"/>
       <c r="C25" s="47">
         <v>2</v>
       </c>
-      <c r="D25" s="84" t="s">
+      <c r="D25" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="E25" s="85"/>
-      <c r="F25" s="78" t="s">
+      <c r="E25" s="88"/>
+      <c r="F25" s="95" t="s">
         <v>309</v>
       </c>
-      <c r="G25" s="79"/>
+      <c r="G25" s="96"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="100"/>
+      <c r="B26" s="78"/>
       <c r="C26" s="47">
         <v>3</v>
       </c>
-      <c r="D26" s="84" t="s">
+      <c r="D26" s="87" t="s">
         <v>282</v>
       </c>
-      <c r="E26" s="85"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="79"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="96"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="100"/>
+      <c r="B27" s="78"/>
       <c r="C27" s="47">
         <v>4</v>
       </c>
-      <c r="D27" s="84" t="s">
+      <c r="D27" s="87" t="s">
         <v>283</v>
       </c>
-      <c r="E27" s="85"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="79"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="96"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="100"/>
+      <c r="B28" s="78"/>
       <c r="C28" s="47">
         <v>5</v>
       </c>
-      <c r="D28" s="84" t="s">
+      <c r="D28" s="87" t="s">
         <v>284</v>
       </c>
-      <c r="E28" s="85"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="83"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="90"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="100" t="s">
+      <c r="B29" s="78" t="s">
         <v>293</v>
       </c>
       <c r="C29" s="47">
         <v>1</v>
       </c>
-      <c r="D29" s="96" t="s">
+      <c r="D29" s="85" t="s">
         <v>291</v>
       </c>
-      <c r="E29" s="97"/>
-      <c r="F29" s="94" t="s">
+      <c r="E29" s="86"/>
+      <c r="F29" s="91" t="s">
         <v>302</v>
       </c>
-      <c r="G29" s="95"/>
+      <c r="G29" s="92"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="100"/>
+      <c r="B30" s="78"/>
       <c r="C30" s="47">
         <v>2</v>
       </c>
-      <c r="D30" s="84" t="s">
+      <c r="D30" s="87" t="s">
         <v>285</v>
       </c>
-      <c r="E30" s="85"/>
-      <c r="F30" s="78" t="s">
+      <c r="E30" s="88"/>
+      <c r="F30" s="95" t="s">
         <v>309</v>
       </c>
-      <c r="G30" s="79"/>
+      <c r="G30" s="96"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="101" t="s">
+      <c r="B31" s="79" t="s">
         <v>294</v>
       </c>
       <c r="C31" s="47">
         <v>2</v>
       </c>
-      <c r="D31" s="84" t="s">
+      <c r="D31" s="87" t="s">
         <v>286</v>
       </c>
-      <c r="E31" s="85"/>
-      <c r="F31" s="80" t="s">
+      <c r="E31" s="88"/>
+      <c r="F31" s="101" t="s">
         <v>302</v>
       </c>
-      <c r="G31" s="81"/>
+      <c r="G31" s="102"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="101"/>
+      <c r="B32" s="79"/>
       <c r="C32" s="47">
         <v>3</v>
       </c>
-      <c r="D32" s="84" t="s">
+      <c r="D32" s="87" t="s">
         <v>287</v>
       </c>
-      <c r="E32" s="85"/>
-      <c r="F32" s="82" t="s">
+      <c r="E32" s="88"/>
+      <c r="F32" s="89" t="s">
         <v>309</v>
       </c>
-      <c r="G32" s="83"/>
+      <c r="G32" s="90"/>
     </row>
     <row r="33" spans="1:36">
       <c r="B33" s="6"/>
@@ -16405,43 +17220,43 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="5">
@@ -17326,6 +18141,1512 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:T64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" style="107" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="107" customWidth="1"/>
+    <col min="3" max="3" width="17" style="107" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="107" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="107" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="107" customWidth="1"/>
+    <col min="7" max="7" width="12" style="107" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="107" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="107" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="107" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" style="107" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" style="107" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" style="107" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="107" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="107" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" style="107" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="107" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="10.42578125" style="107" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="107"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="104" t="s">
+        <v>385</v>
+      </c>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="106"/>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="104" t="s">
+        <v>386</v>
+      </c>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="106"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="108" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="109"/>
+      <c r="C6" s="109" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="109"/>
+      <c r="C7" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="109"/>
+      <c r="C8" s="123">
+        <v>1</v>
+      </c>
+      <c r="D8" s="123" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="C10" s="72" t="s">
+        <v>353</v>
+      </c>
+      <c r="D10" s="124" t="s">
+        <v>269</v>
+      </c>
+      <c r="E10" s="125"/>
+      <c r="H10" s="72" t="s">
+        <v>353</v>
+      </c>
+      <c r="I10" s="124" t="s">
+        <v>269</v>
+      </c>
+      <c r="J10" s="125"/>
+      <c r="K10" s="127" t="s">
+        <v>301</v>
+      </c>
+      <c r="L10" s="127"/>
+      <c r="M10" s="127"/>
+    </row>
+    <row r="11" spans="2:13" ht="15.75">
+      <c r="B11" s="115" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" s="116">
+        <v>1</v>
+      </c>
+      <c r="D11" s="117" t="s">
+        <v>354</v>
+      </c>
+      <c r="E11" s="106"/>
+      <c r="G11" s="121" t="s">
+        <v>317</v>
+      </c>
+      <c r="H11" s="122" t="s">
+        <v>315</v>
+      </c>
+      <c r="I11" s="117" t="s">
+        <v>369</v>
+      </c>
+      <c r="J11" s="106"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="106"/>
+    </row>
+    <row r="12" spans="2:13" ht="15.75">
+      <c r="B12" s="118"/>
+      <c r="C12" s="116">
+        <v>2</v>
+      </c>
+      <c r="D12" s="117" t="s">
+        <v>355</v>
+      </c>
+      <c r="E12" s="106"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="122" t="s">
+        <v>370</v>
+      </c>
+      <c r="I12" s="117" t="s">
+        <v>371</v>
+      </c>
+      <c r="J12" s="106"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="106"/>
+    </row>
+    <row r="13" spans="2:13" ht="15.75">
+      <c r="B13" s="118"/>
+      <c r="C13" s="116">
+        <v>3</v>
+      </c>
+      <c r="D13" s="117" t="s">
+        <v>356</v>
+      </c>
+      <c r="E13" s="106"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="122" t="s">
+        <v>372</v>
+      </c>
+      <c r="I13" s="117" t="s">
+        <v>373</v>
+      </c>
+      <c r="J13" s="106"/>
+      <c r="K13" s="126" t="s">
+        <v>389</v>
+      </c>
+      <c r="L13" s="105"/>
+      <c r="M13" s="106"/>
+    </row>
+    <row r="14" spans="2:13" ht="15.75">
+      <c r="B14" s="118"/>
+      <c r="C14" s="116">
+        <v>4</v>
+      </c>
+      <c r="D14" s="117" t="s">
+        <v>357</v>
+      </c>
+      <c r="E14" s="106"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="122" t="s">
+        <v>374</v>
+      </c>
+      <c r="I14" s="117" t="s">
+        <v>375</v>
+      </c>
+      <c r="J14" s="106"/>
+      <c r="K14" s="126" t="s">
+        <v>389</v>
+      </c>
+      <c r="L14" s="105"/>
+      <c r="M14" s="106"/>
+    </row>
+    <row r="15" spans="2:13" ht="15.75">
+      <c r="B15" s="118"/>
+      <c r="C15" s="116">
+        <v>5</v>
+      </c>
+      <c r="D15" s="117" t="s">
+        <v>358</v>
+      </c>
+      <c r="E15" s="106"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="122" t="s">
+        <v>376</v>
+      </c>
+      <c r="I15" s="117" t="s">
+        <v>377</v>
+      </c>
+      <c r="J15" s="106"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="106"/>
+    </row>
+    <row r="16" spans="2:13" ht="15.75">
+      <c r="B16" s="118"/>
+      <c r="C16" s="116">
+        <v>6</v>
+      </c>
+      <c r="D16" s="117" t="s">
+        <v>359</v>
+      </c>
+      <c r="E16" s="106"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="122" t="s">
+        <v>378</v>
+      </c>
+      <c r="I16" s="117" t="s">
+        <v>379</v>
+      </c>
+      <c r="J16" s="106"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="106"/>
+    </row>
+    <row r="17" spans="2:18" ht="15.75">
+      <c r="B17" s="118"/>
+      <c r="C17" s="116">
+        <v>7</v>
+      </c>
+      <c r="D17" s="117" t="s">
+        <v>360</v>
+      </c>
+      <c r="E17" s="106"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="122" t="s">
+        <v>380</v>
+      </c>
+      <c r="I17" s="117" t="s">
+        <v>381</v>
+      </c>
+      <c r="J17" s="106"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="106"/>
+    </row>
+    <row r="18" spans="2:18" ht="15.75">
+      <c r="B18" s="118"/>
+      <c r="C18" s="116">
+        <v>8</v>
+      </c>
+      <c r="D18" s="117" t="s">
+        <v>361</v>
+      </c>
+      <c r="E18" s="106"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="122" t="s">
+        <v>382</v>
+      </c>
+      <c r="I18" s="117" t="s">
+        <v>197</v>
+      </c>
+      <c r="J18" s="106"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="106"/>
+    </row>
+    <row r="19" spans="2:18" ht="15.75">
+      <c r="B19" s="119"/>
+      <c r="C19" s="116">
+        <v>9</v>
+      </c>
+      <c r="D19" s="117" t="s">
+        <v>362</v>
+      </c>
+      <c r="E19" s="106"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="122" t="s">
+        <v>383</v>
+      </c>
+      <c r="I19" s="117" t="s">
+        <v>384</v>
+      </c>
+      <c r="J19" s="106"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="106"/>
+    </row>
+    <row r="20" spans="2:18" ht="15.75">
+      <c r="B20" s="119"/>
+      <c r="C20" s="116">
+        <v>10</v>
+      </c>
+      <c r="D20" s="117" t="s">
+        <v>363</v>
+      </c>
+      <c r="E20" s="106"/>
+    </row>
+    <row r="21" spans="2:18" ht="15.75">
+      <c r="B21" s="119"/>
+      <c r="C21" s="116">
+        <v>11</v>
+      </c>
+      <c r="D21" s="117" t="s">
+        <v>364</v>
+      </c>
+      <c r="E21" s="106"/>
+    </row>
+    <row r="22" spans="2:18" ht="15.75">
+      <c r="B22" s="119"/>
+      <c r="C22" s="116">
+        <v>12</v>
+      </c>
+      <c r="D22" s="117" t="s">
+        <v>365</v>
+      </c>
+      <c r="E22" s="106"/>
+    </row>
+    <row r="23" spans="2:18" ht="15.75">
+      <c r="B23" s="119"/>
+      <c r="C23" s="116">
+        <v>13</v>
+      </c>
+      <c r="D23" s="117" t="s">
+        <v>366</v>
+      </c>
+      <c r="E23" s="106"/>
+    </row>
+    <row r="24" spans="2:18" ht="15.75">
+      <c r="B24" s="119"/>
+      <c r="C24" s="116">
+        <v>14</v>
+      </c>
+      <c r="D24" s="117" t="s">
+        <v>367</v>
+      </c>
+      <c r="E24" s="106"/>
+    </row>
+    <row r="25" spans="2:18" ht="15.75">
+      <c r="B25" s="120"/>
+      <c r="C25" s="116">
+        <v>15</v>
+      </c>
+      <c r="D25" s="117" t="s">
+        <v>368</v>
+      </c>
+      <c r="E25" s="106"/>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="B28" s="108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18">
+      <c r="D29" s="108"/>
+    </row>
+    <row r="30" spans="2:18" ht="15.75">
+      <c r="C30" s="107" t="s">
+        <v>199</v>
+      </c>
+      <c r="D30" s="114" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="C31" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="P31" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q31" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="R31" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" ht="15.75">
+      <c r="C32" s="110" t="str">
+        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
+        <v>(D32に関数入力)</v>
+      </c>
+      <c r="D32" s="111" t="s">
+        <v>296</v>
+      </c>
+      <c r="E32" s="112" t="s">
+        <v>331</v>
+      </c>
+      <c r="F32" s="103">
+        <v>1</v>
+      </c>
+      <c r="G32" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="H32" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="I32" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="J32" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="K32" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="L32" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="M32" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="N32" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="O32" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="P32" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q32" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="R32" s="103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="3:20">
+      <c r="F33" s="103">
+        <v>2</v>
+      </c>
+      <c r="G33" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="H33" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="I33" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="J33" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="K33" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="L33" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="M33" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="N33" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="O33" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="P33" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q33" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="R33" s="103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="3:20">
+      <c r="F34" s="103">
+        <v>3</v>
+      </c>
+      <c r="G34" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="H34" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="I34" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="J34" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="K34" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="L34" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="M34" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="N34" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="O34" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="P34" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q34" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="R34" s="103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="3:20" ht="15.75">
+      <c r="J35" s="50"/>
+      <c r="K35" s="113"/>
+    </row>
+    <row r="36" spans="3:20" ht="15.75">
+      <c r="C36" s="107" t="s">
+        <v>199</v>
+      </c>
+      <c r="D36" s="114" t="s">
+        <v>332</v>
+      </c>
+      <c r="F36" s="50"/>
+      <c r="G36" s="113"/>
+    </row>
+    <row r="37" spans="3:20">
+      <c r="C37" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="P37" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="R37" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="S37" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="T37" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="38" spans="3:20" ht="15.75">
+      <c r="C38" s="110" t="str">
+        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
+        <v>(D38に関数入力)</v>
+      </c>
+      <c r="D38" s="111" t="s">
+        <v>296</v>
+      </c>
+      <c r="E38" s="112" t="s">
+        <v>331</v>
+      </c>
+      <c r="F38" s="103">
+        <v>1</v>
+      </c>
+      <c r="G38" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="H38" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="I38" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="J38" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="K38" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="L38" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="M38" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="N38" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="O38" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="P38" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q38" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="R38" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="S38" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="T38" s="103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="3:20">
+      <c r="F39" s="103">
+        <v>2</v>
+      </c>
+      <c r="G39" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="H39" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="I39" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="J39" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="K39" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="L39" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="M39" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="N39" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="O39" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="P39" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q39" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="R39" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="S39" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="T39" s="103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="3:20">
+      <c r="F40" s="103">
+        <v>3</v>
+      </c>
+      <c r="G40" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="H40" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="I40" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="J40" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="K40" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="L40" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="M40" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="N40" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="O40" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="P40" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q40" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="R40" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="S40" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="T40" s="103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="3:20">
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="50"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="50"/>
+    </row>
+    <row r="42" spans="3:20" ht="15.75">
+      <c r="C42" s="107" t="s">
+        <v>199</v>
+      </c>
+      <c r="D42" s="114" t="s">
+        <v>340</v>
+      </c>
+      <c r="F42" s="50"/>
+      <c r="G42" s="113"/>
+    </row>
+    <row r="43" spans="3:20">
+      <c r="C43" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="P43" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q43" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="R43" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="44" spans="3:20" ht="15.75">
+      <c r="C44" s="110" t="str">
+        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
+        <v>(D44に関数入力)</v>
+      </c>
+      <c r="D44" s="111" t="s">
+        <v>296</v>
+      </c>
+      <c r="E44" s="112" t="s">
+        <v>331</v>
+      </c>
+      <c r="F44" s="103">
+        <v>1</v>
+      </c>
+      <c r="G44" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="H44" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="I44" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="J44" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="K44" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="L44" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="M44" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="N44" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="O44" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="P44" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q44" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="R44" s="103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="3:20">
+      <c r="F45" s="103">
+        <v>2</v>
+      </c>
+      <c r="G45" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="H45" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="I45" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="J45" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="K45" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="L45" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="M45" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="N45" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="O45" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="P45" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q45" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="R45" s="103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="3:20">
+      <c r="F46" s="103">
+        <v>3</v>
+      </c>
+      <c r="G46" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="H46" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="I46" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="J46" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="K46" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="L46" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="M46" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="N46" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="O46" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="P46" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q46" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="R46" s="103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="3:20" ht="15.75">
+      <c r="C48" s="107" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" s="114" t="s">
+        <v>342</v>
+      </c>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="113"/>
+    </row>
+    <row r="49" spans="3:18">
+      <c r="C49" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="P49" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q49" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="R49" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" ht="15.75">
+      <c r="C50" s="110" t="str">
+        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
+        <v>(D50に関数入力)</v>
+      </c>
+      <c r="D50" s="111" t="s">
+        <v>296</v>
+      </c>
+      <c r="E50" s="112" t="s">
+        <v>331</v>
+      </c>
+      <c r="F50" s="103">
+        <v>1</v>
+      </c>
+      <c r="G50" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="H50" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="I50" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="J50" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="K50" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="L50" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="M50" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="N50" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="O50" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="P50" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q50" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="R50" s="103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18">
+      <c r="F51" s="103">
+        <v>2</v>
+      </c>
+      <c r="G51" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="H51" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="I51" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="J51" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="K51" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="L51" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="M51" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="N51" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="O51" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="P51" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q51" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="R51" s="103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18">
+      <c r="F52" s="103">
+        <v>3</v>
+      </c>
+      <c r="G52" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="H52" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="I52" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="J52" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="K52" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="L52" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="M52" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="N52" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="O52" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="P52" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q52" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="R52" s="103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18">
+      <c r="E53" s="50"/>
+    </row>
+    <row r="54" spans="3:18" ht="15.75">
+      <c r="C54" s="107" t="s">
+        <v>199</v>
+      </c>
+      <c r="D54" s="114" t="s">
+        <v>344</v>
+      </c>
+      <c r="E54" s="113"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="113"/>
+    </row>
+    <row r="55" spans="3:18">
+      <c r="C55" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O55" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="56" spans="3:18" ht="15.75">
+      <c r="C56" s="110" t="str">
+        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
+        <v>(D56に関数入力)</v>
+      </c>
+      <c r="D56" s="111" t="s">
+        <v>296</v>
+      </c>
+      <c r="E56" s="112" t="s">
+        <v>331</v>
+      </c>
+      <c r="F56" s="103">
+        <v>1</v>
+      </c>
+      <c r="G56" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="H56" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="I56" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="J56" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="K56" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="L56" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="M56" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="N56" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="O56" s="103" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="57" spans="3:18">
+      <c r="F57" s="103">
+        <v>2</v>
+      </c>
+      <c r="G57" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="H57" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="I57" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="J57" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="K57" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="L57" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="M57" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="N57" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="O57" s="103" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18">
+      <c r="F58" s="103">
+        <v>3</v>
+      </c>
+      <c r="G58" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="H58" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="I58" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="J58" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="K58" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="L58" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="M58" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="N58" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="O58" s="103" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" ht="15.75">
+      <c r="C60" s="107" t="s">
+        <v>199</v>
+      </c>
+      <c r="D60" s="114" t="s">
+        <v>350</v>
+      </c>
+      <c r="E60" s="113"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+    </row>
+    <row r="61" spans="3:18">
+      <c r="C61" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="N61" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" ht="15.75">
+      <c r="C62" s="110" t="str">
+        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
+        <v>(D62に関数入力)</v>
+      </c>
+      <c r="D62" s="111" t="s">
+        <v>296</v>
+      </c>
+      <c r="E62" s="112" t="s">
+        <v>331</v>
+      </c>
+      <c r="F62" s="103">
+        <v>1</v>
+      </c>
+      <c r="G62" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="H62" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="I62" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="J62" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="K62" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="L62" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="M62" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="N62" s="103" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18">
+      <c r="F63" s="103">
+        <v>2</v>
+      </c>
+      <c r="G63" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="H63" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="I63" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="J63" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="K63" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="L63" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="M63" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="N63" s="103" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18">
+      <c r="F64" s="103">
+        <v>3</v>
+      </c>
+      <c r="G64" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="H64" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="I64" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="J64" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="K64" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="L64" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="M64" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="N64" s="103" t="s">
+        <v>296</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:M10"/>
+  </mergeCells>
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
+      <formula1>$C$11:$C$25</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
+      <formula1>$H$11:$H$19</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A2:I40"/>
   <sheetViews>
@@ -17706,7 +20027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A2:I37"/>
@@ -18039,156 +20360,4 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet13"/>
-  <dimension ref="A2:I20"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:9">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11" s="5"/>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="6"/>
-      <c r="C13" t="str">
-        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
-        <v>(D13に関数入力)</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="6"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="6"/>
-      <c r="B15" t="s">
-        <v>211</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="B16" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/sample/ExcelMacro/kabuSTATION_API_function_sample.xlsx
+++ b/sample/ExcelMacro/kabuSTATION_API_function_sample.xlsx
@@ -5,28 +5,32 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fsv1\Develop\Vendor\JOL\プロジェクト\202104_開20-058-03_kabuS4月リリース\70.リリース\GitHubリリース\function_sample_完了\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12840" tabRatio="739"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12840" tabRatio="901"/>
   </bookViews>
   <sheets>
     <sheet name="注文取消" sheetId="1" r:id="rId1"/>
-    <sheet name="可能額" sheetId="2" r:id="rId2"/>
+    <sheet name="取引余力" sheetId="2" r:id="rId2"/>
     <sheet name="時価情報" sheetId="3" r:id="rId3"/>
-    <sheet name="注文約定照会" sheetId="5" r:id="rId4"/>
-    <sheet name="銘柄情報" sheetId="4" r:id="rId5"/>
-    <sheet name="残高照会" sheetId="6" r:id="rId6"/>
-    <sheet name="詳細ランキング" sheetId="12" r:id="rId7"/>
-    <sheet name="銘柄登録" sheetId="7" r:id="rId8"/>
-    <sheet name="銘柄登録解除" sheetId="8" r:id="rId9"/>
-    <sheet name="銘柄登録全解除" sheetId="9" r:id="rId10"/>
-    <sheet name="先物銘柄コード取得" sheetId="10" r:id="rId11"/>
-    <sheet name="オプション銘柄コード取得" sheetId="11" r:id="rId12"/>
+    <sheet name="銘柄情報" sheetId="13" r:id="rId4"/>
+    <sheet name="注文約定照会" sheetId="5" r:id="rId5"/>
+    <sheet name="残高照会" sheetId="14" r:id="rId6"/>
+    <sheet name="先物銘柄コード取得" sheetId="10" r:id="rId7"/>
+    <sheet name="オプション銘柄コード取得" sheetId="11" r:id="rId8"/>
+    <sheet name="詳細ランキング" sheetId="12" r:id="rId9"/>
+    <sheet name="為替情報" sheetId="15" r:id="rId10"/>
+    <sheet name="規制情報" sheetId="16" r:id="rId11"/>
+    <sheet name="優先市場" sheetId="17" r:id="rId12"/>
+    <sheet name="ソフトリミット" sheetId="18" r:id="rId13"/>
+    <sheet name="銘柄登録" sheetId="7" r:id="rId14"/>
+    <sheet name="銘柄登録解除" sheetId="8" r:id="rId15"/>
+    <sheet name="銘柄登録全解除" sheetId="9" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">注文約定照会!$B$5:$J$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">注文約定照会!$B$5:$J$8</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="507">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -669,13 +673,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ポジション一覧</t>
-    <rPh sb="5" eb="7">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>約定番号</t>
   </si>
   <si>
@@ -2235,6 +2232,539 @@
   </si>
   <si>
     <t>関数入力する際、「"」ダブルクォーテーションで囲む必要があります。</t>
+  </si>
+  <si>
+    <t>追加情報（※）出力フラグ</t>
+  </si>
+  <si>
+    <t>定義値</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>追加情報を出力する（デフォルト）</t>
+  </si>
+  <si>
+    <t>追加情報を出力しない</t>
+  </si>
+  <si>
+    <t>=SYMBOL(C8,D8,E8)</t>
+  </si>
+  <si>
+    <t>※追加情報は、時価総額、発行済み株式数、決算期日、清算値を意味します。</t>
+  </si>
+  <si>
+    <t>売</t>
+  </si>
+  <si>
+    <t>=POSITIONS(C8,D8,E8,F8)</t>
+  </si>
+  <si>
+    <t>※追加情報は、現在値、評価金額、評価損益額、評価損益率を意味します。</t>
+  </si>
+  <si>
+    <t>マネービューの情報を取得する</t>
+  </si>
+  <si>
+    <t>EXCHANGE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>=EXCHANGE(C8)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通貨</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>usdjpy</t>
+  </si>
+  <si>
+    <t>BID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SP</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ASK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>USD/JPY</t>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>eurjpy</t>
+  </si>
+  <si>
+    <t>EUR/JPY</t>
+  </si>
+  <si>
+    <t>gbpjpy</t>
+  </si>
+  <si>
+    <t>GBP/JPY</t>
+  </si>
+  <si>
+    <t>audjpy</t>
+  </si>
+  <si>
+    <t>AUD/JPY</t>
+  </si>
+  <si>
+    <t>chfjpy</t>
+  </si>
+  <si>
+    <t>CHF/JPY</t>
+  </si>
+  <si>
+    <t>cadjpy</t>
+  </si>
+  <si>
+    <t>CAD/JPY</t>
+  </si>
+  <si>
+    <t>nzdjpy</t>
+  </si>
+  <si>
+    <t>NZD/JPY</t>
+  </si>
+  <si>
+    <t>zarjpy</t>
+  </si>
+  <si>
+    <t>ZAR/JPY</t>
+  </si>
+  <si>
+    <t>eurusd</t>
+  </si>
+  <si>
+    <t>EUR/USD</t>
+  </si>
+  <si>
+    <t>gbpusd</t>
+  </si>
+  <si>
+    <t>GBP/USD</t>
+  </si>
+  <si>
+    <t>audusd</t>
+  </si>
+  <si>
+    <t>AUD/USD</t>
+  </si>
+  <si>
+    <t>yyyy/MM/dd HH:mm</t>
+  </si>
+  <si>
+    <t>コンプライアンスレベル（※③）</t>
+  </si>
+  <si>
+    <t>制限終了日（※②）</t>
+  </si>
+  <si>
+    <t>制限開始日（※②）</t>
+  </si>
+  <si>
+    <t>理由（※①）</t>
+  </si>
+  <si>
+    <t>規制売買</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>規制取引区分</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>規制市場</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>=REGULATIONS(C8,D8)</t>
+  </si>
+  <si>
+    <t>※③空売り規制の場合、null</t>
+  </si>
+  <si>
+    <t>※②空売り規制の場合、null</t>
+  </si>
+  <si>
+    <t>※①空売り規制の場合、「空売り規制」</t>
+  </si>
+  <si>
+    <t>品渡</t>
+    <rPh sb="0" eb="1">
+      <t>シナ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品受</t>
+    <rPh sb="0" eb="1">
+      <t>シナ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返済</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JNX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信用返済（一般）</t>
+    <rPh sb="0" eb="2">
+      <t>シンヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンサイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CXJ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信用返済（制度）</t>
+    <rPh sb="0" eb="2">
+      <t>シンヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンサイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SOR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>札証</t>
+    <rPh sb="0" eb="2">
+      <t>サッショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信用新規（一般）</t>
+    <rPh sb="0" eb="2">
+      <t>シンヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福証</t>
+    <rPh sb="0" eb="2">
+      <t>フクショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>買</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場合、「1：売」</t>
+  </si>
+  <si>
+    <t>信用新規（制度）</t>
+    <rPh sb="0" eb="2">
+      <t>シンヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場合、「4：新規」</t>
+  </si>
+  <si>
+    <t>名証</t>
+    <rPh sb="0" eb="2">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワーニング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※空売り規制の</t>
+  </si>
+  <si>
+    <t>現物</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東証</t>
+    <rPh sb="0" eb="2">
+      <t>トウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>規制無し</t>
+    <rPh sb="0" eb="2">
+      <t>キセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンプライアンスレベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全対象</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>規制売買</t>
+    <rPh sb="0" eb="2">
+      <t>キセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バイバイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>規制取引区分</t>
+    <rPh sb="0" eb="2">
+      <t>キセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>規制市場</t>
+    <rPh sb="0" eb="2">
+      <t>キセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市場</t>
+    <rPh sb="0" eb="2">
+      <t>シジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定義値</t>
+    <rPh sb="0" eb="3">
+      <t>テイギチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市場コード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>=REGULATIONS(C8,D8)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>REGULATIONS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>規制情報＋空売り規制情報を取得する</t>
+  </si>
+  <si>
+    <t>優先市場</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>=PRIMARYEXCHANGE(C8)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※対象商品は、株式のみ</t>
+  </si>
+  <si>
+    <t>PRIMARYEXCHANGE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>株式の優先市場を取得する</t>
+  </si>
+  <si>
+    <t>kabuステーションのバージョン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オプションのワンショット上限（枚）</t>
+  </si>
+  <si>
+    <t>先物ミニのワンショット上限（枚）</t>
+  </si>
+  <si>
+    <t>先物のワンショット上限（枚）</t>
+  </si>
+  <si>
+    <t>信用のワンショット上限（万円）</t>
+  </si>
+  <si>
+    <t>現物のワンショット上限（万円）</t>
+  </si>
+  <si>
+    <t>=APISOFTLIMIT()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APISOFTLIMIT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kabuステーションAPIのソフトリミット値を取得する</t>
+  </si>
+  <si>
+    <t>HH:mm:ss</t>
+  </si>
+  <si>
+    <t>優先市場</t>
+  </si>
+  <si>
+    <t>※為替銘柄を解除する場合、銘柄名は"通貨A" + "/" + "通貨B"、市場コードは"300"で指定してください。</t>
+  </si>
+  <si>
+    <t>例：</t>
   </si>
 </sst>
 </file>
@@ -2244,7 +2774,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2347,6 +2877,25 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2374,7 +2923,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -2623,11 +3172,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="mediumDashed">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </right>
+      <top style="mediumDashed">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2774,6 +3362,76 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2849,45 +3507,11 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3235,7 +3859,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="2:9">
@@ -3247,7 +3871,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -3259,7 +3883,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -3340,6 +3964,2086 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="104" t="s">
+        <v>400</v>
+      </c>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="106"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="6"/>
+      <c r="C7" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="H9" s="77"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="5"/>
+      <c r="C12" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="C13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="C14" t="str">
+        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
+        <v>(D14に関数入力)</v>
+      </c>
+      <c r="D14" s="107" t="s">
+        <v>407</v>
+      </c>
+      <c r="E14" s="108" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="D15" s="26"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="109"/>
+      <c r="C20" s="110" t="s">
+        <v>390</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="C21" s="111" t="s">
+        <v>403</v>
+      </c>
+      <c r="D21" s="111" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="C22" s="111" t="s">
+        <v>409</v>
+      </c>
+      <c r="D22" s="111" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="C23" s="111" t="s">
+        <v>411</v>
+      </c>
+      <c r="D23" s="111" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="C24" s="111" t="s">
+        <v>413</v>
+      </c>
+      <c r="D24" s="111" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="C25" s="111" t="s">
+        <v>415</v>
+      </c>
+      <c r="D25" s="111" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="C26" s="111" t="s">
+        <v>417</v>
+      </c>
+      <c r="D26" s="111" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="C27" s="111" t="s">
+        <v>419</v>
+      </c>
+      <c r="D27" s="111" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="C28" s="111" t="s">
+        <v>421</v>
+      </c>
+      <c r="D28" s="111" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="C29" s="111" t="s">
+        <v>423</v>
+      </c>
+      <c r="D29" s="111" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="C30" s="111" t="s">
+        <v>425</v>
+      </c>
+      <c r="D30" s="111" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="C31" s="111" t="s">
+        <v>427</v>
+      </c>
+      <c r="D31" s="111" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
+      <formula1>$C$21:$C$31</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N58"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="104" t="s">
+        <v>487</v>
+      </c>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="106"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="6"/>
+      <c r="C7" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="6"/>
+      <c r="C8" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="43">
+        <v>1</v>
+      </c>
+      <c r="E8" s="28"/>
+    </row>
+    <row r="10" spans="2:9" ht="15.75">
+      <c r="C10" s="124"/>
+      <c r="D10" s="127" t="s">
+        <v>484</v>
+      </c>
+      <c r="E10" s="127" t="s">
+        <v>483</v>
+      </c>
+      <c r="G10" s="124"/>
+      <c r="H10" s="127" t="s">
+        <v>484</v>
+      </c>
+      <c r="I10" s="127" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15.75">
+      <c r="C11" s="123" t="s">
+        <v>482</v>
+      </c>
+      <c r="D11" s="116" t="s">
+        <v>470</v>
+      </c>
+      <c r="E11" s="118" t="s">
+        <v>474</v>
+      </c>
+      <c r="G11" s="123" t="s">
+        <v>479</v>
+      </c>
+      <c r="H11" s="116" t="s">
+        <v>476</v>
+      </c>
+      <c r="I11" s="118" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15.75">
+      <c r="C12" s="120"/>
+      <c r="D12" s="116" t="s">
+        <v>460</v>
+      </c>
+      <c r="E12" s="118" t="s">
+        <v>468</v>
+      </c>
+      <c r="G12" s="120" t="s">
+        <v>472</v>
+      </c>
+      <c r="H12" s="116" t="s">
+        <v>470</v>
+      </c>
+      <c r="I12" s="118" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15.75">
+      <c r="C13" s="120"/>
+      <c r="D13" s="116" t="s">
+        <v>454</v>
+      </c>
+      <c r="E13" s="118" t="s">
+        <v>461</v>
+      </c>
+      <c r="G13" s="117" t="s">
+        <v>465</v>
+      </c>
+      <c r="H13" s="116" t="s">
+        <v>463</v>
+      </c>
+      <c r="I13" s="118" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15.75">
+      <c r="C14" s="121"/>
+      <c r="D14" s="116" t="s">
+        <v>450</v>
+      </c>
+      <c r="E14" s="115" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" ht="15.75">
+      <c r="C17" s="124"/>
+      <c r="D17" s="127" t="s">
+        <v>484</v>
+      </c>
+      <c r="E17" s="127" t="s">
+        <v>483</v>
+      </c>
+      <c r="G17" s="124"/>
+      <c r="H17" s="127" t="s">
+        <v>484</v>
+      </c>
+      <c r="I17" s="127" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" ht="15.75">
+      <c r="C18" s="123" t="s">
+        <v>481</v>
+      </c>
+      <c r="D18" s="116" t="s">
+        <v>476</v>
+      </c>
+      <c r="E18" s="118" t="s">
+        <v>478</v>
+      </c>
+      <c r="G18" s="123" t="s">
+        <v>477</v>
+      </c>
+      <c r="H18" s="116" t="s">
+        <v>476</v>
+      </c>
+      <c r="I18" s="118" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" ht="15.75">
+      <c r="C19" s="120"/>
+      <c r="D19" s="116" t="s">
+        <v>470</v>
+      </c>
+      <c r="E19" s="118" t="s">
+        <v>474</v>
+      </c>
+      <c r="G19" s="120"/>
+      <c r="H19" s="116" t="s">
+        <v>470</v>
+      </c>
+      <c r="I19" s="118" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" ht="15.75">
+      <c r="C20" s="120"/>
+      <c r="D20" s="116" t="s">
+        <v>460</v>
+      </c>
+      <c r="E20" s="118" t="s">
+        <v>468</v>
+      </c>
+      <c r="G20" s="117"/>
+      <c r="H20" s="116" t="s">
+        <v>463</v>
+      </c>
+      <c r="I20" s="118" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" ht="15.75">
+      <c r="C21" s="120"/>
+      <c r="D21" s="116" t="s">
+        <v>454</v>
+      </c>
+      <c r="E21" s="118" t="s">
+        <v>461</v>
+      </c>
+      <c r="L21" s="113"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="113"/>
+    </row>
+    <row r="22" spans="3:14" ht="15.75">
+      <c r="C22" s="120"/>
+      <c r="D22" s="116" t="s">
+        <v>450</v>
+      </c>
+      <c r="E22" s="115" t="s">
+        <v>458</v>
+      </c>
+      <c r="L22" s="113"/>
+      <c r="M22" s="114"/>
+      <c r="N22" s="113"/>
+    </row>
+    <row r="23" spans="3:14" ht="15.75">
+      <c r="C23" s="120"/>
+      <c r="D23" s="116" t="s">
+        <v>442</v>
+      </c>
+      <c r="E23" s="118" t="s">
+        <v>455</v>
+      </c>
+      <c r="L23" s="113"/>
+      <c r="M23" s="114"/>
+      <c r="N23" s="113"/>
+    </row>
+    <row r="24" spans="3:14" ht="15.75">
+      <c r="C24" s="120"/>
+      <c r="D24" s="116" t="s">
+        <v>452</v>
+      </c>
+      <c r="E24" s="118" t="s">
+        <v>451</v>
+      </c>
+      <c r="L24" s="113"/>
+      <c r="M24" s="114"/>
+      <c r="N24" s="113"/>
+    </row>
+    <row r="25" spans="3:14" ht="15.75">
+      <c r="C25" s="117"/>
+      <c r="D25" s="116" t="s">
+        <v>448</v>
+      </c>
+      <c r="E25" s="118" t="s">
+        <v>447</v>
+      </c>
+      <c r="L25" s="113"/>
+      <c r="M25" s="114"/>
+      <c r="N25" s="113"/>
+    </row>
+    <row r="26" spans="3:14" ht="15.75">
+      <c r="L26" s="113"/>
+      <c r="M26" s="114"/>
+      <c r="N26" s="113"/>
+    </row>
+    <row r="27" spans="3:14" ht="15.75">
+      <c r="L27" s="113"/>
+      <c r="M27" s="114"/>
+      <c r="N27" s="113"/>
+    </row>
+    <row r="28" spans="3:14" ht="15.75">
+      <c r="C28" s="124"/>
+      <c r="D28" s="127" t="s">
+        <v>484</v>
+      </c>
+      <c r="E28" s="127" t="s">
+        <v>483</v>
+      </c>
+      <c r="L28" s="113"/>
+      <c r="M28" s="114"/>
+      <c r="N28" s="113"/>
+    </row>
+    <row r="29" spans="3:14" ht="15.75">
+      <c r="C29" s="123" t="s">
+        <v>480</v>
+      </c>
+      <c r="D29" s="116" t="s">
+        <v>476</v>
+      </c>
+      <c r="E29" s="118" t="s">
+        <v>478</v>
+      </c>
+      <c r="L29" s="113"/>
+      <c r="M29" s="114"/>
+      <c r="N29" s="113"/>
+    </row>
+    <row r="30" spans="3:14" ht="15.75">
+      <c r="C30" s="122" t="s">
+        <v>472</v>
+      </c>
+      <c r="D30" s="116" t="s">
+        <v>470</v>
+      </c>
+      <c r="E30" s="118" t="s">
+        <v>473</v>
+      </c>
+      <c r="L30" s="113"/>
+      <c r="M30" s="114"/>
+      <c r="N30" s="113"/>
+    </row>
+    <row r="31" spans="3:14" ht="15.75">
+      <c r="C31" s="120" t="s">
+        <v>467</v>
+      </c>
+      <c r="D31" s="116" t="s">
+        <v>463</v>
+      </c>
+      <c r="E31" s="118" t="s">
+        <v>466</v>
+      </c>
+      <c r="L31" s="113"/>
+      <c r="M31" s="114"/>
+      <c r="N31" s="113"/>
+    </row>
+    <row r="32" spans="3:14" ht="15.75">
+      <c r="C32" s="120"/>
+      <c r="D32" s="116" t="s">
+        <v>460</v>
+      </c>
+      <c r="E32" s="118" t="s">
+        <v>459</v>
+      </c>
+      <c r="L32" s="113"/>
+      <c r="M32" s="114"/>
+      <c r="N32" s="113"/>
+    </row>
+    <row r="33" spans="2:14" ht="15.75">
+      <c r="C33" s="120"/>
+      <c r="D33" s="116" t="s">
+        <v>457</v>
+      </c>
+      <c r="E33" s="118" t="s">
+        <v>456</v>
+      </c>
+      <c r="L33" s="113"/>
+      <c r="M33" s="114"/>
+      <c r="N33" s="113"/>
+    </row>
+    <row r="34" spans="2:14" ht="15.75">
+      <c r="C34" s="120"/>
+      <c r="D34" s="116" t="s">
+        <v>454</v>
+      </c>
+      <c r="E34" s="115" t="s">
+        <v>453</v>
+      </c>
+      <c r="L34" s="113"/>
+      <c r="M34" s="114"/>
+      <c r="N34" s="113"/>
+    </row>
+    <row r="35" spans="2:14" ht="15.75">
+      <c r="C35" s="120"/>
+      <c r="D35" s="116" t="s">
+        <v>450</v>
+      </c>
+      <c r="E35" s="118" t="s">
+        <v>449</v>
+      </c>
+      <c r="L35" s="113"/>
+      <c r="M35" s="114"/>
+      <c r="N35" s="113"/>
+    </row>
+    <row r="36" spans="2:14" ht="15.75">
+      <c r="C36" s="120"/>
+      <c r="D36" s="116" t="s">
+        <v>446</v>
+      </c>
+      <c r="E36" s="118" t="s">
+        <v>445</v>
+      </c>
+      <c r="L36" s="113"/>
+      <c r="M36" s="114"/>
+      <c r="N36" s="113"/>
+    </row>
+    <row r="37" spans="2:14" ht="15.75">
+      <c r="C37" s="119"/>
+      <c r="D37" s="116" t="s">
+        <v>444</v>
+      </c>
+      <c r="E37" s="118" t="s">
+        <v>443</v>
+      </c>
+      <c r="L37" s="113"/>
+      <c r="M37" s="114"/>
+      <c r="N37" s="113"/>
+    </row>
+    <row r="38" spans="2:14" ht="15.75">
+      <c r="C38" s="117"/>
+      <c r="D38" s="116" t="s">
+        <v>442</v>
+      </c>
+      <c r="E38" s="115" t="s">
+        <v>441</v>
+      </c>
+      <c r="L38" s="113"/>
+      <c r="M38" s="114"/>
+      <c r="N38" s="113"/>
+    </row>
+    <row r="39" spans="2:14" ht="15.75">
+      <c r="L39" s="113"/>
+      <c r="M39" s="114"/>
+      <c r="N39" s="113"/>
+    </row>
+    <row r="40" spans="2:14" ht="15.75">
+      <c r="L40" s="113"/>
+      <c r="M40" s="114"/>
+      <c r="N40" s="113"/>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="B42" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" spans="2:14">
+      <c r="B44" s="5"/>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14">
+      <c r="C45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14">
+      <c r="C46" t="str">
+        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
+        <v>(D46に関数入力)</v>
+      </c>
+      <c r="D46" s="108" t="s">
+        <v>295</v>
+      </c>
+      <c r="E46" s="108" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="G46" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="H46" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="J46" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="K46" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14">
+      <c r="D47" s="108" t="s">
+        <v>295</v>
+      </c>
+      <c r="E47" s="108" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="H47" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="J47" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="K47" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14">
+      <c r="D48" s="108" t="s">
+        <v>295</v>
+      </c>
+      <c r="E48" s="108" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="H48" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="J48" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="K48" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="D49" s="26"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="D50" s="26"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="D51" s="46"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="D52" s="46"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" t="s">
+        <v>438</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
+      <formula1>"1,3,5,6"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="30" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="104" t="s">
+        <v>492</v>
+      </c>
+      <c r="D3" s="106"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6"/>
+      <c r="C7" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D7" s="126"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6"/>
+      <c r="C8" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="125"/>
+      <c r="E8" s="28"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="5"/>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="C13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="C14" t="str">
+        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
+        <v>(D14に関数入力)</v>
+      </c>
+      <c r="D14" s="108" t="s">
+        <v>295</v>
+      </c>
+      <c r="E14" s="108" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="D15" s="26"/>
+      <c r="E15" s="108"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="D16" s="26"/>
+      <c r="E16" s="108"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="D17" s="26"/>
+      <c r="E17" s="108"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="D18" s="26"/>
+      <c r="E18" s="108"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="D19" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="D20" s="46"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+    </row>
+    <row r="21" spans="2:11" ht="15.75">
+      <c r="C21" s="124"/>
+      <c r="D21" s="127" t="s">
+        <v>484</v>
+      </c>
+      <c r="E21" s="127" t="s">
+        <v>483</v>
+      </c>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.75">
+      <c r="C22" s="123" t="s">
+        <v>504</v>
+      </c>
+      <c r="D22" s="116" t="s">
+        <v>470</v>
+      </c>
+      <c r="E22" s="118" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="15.75">
+      <c r="C23" s="120"/>
+      <c r="D23" s="116" t="s">
+        <v>460</v>
+      </c>
+      <c r="E23" s="118" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="15.75">
+      <c r="C24" s="120"/>
+      <c r="D24" s="116" t="s">
+        <v>454</v>
+      </c>
+      <c r="E24" s="118" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="15.75">
+      <c r="C25" s="121"/>
+      <c r="D25" s="116" t="s">
+        <v>450</v>
+      </c>
+      <c r="E25" s="115" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="5" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="104" t="s">
+        <v>501</v>
+      </c>
+      <c r="D3" s="105"/>
+      <c r="E3" s="106"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="6"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="27"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="5"/>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="C11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="103" t="s">
+        <v>499</v>
+      </c>
+      <c r="E11" s="103" t="s">
+        <v>498</v>
+      </c>
+      <c r="F11" s="103" t="s">
+        <v>497</v>
+      </c>
+      <c r="G11" s="103" t="s">
+        <v>496</v>
+      </c>
+      <c r="H11" s="103" t="s">
+        <v>495</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="C12" t="str">
+        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
+        <v>(D12に関数入力)</v>
+      </c>
+      <c r="D12" s="108" t="s">
+        <v>295</v>
+      </c>
+      <c r="E12" s="108" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="108" t="s">
+        <v>295</v>
+      </c>
+      <c r="G12" s="108" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="108" t="s">
+        <v>295</v>
+      </c>
+      <c r="I12" s="108" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="D13" s="26"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="108"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="D14" s="26"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="108"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="D15" s="26"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="108"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="D16" s="26"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="108"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="D17" s="46"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="46"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="112"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A2:I40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6"/>
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6"/>
+      <c r="C8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="6"/>
+      <c r="C9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="6"/>
+      <c r="E10" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="6"/>
+      <c r="E11" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B12" s="6"/>
+      <c r="E12" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="B17" s="5"/>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="C18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="6"/>
+      <c r="C19" s="30" t="str">
+        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
+        <v>(D19に関数入力)</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="6"/>
+      <c r="D20" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="6"/>
+      <c r="D21" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="6"/>
+      <c r="D22" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="6"/>
+      <c r="D23" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="24"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="6"/>
+      <c r="D24" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="24"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="6"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="24"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="6"/>
+      <c r="B26" t="s">
+        <v>212</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="24"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="6"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="24"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="6"/>
+      <c r="B28" t="s">
+        <v>186</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="B29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="B30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="C34" s="26">
+        <v>1</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="C35" s="26">
+        <v>3</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="36"/>
+      <c r="C36" s="26">
+        <v>5</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="37"/>
+      <c r="C37" s="26">
+        <v>6</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="C38" s="26">
+        <v>2</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="C39" s="26">
+        <v>23</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="37"/>
+      <c r="C40" s="26">
+        <v>24</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A2:I40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6"/>
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6"/>
+      <c r="C8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="6"/>
+      <c r="C9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B10" s="6"/>
+      <c r="E10" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="6"/>
+      <c r="E11" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="6"/>
+      <c r="E12" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="B17" s="5"/>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="C18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="6"/>
+      <c r="C19" t="str">
+        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
+        <v>(D19に関数入力)</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="6"/>
+      <c r="D20" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="6"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="B22" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="B23" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" s="26">
+        <v>1</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="B24" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" s="26">
+        <v>3</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25" s="36"/>
+      <c r="C25" s="26">
+        <v>5</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="B26" s="37"/>
+      <c r="C26" s="26">
+        <v>6</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" s="26">
+        <v>2</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="B28" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="C28" s="26">
+        <v>23</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="B29" s="37"/>
+      <c r="C29" s="26">
+        <v>24</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="15.75" thickBot="1">
+      <c r="B39" t="s">
+        <v>506</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="15.75" thickBot="1">
+      <c r="C40" s="128" t="s">
+        <v>407</v>
+      </c>
+      <c r="D40" s="129">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A2:I20"/>
@@ -3366,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -3377,7 +6081,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -3391,13 +6095,13 @@
     <row r="6" spans="1:9">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3414,7 +6118,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3422,7 +6126,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
@@ -3455,7 +6159,7 @@
     <row r="15" spans="1:9">
       <c r="A15" s="6"/>
       <c r="B15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -3466,392 +6170,28 @@
     </row>
     <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="F6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="6"/>
-      <c r="C7" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="F7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="6"/>
-      <c r="C8" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" s="5"/>
-      <c r="C12" t="s">
-        <v>199</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="C13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="6"/>
-      <c r="C14" s="30" t="str">
-        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
-        <v>(D14に関数入力)</v>
-      </c>
-      <c r="D14" s="41">
-        <v>165120018</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="6"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>248</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G19"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="35.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="G6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="6"/>
-      <c r="C7" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="G7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="6"/>
-      <c r="C8" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12" s="5"/>
-      <c r="C12" t="s">
-        <v>199</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="C13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="6"/>
-      <c r="C14" s="30" t="str">
-        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
-        <v>(D14に関数入力)</v>
-      </c>
-      <c r="D14" s="41">
-        <v>145123218</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="6"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>259</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3894,7 +6234,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -3903,7 +6243,7 @@
     <row r="4" spans="2:6">
       <c r="B4" s="32"/>
       <c r="C4" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -3912,7 +6252,7 @@
     <row r="5" spans="2:6">
       <c r="B5" s="32"/>
       <c r="C5" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -3921,7 +6261,7 @@
     <row r="6" spans="2:6">
       <c r="B6" s="33"/>
       <c r="C6" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -3935,38 +6275,38 @@
     <row r="9" spans="2:6">
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="6"/>
       <c r="C10" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>166</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="6"/>
       <c r="C12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="6"/>
       <c r="C13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -3981,10 +6321,10 @@
     <row r="17" spans="1:4">
       <c r="B17" s="5"/>
       <c r="C17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3992,7 +6332,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4007,24 +6347,24 @@
     </row>
     <row r="23" spans="1:4">
       <c r="B23" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="B24" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C24" s="26">
         <v>1</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4033,7 +6373,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4042,7 +6382,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4051,18 +6391,18 @@
         <v>6</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="B28" s="35" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C28" s="26">
         <v>1</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4071,29 +6411,29 @@
         <v>3</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="B30" s="38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C30" s="26">
         <v>2</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="B31" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C31" s="26">
         <v>23</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4102,7 +6442,7 @@
         <v>24</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -4179,7 +6519,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -4193,34 +6533,34 @@
     <row r="6" spans="1:89">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" t="s">
         <v>186</v>
-      </c>
-      <c r="F6" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:89">
       <c r="B7" s="6"/>
       <c r="C7" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>167</v>
-      </c>
       <c r="F7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:89">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="F8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:89">
@@ -4234,10 +6574,10 @@
     <row r="12" spans="1:89">
       <c r="B12" s="5"/>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF12" s="10" t="s">
         <v>19</v>
@@ -5911,13 +8251,13 @@
     </row>
     <row r="22" spans="1:89">
       <c r="B22" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -6007,13 +8347,13 @@
     </row>
     <row r="23" spans="1:89">
       <c r="B23" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C23" s="26">
         <v>1</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -6103,13 +8443,13 @@
     </row>
     <row r="24" spans="1:89">
       <c r="B24" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C24" s="26">
         <v>3</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:89">
@@ -6118,7 +8458,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:89">
@@ -6127,29 +8467,29 @@
         <v>6</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:89">
       <c r="B27" s="38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C27" s="26">
         <v>2</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:89">
       <c r="B28" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C28" s="26">
         <v>23</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:89">
@@ -6158,7 +8498,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -6169,12 +8509,433 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AA28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="6"/>
+      <c r="C7" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="100" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="C10" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="C11" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11" s="26">
+        <v>1</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="C12" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="D12" s="26">
+        <v>3</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="G12" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="C13" s="36"/>
+      <c r="D13" s="26">
+        <v>5</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="H13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="C14" s="37"/>
+      <c r="D14" s="26">
+        <v>6</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="C15" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="D15" s="26">
+        <v>2</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="C16" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="D16" s="26">
+        <v>23</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="C17" s="37"/>
+      <c r="D17" s="26">
+        <v>24</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="B19" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="B21" s="5"/>
+      <c r="C21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="C22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="T22" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="U22" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="V22" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="W22" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="X22" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y22" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z22" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA22" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" s="6"/>
+      <c r="C23" s="30" t="str">
+        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
+        <v>(D23に関数入力)</v>
+      </c>
+      <c r="D23" s="7">
+        <v>8411</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="U23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="V23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="W23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="X23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA23" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" s="6"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="B25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="B26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="B27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="B28" s="101" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8">
+      <formula1>$G$11:$G$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
+      <formula1>"1,3,5,6,2,23,24"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:AK319"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6240,37 +9001,37 @@
     <row r="6" spans="2:12">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="6"/>
       <c r="C7" s="42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D7" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="E7" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="F7" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="G7" s="42" t="s">
         <v>275</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="H7" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="I7" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="J7" s="42" t="s">
         <v>278</v>
       </c>
-      <c r="J7" s="42" t="s">
-        <v>279</v>
-      </c>
       <c r="L7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="2:12">
@@ -6279,16 +9040,16 @@
         <v>0</v>
       </c>
       <c r="D8" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="E8" s="55" t="s">
         <v>297</v>
-      </c>
-      <c r="E8" s="55" t="s">
-        <v>298</v>
       </c>
       <c r="F8" s="44" t="b">
         <v>1</v>
       </c>
       <c r="G8" s="44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H8" s="44">
         <v>2</v>
@@ -6300,117 +9061,117 @@
         <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="6"/>
       <c r="L9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="6"/>
       <c r="C10" s="9"/>
       <c r="L10" s="77" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C11" s="72" t="s">
-        <v>306</v>
-      </c>
-      <c r="D11" s="81" t="s">
+        <v>305</v>
+      </c>
+      <c r="D11" s="133" t="s">
+        <v>299</v>
+      </c>
+      <c r="E11" s="134"/>
+      <c r="F11" s="133" t="s">
         <v>300</v>
       </c>
-      <c r="E11" s="82"/>
-      <c r="F11" s="81" t="s">
-        <v>301</v>
-      </c>
-      <c r="G11" s="82"/>
+      <c r="G11" s="134"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="80" t="s">
-        <v>280</v>
+      <c r="B12" s="132" t="s">
+        <v>279</v>
       </c>
       <c r="C12" s="48">
         <v>0</v>
       </c>
-      <c r="D12" s="83" t="s">
-        <v>204</v>
-      </c>
-      <c r="E12" s="84"/>
-      <c r="F12" s="97" t="s">
-        <v>302</v>
-      </c>
-      <c r="G12" s="98"/>
+      <c r="D12" s="135" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" s="136"/>
+      <c r="F12" s="149" t="s">
+        <v>301</v>
+      </c>
+      <c r="G12" s="150"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="80"/>
+      <c r="B13" s="132"/>
       <c r="C13" s="48">
         <v>1</v>
       </c>
-      <c r="D13" s="83" t="s">
-        <v>203</v>
-      </c>
-      <c r="E13" s="84"/>
-      <c r="F13" s="99" t="s">
-        <v>309</v>
-      </c>
-      <c r="G13" s="100"/>
+      <c r="D13" s="135" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="136"/>
+      <c r="F13" s="151" t="s">
+        <v>308</v>
+      </c>
+      <c r="G13" s="152"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="80"/>
+      <c r="B14" s="132"/>
       <c r="C14" s="48">
         <v>2</v>
       </c>
-      <c r="D14" s="83" t="s">
-        <v>202</v>
-      </c>
-      <c r="E14" s="84"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="100"/>
+      <c r="D14" s="135" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14" s="136"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="152"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="80"/>
+      <c r="B15" s="132"/>
       <c r="C15" s="49">
         <v>3</v>
       </c>
-      <c r="D15" s="83" t="s">
-        <v>267</v>
-      </c>
-      <c r="E15" s="84"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="100"/>
+      <c r="D15" s="135" t="s">
+        <v>266</v>
+      </c>
+      <c r="E15" s="136"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="152"/>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="80"/>
+      <c r="B16" s="132"/>
       <c r="C16" s="49">
         <v>4</v>
       </c>
-      <c r="D16" s="83" t="s">
-        <v>268</v>
-      </c>
-      <c r="E16" s="84"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="94"/>
+      <c r="D16" s="135" t="s">
+        <v>267</v>
+      </c>
+      <c r="E16" s="136"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="146"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="65" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C17" s="67" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E17" s="62"/>
       <c r="F17" s="61" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G17" s="62"/>
     </row>
@@ -6420,23 +9181,23 @@
       <c r="D18" s="59"/>
       <c r="E18" s="60"/>
       <c r="F18" s="59" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G18" s="60"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="65" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D19" s="61" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E19" s="62"/>
       <c r="F19" s="68" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G19" s="69"/>
     </row>
@@ -6446,37 +9207,37 @@
       <c r="D20" s="59"/>
       <c r="E20" s="60"/>
       <c r="F20" s="68" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G20" s="69"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="78" t="s">
-        <v>289</v>
+      <c r="B21" s="130" t="s">
+        <v>288</v>
       </c>
       <c r="C21" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="D21" s="83" t="s">
-        <v>307</v>
-      </c>
-      <c r="E21" s="84"/>
+      <c r="D21" s="135" t="s">
+        <v>306</v>
+      </c>
+      <c r="E21" s="136"/>
       <c r="F21" s="73" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G21" s="74"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="78"/>
+      <c r="B22" s="130"/>
       <c r="C22" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="D22" s="83" t="s">
-        <v>308</v>
-      </c>
-      <c r="E22" s="84"/>
+      <c r="D22" s="135" t="s">
+        <v>307</v>
+      </c>
+      <c r="E22" s="136"/>
       <c r="F22" s="75" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G22" s="76"/>
     </row>
@@ -6492,135 +9253,135 @@
       </c>
       <c r="E23" s="58"/>
       <c r="F23" s="70" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G23" s="71"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="78" t="s">
-        <v>292</v>
+      <c r="B24" s="130" t="s">
+        <v>291</v>
       </c>
       <c r="C24" s="47">
         <v>1</v>
       </c>
-      <c r="D24" s="85" t="s">
-        <v>290</v>
-      </c>
-      <c r="E24" s="86"/>
-      <c r="F24" s="91" t="s">
-        <v>302</v>
-      </c>
-      <c r="G24" s="92"/>
+      <c r="D24" s="137" t="s">
+        <v>289</v>
+      </c>
+      <c r="E24" s="138"/>
+      <c r="F24" s="143" t="s">
+        <v>301</v>
+      </c>
+      <c r="G24" s="144"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="78"/>
+      <c r="B25" s="130"/>
       <c r="C25" s="47">
         <v>2</v>
       </c>
-      <c r="D25" s="87" t="s">
-        <v>281</v>
-      </c>
-      <c r="E25" s="88"/>
-      <c r="F25" s="95" t="s">
-        <v>309</v>
-      </c>
-      <c r="G25" s="96"/>
+      <c r="D25" s="139" t="s">
+        <v>280</v>
+      </c>
+      <c r="E25" s="140"/>
+      <c r="F25" s="147" t="s">
+        <v>308</v>
+      </c>
+      <c r="G25" s="148"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="78"/>
+      <c r="B26" s="130"/>
       <c r="C26" s="47">
         <v>3</v>
       </c>
-      <c r="D26" s="87" t="s">
-        <v>282</v>
-      </c>
-      <c r="E26" s="88"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="96"/>
+      <c r="D26" s="139" t="s">
+        <v>281</v>
+      </c>
+      <c r="E26" s="140"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="148"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="78"/>
+      <c r="B27" s="130"/>
       <c r="C27" s="47">
         <v>4</v>
       </c>
-      <c r="D27" s="87" t="s">
-        <v>283</v>
-      </c>
-      <c r="E27" s="88"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="96"/>
+      <c r="D27" s="139" t="s">
+        <v>282</v>
+      </c>
+      <c r="E27" s="140"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="148"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="78"/>
+      <c r="B28" s="130"/>
       <c r="C28" s="47">
         <v>5</v>
       </c>
-      <c r="D28" s="87" t="s">
-        <v>284</v>
-      </c>
-      <c r="E28" s="88"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="90"/>
+      <c r="D28" s="139" t="s">
+        <v>283</v>
+      </c>
+      <c r="E28" s="140"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="142"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="78" t="s">
-        <v>293</v>
+      <c r="B29" s="130" t="s">
+        <v>292</v>
       </c>
       <c r="C29" s="47">
         <v>1</v>
       </c>
-      <c r="D29" s="85" t="s">
-        <v>291</v>
-      </c>
-      <c r="E29" s="86"/>
-      <c r="F29" s="91" t="s">
-        <v>302</v>
-      </c>
-      <c r="G29" s="92"/>
+      <c r="D29" s="137" t="s">
+        <v>290</v>
+      </c>
+      <c r="E29" s="138"/>
+      <c r="F29" s="143" t="s">
+        <v>301</v>
+      </c>
+      <c r="G29" s="144"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="78"/>
+      <c r="B30" s="130"/>
       <c r="C30" s="47">
         <v>2</v>
       </c>
-      <c r="D30" s="87" t="s">
-        <v>285</v>
-      </c>
-      <c r="E30" s="88"/>
-      <c r="F30" s="95" t="s">
-        <v>309</v>
-      </c>
-      <c r="G30" s="96"/>
+      <c r="D30" s="139" t="s">
+        <v>284</v>
+      </c>
+      <c r="E30" s="140"/>
+      <c r="F30" s="147" t="s">
+        <v>308</v>
+      </c>
+      <c r="G30" s="148"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="79" t="s">
-        <v>294</v>
+      <c r="B31" s="131" t="s">
+        <v>293</v>
       </c>
       <c r="C31" s="47">
         <v>2</v>
       </c>
-      <c r="D31" s="87" t="s">
-        <v>286</v>
-      </c>
-      <c r="E31" s="88"/>
-      <c r="F31" s="101" t="s">
-        <v>302</v>
-      </c>
-      <c r="G31" s="102"/>
+      <c r="D31" s="139" t="s">
+        <v>285</v>
+      </c>
+      <c r="E31" s="140"/>
+      <c r="F31" s="153" t="s">
+        <v>301</v>
+      </c>
+      <c r="G31" s="154"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="79"/>
+      <c r="B32" s="131"/>
       <c r="C32" s="47">
         <v>3</v>
       </c>
-      <c r="D32" s="87" t="s">
-        <v>287</v>
-      </c>
-      <c r="E32" s="88"/>
-      <c r="F32" s="89" t="s">
-        <v>309</v>
-      </c>
-      <c r="G32" s="90"/>
+      <c r="D32" s="139" t="s">
+        <v>286</v>
+      </c>
+      <c r="E32" s="140"/>
+      <c r="F32" s="141" t="s">
+        <v>308</v>
+      </c>
+      <c r="G32" s="142"/>
     </row>
     <row r="33" spans="1:36">
       <c r="B33" s="6"/>
@@ -6641,10 +9402,10 @@
     <row r="38" spans="1:36">
       <c r="B38" s="5"/>
       <c r="C38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="W38" s="13" t="s">
         <v>110</v>
@@ -17281,401 +20042,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A2:AA24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:27">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="5" spans="1:27">
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="B7" s="6"/>
-      <c r="C7" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="B8" s="6"/>
-      <c r="C8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:27">
-      <c r="B12" s="5"/>
-      <c r="C12" t="s">
-        <v>199</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
-      <c r="C13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="T13" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="U13" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="V13" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="W13" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="X13" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y13" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z13" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA13" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
-      <c r="A14" s="6"/>
-      <c r="C14" s="30" t="str">
-        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
-        <v>(D14に関数入力)</v>
-      </c>
-      <c r="D14" s="7">
-        <v>8411</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="S14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="U14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="V14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="W14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="X14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA14" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
-      <c r="A15" s="6"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="C18" s="26">
-        <v>1</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="C19" s="26">
-        <v>3</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="36"/>
-      <c r="C20" s="26">
-        <v>5</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="37"/>
-      <c r="C21" s="26">
-        <v>6</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="C22" s="26">
-        <v>2</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="36" t="s">
-        <v>268</v>
-      </c>
-      <c r="C23" s="26">
-        <v>23</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="37"/>
-      <c r="C24" s="26">
-        <v>24</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>264</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A2:Y26"/>
+  <dimension ref="A2:Y28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.28515625" bestFit="1" customWidth="1"/>
@@ -17691,7 +20074,7 @@
     <col min="24" max="25" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25">
+    <row r="2" spans="2:10">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -17702,7 +20085,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="2:10">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -17713,424 +20096,474 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="2:10">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="2:10">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="F6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="6"/>
       <c r="C7" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="E7" s="102" t="s">
+        <v>292</v>
+      </c>
+      <c r="F7" s="102" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="6"/>
       <c r="C8" s="7">
         <v>0</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="F8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E8" s="26">
+        <v>1</v>
+      </c>
+      <c r="F8" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="C10" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="C11" s="26">
+        <v>0</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="26">
+        <v>1</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="I11" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="C12" s="26">
+        <v>1</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="F12" s="26">
+        <v>2</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="I12" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="C13" s="26">
+        <v>2</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="J13" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="C14" s="39">
+        <v>3</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="C15" s="39">
+        <v>4</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="B17" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="B19" s="5"/>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="C20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="S20" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="T20" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="U20" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="V20" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="W20" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="X20" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="6"/>
+      <c r="C21" s="30" t="str">
+        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
+        <v>(D21に関数入力)</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="U21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="V21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="W21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="X21" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="6"/>
+      <c r="D22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="V22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="W22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="X22" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="6"/>
+      <c r="D23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="U23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="V23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="W23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="X23" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="6"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="B25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="B26" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
-      <c r="F9" s="77" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="B12" s="5"/>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="6" t="s">
+    <row r="27" spans="1:25">
+      <c r="B27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="B28" s="101" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
-      <c r="C13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="T13" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="U13" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="V13" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="W13" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="X13" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y13" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="A14" s="6"/>
-      <c r="C14" s="30" t="str">
-        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
-        <v>(D14に関数入力)</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="S14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="U14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="V14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="W14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="X14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y14" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="A15" s="6"/>
-      <c r="D15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="U15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="V15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="W15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="X15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y15" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="A16" s="6"/>
-      <c r="D16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="R16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="S16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="T16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="U16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="V16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="W16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="X16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y16" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
-      <c r="A17" s="6"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-    </row>
-    <row r="21" spans="1:25">
-      <c r="B21" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25">
-      <c r="B22" s="26">
-        <v>0</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25">
-      <c r="B23" s="26">
-        <v>1</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25">
-      <c r="B24" s="26">
-        <v>2</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25">
-      <c r="B25" s="39">
-        <v>3</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25">
-      <c r="B26" s="39">
-        <v>4</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>268</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <dataValidations count="1">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8">
+      <formula1>$I$11:$I$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8">
+      <formula1>$F$11:$F$12</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
       <formula1>"0,1,2,3,4"</formula1>
     </dataValidation>
@@ -18141,618 +20574,982 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="6"/>
+      <c r="C7" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="5"/>
+      <c r="C12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6"/>
+      <c r="C14" s="30" t="str">
+        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
+        <v>(D14に関数入力)</v>
+      </c>
+      <c r="D14" s="41">
+        <v>165120018</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="6"/>
+      <c r="C7" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="G7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="5"/>
+      <c r="C12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="C13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="6"/>
+      <c r="C14" s="30" t="str">
+        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
+        <v>(D14に関数入力)</v>
+      </c>
+      <c r="D14" s="41">
+        <v>145123218</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="6"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="107" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="107" customWidth="1"/>
-    <col min="3" max="3" width="17" style="107" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="107" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="107" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="107" customWidth="1"/>
-    <col min="7" max="7" width="12" style="107" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="107" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="107" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="107" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" style="107" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" style="107" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" style="107" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="107" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="107" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" style="107" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" style="107" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="107" bestFit="1" customWidth="1"/>
-    <col min="19" max="24" width="10.42578125" style="107" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="107"/>
+    <col min="1" max="1" width="7.85546875" style="82" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="82" customWidth="1"/>
+    <col min="3" max="3" width="17" style="82" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="82" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="82" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="82" customWidth="1"/>
+    <col min="7" max="7" width="12" style="82" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="82" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="82" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="82" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" style="82" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" style="82" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" style="82" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="82" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="82" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" style="82" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="82" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="10.42578125" style="82" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="82"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="104" t="s">
-        <v>385</v>
-      </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="106"/>
+      <c r="C2" s="79" t="s">
+        <v>384</v>
+      </c>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="81"/>
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="79" t="s">
+        <v>385</v>
+      </c>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="81"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="84"/>
+      <c r="C6" s="84" t="s">
         <v>386</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="106"/>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5" s="108" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="109"/>
-      <c r="C6" s="109" t="s">
-        <v>387</v>
-      </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="109"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="D7" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="D7" s="42" t="s">
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="84"/>
+      <c r="C8" s="98">
+        <v>1</v>
+      </c>
+      <c r="D8" s="98" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="109"/>
-      <c r="C8" s="123">
-        <v>1</v>
-      </c>
-      <c r="D8" s="123" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="10" spans="2:13">
       <c r="C10" s="72" t="s">
+        <v>352</v>
+      </c>
+      <c r="D10" s="155" t="s">
+        <v>268</v>
+      </c>
+      <c r="E10" s="156"/>
+      <c r="H10" s="72" t="s">
+        <v>352</v>
+      </c>
+      <c r="I10" s="155" t="s">
+        <v>268</v>
+      </c>
+      <c r="J10" s="156"/>
+      <c r="K10" s="157" t="s">
+        <v>300</v>
+      </c>
+      <c r="L10" s="157"/>
+      <c r="M10" s="157"/>
+    </row>
+    <row r="11" spans="2:13" ht="15.75">
+      <c r="B11" s="90" t="s">
+        <v>315</v>
+      </c>
+      <c r="C11" s="91">
+        <v>1</v>
+      </c>
+      <c r="D11" s="92" t="s">
         <v>353</v>
       </c>
-      <c r="D10" s="124" t="s">
-        <v>269</v>
-      </c>
-      <c r="E10" s="125"/>
-      <c r="H10" s="72" t="s">
-        <v>353</v>
-      </c>
-      <c r="I10" s="124" t="s">
-        <v>269</v>
-      </c>
-      <c r="J10" s="125"/>
-      <c r="K10" s="127" t="s">
-        <v>301</v>
-      </c>
-      <c r="L10" s="127"/>
-      <c r="M10" s="127"/>
-    </row>
-    <row r="11" spans="2:13" ht="15.75">
-      <c r="B11" s="115" t="s">
+      <c r="E11" s="81"/>
+      <c r="G11" s="96" t="s">
         <v>316</v>
       </c>
-      <c r="C11" s="116">
-        <v>1</v>
-      </c>
-      <c r="D11" s="117" t="s">
+      <c r="H11" s="97" t="s">
+        <v>314</v>
+      </c>
+      <c r="I11" s="92" t="s">
+        <v>368</v>
+      </c>
+      <c r="J11" s="81"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="81"/>
+    </row>
+    <row r="12" spans="2:13" ht="15.75">
+      <c r="B12" s="93"/>
+      <c r="C12" s="91">
+        <v>2</v>
+      </c>
+      <c r="D12" s="92" t="s">
         <v>354</v>
       </c>
-      <c r="E11" s="106"/>
-      <c r="G11" s="121" t="s">
+      <c r="E12" s="81"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="97" t="s">
+        <v>369</v>
+      </c>
+      <c r="I12" s="92" t="s">
+        <v>370</v>
+      </c>
+      <c r="J12" s="81"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="81"/>
+    </row>
+    <row r="13" spans="2:13" ht="15.75">
+      <c r="B13" s="93"/>
+      <c r="C13" s="91">
+        <v>3</v>
+      </c>
+      <c r="D13" s="92" t="s">
+        <v>355</v>
+      </c>
+      <c r="E13" s="81"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="97" t="s">
+        <v>371</v>
+      </c>
+      <c r="I13" s="92" t="s">
+        <v>372</v>
+      </c>
+      <c r="J13" s="81"/>
+      <c r="K13" s="99" t="s">
+        <v>388</v>
+      </c>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81"/>
+    </row>
+    <row r="14" spans="2:13" ht="15.75">
+      <c r="B14" s="93"/>
+      <c r="C14" s="91">
+        <v>4</v>
+      </c>
+      <c r="D14" s="92" t="s">
+        <v>356</v>
+      </c>
+      <c r="E14" s="81"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="97" t="s">
+        <v>373</v>
+      </c>
+      <c r="I14" s="92" t="s">
+        <v>374</v>
+      </c>
+      <c r="J14" s="81"/>
+      <c r="K14" s="99" t="s">
+        <v>388</v>
+      </c>
+      <c r="L14" s="80"/>
+      <c r="M14" s="81"/>
+    </row>
+    <row r="15" spans="2:13" ht="15.75">
+      <c r="B15" s="93"/>
+      <c r="C15" s="91">
+        <v>5</v>
+      </c>
+      <c r="D15" s="92" t="s">
+        <v>357</v>
+      </c>
+      <c r="E15" s="81"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="97" t="s">
+        <v>375</v>
+      </c>
+      <c r="I15" s="92" t="s">
+        <v>376</v>
+      </c>
+      <c r="J15" s="81"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81"/>
+    </row>
+    <row r="16" spans="2:13" ht="15.75">
+      <c r="B16" s="93"/>
+      <c r="C16" s="91">
+        <v>6</v>
+      </c>
+      <c r="D16" s="92" t="s">
+        <v>358</v>
+      </c>
+      <c r="E16" s="81"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="97" t="s">
+        <v>377</v>
+      </c>
+      <c r="I16" s="92" t="s">
+        <v>378</v>
+      </c>
+      <c r="J16" s="81"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
+    </row>
+    <row r="17" spans="2:18" ht="15.75">
+      <c r="B17" s="93"/>
+      <c r="C17" s="91">
+        <v>7</v>
+      </c>
+      <c r="D17" s="92" t="s">
+        <v>359</v>
+      </c>
+      <c r="E17" s="81"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="97" t="s">
+        <v>379</v>
+      </c>
+      <c r="I17" s="92" t="s">
+        <v>380</v>
+      </c>
+      <c r="J17" s="81"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
+    </row>
+    <row r="18" spans="2:18" ht="15.75">
+      <c r="B18" s="93"/>
+      <c r="C18" s="91">
+        <v>8</v>
+      </c>
+      <c r="D18" s="92" t="s">
+        <v>360</v>
+      </c>
+      <c r="E18" s="81"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="97" t="s">
+        <v>381</v>
+      </c>
+      <c r="I18" s="92" t="s">
+        <v>196</v>
+      </c>
+      <c r="J18" s="81"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
+    </row>
+    <row r="19" spans="2:18" ht="15.75">
+      <c r="B19" s="94"/>
+      <c r="C19" s="91">
+        <v>9</v>
+      </c>
+      <c r="D19" s="92" t="s">
+        <v>361</v>
+      </c>
+      <c r="E19" s="81"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="97" t="s">
+        <v>382</v>
+      </c>
+      <c r="I19" s="92" t="s">
+        <v>383</v>
+      </c>
+      <c r="J19" s="81"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
+    </row>
+    <row r="20" spans="2:18" ht="15.75">
+      <c r="B20" s="94"/>
+      <c r="C20" s="91">
+        <v>10</v>
+      </c>
+      <c r="D20" s="92" t="s">
+        <v>362</v>
+      </c>
+      <c r="E20" s="81"/>
+    </row>
+    <row r="21" spans="2:18" ht="15.75">
+      <c r="B21" s="94"/>
+      <c r="C21" s="91">
+        <v>11</v>
+      </c>
+      <c r="D21" s="92" t="s">
+        <v>363</v>
+      </c>
+      <c r="E21" s="81"/>
+    </row>
+    <row r="22" spans="2:18" ht="15.75">
+      <c r="B22" s="94"/>
+      <c r="C22" s="91">
+        <v>12</v>
+      </c>
+      <c r="D22" s="92" t="s">
+        <v>364</v>
+      </c>
+      <c r="E22" s="81"/>
+    </row>
+    <row r="23" spans="2:18" ht="15.75">
+      <c r="B23" s="94"/>
+      <c r="C23" s="91">
+        <v>13</v>
+      </c>
+      <c r="D23" s="92" t="s">
+        <v>365</v>
+      </c>
+      <c r="E23" s="81"/>
+    </row>
+    <row r="24" spans="2:18" ht="15.75">
+      <c r="B24" s="94"/>
+      <c r="C24" s="91">
+        <v>14</v>
+      </c>
+      <c r="D24" s="92" t="s">
+        <v>366</v>
+      </c>
+      <c r="E24" s="81"/>
+    </row>
+    <row r="25" spans="2:18" ht="15.75">
+      <c r="B25" s="95"/>
+      <c r="C25" s="91">
+        <v>15</v>
+      </c>
+      <c r="D25" s="92" t="s">
+        <v>367</v>
+      </c>
+      <c r="E25" s="81"/>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="B28" s="83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18">
+      <c r="D29" s="83"/>
+    </row>
+    <row r="30" spans="2:18" ht="15.75">
+      <c r="C30" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" s="89" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="C31" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="H11" s="122" t="s">
-        <v>315</v>
-      </c>
-      <c r="I11" s="117" t="s">
-        <v>369</v>
-      </c>
-      <c r="J11" s="106"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="106"/>
-    </row>
-    <row r="12" spans="2:13" ht="15.75">
-      <c r="B12" s="118"/>
-      <c r="C12" s="116">
-        <v>2</v>
-      </c>
-      <c r="D12" s="117" t="s">
-        <v>355</v>
-      </c>
-      <c r="E12" s="106"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="122" t="s">
-        <v>370</v>
-      </c>
-      <c r="I12" s="117" t="s">
-        <v>371</v>
-      </c>
-      <c r="J12" s="106"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="105"/>
-      <c r="M12" s="106"/>
-    </row>
-    <row r="13" spans="2:13" ht="15.75">
-      <c r="B13" s="118"/>
-      <c r="C13" s="116">
-        <v>3</v>
-      </c>
-      <c r="D13" s="117" t="s">
-        <v>356</v>
-      </c>
-      <c r="E13" s="106"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="122" t="s">
-        <v>372</v>
-      </c>
-      <c r="I13" s="117" t="s">
-        <v>373</v>
-      </c>
-      <c r="J13" s="106"/>
-      <c r="K13" s="126" t="s">
-        <v>389</v>
-      </c>
-      <c r="L13" s="105"/>
-      <c r="M13" s="106"/>
-    </row>
-    <row r="14" spans="2:13" ht="15.75">
-      <c r="B14" s="118"/>
-      <c r="C14" s="116">
-        <v>4</v>
-      </c>
-      <c r="D14" s="117" t="s">
-        <v>357</v>
-      </c>
-      <c r="E14" s="106"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="122" t="s">
-        <v>374</v>
-      </c>
-      <c r="I14" s="117" t="s">
-        <v>375</v>
-      </c>
-      <c r="J14" s="106"/>
-      <c r="K14" s="126" t="s">
-        <v>389</v>
-      </c>
-      <c r="L14" s="105"/>
-      <c r="M14" s="106"/>
-    </row>
-    <row r="15" spans="2:13" ht="15.75">
-      <c r="B15" s="118"/>
-      <c r="C15" s="116">
-        <v>5</v>
-      </c>
-      <c r="D15" s="117" t="s">
-        <v>358</v>
-      </c>
-      <c r="E15" s="106"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="122" t="s">
-        <v>376</v>
-      </c>
-      <c r="I15" s="117" t="s">
-        <v>377</v>
-      </c>
-      <c r="J15" s="106"/>
-      <c r="K15" s="117"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="106"/>
-    </row>
-    <row r="16" spans="2:13" ht="15.75">
-      <c r="B16" s="118"/>
-      <c r="C16" s="116">
-        <v>6</v>
-      </c>
-      <c r="D16" s="117" t="s">
-        <v>359</v>
-      </c>
-      <c r="E16" s="106"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="122" t="s">
-        <v>378</v>
-      </c>
-      <c r="I16" s="117" t="s">
-        <v>379</v>
-      </c>
-      <c r="J16" s="106"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="106"/>
-    </row>
-    <row r="17" spans="2:18" ht="15.75">
-      <c r="B17" s="118"/>
-      <c r="C17" s="116">
-        <v>7</v>
-      </c>
-      <c r="D17" s="117" t="s">
-        <v>360</v>
-      </c>
-      <c r="E17" s="106"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="122" t="s">
-        <v>380</v>
-      </c>
-      <c r="I17" s="117" t="s">
-        <v>381</v>
-      </c>
-      <c r="J17" s="106"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="105"/>
-      <c r="M17" s="106"/>
-    </row>
-    <row r="18" spans="2:18" ht="15.75">
-      <c r="B18" s="118"/>
-      <c r="C18" s="116">
-        <v>8</v>
-      </c>
-      <c r="D18" s="117" t="s">
-        <v>361</v>
-      </c>
-      <c r="E18" s="106"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="122" t="s">
-        <v>382</v>
-      </c>
-      <c r="I18" s="117" t="s">
-        <v>197</v>
-      </c>
-      <c r="J18" s="106"/>
-      <c r="K18" s="117"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="106"/>
-    </row>
-    <row r="19" spans="2:18" ht="15.75">
-      <c r="B19" s="119"/>
-      <c r="C19" s="116">
-        <v>9</v>
-      </c>
-      <c r="D19" s="117" t="s">
-        <v>362</v>
-      </c>
-      <c r="E19" s="106"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="122" t="s">
-        <v>383</v>
-      </c>
-      <c r="I19" s="117" t="s">
-        <v>384</v>
-      </c>
-      <c r="J19" s="106"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="105"/>
-      <c r="M19" s="106"/>
-    </row>
-    <row r="20" spans="2:18" ht="15.75">
-      <c r="B20" s="119"/>
-      <c r="C20" s="116">
-        <v>10</v>
-      </c>
-      <c r="D20" s="117" t="s">
-        <v>363</v>
-      </c>
-      <c r="E20" s="106"/>
-    </row>
-    <row r="21" spans="2:18" ht="15.75">
-      <c r="B21" s="119"/>
-      <c r="C21" s="116">
-        <v>11</v>
-      </c>
-      <c r="D21" s="117" t="s">
-        <v>364</v>
-      </c>
-      <c r="E21" s="106"/>
-    </row>
-    <row r="22" spans="2:18" ht="15.75">
-      <c r="B22" s="119"/>
-      <c r="C22" s="116">
-        <v>12</v>
-      </c>
-      <c r="D22" s="117" t="s">
-        <v>365</v>
-      </c>
-      <c r="E22" s="106"/>
-    </row>
-    <row r="23" spans="2:18" ht="15.75">
-      <c r="B23" s="119"/>
-      <c r="C23" s="116">
-        <v>13</v>
-      </c>
-      <c r="D23" s="117" t="s">
-        <v>366</v>
-      </c>
-      <c r="E23" s="106"/>
-    </row>
-    <row r="24" spans="2:18" ht="15.75">
-      <c r="B24" s="119"/>
-      <c r="C24" s="116">
-        <v>14</v>
-      </c>
-      <c r="D24" s="117" t="s">
-        <v>367</v>
-      </c>
-      <c r="E24" s="106"/>
-    </row>
-    <row r="25" spans="2:18" ht="15.75">
-      <c r="B25" s="120"/>
-      <c r="C25" s="116">
-        <v>15</v>
-      </c>
-      <c r="D25" s="117" t="s">
-        <v>368</v>
-      </c>
-      <c r="E25" s="106"/>
-    </row>
-    <row r="28" spans="2:18">
-      <c r="B28" s="108" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18">
-      <c r="D29" s="108"/>
-    </row>
-    <row r="30" spans="2:18" ht="15.75">
-      <c r="C30" s="107" t="s">
-        <v>199</v>
-      </c>
-      <c r="D30" s="114" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18">
-      <c r="C31" s="109" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="F31" s="8" t="s">
+      <c r="G31" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="H31" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="I31" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="J31" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="K31" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="L31" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="L31" s="8" t="s">
+      <c r="M31" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="M31" s="8" t="s">
+      <c r="N31" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="N31" s="8" t="s">
+      <c r="O31" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="O31" s="8" t="s">
+      <c r="P31" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="P31" s="8" t="s">
+      <c r="Q31" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="Q31" s="8" t="s">
+      <c r="R31" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="R31" s="8" t="s">
-        <v>330</v>
-      </c>
     </row>
     <row r="32" spans="2:18" ht="15.75">
-      <c r="C32" s="110" t="str">
+      <c r="C32" s="85" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
         <v>(D32に関数入力)</v>
       </c>
-      <c r="D32" s="111" t="s">
-        <v>296</v>
-      </c>
-      <c r="E32" s="112" t="s">
-        <v>331</v>
-      </c>
-      <c r="F32" s="103">
+      <c r="D32" s="86" t="s">
+        <v>295</v>
+      </c>
+      <c r="E32" s="87" t="s">
+        <v>330</v>
+      </c>
+      <c r="F32" s="78">
         <v>1</v>
       </c>
-      <c r="G32" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="H32" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="I32" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="J32" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="K32" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="L32" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="M32" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="N32" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="O32" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="P32" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q32" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="R32" s="103" t="s">
+      <c r="G32" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="H32" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="I32" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="J32" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="K32" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="L32" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="M32" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="N32" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="O32" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="P32" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q32" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="R32" s="78" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="3:20">
-      <c r="F33" s="103">
+      <c r="F33" s="78">
         <v>2</v>
       </c>
-      <c r="G33" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="H33" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="I33" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="J33" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="K33" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="L33" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="M33" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="N33" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="O33" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="P33" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q33" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="R33" s="103" t="s">
+      <c r="G33" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="H33" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="I33" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="J33" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="K33" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="L33" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="M33" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="N33" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="O33" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="P33" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q33" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="R33" s="78" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="3:20">
-      <c r="F34" s="103">
+      <c r="F34" s="78">
         <v>3</v>
       </c>
-      <c r="G34" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="H34" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="I34" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="J34" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="K34" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="L34" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="M34" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="N34" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="O34" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="P34" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q34" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="R34" s="103" t="s">
+      <c r="G34" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="H34" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="I34" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="J34" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="K34" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="L34" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="M34" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="N34" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="O34" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="P34" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q34" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="R34" s="78" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="35" spans="3:20" ht="15.75">
       <c r="J35" s="50"/>
-      <c r="K35" s="113"/>
+      <c r="K35" s="88"/>
     </row>
     <row r="36" spans="3:20" ht="15.75">
-      <c r="C36" s="107" t="s">
-        <v>199</v>
-      </c>
-      <c r="D36" s="114" t="s">
+      <c r="C36" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" s="89" t="s">
+        <v>331</v>
+      </c>
+      <c r="F36" s="50"/>
+      <c r="G36" s="88"/>
+    </row>
+    <row r="37" spans="3:20">
+      <c r="C37" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="F36" s="50"/>
-      <c r="G36" s="113"/>
-    </row>
-    <row r="37" spans="3:20">
-      <c r="C37" s="109" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="E37" s="8" t="s">
+      <c r="F37" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="G37" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="M37" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="M37" s="8" t="s">
+      <c r="N37" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="N37" s="8" t="s">
+      <c r="O37" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="O37" s="8" t="s">
+      <c r="P37" s="8" t="s">
         <v>337</v>
-      </c>
-      <c r="P37" s="8" t="s">
-        <v>338</v>
       </c>
       <c r="Q37" s="8" t="s">
         <v>58</v>
@@ -18761,160 +21558,160 @@
         <v>61</v>
       </c>
       <c r="S37" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T37" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" spans="3:20" ht="15.75">
-      <c r="C38" s="110" t="str">
+      <c r="C38" s="85" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
         <v>(D38に関数入力)</v>
       </c>
-      <c r="D38" s="111" t="s">
-        <v>296</v>
-      </c>
-      <c r="E38" s="112" t="s">
-        <v>331</v>
-      </c>
-      <c r="F38" s="103">
+      <c r="D38" s="86" t="s">
+        <v>295</v>
+      </c>
+      <c r="E38" s="87" t="s">
+        <v>330</v>
+      </c>
+      <c r="F38" s="78">
         <v>1</v>
       </c>
-      <c r="G38" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="H38" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="I38" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="J38" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="K38" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="L38" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="M38" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="N38" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="O38" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="P38" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q38" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="R38" s="103" t="s">
+      <c r="G38" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="H38" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="I38" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="J38" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="K38" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="L38" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="M38" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="N38" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="O38" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="P38" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q38" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="R38" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="S38" s="103" t="s">
+      <c r="S38" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="T38" s="103" t="s">
+      <c r="T38" s="78" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="39" spans="3:20">
-      <c r="F39" s="103">
+      <c r="F39" s="78">
         <v>2</v>
       </c>
-      <c r="G39" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="H39" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="I39" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="J39" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="K39" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="L39" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="M39" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="N39" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="O39" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="P39" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q39" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="R39" s="103" t="s">
+      <c r="G39" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="H39" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="I39" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="J39" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="K39" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="L39" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="M39" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="N39" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="O39" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="P39" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q39" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="R39" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="S39" s="103" t="s">
+      <c r="S39" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="T39" s="103" t="s">
+      <c r="T39" s="78" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="40" spans="3:20">
-      <c r="F40" s="103">
+      <c r="F40" s="78">
         <v>3</v>
       </c>
-      <c r="G40" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="H40" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="I40" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="J40" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="K40" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="L40" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="M40" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="N40" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="O40" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="P40" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q40" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="R40" s="103" t="s">
+      <c r="G40" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="H40" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="I40" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="J40" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="K40" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="L40" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="M40" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="N40" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="O40" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="P40" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q40" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="R40" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="S40" s="103" t="s">
+      <c r="S40" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="T40" s="103" t="s">
+      <c r="T40" s="78" t="s">
         <v>14</v>
       </c>
     </row>
@@ -18934,389 +21731,389 @@
       <c r="R41" s="50"/>
     </row>
     <row r="42" spans="3:20" ht="15.75">
-      <c r="C42" s="107" t="s">
-        <v>199</v>
-      </c>
-      <c r="D42" s="114" t="s">
+      <c r="C42" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" s="89" t="s">
+        <v>339</v>
+      </c>
+      <c r="F42" s="50"/>
+      <c r="G42" s="88"/>
+    </row>
+    <row r="43" spans="3:20">
+      <c r="C43" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="M43" s="8" t="s">
         <v>340</v>
-      </c>
-      <c r="F42" s="50"/>
-      <c r="G42" s="113"/>
-    </row>
-    <row r="43" spans="3:20">
-      <c r="C43" s="109" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>341</v>
       </c>
       <c r="N43" s="8" t="s">
         <v>58</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P43" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q43" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="R43" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="Q43" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="R43" s="8" t="s">
-        <v>339</v>
-      </c>
     </row>
     <row r="44" spans="3:20" ht="15.75">
-      <c r="C44" s="110" t="str">
+      <c r="C44" s="85" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
         <v>(D44に関数入力)</v>
       </c>
-      <c r="D44" s="111" t="s">
-        <v>296</v>
-      </c>
-      <c r="E44" s="112" t="s">
-        <v>331</v>
-      </c>
-      <c r="F44" s="103">
+      <c r="D44" s="86" t="s">
+        <v>295</v>
+      </c>
+      <c r="E44" s="87" t="s">
+        <v>330</v>
+      </c>
+      <c r="F44" s="78">
         <v>1</v>
       </c>
-      <c r="G44" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="H44" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="I44" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="J44" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="K44" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="L44" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="M44" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="N44" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="O44" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="P44" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q44" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="R44" s="103" t="s">
+      <c r="G44" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="H44" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="I44" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="J44" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="K44" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="L44" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="M44" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="N44" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="O44" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="P44" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q44" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="R44" s="78" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="45" spans="3:20">
-      <c r="F45" s="103">
+      <c r="F45" s="78">
         <v>2</v>
       </c>
-      <c r="G45" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="H45" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="I45" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="J45" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="K45" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="L45" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="M45" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="N45" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="O45" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="P45" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q45" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="R45" s="103" t="s">
+      <c r="G45" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="H45" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="I45" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="J45" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="K45" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="L45" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="M45" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="N45" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="O45" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="P45" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q45" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="R45" s="78" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="46" spans="3:20">
-      <c r="F46" s="103">
+      <c r="F46" s="78">
         <v>3</v>
       </c>
-      <c r="G46" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="H46" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="I46" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="J46" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="K46" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="L46" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="M46" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="N46" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="O46" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="P46" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q46" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="R46" s="103" t="s">
+      <c r="G46" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="H46" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="I46" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="J46" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="K46" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="L46" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="M46" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="N46" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="O46" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="P46" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q46" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="R46" s="78" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="48" spans="3:20" ht="15.75">
-      <c r="C48" s="107" t="s">
-        <v>199</v>
-      </c>
-      <c r="D48" s="114" t="s">
-        <v>342</v>
+      <c r="C48" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="D48" s="89" t="s">
+        <v>341</v>
       </c>
       <c r="E48" s="50"/>
       <c r="F48" s="50"/>
-      <c r="G48" s="113"/>
+      <c r="G48" s="88"/>
     </row>
     <row r="49" spans="3:18">
-      <c r="C49" s="109" t="s">
+      <c r="C49" s="84" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E49" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="F49" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="F49" s="8" t="s">
-        <v>334</v>
-      </c>
       <c r="G49" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="H49" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="H49" s="8" t="s">
+      <c r="I49" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="I49" s="8" t="s">
+      <c r="J49" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="K49" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="K49" s="8" t="s">
+      <c r="L49" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="L49" s="8" t="s">
-        <v>324</v>
-      </c>
       <c r="M49" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N49" s="8" t="s">
         <v>61</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P49" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q49" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="R49" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="Q49" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="R49" s="8" t="s">
-        <v>339</v>
-      </c>
     </row>
     <row r="50" spans="3:18" ht="15.75">
-      <c r="C50" s="110" t="str">
+      <c r="C50" s="85" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
         <v>(D50に関数入力)</v>
       </c>
-      <c r="D50" s="111" t="s">
-        <v>296</v>
-      </c>
-      <c r="E50" s="112" t="s">
-        <v>331</v>
-      </c>
-      <c r="F50" s="103">
+      <c r="D50" s="86" t="s">
+        <v>295</v>
+      </c>
+      <c r="E50" s="87" t="s">
+        <v>330</v>
+      </c>
+      <c r="F50" s="78">
         <v>1</v>
       </c>
-      <c r="G50" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="H50" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="I50" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="J50" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="K50" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="L50" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="M50" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="N50" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="O50" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="P50" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q50" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="R50" s="103" t="s">
+      <c r="G50" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="H50" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="I50" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="J50" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="K50" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="L50" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="M50" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="N50" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="O50" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="P50" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q50" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="R50" s="78" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="51" spans="3:18">
-      <c r="F51" s="103">
+      <c r="F51" s="78">
         <v>2</v>
       </c>
-      <c r="G51" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="H51" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="I51" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="J51" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="K51" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="L51" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="M51" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="N51" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="O51" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="P51" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q51" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="R51" s="103" t="s">
+      <c r="G51" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="H51" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="I51" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="J51" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="K51" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="L51" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="M51" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="N51" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="O51" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="P51" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q51" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="R51" s="78" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="52" spans="3:18">
-      <c r="F52" s="103">
+      <c r="F52" s="78">
         <v>3</v>
       </c>
-      <c r="G52" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="H52" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="I52" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="J52" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="K52" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="L52" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="M52" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="N52" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="O52" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="P52" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q52" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="R52" s="103" t="s">
+      <c r="G52" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="H52" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="I52" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="J52" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="K52" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="L52" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="M52" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="N52" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="O52" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="P52" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q52" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="R52" s="78" t="s">
         <v>14</v>
       </c>
     </row>
@@ -19324,307 +22121,307 @@
       <c r="E53" s="50"/>
     </row>
     <row r="54" spans="3:18" ht="15.75">
-      <c r="C54" s="107" t="s">
-        <v>199</v>
-      </c>
-      <c r="D54" s="114" t="s">
-        <v>344</v>
-      </c>
-      <c r="E54" s="113"/>
+      <c r="C54" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="D54" s="89" t="s">
+        <v>343</v>
+      </c>
+      <c r="E54" s="88"/>
       <c r="F54" s="50"/>
-      <c r="G54" s="113"/>
+      <c r="G54" s="88"/>
     </row>
     <row r="55" spans="3:18">
-      <c r="C55" s="109" t="s">
+      <c r="C55" s="84" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E55" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="F55" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="F55" s="8" t="s">
-        <v>334</v>
-      </c>
       <c r="G55" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H55" s="8" t="s">
         <v>89</v>
       </c>
       <c r="I55" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="J55" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="J55" s="8" t="s">
+      <c r="K55" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="K55" s="8" t="s">
+      <c r="L55" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="L55" s="8" t="s">
+      <c r="M55" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="M55" s="8" t="s">
-        <v>349</v>
-      </c>
       <c r="N55" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O55" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" spans="3:18" ht="15.75">
-      <c r="C56" s="110" t="str">
+      <c r="C56" s="85" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
         <v>(D56に関数入力)</v>
       </c>
-      <c r="D56" s="111" t="s">
-        <v>296</v>
-      </c>
-      <c r="E56" s="112" t="s">
-        <v>331</v>
-      </c>
-      <c r="F56" s="103">
+      <c r="D56" s="86" t="s">
+        <v>295</v>
+      </c>
+      <c r="E56" s="87" t="s">
+        <v>330</v>
+      </c>
+      <c r="F56" s="78">
         <v>1</v>
       </c>
-      <c r="G56" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="H56" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="I56" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="J56" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="K56" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="L56" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="M56" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="N56" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="O56" s="103" t="s">
-        <v>296</v>
+      <c r="G56" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="H56" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="I56" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="J56" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="K56" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="L56" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="M56" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="N56" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="O56" s="78" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="57" spans="3:18">
-      <c r="F57" s="103">
+      <c r="F57" s="78">
         <v>2</v>
       </c>
-      <c r="G57" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="H57" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="I57" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="J57" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="K57" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="L57" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="M57" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="N57" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="O57" s="103" t="s">
-        <v>296</v>
+      <c r="G57" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="H57" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="I57" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="J57" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="K57" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="L57" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="M57" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="N57" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="O57" s="78" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="3:18">
-      <c r="F58" s="103">
+      <c r="F58" s="78">
         <v>3</v>
       </c>
-      <c r="G58" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="H58" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="I58" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="J58" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="K58" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="L58" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="M58" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="N58" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="O58" s="103" t="s">
-        <v>296</v>
+      <c r="G58" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="H58" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="I58" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="J58" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="K58" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="L58" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="M58" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="N58" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="O58" s="78" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="60" spans="3:18" ht="15.75">
-      <c r="C60" s="107" t="s">
-        <v>199</v>
-      </c>
-      <c r="D60" s="114" t="s">
-        <v>350</v>
-      </c>
-      <c r="E60" s="113"/>
+      <c r="C60" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="D60" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="E60" s="88"/>
       <c r="F60" s="50"/>
       <c r="G60" s="50"/>
     </row>
     <row r="61" spans="3:18">
-      <c r="C61" s="109" t="s">
+      <c r="C61" s="84" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E61" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="F61" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="F61" s="8" t="s">
-        <v>334</v>
-      </c>
       <c r="G61" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="H61" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="H61" s="8" t="s">
-        <v>320</v>
-      </c>
       <c r="I61" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L61" s="8" t="s">
         <v>50</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="62" spans="3:18" ht="15.75">
-      <c r="C62" s="110" t="str">
+      <c r="C62" s="85" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
         <v>(D62に関数入力)</v>
       </c>
-      <c r="D62" s="111" t="s">
-        <v>296</v>
-      </c>
-      <c r="E62" s="112" t="s">
-        <v>331</v>
-      </c>
-      <c r="F62" s="103">
+      <c r="D62" s="86" t="s">
+        <v>295</v>
+      </c>
+      <c r="E62" s="87" t="s">
+        <v>330</v>
+      </c>
+      <c r="F62" s="78">
         <v>1</v>
       </c>
-      <c r="G62" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="H62" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="I62" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="J62" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="K62" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="L62" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="M62" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="N62" s="103" t="s">
-        <v>296</v>
+      <c r="G62" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="H62" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="I62" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="J62" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="K62" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="L62" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="M62" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="N62" s="78" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="63" spans="3:18">
-      <c r="F63" s="103">
+      <c r="F63" s="78">
         <v>2</v>
       </c>
-      <c r="G63" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="H63" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="I63" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="J63" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="K63" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="L63" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="M63" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="N63" s="103" t="s">
-        <v>296</v>
+      <c r="G63" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="H63" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="I63" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="J63" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="K63" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="L63" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="M63" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="N63" s="78" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="64" spans="3:18">
-      <c r="F64" s="103">
+      <c r="F64" s="78">
         <v>3</v>
       </c>
-      <c r="G64" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="H64" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="I64" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="J64" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="K64" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="L64" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="M64" s="103" t="s">
-        <v>331</v>
-      </c>
-      <c r="N64" s="103" t="s">
-        <v>296</v>
+      <c r="G64" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="H64" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="I64" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="J64" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="K64" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="L64" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="M64" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="N64" s="78" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -19643,721 +22440,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet11"/>
-  <dimension ref="A2:I40"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="6"/>
-      <c r="C7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="6"/>
-      <c r="C8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="6"/>
-      <c r="C9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="6"/>
-      <c r="E10" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="6"/>
-      <c r="E11" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B12" s="6"/>
-      <c r="E12" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="6"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="B17" s="5"/>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="C18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="24"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="6"/>
-      <c r="C19" s="30" t="str">
-        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
-        <v>(D19に関数入力)</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="6"/>
-      <c r="D20" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="24"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="6"/>
-      <c r="D21" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="24"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="6"/>
-      <c r="D22" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="24"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="6"/>
-      <c r="D23" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="24"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="6"/>
-      <c r="D24" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="24"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="6"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="24"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="6"/>
-      <c r="B26" t="s">
-        <v>213</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="24"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="6"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="24"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="6"/>
-      <c r="B28" t="s">
-        <v>187</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="24"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="B29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="B30" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="C34" s="26">
-        <v>1</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="C35" s="26">
-        <v>3</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="36"/>
-      <c r="C36" s="26">
-        <v>5</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="37"/>
-      <c r="C37" s="26">
-        <v>6</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="C38" s="26">
-        <v>2</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="36" t="s">
-        <v>268</v>
-      </c>
-      <c r="C39" s="26">
-        <v>23</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="37"/>
-      <c r="C40" s="26">
-        <v>24</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>264</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet12"/>
-  <dimension ref="A2:I37"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="6"/>
-      <c r="C7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="6"/>
-      <c r="C8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="6"/>
-      <c r="C9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B10" s="6"/>
-      <c r="E10" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="6"/>
-      <c r="E11" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="6"/>
-      <c r="E12" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="6"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="B17" s="5"/>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="C18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="24"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="6"/>
-      <c r="C19" t="str">
-        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
-        <v>(D19に関数入力)</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="6"/>
-      <c r="D20" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="24"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="6"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="24"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="6"/>
-      <c r="B22" t="s">
-        <v>213</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="24"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="6"/>
-      <c r="B23" t="s">
-        <v>212</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="24"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="6"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="24"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="B25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="B26" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="B27" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="B30" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="B31" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="C31" s="26">
-        <v>1</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="B32" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="C32" s="26">
-        <v>3</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="36"/>
-      <c r="C33" s="26">
-        <v>5</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="37"/>
-      <c r="C34" s="26">
-        <v>6</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="C35" s="26">
-        <v>2</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="36" t="s">
-        <v>268</v>
-      </c>
-      <c r="C36" s="26">
-        <v>23</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="37"/>
-      <c r="C37" s="26">
-        <v>24</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>264</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/sample/ExcelMacro/kabuSTATION_API_function_sample.xlsx
+++ b/sample/ExcelMacro/kabuSTATION_API_function_sample.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fsv1\Develop\Vendor\JOL\プロジェクト\202104_開20-058-03_kabuS4月リリース\70.リリース\GitHubリリース\function_sample_完了\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fsv1\Develop\Vendor\JOL\プロジェクト\202105_開20-058-04_kabuS5月リリース\70.リリース\GitHubリリース\function_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12840" tabRatio="901"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12840" tabRatio="654"/>
   </bookViews>
   <sheets>
     <sheet name="注文取消" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="520">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -2765,6 +2765,46 @@
   </si>
   <si>
     <t>例：</t>
+  </si>
+  <si>
+    <t>SecurityType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指数</t>
+  </si>
+  <si>
+    <t>日経225先物</t>
+  </si>
+  <si>
+    <t>日経225OP</t>
+  </si>
+  <si>
+    <t>TOPIX先物</t>
+  </si>
+  <si>
+    <t>JPX400先物</t>
+  </si>
+  <si>
+    <t>NYダウ</t>
+  </si>
+  <si>
+    <t>日経平均VI</t>
+  </si>
+  <si>
+    <t>東証マザーズ指数先物</t>
+  </si>
+  <si>
+    <t>TOPIX_REIT</t>
+  </si>
+  <si>
+    <t>TOPIX CORE30</t>
+  </si>
+  <si>
+    <t>日経平均225ミニ先物</t>
+  </si>
+  <si>
+    <t>TOPIXミニ先物</t>
   </si>
 </sst>
 </file>
@@ -3215,7 +3255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -3432,31 +3472,22 @@
     <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3465,29 +3496,11 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3501,11 +3514,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3516,6 +3556,8 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -6455,7 +6497,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A2:CK29"/>
+  <dimension ref="A2:CL47"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6464,7 +6506,8 @@
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="6" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -6501,9 +6544,10 @@
     <col min="84" max="84" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="85" max="85" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="86" max="89" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:89">
+    <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6514,7 +6558,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:89">
+    <row r="3" spans="2:6">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -6525,12 +6569,12 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="5" spans="1:89">
+    <row r="5" spans="2:6">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:89">
+    <row r="6" spans="2:6">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>185</v>
@@ -6539,7 +6583,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:89">
+    <row r="7" spans="2:6">
       <c r="B7" s="6"/>
       <c r="C7" s="8" t="s">
         <v>165</v>
@@ -6551,7 +6595,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:89">
+    <row r="8" spans="2:6">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
         <v>189</v>
@@ -6563,1942 +6607,2110 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:89">
-      <c r="B10" s="5" t="s">
+    <row r="9" spans="2:6">
+      <c r="B9" s="6"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="6"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="6"/>
+      <c r="C11" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="6"/>
+      <c r="C12" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" s="26">
+        <v>1</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="6"/>
+      <c r="C13" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="D13" s="26">
+        <v>3</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="6"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="26">
+        <v>5</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="6"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="26">
+        <v>6</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="6"/>
+      <c r="C16" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16" s="26">
+        <v>2</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:90">
+      <c r="B17" s="6"/>
+      <c r="C17" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="D17" s="26">
+        <v>23</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:90">
+      <c r="B18" s="6"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="26">
+        <v>24</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:90">
+      <c r="B19" s="6"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:90">
+      <c r="B20" s="6"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="22" spans="1:90">
+      <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:89">
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:89">
-      <c r="B12" s="5"/>
-      <c r="C12" t="s">
+    <row r="23" spans="1:90">
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:90">
+      <c r="B24" s="5"/>
+      <c r="C24" t="s">
         <v>198</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="AF12" s="10" t="s">
+      <c r="AF24" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="10" t="s">
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="11"/>
+      <c r="AI24" s="12"/>
+      <c r="AJ24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AK12" s="12"/>
-      <c r="AL12" s="10" t="s">
+      <c r="AK24" s="12"/>
+      <c r="AL24" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AM12" s="12"/>
-      <c r="AN12" s="10" t="s">
+      <c r="AM24" s="12"/>
+      <c r="AN24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AO12" s="12"/>
-      <c r="AP12" s="10" t="s">
+      <c r="AO24" s="12"/>
+      <c r="AP24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AQ12" s="12"/>
-      <c r="AR12" s="10" t="s">
+      <c r="AQ24" s="12"/>
+      <c r="AR24" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AS12" s="12"/>
-      <c r="AT12" s="10" t="s">
+      <c r="AS24" s="12"/>
+      <c r="AT24" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AU12" s="12"/>
-      <c r="AV12" s="10" t="s">
+      <c r="AU24" s="12"/>
+      <c r="AV24" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AW12" s="12"/>
-      <c r="AX12" s="10" t="s">
+      <c r="AW24" s="12"/>
+      <c r="AX24" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AY12" s="12"/>
-      <c r="AZ12" s="10" t="s">
+      <c r="AY24" s="12"/>
+      <c r="AZ24" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="BA12" s="12"/>
-      <c r="BG12" s="10" t="s">
+      <c r="BA24" s="12"/>
+      <c r="BG24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="BH12" s="11"/>
-      <c r="BI12" s="11"/>
-      <c r="BJ12" s="12"/>
-      <c r="BK12" s="10" t="s">
+      <c r="BH24" s="11"/>
+      <c r="BI24" s="11"/>
+      <c r="BJ24" s="12"/>
+      <c r="BK24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="BL12" s="12"/>
-      <c r="BM12" s="10" t="s">
+      <c r="BL24" s="12"/>
+      <c r="BM24" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="BN12" s="12"/>
-      <c r="BO12" s="10" t="s">
+      <c r="BN24" s="12"/>
+      <c r="BO24" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="BP12" s="12"/>
-      <c r="BQ12" s="10" t="s">
+      <c r="BP24" s="12"/>
+      <c r="BQ24" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="BR12" s="12"/>
-      <c r="BS12" s="10" t="s">
+      <c r="BR24" s="12"/>
+      <c r="BS24" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="BT12" s="12"/>
-      <c r="BU12" s="10" t="s">
+      <c r="BT24" s="12"/>
+      <c r="BU24" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="BV12" s="12"/>
-      <c r="BW12" s="10" t="s">
+      <c r="BV24" s="12"/>
+      <c r="BW24" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="BX12" s="12"/>
-      <c r="BY12" s="10" t="s">
+      <c r="BX24" s="12"/>
+      <c r="BY24" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="BZ12" s="12"/>
-      <c r="CA12" s="10" t="s">
+      <c r="BZ24" s="12"/>
+      <c r="CA24" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="CB12" s="12"/>
-    </row>
-    <row r="13" spans="1:89">
-      <c r="C13" s="6" t="s">
+      <c r="CB24" s="12"/>
+    </row>
+    <row r="25" spans="1:90">
+      <c r="C25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F25" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G25" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H25" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I25" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J25" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K25" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L25" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M25" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="N25" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="O25" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="P13" s="8" t="s">
+      <c r="P25" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="Q13" s="8" t="s">
+      <c r="Q25" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="R13" s="8" t="s">
+      <c r="R25" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="S13" s="8" t="s">
+      <c r="S25" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="T13" s="8" t="s">
+      <c r="T25" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="U13" s="8" t="s">
+      <c r="U25" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="V13" s="8" t="s">
+      <c r="V25" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="W13" s="8" t="s">
+      <c r="W25" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="X13" s="8" t="s">
+      <c r="X25" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="Y13" s="8" t="s">
+      <c r="Y25" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Z13" s="8" t="s">
+      <c r="Z25" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AA13" s="8" t="s">
+      <c r="AA25" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AB13" s="8" t="s">
+      <c r="AB25" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="AC13" s="8" t="s">
+      <c r="AC25" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AD13" s="8" t="s">
+      <c r="AD25" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="AE13" s="8" t="s">
+      <c r="AE25" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AF13" s="40" t="s">
+      <c r="AF25" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="AG13" s="40" t="s">
+      <c r="AG25" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="AH13" s="40" t="s">
+      <c r="AH25" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="AI13" s="40" t="s">
+      <c r="AI25" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="AJ13" s="8" t="s">
+      <c r="AJ25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AK13" s="8" t="s">
+      <c r="AK25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AL13" s="8" t="s">
+      <c r="AL25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AM13" s="8" t="s">
+      <c r="AM25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AN13" s="8" t="s">
+      <c r="AN25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AO13" s="8" t="s">
+      <c r="AO25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AP13" s="8" t="s">
+      <c r="AP25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AQ13" s="8" t="s">
+      <c r="AQ25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AR13" s="8" t="s">
+      <c r="AR25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AS13" s="8" t="s">
+      <c r="AS25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AT13" s="8" t="s">
+      <c r="AT25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AU13" s="8" t="s">
+      <c r="AU25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AV13" s="8" t="s">
+      <c r="AV25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AW13" s="8" t="s">
+      <c r="AW25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AX13" s="8" t="s">
+      <c r="AX25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AY13" s="8" t="s">
+      <c r="AY25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AZ13" s="8" t="s">
+      <c r="AZ25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="BA13" s="8" t="s">
+      <c r="BA25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BB13" s="8" t="s">
+      <c r="BB25" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="BC13" s="8" t="s">
+      <c r="BC25" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="BD13" s="8" t="s">
+      <c r="BD25" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="BE13" s="8" t="s">
+      <c r="BE25" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="BF13" s="8" t="s">
+      <c r="BF25" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="BG13" s="40" t="s">
+      <c r="BG25" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="BH13" s="40" t="s">
+      <c r="BH25" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="BI13" s="40" t="s">
+      <c r="BI25" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="BJ13" s="40" t="s">
+      <c r="BJ25" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="BK13" s="8" t="s">
+      <c r="BK25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="BL13" s="8" t="s">
+      <c r="BL25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BM13" s="8" t="s">
+      <c r="BM25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="BN13" s="8" t="s">
+      <c r="BN25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BO13" s="8" t="s">
+      <c r="BO25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="BP13" s="8" t="s">
+      <c r="BP25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BQ13" s="8" t="s">
+      <c r="BQ25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="BR13" s="8" t="s">
+      <c r="BR25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BS13" s="8" t="s">
+      <c r="BS25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="BT13" s="8" t="s">
+      <c r="BT25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BU13" s="8" t="s">
+      <c r="BU25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="BV13" s="8" t="s">
+      <c r="BV25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BW13" s="8" t="s">
+      <c r="BW25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="BX13" s="8" t="s">
+      <c r="BX25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BY13" s="8" t="s">
+      <c r="BY25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="BZ13" s="8" t="s">
+      <c r="BZ25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="CA13" s="8" t="s">
+      <c r="CA25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="CB13" s="8" t="s">
+      <c r="CB25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="CC13" s="8" t="s">
+      <c r="CC25" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="CD13" s="8" t="s">
+      <c r="CD25" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="CE13" s="8" t="s">
+      <c r="CE25" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="CF13" s="8" t="s">
+      <c r="CF25" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="CG13" s="8" t="s">
+      <c r="CG25" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="CH13" s="8" t="s">
+      <c r="CH25" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="CI13" s="8" t="s">
+      <c r="CI25" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="CJ13" s="8" t="s">
+      <c r="CJ25" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="CK13" s="8" t="s">
+      <c r="CK25" s="8" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="14" spans="1:89">
-      <c r="A14" s="6"/>
-      <c r="C14" s="30" t="str">
+      <c r="CL25" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:90">
+      <c r="A26" s="6"/>
+      <c r="C26" s="30" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
-        <v>(D14に関数入力)</v>
-      </c>
-      <c r="D14" s="7">
+        <v>(D26に関数入力)</v>
+      </c>
+      <c r="D26" s="7">
         <v>8411</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="S14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="U14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="V14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="W14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="X14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AY14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BF14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BH14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BI14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BJ14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BK14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BL14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BM14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BN14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BO14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BP14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BQ14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BR14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BS14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BT14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BU14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BV14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BW14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BX14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BY14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BZ14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CA14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CB14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CC14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CD14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CE14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CF14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CG14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CH14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CK14" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:89">
-      <c r="A15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AY15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB15" s="7"/>
-      <c r="BC15" s="7"/>
-      <c r="BD15" s="7"/>
-      <c r="BE15" s="7"/>
-      <c r="BF15" s="7"/>
-      <c r="BG15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BH15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BI15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BJ15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BK15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BL15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BM15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BN15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BO15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BP15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BQ15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BR15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BS15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BT15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BU15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BV15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BW15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BX15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BY15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BZ15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CA15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CB15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CC15" s="7"/>
-      <c r="CD15" s="7"/>
-      <c r="CE15" s="7"/>
-      <c r="CF15" s="7"/>
-      <c r="CG15" s="7"/>
-      <c r="CH15" s="7"/>
-      <c r="CI15" s="7"/>
-      <c r="CJ15" s="7"/>
-      <c r="CK15" s="7"/>
-    </row>
-    <row r="16" spans="1:89">
-      <c r="A16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AY16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB16" s="7"/>
-      <c r="BC16" s="7"/>
-      <c r="BD16" s="7"/>
-      <c r="BE16" s="7"/>
-      <c r="BF16" s="7"/>
-      <c r="BG16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BH16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BI16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BJ16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BK16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BL16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BM16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BN16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BO16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BP16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BQ16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BR16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BS16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BT16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BU16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BV16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BW16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BX16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BY16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BZ16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CA16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CB16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CC16" s="7"/>
-      <c r="CD16" s="7"/>
-      <c r="CE16" s="7"/>
-      <c r="CF16" s="7"/>
-      <c r="CG16" s="7"/>
-      <c r="CH16" s="7"/>
-      <c r="CI16" s="7"/>
-      <c r="CJ16" s="7"/>
-      <c r="CK16" s="7"/>
-    </row>
-    <row r="17" spans="1:89">
-      <c r="A17" s="6"/>
-      <c r="D17" s="7">
+      <c r="E26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="R26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="S26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="T26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="U26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="V26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="W26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="X26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BP26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BS26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BV26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BW26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BX26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BY26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BZ26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CA26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CB26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CC26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CD26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CK26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CL26" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:90">
+      <c r="A27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB27" s="7"/>
+      <c r="BC27" s="7"/>
+      <c r="BD27" s="7"/>
+      <c r="BE27" s="7"/>
+      <c r="BF27" s="7"/>
+      <c r="BG27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BP27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BS27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BV27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BW27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BX27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BY27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BZ27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CA27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CB27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CC27" s="7"/>
+      <c r="CD27" s="7"/>
+      <c r="CE27" s="7"/>
+      <c r="CF27" s="7"/>
+      <c r="CG27" s="7"/>
+      <c r="CH27" s="7"/>
+      <c r="CI27" s="7"/>
+      <c r="CJ27" s="7"/>
+      <c r="CK27" s="7"/>
+      <c r="CL27" s="7"/>
+    </row>
+    <row r="28" spans="1:90">
+      <c r="A28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB28" s="7"/>
+      <c r="BC28" s="7"/>
+      <c r="BD28" s="7"/>
+      <c r="BE28" s="7"/>
+      <c r="BF28" s="7"/>
+      <c r="BG28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BP28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BS28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BV28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BW28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BX28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BY28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BZ28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CA28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CB28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CC28" s="7"/>
+      <c r="CD28" s="7"/>
+      <c r="CE28" s="7"/>
+      <c r="CF28" s="7"/>
+      <c r="CG28" s="7"/>
+      <c r="CH28" s="7"/>
+      <c r="CI28" s="7"/>
+      <c r="CJ28" s="7"/>
+      <c r="CK28" s="7"/>
+      <c r="CL28" s="7"/>
+    </row>
+    <row r="29" spans="1:90">
+      <c r="A29" s="6"/>
+      <c r="D29" s="7">
         <v>5401</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="R17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="S17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="U17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="V17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="W17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="X17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AY17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BF17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BH17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BI17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BJ17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BK17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BL17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BM17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BN17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BO17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BP17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BQ17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BR17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BS17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BT17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BU17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BV17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BW17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BX17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BY17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BZ17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CA17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CB17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CC17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CD17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CE17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CF17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CG17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CH17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CK17" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:89">
-      <c r="A18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AY18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB18" s="7"/>
-      <c r="BC18" s="7"/>
-      <c r="BD18" s="7"/>
-      <c r="BE18" s="7"/>
-      <c r="BF18" s="7"/>
-      <c r="BG18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BH18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BI18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BJ18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BK18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BL18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BM18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BN18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BO18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BP18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BQ18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BR18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BS18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BT18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BU18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BV18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BW18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BX18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BY18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BZ18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CA18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CB18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CC18" s="7"/>
-      <c r="CD18" s="7"/>
-      <c r="CE18" s="7"/>
-      <c r="CF18" s="7"/>
-      <c r="CG18" s="7"/>
-      <c r="CH18" s="7"/>
-      <c r="CI18" s="7"/>
-      <c r="CJ18" s="7"/>
-      <c r="CK18" s="7"/>
-    </row>
-    <row r="19" spans="1:89">
-      <c r="A19" s="6"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="9"/>
-      <c r="AG19" s="9"/>
-      <c r="AH19" s="9"/>
-      <c r="AI19" s="9"/>
-      <c r="AJ19" s="9"/>
-      <c r="AK19" s="9"/>
-      <c r="AL19" s="9"/>
-      <c r="AM19" s="9"/>
-      <c r="AN19" s="9"/>
-      <c r="AO19" s="9"/>
-      <c r="AP19" s="9"/>
-      <c r="AQ19" s="9"/>
-      <c r="AR19" s="9"/>
-      <c r="AS19" s="9"/>
-      <c r="AT19" s="9"/>
-      <c r="AU19" s="9"/>
-      <c r="AV19" s="9"/>
-      <c r="AW19" s="9"/>
-      <c r="AX19" s="9"/>
-      <c r="AY19" s="9"/>
-      <c r="AZ19" s="9"/>
-      <c r="BA19" s="9"/>
-      <c r="BB19" s="9"/>
-      <c r="BC19" s="9"/>
-      <c r="BD19" s="9"/>
-      <c r="BE19" s="9"/>
-      <c r="BF19" s="9"/>
-      <c r="BG19" s="9"/>
-      <c r="BH19" s="9"/>
-      <c r="BI19" s="9"/>
-      <c r="BJ19" s="9"/>
-      <c r="BK19" s="9"/>
-      <c r="BL19" s="9"/>
-      <c r="BM19" s="9"/>
-      <c r="BN19" s="9"/>
-      <c r="BO19" s="9"/>
-      <c r="BP19" s="9"/>
-      <c r="BQ19" s="9"/>
-      <c r="BR19" s="9"/>
-      <c r="BS19" s="9"/>
-      <c r="BT19" s="9"/>
-      <c r="BU19" s="9"/>
-      <c r="BV19" s="9"/>
-      <c r="BW19" s="9"/>
-      <c r="BX19" s="9"/>
-      <c r="BY19" s="9"/>
-      <c r="BZ19" s="9"/>
-      <c r="CA19" s="9"/>
-      <c r="CB19" s="9"/>
-      <c r="CC19" s="9"/>
-      <c r="CD19" s="9"/>
-      <c r="CE19" s="9"/>
-      <c r="CF19" s="9"/>
-      <c r="CG19" s="9"/>
-      <c r="CH19" s="9"/>
-      <c r="CI19" s="9"/>
-      <c r="CJ19" s="9"/>
-      <c r="CK19" s="9"/>
-    </row>
-    <row r="20" spans="1:89">
-      <c r="A20" s="6"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="9"/>
-      <c r="AK20" s="9"/>
-      <c r="AL20" s="9"/>
-      <c r="AM20" s="9"/>
-      <c r="AN20" s="9"/>
-      <c r="AO20" s="9"/>
-      <c r="AP20" s="9"/>
-      <c r="AQ20" s="9"/>
-      <c r="AR20" s="9"/>
-      <c r="AS20" s="9"/>
-      <c r="AT20" s="9"/>
-      <c r="AU20" s="9"/>
-      <c r="AV20" s="9"/>
-      <c r="AW20" s="9"/>
-      <c r="AX20" s="9"/>
-      <c r="AY20" s="9"/>
-      <c r="AZ20" s="9"/>
-      <c r="BA20" s="9"/>
-      <c r="BB20" s="9"/>
-      <c r="BC20" s="9"/>
-      <c r="BD20" s="9"/>
-      <c r="BE20" s="9"/>
-      <c r="BF20" s="9"/>
-      <c r="BG20" s="9"/>
-      <c r="BH20" s="9"/>
-      <c r="BI20" s="9"/>
-      <c r="BJ20" s="9"/>
-      <c r="BK20" s="9"/>
-      <c r="BL20" s="9"/>
-      <c r="BM20" s="9"/>
-      <c r="BN20" s="9"/>
-      <c r="BO20" s="9"/>
-      <c r="BP20" s="9"/>
-      <c r="BQ20" s="9"/>
-      <c r="BR20" s="9"/>
-      <c r="BS20" s="9"/>
-      <c r="BT20" s="9"/>
-      <c r="BU20" s="9"/>
-      <c r="BV20" s="9"/>
-      <c r="BW20" s="9"/>
-      <c r="BX20" s="9"/>
-      <c r="BY20" s="9"/>
-      <c r="BZ20" s="9"/>
-      <c r="CA20" s="9"/>
-      <c r="CB20" s="9"/>
-      <c r="CC20" s="9"/>
-      <c r="CD20" s="9"/>
-      <c r="CE20" s="9"/>
-      <c r="CF20" s="9"/>
-      <c r="CG20" s="9"/>
-      <c r="CH20" s="9"/>
-      <c r="CI20" s="9"/>
-      <c r="CJ20" s="9"/>
-      <c r="CK20" s="9"/>
-    </row>
-    <row r="21" spans="1:89">
-      <c r="A21" s="6"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="9"/>
-      <c r="AJ21" s="9"/>
-      <c r="AK21" s="9"/>
-      <c r="AL21" s="9"/>
-      <c r="AM21" s="9"/>
-      <c r="AN21" s="9"/>
-      <c r="AO21" s="9"/>
-      <c r="AP21" s="9"/>
-      <c r="AQ21" s="9"/>
-      <c r="AR21" s="9"/>
-      <c r="AS21" s="9"/>
-      <c r="AT21" s="9"/>
-      <c r="AU21" s="9"/>
-      <c r="AV21" s="9"/>
-      <c r="AW21" s="9"/>
-      <c r="AX21" s="9"/>
-      <c r="AY21" s="9"/>
-      <c r="AZ21" s="9"/>
-      <c r="BA21" s="9"/>
-      <c r="BB21" s="9"/>
-      <c r="BC21" s="9"/>
-      <c r="BD21" s="9"/>
-      <c r="BE21" s="9"/>
-      <c r="BF21" s="9"/>
-      <c r="BG21" s="9"/>
-      <c r="BH21" s="9"/>
-      <c r="BI21" s="9"/>
-      <c r="BJ21" s="9"/>
-      <c r="BK21" s="9"/>
-      <c r="BL21" s="9"/>
-      <c r="BM21" s="9"/>
-      <c r="BN21" s="9"/>
-      <c r="BO21" s="9"/>
-      <c r="BP21" s="9"/>
-      <c r="BQ21" s="9"/>
-      <c r="BR21" s="9"/>
-      <c r="BS21" s="9"/>
-      <c r="BT21" s="9"/>
-      <c r="BU21" s="9"/>
-      <c r="BV21" s="9"/>
-      <c r="BW21" s="9"/>
-      <c r="BX21" s="9"/>
-      <c r="BY21" s="9"/>
-      <c r="BZ21" s="9"/>
-      <c r="CA21" s="9"/>
-      <c r="CB21" s="9"/>
-      <c r="CC21" s="9"/>
-      <c r="CD21" s="9"/>
-      <c r="CE21" s="9"/>
-      <c r="CF21" s="9"/>
-      <c r="CG21" s="9"/>
-      <c r="CH21" s="9"/>
-      <c r="CI21" s="9"/>
-      <c r="CJ21" s="9"/>
-      <c r="CK21" s="9"/>
-    </row>
-    <row r="22" spans="1:89">
-      <c r="B22" s="34" t="s">
+      <c r="E29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="R29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="T29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="U29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="V29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="W29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="X29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BP29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BS29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BV29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BW29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BX29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BY29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BZ29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CA29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CB29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CC29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CD29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CK29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CL29" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:90">
+      <c r="A30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB30" s="7"/>
+      <c r="BC30" s="7"/>
+      <c r="BD30" s="7"/>
+      <c r="BE30" s="7"/>
+      <c r="BF30" s="7"/>
+      <c r="BG30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BP30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BS30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BV30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BW30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BX30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BY30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BZ30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CA30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CB30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CC30" s="7"/>
+      <c r="CD30" s="7"/>
+      <c r="CE30" s="7"/>
+      <c r="CF30" s="7"/>
+      <c r="CG30" s="7"/>
+      <c r="CH30" s="7"/>
+      <c r="CI30" s="7"/>
+      <c r="CJ30" s="7"/>
+      <c r="CK30" s="7"/>
+      <c r="CL30" s="7"/>
+    </row>
+    <row r="31" spans="1:90">
+      <c r="A31" s="6"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="9"/>
+      <c r="AC31" s="9"/>
+      <c r="AD31" s="9"/>
+      <c r="AE31" s="9"/>
+      <c r="AF31" s="9"/>
+      <c r="AG31" s="9"/>
+      <c r="AH31" s="9"/>
+      <c r="AI31" s="9"/>
+      <c r="AJ31" s="9"/>
+      <c r="AK31" s="9"/>
+      <c r="AL31" s="9"/>
+      <c r="AM31" s="9"/>
+      <c r="AN31" s="9"/>
+      <c r="AO31" s="9"/>
+      <c r="AP31" s="9"/>
+      <c r="AQ31" s="9"/>
+      <c r="AR31" s="9"/>
+      <c r="AS31" s="9"/>
+      <c r="AT31" s="9"/>
+      <c r="AU31" s="9"/>
+      <c r="AV31" s="9"/>
+      <c r="AW31" s="9"/>
+      <c r="AX31" s="9"/>
+      <c r="AY31" s="9"/>
+      <c r="AZ31" s="9"/>
+      <c r="BA31" s="9"/>
+      <c r="BB31" s="9"/>
+      <c r="BC31" s="9"/>
+      <c r="BD31" s="9"/>
+      <c r="BE31" s="9"/>
+      <c r="BF31" s="9"/>
+      <c r="BG31" s="9"/>
+      <c r="BH31" s="9"/>
+      <c r="BI31" s="9"/>
+      <c r="BJ31" s="9"/>
+      <c r="BK31" s="9"/>
+      <c r="BL31" s="9"/>
+      <c r="BM31" s="9"/>
+      <c r="BN31" s="9"/>
+      <c r="BO31" s="9"/>
+      <c r="BP31" s="9"/>
+      <c r="BQ31" s="9"/>
+      <c r="BR31" s="9"/>
+      <c r="BS31" s="9"/>
+      <c r="BT31" s="9"/>
+      <c r="BU31" s="9"/>
+      <c r="BV31" s="9"/>
+      <c r="BW31" s="9"/>
+      <c r="BX31" s="9"/>
+      <c r="BY31" s="9"/>
+      <c r="BZ31" s="9"/>
+      <c r="CA31" s="9"/>
+      <c r="CB31" s="9"/>
+      <c r="CC31" s="9"/>
+      <c r="CD31" s="9"/>
+      <c r="CE31" s="9"/>
+      <c r="CF31" s="9"/>
+      <c r="CG31" s="9"/>
+      <c r="CH31" s="9"/>
+      <c r="CI31" s="9"/>
+      <c r="CJ31" s="9"/>
+      <c r="CK31" s="9"/>
+    </row>
+    <row r="32" spans="1:90">
+      <c r="A32" s="6"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="9"/>
+      <c r="AE32" s="9"/>
+      <c r="AF32" s="9"/>
+      <c r="AG32" s="9"/>
+      <c r="AH32" s="9"/>
+      <c r="AI32" s="9"/>
+      <c r="AJ32" s="9"/>
+      <c r="AK32" s="9"/>
+      <c r="AL32" s="9"/>
+      <c r="AM32" s="9"/>
+      <c r="AN32" s="9"/>
+      <c r="AO32" s="9"/>
+      <c r="AP32" s="9"/>
+      <c r="AQ32" s="9"/>
+      <c r="AR32" s="9"/>
+      <c r="AS32" s="9"/>
+      <c r="AT32" s="9"/>
+      <c r="AU32" s="9"/>
+      <c r="AV32" s="9"/>
+      <c r="AW32" s="9"/>
+      <c r="AX32" s="9"/>
+      <c r="AY32" s="9"/>
+      <c r="AZ32" s="9"/>
+      <c r="BA32" s="9"/>
+      <c r="BB32" s="9"/>
+      <c r="BC32" s="9"/>
+      <c r="BD32" s="9"/>
+      <c r="BE32" s="9"/>
+      <c r="BF32" s="9"/>
+      <c r="BG32" s="9"/>
+      <c r="BH32" s="9"/>
+      <c r="BI32" s="9"/>
+      <c r="BJ32" s="9"/>
+      <c r="BK32" s="9"/>
+      <c r="BL32" s="9"/>
+      <c r="BM32" s="9"/>
+      <c r="BN32" s="9"/>
+      <c r="BO32" s="9"/>
+      <c r="BP32" s="9"/>
+      <c r="BQ32" s="9"/>
+      <c r="BR32" s="9"/>
+      <c r="BS32" s="9"/>
+      <c r="BT32" s="9"/>
+      <c r="BU32" s="9"/>
+      <c r="BV32" s="9"/>
+      <c r="BW32" s="9"/>
+      <c r="BX32" s="9"/>
+      <c r="BY32" s="9"/>
+      <c r="BZ32" s="9"/>
+      <c r="CA32" s="9"/>
+      <c r="CB32" s="9"/>
+      <c r="CC32" s="9"/>
+      <c r="CD32" s="9"/>
+      <c r="CE32" s="9"/>
+      <c r="CF32" s="9"/>
+      <c r="CG32" s="9"/>
+      <c r="CH32" s="9"/>
+      <c r="CI32" s="9"/>
+      <c r="CJ32" s="9"/>
+      <c r="CK32" s="9"/>
+    </row>
+    <row r="33" spans="1:89">
+      <c r="A33" s="6"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="9"/>
+      <c r="AH33" s="9"/>
+      <c r="AI33" s="9"/>
+      <c r="AJ33" s="9"/>
+      <c r="AK33" s="9"/>
+      <c r="AL33" s="9"/>
+      <c r="AM33" s="9"/>
+      <c r="AN33" s="9"/>
+      <c r="AO33" s="9"/>
+      <c r="AP33" s="9"/>
+      <c r="AQ33" s="9"/>
+      <c r="AR33" s="9"/>
+      <c r="AS33" s="9"/>
+      <c r="AT33" s="9"/>
+      <c r="AU33" s="9"/>
+      <c r="AV33" s="9"/>
+      <c r="AW33" s="9"/>
+      <c r="AX33" s="9"/>
+      <c r="AY33" s="9"/>
+      <c r="AZ33" s="9"/>
+      <c r="BA33" s="9"/>
+      <c r="BB33" s="9"/>
+      <c r="BC33" s="9"/>
+      <c r="BD33" s="9"/>
+      <c r="BE33" s="9"/>
+      <c r="BF33" s="9"/>
+      <c r="BG33" s="9"/>
+      <c r="BH33" s="9"/>
+      <c r="BI33" s="9"/>
+      <c r="BJ33" s="9"/>
+      <c r="BK33" s="9"/>
+      <c r="BL33" s="9"/>
+      <c r="BM33" s="9"/>
+      <c r="BN33" s="9"/>
+      <c r="BO33" s="9"/>
+      <c r="BP33" s="9"/>
+      <c r="BQ33" s="9"/>
+      <c r="BR33" s="9"/>
+      <c r="BS33" s="9"/>
+      <c r="BT33" s="9"/>
+      <c r="BU33" s="9"/>
+      <c r="BV33" s="9"/>
+      <c r="BW33" s="9"/>
+      <c r="BX33" s="9"/>
+      <c r="BY33" s="9"/>
+      <c r="BZ33" s="9"/>
+      <c r="CA33" s="9"/>
+      <c r="CB33" s="9"/>
+      <c r="CC33" s="9"/>
+      <c r="CD33" s="9"/>
+      <c r="CE33" s="9"/>
+      <c r="CF33" s="9"/>
+      <c r="CG33" s="9"/>
+      <c r="CH33" s="9"/>
+      <c r="CI33" s="9"/>
+      <c r="CJ33" s="9"/>
+      <c r="CK33" s="9"/>
+    </row>
+    <row r="34" spans="1:89">
+      <c r="C34" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="D34" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="E34" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="9"/>
-      <c r="AL22" s="9"/>
-      <c r="AM22" s="9"/>
-      <c r="AN22" s="9"/>
-      <c r="AO22" s="9"/>
-      <c r="AP22" s="9"/>
-      <c r="AQ22" s="9"/>
-      <c r="AR22" s="9"/>
-      <c r="AS22" s="9"/>
-      <c r="AT22" s="9"/>
-      <c r="AU22" s="9"/>
-      <c r="AV22" s="9"/>
-      <c r="AW22" s="9"/>
-      <c r="AX22" s="9"/>
-      <c r="AY22" s="9"/>
-      <c r="AZ22" s="9"/>
-      <c r="BA22" s="9"/>
-      <c r="BB22" s="9"/>
-      <c r="BC22" s="9"/>
-      <c r="BD22" s="9"/>
-      <c r="BE22" s="9"/>
-      <c r="BF22" s="9"/>
-      <c r="BG22" s="9"/>
-      <c r="BH22" s="9"/>
-      <c r="BI22" s="9"/>
-      <c r="BJ22" s="9"/>
-      <c r="BK22" s="9"/>
-      <c r="BL22" s="9"/>
-      <c r="BM22" s="9"/>
-      <c r="BN22" s="9"/>
-      <c r="BO22" s="9"/>
-      <c r="BP22" s="9"/>
-      <c r="BQ22" s="9"/>
-      <c r="BR22" s="9"/>
-      <c r="BS22" s="9"/>
-      <c r="BT22" s="9"/>
-      <c r="BU22" s="9"/>
-      <c r="BV22" s="9"/>
-      <c r="BW22" s="9"/>
-      <c r="BX22" s="9"/>
-      <c r="BY22" s="9"/>
-      <c r="BZ22" s="9"/>
-      <c r="CA22" s="9"/>
-      <c r="CB22" s="9"/>
-      <c r="CC22" s="9"/>
-      <c r="CD22" s="9"/>
-      <c r="CE22" s="9"/>
-      <c r="CF22" s="9"/>
-      <c r="CG22" s="9"/>
-      <c r="CH22" s="9"/>
-      <c r="CI22" s="9"/>
-      <c r="CJ22" s="9"/>
-      <c r="CK22" s="9"/>
-    </row>
-    <row r="23" spans="1:89">
-      <c r="B23" s="35" t="s">
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="9"/>
+      <c r="AE34" s="9"/>
+      <c r="AF34" s="9"/>
+      <c r="AG34" s="9"/>
+      <c r="AH34" s="9"/>
+      <c r="AI34" s="9"/>
+      <c r="AJ34" s="9"/>
+      <c r="AK34" s="9"/>
+      <c r="AL34" s="9"/>
+      <c r="AM34" s="9"/>
+      <c r="AN34" s="9"/>
+      <c r="AO34" s="9"/>
+      <c r="AP34" s="9"/>
+      <c r="AQ34" s="9"/>
+      <c r="AR34" s="9"/>
+      <c r="AS34" s="9"/>
+      <c r="AT34" s="9"/>
+      <c r="AU34" s="9"/>
+      <c r="AV34" s="9"/>
+      <c r="AW34" s="9"/>
+      <c r="AX34" s="9"/>
+      <c r="AY34" s="9"/>
+      <c r="AZ34" s="9"/>
+      <c r="BA34" s="9"/>
+      <c r="BB34" s="9"/>
+      <c r="BC34" s="9"/>
+      <c r="BD34" s="9"/>
+      <c r="BE34" s="9"/>
+      <c r="BF34" s="9"/>
+      <c r="BG34" s="9"/>
+      <c r="BH34" s="9"/>
+      <c r="BI34" s="9"/>
+      <c r="BJ34" s="9"/>
+      <c r="BK34" s="9"/>
+      <c r="BL34" s="9"/>
+      <c r="BM34" s="9"/>
+      <c r="BN34" s="9"/>
+      <c r="BO34" s="9"/>
+      <c r="BP34" s="9"/>
+      <c r="BQ34" s="9"/>
+      <c r="BR34" s="9"/>
+      <c r="BS34" s="9"/>
+      <c r="BT34" s="9"/>
+      <c r="BU34" s="9"/>
+      <c r="BV34" s="9"/>
+      <c r="BW34" s="9"/>
+      <c r="BX34" s="9"/>
+      <c r="BY34" s="9"/>
+      <c r="BZ34" s="9"/>
+      <c r="CA34" s="9"/>
+      <c r="CB34" s="9"/>
+      <c r="CC34" s="9"/>
+      <c r="CD34" s="9"/>
+      <c r="CE34" s="9"/>
+      <c r="CF34" s="9"/>
+      <c r="CG34" s="9"/>
+      <c r="CH34" s="9"/>
+      <c r="CI34" s="9"/>
+      <c r="CJ34" s="9"/>
+      <c r="CK34" s="9"/>
+    </row>
+    <row r="35" spans="1:89">
+      <c r="C35" s="35" t="s">
+        <v>507</v>
+      </c>
+      <c r="D35" s="158">
+        <v>0</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>508</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="9"/>
+      <c r="AE35" s="9"/>
+      <c r="AF35" s="9"/>
+      <c r="AG35" s="9"/>
+      <c r="AH35" s="9"/>
+      <c r="AI35" s="9"/>
+      <c r="AJ35" s="9"/>
+      <c r="AK35" s="9"/>
+      <c r="AL35" s="9"/>
+      <c r="AM35" s="9"/>
+      <c r="AN35" s="9"/>
+      <c r="AO35" s="9"/>
+      <c r="AP35" s="9"/>
+      <c r="AQ35" s="9"/>
+      <c r="AR35" s="9"/>
+      <c r="AS35" s="9"/>
+      <c r="AT35" s="9"/>
+      <c r="AU35" s="9"/>
+      <c r="AV35" s="9"/>
+      <c r="AW35" s="9"/>
+      <c r="AX35" s="9"/>
+      <c r="AY35" s="9"/>
+      <c r="AZ35" s="9"/>
+      <c r="BA35" s="9"/>
+      <c r="BB35" s="9"/>
+      <c r="BC35" s="9"/>
+      <c r="BD35" s="9"/>
+      <c r="BE35" s="9"/>
+      <c r="BF35" s="9"/>
+      <c r="BG35" s="9"/>
+      <c r="BH35" s="9"/>
+      <c r="BI35" s="9"/>
+      <c r="BJ35" s="9"/>
+      <c r="BK35" s="9"/>
+      <c r="BL35" s="9"/>
+      <c r="BM35" s="9"/>
+      <c r="BN35" s="9"/>
+      <c r="BO35" s="9"/>
+      <c r="BP35" s="9"/>
+      <c r="BQ35" s="9"/>
+      <c r="BR35" s="9"/>
+      <c r="BS35" s="9"/>
+      <c r="BT35" s="9"/>
+      <c r="BU35" s="9"/>
+      <c r="BV35" s="9"/>
+      <c r="BW35" s="9"/>
+      <c r="BX35" s="9"/>
+      <c r="BY35" s="9"/>
+      <c r="BZ35" s="9"/>
+      <c r="CA35" s="9"/>
+      <c r="CB35" s="9"/>
+      <c r="CC35" s="9"/>
+      <c r="CD35" s="9"/>
+      <c r="CE35" s="9"/>
+      <c r="CF35" s="9"/>
+      <c r="CG35" s="9"/>
+      <c r="CH35" s="9"/>
+      <c r="CI35" s="9"/>
+      <c r="CJ35" s="9"/>
+      <c r="CK35" s="9"/>
+    </row>
+    <row r="36" spans="1:89">
+      <c r="C36" s="35"/>
+      <c r="D36" s="158">
+        <v>1</v>
+      </c>
+      <c r="E36" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="C23" s="26">
-        <v>1</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="9"/>
-      <c r="AK23" s="9"/>
-      <c r="AL23" s="9"/>
-      <c r="AM23" s="9"/>
-      <c r="AN23" s="9"/>
-      <c r="AO23" s="9"/>
-      <c r="AP23" s="9"/>
-      <c r="AQ23" s="9"/>
-      <c r="AR23" s="9"/>
-      <c r="AS23" s="9"/>
-      <c r="AT23" s="9"/>
-      <c r="AU23" s="9"/>
-      <c r="AV23" s="9"/>
-      <c r="AW23" s="9"/>
-      <c r="AX23" s="9"/>
-      <c r="AY23" s="9"/>
-      <c r="AZ23" s="9"/>
-      <c r="BA23" s="9"/>
-      <c r="BB23" s="9"/>
-      <c r="BC23" s="9"/>
-      <c r="BD23" s="9"/>
-      <c r="BE23" s="9"/>
-      <c r="BF23" s="9"/>
-      <c r="BG23" s="9"/>
-      <c r="BH23" s="9"/>
-      <c r="BI23" s="9"/>
-      <c r="BJ23" s="9"/>
-      <c r="BK23" s="9"/>
-      <c r="BL23" s="9"/>
-      <c r="BM23" s="9"/>
-      <c r="BN23" s="9"/>
-      <c r="BO23" s="9"/>
-      <c r="BP23" s="9"/>
-      <c r="BQ23" s="9"/>
-      <c r="BR23" s="9"/>
-      <c r="BS23" s="9"/>
-      <c r="BT23" s="9"/>
-      <c r="BU23" s="9"/>
-      <c r="BV23" s="9"/>
-      <c r="BW23" s="9"/>
-      <c r="BX23" s="9"/>
-      <c r="BY23" s="9"/>
-      <c r="BZ23" s="9"/>
-      <c r="CA23" s="9"/>
-      <c r="CB23" s="9"/>
-      <c r="CC23" s="9"/>
-      <c r="CD23" s="9"/>
-      <c r="CE23" s="9"/>
-      <c r="CF23" s="9"/>
-      <c r="CG23" s="9"/>
-      <c r="CH23" s="9"/>
-      <c r="CI23" s="9"/>
-      <c r="CJ23" s="9"/>
-      <c r="CK23" s="9"/>
-    </row>
-    <row r="24" spans="1:89">
-      <c r="B24" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="C24" s="26">
-        <v>3</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:89">
-      <c r="B25" s="36"/>
-      <c r="C25" s="26">
-        <v>5</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:89">
-      <c r="B26" s="37"/>
-      <c r="C26" s="26">
-        <v>6</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:89">
-      <c r="B27" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="C27" s="26">
-        <v>2</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="28" spans="1:89">
-      <c r="B28" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="C28" s="26">
-        <v>23</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="29" spans="1:89">
-      <c r="B29" s="37"/>
-      <c r="C29" s="26">
-        <v>24</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>263</v>
+    </row>
+    <row r="37" spans="1:89">
+      <c r="C37" s="35"/>
+      <c r="D37" s="158">
+        <v>101</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="38" spans="1:89">
+      <c r="C38" s="35"/>
+      <c r="D38" s="158">
+        <v>103</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="39" spans="1:89">
+      <c r="C39" s="35"/>
+      <c r="D39" s="158">
+        <v>107</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="40" spans="1:89">
+      <c r="C40" s="35"/>
+      <c r="D40" s="158">
+        <v>121</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="41" spans="1:89">
+      <c r="C41" s="35"/>
+      <c r="D41" s="158">
+        <v>144</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="42" spans="1:89">
+      <c r="C42" s="35"/>
+      <c r="D42" s="158">
+        <v>145</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="43" spans="1:89">
+      <c r="C43" s="35"/>
+      <c r="D43" s="158">
+        <v>154</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="44" spans="1:89">
+      <c r="C44" s="35"/>
+      <c r="D44" s="158">
+        <v>155</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="45" spans="1:89">
+      <c r="C45" s="35"/>
+      <c r="D45" s="158">
+        <v>171</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="46" spans="1:89">
+      <c r="C46" s="35"/>
+      <c r="D46" s="158">
+        <v>901</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="47" spans="1:89">
+      <c r="C47" s="7"/>
+      <c r="D47" s="159">
+        <v>907</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -9084,80 +9296,80 @@
       <c r="C11" s="72" t="s">
         <v>305</v>
       </c>
-      <c r="D11" s="133" t="s">
+      <c r="D11" s="138" t="s">
         <v>299</v>
       </c>
-      <c r="E11" s="134"/>
-      <c r="F11" s="133" t="s">
+      <c r="E11" s="139"/>
+      <c r="F11" s="138" t="s">
         <v>300</v>
       </c>
-      <c r="G11" s="134"/>
+      <c r="G11" s="139"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="132" t="s">
+      <c r="B12" s="154" t="s">
         <v>279</v>
       </c>
       <c r="C12" s="48">
         <v>0</v>
       </c>
-      <c r="D12" s="135" t="s">
+      <c r="D12" s="150" t="s">
         <v>203</v>
       </c>
-      <c r="E12" s="136"/>
-      <c r="F12" s="149" t="s">
+      <c r="E12" s="151"/>
+      <c r="F12" s="140" t="s">
         <v>301</v>
       </c>
-      <c r="G12" s="150"/>
+      <c r="G12" s="141"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="132"/>
+      <c r="B13" s="154"/>
       <c r="C13" s="48">
         <v>1</v>
       </c>
-      <c r="D13" s="135" t="s">
+      <c r="D13" s="150" t="s">
         <v>202</v>
       </c>
-      <c r="E13" s="136"/>
-      <c r="F13" s="151" t="s">
+      <c r="E13" s="151"/>
+      <c r="F13" s="142" t="s">
         <v>308</v>
       </c>
-      <c r="G13" s="152"/>
+      <c r="G13" s="143"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="132"/>
+      <c r="B14" s="154"/>
       <c r="C14" s="48">
         <v>2</v>
       </c>
-      <c r="D14" s="135" t="s">
+      <c r="D14" s="150" t="s">
         <v>201</v>
       </c>
-      <c r="E14" s="136"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="152"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="143"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="132"/>
+      <c r="B15" s="154"/>
       <c r="C15" s="49">
         <v>3</v>
       </c>
-      <c r="D15" s="135" t="s">
+      <c r="D15" s="150" t="s">
         <v>266</v>
       </c>
-      <c r="E15" s="136"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="152"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="143"/>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="132"/>
+      <c r="B16" s="154"/>
       <c r="C16" s="49">
         <v>4</v>
       </c>
-      <c r="D16" s="135" t="s">
+      <c r="D16" s="150" t="s">
         <v>267</v>
       </c>
-      <c r="E16" s="136"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="146"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="145"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="65" t="s">
@@ -9212,30 +9424,30 @@
       <c r="G20" s="69"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="130" t="s">
+      <c r="B21" s="152" t="s">
         <v>288</v>
       </c>
       <c r="C21" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="D21" s="135" t="s">
+      <c r="D21" s="150" t="s">
         <v>306</v>
       </c>
-      <c r="E21" s="136"/>
+      <c r="E21" s="151"/>
       <c r="F21" s="73" t="s">
         <v>301</v>
       </c>
       <c r="G21" s="74"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="130"/>
+      <c r="B22" s="152"/>
       <c r="C22" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="D22" s="135" t="s">
+      <c r="D22" s="150" t="s">
         <v>307</v>
       </c>
-      <c r="E22" s="136"/>
+      <c r="E22" s="151"/>
       <c r="F22" s="75" t="s">
         <v>309</v>
       </c>
@@ -9258,130 +9470,130 @@
       <c r="G23" s="71"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="130" t="s">
+      <c r="B24" s="152" t="s">
         <v>291</v>
       </c>
       <c r="C24" s="47">
         <v>1</v>
       </c>
-      <c r="D24" s="137" t="s">
+      <c r="D24" s="148" t="s">
         <v>289</v>
       </c>
-      <c r="E24" s="138"/>
-      <c r="F24" s="143" t="s">
+      <c r="E24" s="149"/>
+      <c r="F24" s="146" t="s">
         <v>301</v>
       </c>
-      <c r="G24" s="144"/>
+      <c r="G24" s="147"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="130"/>
+      <c r="B25" s="152"/>
       <c r="C25" s="47">
         <v>2</v>
       </c>
-      <c r="D25" s="139" t="s">
+      <c r="D25" s="136" t="s">
         <v>280</v>
       </c>
-      <c r="E25" s="140"/>
-      <c r="F25" s="147" t="s">
+      <c r="E25" s="137"/>
+      <c r="F25" s="130" t="s">
         <v>308</v>
       </c>
-      <c r="G25" s="148"/>
+      <c r="G25" s="131"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="130"/>
+      <c r="B26" s="152"/>
       <c r="C26" s="47">
         <v>3</v>
       </c>
-      <c r="D26" s="139" t="s">
+      <c r="D26" s="136" t="s">
         <v>281</v>
       </c>
-      <c r="E26" s="140"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="148"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="131"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="130"/>
+      <c r="B27" s="152"/>
       <c r="C27" s="47">
         <v>4</v>
       </c>
-      <c r="D27" s="139" t="s">
+      <c r="D27" s="136" t="s">
         <v>282</v>
       </c>
-      <c r="E27" s="140"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="148"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="131"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="130"/>
+      <c r="B28" s="152"/>
       <c r="C28" s="47">
         <v>5</v>
       </c>
-      <c r="D28" s="139" t="s">
+      <c r="D28" s="136" t="s">
         <v>283</v>
       </c>
-      <c r="E28" s="140"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="142"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="135"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="130" t="s">
+      <c r="B29" s="152" t="s">
         <v>292</v>
       </c>
       <c r="C29" s="47">
         <v>1</v>
       </c>
-      <c r="D29" s="137" t="s">
+      <c r="D29" s="148" t="s">
         <v>290</v>
       </c>
-      <c r="E29" s="138"/>
-      <c r="F29" s="143" t="s">
+      <c r="E29" s="149"/>
+      <c r="F29" s="146" t="s">
         <v>301</v>
       </c>
-      <c r="G29" s="144"/>
+      <c r="G29" s="147"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="130"/>
+      <c r="B30" s="152"/>
       <c r="C30" s="47">
         <v>2</v>
       </c>
-      <c r="D30" s="139" t="s">
+      <c r="D30" s="136" t="s">
         <v>284</v>
       </c>
-      <c r="E30" s="140"/>
-      <c r="F30" s="147" t="s">
+      <c r="E30" s="137"/>
+      <c r="F30" s="130" t="s">
         <v>308</v>
       </c>
-      <c r="G30" s="148"/>
+      <c r="G30" s="131"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="131" t="s">
+      <c r="B31" s="153" t="s">
         <v>293</v>
       </c>
       <c r="C31" s="47">
         <v>2</v>
       </c>
-      <c r="D31" s="139" t="s">
+      <c r="D31" s="136" t="s">
         <v>285</v>
       </c>
-      <c r="E31" s="140"/>
-      <c r="F31" s="153" t="s">
+      <c r="E31" s="137"/>
+      <c r="F31" s="132" t="s">
         <v>301</v>
       </c>
-      <c r="G31" s="154"/>
+      <c r="G31" s="133"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="131"/>
+      <c r="B32" s="153"/>
       <c r="C32" s="47">
         <v>3</v>
       </c>
-      <c r="D32" s="139" t="s">
+      <c r="D32" s="136" t="s">
         <v>286</v>
       </c>
-      <c r="E32" s="140"/>
-      <c r="F32" s="141" t="s">
+      <c r="E32" s="137"/>
+      <c r="F32" s="134" t="s">
         <v>308</v>
       </c>
-      <c r="G32" s="142"/>
+      <c r="G32" s="135"/>
     </row>
     <row r="33" spans="1:36">
       <c r="B33" s="6"/>
@@ -19981,43 +20193,43 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="5">

--- a/sample/ExcelMacro/kabuSTATION_API_function_sample.xlsx
+++ b/sample/ExcelMacro/kabuSTATION_API_function_sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fsv1\Develop\Vendor\JOL\プロジェクト\202105_開20-058-04_kabuS5月リリース\70.リリース\GitHubリリース\function_sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fsv1\システム戦略部\900_Work\lu\kabu STATION\2021_デイトレ信用\70.リリース\GitHubリリース\function_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="525">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -2805,6 +2805,44 @@
   </si>
   <si>
     <t>TOPIXミニ先物</t>
+  </si>
+  <si>
+    <t>プレミアム料</t>
+    <rPh sb="4" eb="5">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※プレミアム料は、（注文中数量＋約定済数量）×１株あたりプレミアム料として計算されます。</t>
+    <rPh sb="6" eb="7">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　信用を注文した際に表示されます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　プレミアム料が存在しない場合は、0（ゼロ）と返されます。</t>
+    <rPh sb="6" eb="7">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xxxx</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -2812,26 +2850,26 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2840,7 +2878,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2848,14 +2886,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2864,21 +2902,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2919,7 +2957,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -3335,7 +3373,7 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3472,16 +3510,39 @@
     <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3490,17 +3551,23 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3514,38 +3581,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3556,8 +3596,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3843,26 +3881,26 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="8.375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3876,7 +3914,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3890,12 +3928,12 @@
       <c r="H3" s="3"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>11</v>
@@ -3904,7 +3942,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -3916,7 +3954,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
         <v>7</v>
@@ -3928,18 +3966,18 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
       <c r="C11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
       <c r="C12" t="s">
         <v>10</v>
@@ -3948,7 +3986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
@@ -3956,7 +3994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C14" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
         <v>(D14に関数入力)</v>
@@ -3965,15 +4003,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>10</v>
       </c>
@@ -3981,7 +4019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C18" s="6" t="s">
         <v>12</v>
       </c>
@@ -3989,7 +4027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C19" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
         <v>(D19に関数入力)</v>
@@ -4011,26 +4049,26 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="8.375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" s="103" t="s">
         <v>0</v>
       </c>
@@ -4041,7 +4079,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4052,44 +4090,44 @@
       <c r="E3" s="105"/>
       <c r="F3" s="106"/>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>401</v>
       </c>
       <c r="F6" s="29"/>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
         <v>402</v>
       </c>
       <c r="E7" s="27"/>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
         <v>403</v>
       </c>
       <c r="E8" s="28"/>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="H9" s="77"/>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
       <c r="C12" s="82" t="s">
         <v>198</v>
@@ -4098,7 +4136,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
@@ -4121,7 +4159,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C14" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
         <v>(D14に関数入力)</v>
@@ -4145,7 +4183,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D15" s="26"/>
       <c r="E15" s="108"/>
       <c r="F15" s="26"/>
@@ -4153,7 +4191,7 @@
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
@@ -4161,7 +4199,7 @@
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
@@ -4169,7 +4207,7 @@
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="109"/>
       <c r="C20" s="110" t="s">
         <v>390</v>
@@ -4178,7 +4216,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C21" s="111" t="s">
         <v>403</v>
       </c>
@@ -4186,7 +4224,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C22" s="111" t="s">
         <v>409</v>
       </c>
@@ -4194,7 +4232,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C23" s="111" t="s">
         <v>411</v>
       </c>
@@ -4202,7 +4240,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C24" s="111" t="s">
         <v>413</v>
       </c>
@@ -4210,7 +4248,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C25" s="111" t="s">
         <v>415</v>
       </c>
@@ -4218,7 +4256,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C26" s="111" t="s">
         <v>417</v>
       </c>
@@ -4226,7 +4264,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C27" s="111" t="s">
         <v>419</v>
       </c>
@@ -4234,7 +4272,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C28" s="111" t="s">
         <v>421</v>
       </c>
@@ -4242,7 +4280,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C29" s="111" t="s">
         <v>423</v>
       </c>
@@ -4250,7 +4288,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C30" s="111" t="s">
         <v>425</v>
       </c>
@@ -4258,7 +4296,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C31" s="111" t="s">
         <v>427</v>
       </c>
@@ -4266,22 +4304,23 @@
         <v>428</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>187</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
       <formula1>$C$21:$C$31</formula1>
@@ -4298,29 +4337,29 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" s="103" t="s">
         <v>0</v>
       </c>
@@ -4331,7 +4370,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4342,19 +4381,19 @@
       <c r="E3" s="105"/>
       <c r="F3" s="106"/>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>486</v>
       </c>
       <c r="F6" s="29"/>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
         <v>320</v>
@@ -4364,7 +4403,7 @@
       </c>
       <c r="E7" s="27"/>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="6"/>
       <c r="C8" s="43" t="s">
         <v>7</v>
@@ -4374,7 +4413,7 @@
       </c>
       <c r="E8" s="28"/>
     </row>
-    <row r="10" spans="2:9" ht="15.75">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C10" s="124"/>
       <c r="D10" s="127" t="s">
         <v>484</v>
@@ -4390,7 +4429,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="15.75">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C11" s="123" t="s">
         <v>482</v>
       </c>
@@ -4410,7 +4449,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="15.75">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C12" s="120"/>
       <c r="D12" s="116" t="s">
         <v>460</v>
@@ -4428,7 +4467,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="15.75">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C13" s="120"/>
       <c r="D13" s="116" t="s">
         <v>454</v>
@@ -4446,7 +4485,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="15.75">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C14" s="121"/>
       <c r="D14" s="116" t="s">
         <v>450</v>
@@ -4455,7 +4494,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="17" spans="3:14" ht="15.75">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C17" s="124"/>
       <c r="D17" s="127" t="s">
         <v>484</v>
@@ -4471,7 +4510,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="18" spans="3:14" ht="15.75">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C18" s="123" t="s">
         <v>481</v>
       </c>
@@ -4491,7 +4530,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="19" spans="3:14" ht="15.75">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C19" s="120"/>
       <c r="D19" s="116" t="s">
         <v>470</v>
@@ -4507,7 +4546,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="20" spans="3:14" ht="15.75">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C20" s="120"/>
       <c r="D20" s="116" t="s">
         <v>460</v>
@@ -4523,7 +4562,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="21" spans="3:14" ht="15.75">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C21" s="120"/>
       <c r="D21" s="116" t="s">
         <v>454</v>
@@ -4535,7 +4574,7 @@
       <c r="M21" s="114"/>
       <c r="N21" s="113"/>
     </row>
-    <row r="22" spans="3:14" ht="15.75">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C22" s="120"/>
       <c r="D22" s="116" t="s">
         <v>450</v>
@@ -4547,7 +4586,7 @@
       <c r="M22" s="114"/>
       <c r="N22" s="113"/>
     </row>
-    <row r="23" spans="3:14" ht="15.75">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C23" s="120"/>
       <c r="D23" s="116" t="s">
         <v>442</v>
@@ -4559,7 +4598,7 @@
       <c r="M23" s="114"/>
       <c r="N23" s="113"/>
     </row>
-    <row r="24" spans="3:14" ht="15.75">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C24" s="120"/>
       <c r="D24" s="116" t="s">
         <v>452</v>
@@ -4571,7 +4610,7 @@
       <c r="M24" s="114"/>
       <c r="N24" s="113"/>
     </row>
-    <row r="25" spans="3:14" ht="15.75">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C25" s="117"/>
       <c r="D25" s="116" t="s">
         <v>448</v>
@@ -4583,17 +4622,17 @@
       <c r="M25" s="114"/>
       <c r="N25" s="113"/>
     </row>
-    <row r="26" spans="3:14" ht="15.75">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.4">
       <c r="L26" s="113"/>
       <c r="M26" s="114"/>
       <c r="N26" s="113"/>
     </row>
-    <row r="27" spans="3:14" ht="15.75">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.4">
       <c r="L27" s="113"/>
       <c r="M27" s="114"/>
       <c r="N27" s="113"/>
     </row>
-    <row r="28" spans="3:14" ht="15.75">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C28" s="124"/>
       <c r="D28" s="127" t="s">
         <v>484</v>
@@ -4605,7 +4644,7 @@
       <c r="M28" s="114"/>
       <c r="N28" s="113"/>
     </row>
-    <row r="29" spans="3:14" ht="15.75">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C29" s="123" t="s">
         <v>480</v>
       </c>
@@ -4619,7 +4658,7 @@
       <c r="M29" s="114"/>
       <c r="N29" s="113"/>
     </row>
-    <row r="30" spans="3:14" ht="15.75">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C30" s="122" t="s">
         <v>472</v>
       </c>
@@ -4633,7 +4672,7 @@
       <c r="M30" s="114"/>
       <c r="N30" s="113"/>
     </row>
-    <row r="31" spans="3:14" ht="15.75">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C31" s="120" t="s">
         <v>467</v>
       </c>
@@ -4647,7 +4686,7 @@
       <c r="M31" s="114"/>
       <c r="N31" s="113"/>
     </row>
-    <row r="32" spans="3:14" ht="15.75">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C32" s="120"/>
       <c r="D32" s="116" t="s">
         <v>460</v>
@@ -4659,7 +4698,7 @@
       <c r="M32" s="114"/>
       <c r="N32" s="113"/>
     </row>
-    <row r="33" spans="2:14" ht="15.75">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C33" s="120"/>
       <c r="D33" s="116" t="s">
         <v>457</v>
@@ -4671,7 +4710,7 @@
       <c r="M33" s="114"/>
       <c r="N33" s="113"/>
     </row>
-    <row r="34" spans="2:14" ht="15.75">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C34" s="120"/>
       <c r="D34" s="116" t="s">
         <v>454</v>
@@ -4683,7 +4722,7 @@
       <c r="M34" s="114"/>
       <c r="N34" s="113"/>
     </row>
-    <row r="35" spans="2:14" ht="15.75">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C35" s="120"/>
       <c r="D35" s="116" t="s">
         <v>450</v>
@@ -4695,7 +4734,7 @@
       <c r="M35" s="114"/>
       <c r="N35" s="113"/>
     </row>
-    <row r="36" spans="2:14" ht="15.75">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C36" s="120"/>
       <c r="D36" s="116" t="s">
         <v>446</v>
@@ -4707,7 +4746,7 @@
       <c r="M36" s="114"/>
       <c r="N36" s="113"/>
     </row>
-    <row r="37" spans="2:14" ht="15.75">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C37" s="119"/>
       <c r="D37" s="116" t="s">
         <v>444</v>
@@ -4719,7 +4758,7 @@
       <c r="M37" s="114"/>
       <c r="N37" s="113"/>
     </row>
-    <row r="38" spans="2:14" ht="15.75">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C38" s="117"/>
       <c r="D38" s="116" t="s">
         <v>442</v>
@@ -4731,25 +4770,25 @@
       <c r="M38" s="114"/>
       <c r="N38" s="113"/>
     </row>
-    <row r="39" spans="2:14" ht="15.75">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.4">
       <c r="L39" s="113"/>
       <c r="M39" s="114"/>
       <c r="N39" s="113"/>
     </row>
-    <row r="40" spans="2:14" ht="15.75">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.4">
       <c r="L40" s="113"/>
       <c r="M40" s="114"/>
       <c r="N40" s="113"/>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B42" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B43" s="5"/>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B44" s="5"/>
       <c r="C44" t="s">
         <v>10</v>
@@ -4758,7 +4797,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C45" s="6" t="s">
         <v>12</v>
       </c>
@@ -4787,7 +4826,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="46" spans="2:14">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C46" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
         <v>(D46に関数入力)</v>
@@ -4817,7 +4856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="2:14">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.4">
       <c r="D47" s="108" t="s">
         <v>295</v>
       </c>
@@ -4843,7 +4882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="2:14">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.4">
       <c r="D48" s="108" t="s">
         <v>295</v>
       </c>
@@ -4869,7 +4908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D49" s="26"/>
       <c r="E49" s="108"/>
       <c r="F49" s="26"/>
@@ -4879,7 +4918,7 @@
       <c r="J49" s="26"/>
       <c r="K49" s="26"/>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D50" s="26"/>
       <c r="E50" s="108"/>
       <c r="F50" s="26"/>
@@ -4889,7 +4928,7 @@
       <c r="J50" s="26"/>
       <c r="K50" s="26"/>
     </row>
-    <row r="51" spans="2:11">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D51" s="46"/>
       <c r="E51" s="23"/>
       <c r="F51" s="46"/>
@@ -4899,7 +4938,7 @@
       <c r="J51" s="46"/>
       <c r="K51" s="46"/>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D52" s="46"/>
       <c r="E52" s="23"/>
       <c r="F52" s="46"/>
@@ -4909,37 +4948,38 @@
       <c r="J52" s="46"/>
       <c r="K52" s="46"/>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
         <v>438</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
       <formula1>"1,3,5,6"</formula1>
@@ -4956,27 +4996,27 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="8.375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" s="103" t="s">
         <v>0</v>
       </c>
@@ -4985,7 +5025,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4994,19 +5034,19 @@
       </c>
       <c r="D3" s="106"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>490</v>
       </c>
       <c r="F6" s="29"/>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
         <v>320</v>
@@ -5014,7 +5054,7 @@
       <c r="D7" s="126"/>
       <c r="E7" s="27"/>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8" s="6"/>
       <c r="C8" s="43" t="s">
         <v>7</v>
@@ -5022,15 +5062,15 @@
       <c r="D8" s="125"/>
       <c r="E8" s="28"/>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
       <c r="C12" t="s">
         <v>10</v>
@@ -5039,7 +5079,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
@@ -5050,7 +5090,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C14" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
         <v>(D14に関数入力)</v>
@@ -5062,28 +5102,28 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D15" s="26"/>
       <c r="E15" s="108"/>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D16" s="26"/>
       <c r="E16" s="108"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D17" s="26"/>
       <c r="E17" s="108"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D18" s="26"/>
       <c r="E18" s="108"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D19" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D20" s="46"/>
       <c r="E20" s="23"/>
       <c r="F20" s="46"/>
@@ -5093,7 +5133,7 @@
       <c r="J20" s="46"/>
       <c r="K20" s="46"/>
     </row>
-    <row r="21" spans="2:11" ht="15.75">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C21" s="124"/>
       <c r="D21" s="127" t="s">
         <v>484</v>
@@ -5108,7 +5148,7 @@
       <c r="J21" s="46"/>
       <c r="K21" s="46"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C22" s="123" t="s">
         <v>504</v>
       </c>
@@ -5119,7 +5159,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="15.75">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C23" s="120"/>
       <c r="D23" s="116" t="s">
         <v>460</v>
@@ -5128,7 +5168,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="15.75">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C24" s="120"/>
       <c r="D24" s="116" t="s">
         <v>454</v>
@@ -5137,7 +5177,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="15.75">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C25" s="121"/>
       <c r="D25" s="116" t="s">
         <v>450</v>
@@ -5146,22 +5186,23 @@
         <v>458</v>
       </c>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>187</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5173,26 +5214,26 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="5" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="5" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="8.375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" s="103" t="s">
         <v>0</v>
       </c>
@@ -5202,7 +5243,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5212,32 +5253,32 @@
       <c r="D3" s="105"/>
       <c r="E3" s="106"/>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>500</v>
       </c>
       <c r="F6" s="29"/>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="C7" s="126"/>
       <c r="D7" s="27"/>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="5"/>
       <c r="C10" t="s">
         <v>10</v>
@@ -5246,7 +5287,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
@@ -5269,7 +5310,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C12" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
         <v>(D12に関数入力)</v>
@@ -5293,7 +5334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D13" s="26"/>
       <c r="E13" s="108"/>
       <c r="F13" s="26"/>
@@ -5301,7 +5342,7 @@
       <c r="H13" s="26"/>
       <c r="I13" s="108"/>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D14" s="26"/>
       <c r="E14" s="108"/>
       <c r="F14" s="26"/>
@@ -5309,7 +5350,7 @@
       <c r="H14" s="26"/>
       <c r="I14" s="108"/>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D15" s="26"/>
       <c r="E15" s="108"/>
       <c r="F15" s="26"/>
@@ -5317,7 +5358,7 @@
       <c r="H15" s="26"/>
       <c r="I15" s="108"/>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D16" s="26"/>
       <c r="E16" s="108"/>
       <c r="F16" s="26"/>
@@ -5325,7 +5366,7 @@
       <c r="H16" s="26"/>
       <c r="I16" s="108"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D17" s="46"/>
       <c r="E17" s="23"/>
       <c r="F17" s="46"/>
@@ -5335,7 +5376,7 @@
       <c r="J17" s="46"/>
       <c r="K17" s="46"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>186</v>
       </c>
@@ -5348,20 +5389,21 @@
       <c r="J18" s="46"/>
       <c r="K18" s="46"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B21" s="112"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5374,23 +5416,23 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
+    <col min="5" max="6" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="8.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5401,7 +5443,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5412,12 +5454,12 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15.75" thickBot="1">
+    <row r="6" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>205</v>
@@ -5429,7 +5471,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="C7" t="s">
         <v>167</v>
@@ -5441,7 +5483,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8" s="6"/>
       <c r="C8" t="s">
         <v>170</v>
@@ -5453,7 +5495,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" s="6"/>
       <c r="C9" t="s">
         <v>172</v>
@@ -5465,7 +5507,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" s="6"/>
       <c r="E10" s="19" t="s">
         <v>174</v>
@@ -5474,7 +5516,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" s="6"/>
       <c r="E11" s="19" t="s">
         <v>175</v>
@@ -5483,7 +5525,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="15.75" thickBot="1">
+    <row r="12" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="6"/>
       <c r="E12" s="21" t="s">
         <v>176</v>
@@ -5492,18 +5534,18 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B13" s="6"/>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B17" s="5"/>
       <c r="C17" t="s">
         <v>10</v>
@@ -5512,7 +5554,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C18" s="6" t="s">
         <v>12</v>
       </c>
@@ -5527,7 +5569,7 @@
       <c r="H18" s="23"/>
       <c r="I18" s="24"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="6"/>
       <c r="C19" s="30" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
@@ -5544,7 +5586,7 @@
       <c r="H19" s="23"/>
       <c r="I19" s="24"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="6"/>
       <c r="D20" s="7" t="s">
         <v>171</v>
@@ -5557,7 +5599,7 @@
       <c r="H20" s="23"/>
       <c r="I20" s="24"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="6"/>
       <c r="D21" s="7" t="s">
         <v>173</v>
@@ -5570,7 +5612,7 @@
       <c r="H21" s="23"/>
       <c r="I21" s="24"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="6"/>
       <c r="D22" s="7" t="s">
         <v>174</v>
@@ -5583,7 +5625,7 @@
       <c r="H22" s="23"/>
       <c r="I22" s="24"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="6"/>
       <c r="D23" s="7" t="s">
         <v>175</v>
@@ -5596,7 +5638,7 @@
       <c r="H23" s="23"/>
       <c r="I23" s="24"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="6"/>
       <c r="D24" s="7" t="s">
         <v>176</v>
@@ -5609,7 +5651,7 @@
       <c r="H24" s="23"/>
       <c r="I24" s="24"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="6"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -5618,7 +5660,7 @@
       <c r="H25" s="23"/>
       <c r="I25" s="24"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="6"/>
       <c r="B26" t="s">
         <v>212</v>
@@ -5630,7 +5672,7 @@
       <c r="H26" s="23"/>
       <c r="I26" s="24"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="6"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
@@ -5639,7 +5681,7 @@
       <c r="H27" s="23"/>
       <c r="I27" s="24"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="6"/>
       <c r="B28" t="s">
         <v>186</v>
@@ -5651,17 +5693,17 @@
       <c r="H28" s="23"/>
       <c r="I28" s="24"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="34" t="s">
         <v>200</v>
       </c>
@@ -5672,7 +5714,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B34" s="35" t="s">
         <v>264</v>
       </c>
@@ -5683,7 +5725,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B35" s="36" t="s">
         <v>265</v>
       </c>
@@ -5694,7 +5736,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B36" s="36"/>
       <c r="C36" s="26">
         <v>5</v>
@@ -5703,7 +5745,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B37" s="37"/>
       <c r="C37" s="26">
         <v>6</v>
@@ -5712,7 +5754,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B38" s="38" t="s">
         <v>266</v>
       </c>
@@ -5723,7 +5765,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B39" s="36" t="s">
         <v>267</v>
       </c>
@@ -5734,7 +5776,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B40" s="37"/>
       <c r="C40" s="26">
         <v>24</v>
@@ -5756,23 +5798,23 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
+    <col min="5" max="6" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="8.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5783,7 +5825,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5794,12 +5836,12 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15.75" thickBot="1">
+    <row r="6" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>207</v>
@@ -5811,7 +5853,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="C7" t="s">
         <v>167</v>
@@ -5823,7 +5865,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8" s="6"/>
       <c r="C8" t="s">
         <v>170</v>
@@ -5835,7 +5877,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" s="6"/>
       <c r="C9" t="s">
         <v>172</v>
@@ -5847,7 +5889,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="15.75" thickBot="1">
+    <row r="10" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="6"/>
       <c r="E10" s="21" t="s">
         <v>174</v>
@@ -5856,7 +5898,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" s="6"/>
       <c r="E11" s="25" t="s">
         <v>175</v>
@@ -5865,7 +5907,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B12" s="6"/>
       <c r="E12" s="7" t="s">
         <v>176</v>
@@ -5874,18 +5916,18 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B13" s="6"/>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B17" s="5"/>
       <c r="C17" t="s">
         <v>10</v>
@@ -5894,7 +5936,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C18" s="6" t="s">
         <v>12</v>
       </c>
@@ -5909,7 +5951,7 @@
       <c r="H18" s="23"/>
       <c r="I18" s="24"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="6"/>
       <c r="C19" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
@@ -5926,7 +5968,7 @@
       <c r="H19" s="23"/>
       <c r="I19" s="24"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="6"/>
       <c r="D20" s="7" t="s">
         <v>176</v>
@@ -5939,7 +5981,7 @@
       <c r="H20" s="23"/>
       <c r="I20" s="24"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="6"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -5948,7 +5990,7 @@
       <c r="H21" s="23"/>
       <c r="I21" s="24"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B22" s="34" t="s">
         <v>200</v>
       </c>
@@ -5959,7 +6001,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B23" s="35" t="s">
         <v>264</v>
       </c>
@@ -5970,7 +6012,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B24" s="36" t="s">
         <v>265</v>
       </c>
@@ -5981,7 +6023,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B25" s="36"/>
       <c r="C25" s="26">
         <v>5</v>
@@ -5990,7 +6032,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B26" s="37"/>
       <c r="C26" s="26">
         <v>6</v>
@@ -5999,7 +6041,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B27" s="38" t="s">
         <v>266</v>
       </c>
@@ -6010,7 +6052,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B28" s="36" t="s">
         <v>267</v>
       </c>
@@ -6021,7 +6063,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B29" s="37"/>
       <c r="C29" s="26">
         <v>24</v>
@@ -6030,37 +6072,37 @@
         <v>263</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="15.75" thickBot="1">
+    <row r="39" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>506</v>
       </c>
@@ -6071,7 +6113,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="15.75" thickBot="1">
+    <row r="40" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C40" s="128" t="s">
         <v>407</v>
       </c>
@@ -6092,22 +6134,22 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
+    <col min="5" max="6" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="8.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6118,7 +6160,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -6129,32 +6171,32 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
       <c r="C11" t="s">
         <v>10</v>
@@ -6163,7 +6205,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
@@ -6175,7 +6217,7 @@
       <c r="H12" s="23"/>
       <c r="I12" s="24"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
       <c r="C13" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
@@ -6189,7 +6231,7 @@
       <c r="H13" s="23"/>
       <c r="I13" s="24"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -6198,7 +6240,7 @@
       <c r="H14" s="23"/>
       <c r="I14" s="24"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>210</v>
@@ -6210,22 +6252,22 @@
       <c r="H15" s="23"/>
       <c r="I15" s="24"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>187</v>
       </c>
@@ -6244,23 +6286,23 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
+    <col min="5" max="6" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="8.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6271,7 +6313,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="31" t="s">
         <v>2</v>
       </c>
@@ -6282,7 +6324,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" s="32"/>
       <c r="C4" s="2" t="s">
         <v>182</v>
@@ -6291,7 +6333,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="32"/>
       <c r="C5" s="2" t="s">
         <v>259</v>
@@ -6300,7 +6342,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" s="33"/>
       <c r="C6" s="2" t="s">
         <v>260</v>
@@ -6309,18 +6351,18 @@
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" s="6"/>
       <c r="C10" s="8" t="s">
         <v>165</v>
@@ -6329,7 +6371,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
         <v>189</v>
@@ -6338,29 +6380,29 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B12" s="6"/>
       <c r="C12" t="s">
         <v>191</v>
       </c>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B13" s="6"/>
       <c r="C13" t="s">
         <v>192</v>
       </c>
       <c r="D13" s="9"/>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B17" s="5"/>
       <c r="C17" t="s">
         <v>198</v>
@@ -6369,7 +6411,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C18" s="6" t="s">
         <v>12</v>
       </c>
@@ -6377,7 +6419,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="6"/>
       <c r="C19" s="30" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
@@ -6387,7 +6429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B23" s="34" t="s">
         <v>200</v>
       </c>
@@ -6398,7 +6440,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B24" s="35" t="s">
         <v>264</v>
       </c>
@@ -6409,7 +6451,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B25" s="36"/>
       <c r="C25" s="26">
         <v>3</v>
@@ -6418,7 +6460,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B26" s="36"/>
       <c r="C26" s="26">
         <v>5</v>
@@ -6427,7 +6469,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B27" s="36"/>
       <c r="C27" s="26">
         <v>6</v>
@@ -6436,7 +6478,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B28" s="35" t="s">
         <v>270</v>
       </c>
@@ -6447,7 +6489,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B29" s="36"/>
       <c r="C29" s="26">
         <v>3</v>
@@ -6456,7 +6498,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B30" s="38" t="s">
         <v>266</v>
       </c>
@@ -6467,7 +6509,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B31" s="36" t="s">
         <v>267</v>
       </c>
@@ -6478,7 +6520,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B32" s="37"/>
       <c r="C32" s="26">
         <v>24</v>
@@ -6501,53 +6543,53 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="34" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="53" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="54" max="56" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="61" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="63" max="80" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="86" max="89" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="36" max="53" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="54" max="56" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="59" max="61" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="63" max="80" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="86" max="89" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6558,7 +6600,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -6569,12 +6611,12 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>185</v>
@@ -6583,7 +6625,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="C7" s="8" t="s">
         <v>165</v>
@@ -6595,7 +6637,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
         <v>189</v>
@@ -6607,17 +6649,17 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" s="6"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" s="6"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" s="6"/>
       <c r="C11" s="34" t="s">
         <v>200</v>
@@ -6629,7 +6671,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B12" s="6"/>
       <c r="C12" s="35" t="s">
         <v>264</v>
@@ -6641,7 +6683,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B13" s="6"/>
       <c r="C13" s="36" t="s">
         <v>265</v>
@@ -6653,7 +6695,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B14" s="6"/>
       <c r="C14" s="36"/>
       <c r="D14" s="26">
@@ -6663,7 +6705,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" s="6"/>
       <c r="C15" s="37"/>
       <c r="D15" s="26">
@@ -6673,7 +6715,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B16" s="6"/>
       <c r="C16" s="38" t="s">
         <v>266</v>
@@ -6685,7 +6727,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="1:90">
+    <row r="17" spans="1:90" x14ac:dyDescent="0.4">
       <c r="B17" s="6"/>
       <c r="C17" s="36" t="s">
         <v>267</v>
@@ -6697,7 +6739,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:90">
+    <row r="18" spans="1:90" x14ac:dyDescent="0.4">
       <c r="B18" s="6"/>
       <c r="C18" s="37"/>
       <c r="D18" s="26">
@@ -6707,25 +6749,25 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:90">
+    <row r="19" spans="1:90" x14ac:dyDescent="0.4">
       <c r="B19" s="6"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:90">
+    <row r="20" spans="1:90" x14ac:dyDescent="0.4">
       <c r="B20" s="6"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="22" spans="1:90">
+    <row r="22" spans="1:90" x14ac:dyDescent="0.4">
       <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:90">
+    <row r="23" spans="1:90" x14ac:dyDescent="0.4">
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:90">
+    <row r="24" spans="1:90" x14ac:dyDescent="0.4">
       <c r="B24" s="5"/>
       <c r="C24" t="s">
         <v>198</v>
@@ -6818,7 +6860,7 @@
       </c>
       <c r="CB24" s="12"/>
     </row>
-    <row r="25" spans="1:90">
+    <row r="25" spans="1:90" x14ac:dyDescent="0.4">
       <c r="C25" s="6" t="s">
         <v>12</v>
       </c>
@@ -7084,7 +7126,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:90">
+    <row r="26" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A26" s="6"/>
       <c r="C26" s="30" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
@@ -7352,7 +7394,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:90">
+    <row r="27" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A27" s="6"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -7530,7 +7572,7 @@
       <c r="CK27" s="7"/>
       <c r="CL27" s="7"/>
     </row>
-    <row r="28" spans="1:90">
+    <row r="28" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A28" s="6"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -7708,7 +7750,7 @@
       <c r="CK28" s="7"/>
       <c r="CL28" s="7"/>
     </row>
-    <row r="29" spans="1:90">
+    <row r="29" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A29" s="6"/>
       <c r="D29" s="7">
         <v>5401</v>
@@ -7972,7 +8014,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:90">
+    <row r="30" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A30" s="6"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -8150,7 +8192,7 @@
       <c r="CK30" s="7"/>
       <c r="CL30" s="7"/>
     </row>
-    <row r="31" spans="1:90">
+    <row r="31" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A31" s="6"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -8239,7 +8281,7 @@
       <c r="CJ31" s="9"/>
       <c r="CK31" s="9"/>
     </row>
-    <row r="32" spans="1:90">
+    <row r="32" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A32" s="6"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
@@ -8327,7 +8369,7 @@
       <c r="CJ32" s="9"/>
       <c r="CK32" s="9"/>
     </row>
-    <row r="33" spans="1:89">
+    <row r="33" spans="1:89" x14ac:dyDescent="0.4">
       <c r="A33" s="6"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
@@ -8415,7 +8457,7 @@
       <c r="CJ33" s="9"/>
       <c r="CK33" s="9"/>
     </row>
-    <row r="34" spans="1:89">
+    <row r="34" spans="1:89" x14ac:dyDescent="0.4">
       <c r="C34" s="34" t="s">
         <v>200</v>
       </c>
@@ -8510,11 +8552,11 @@
       <c r="CJ34" s="9"/>
       <c r="CK34" s="9"/>
     </row>
-    <row r="35" spans="1:89">
+    <row r="35" spans="1:89" x14ac:dyDescent="0.4">
       <c r="C35" s="35" t="s">
         <v>507</v>
       </c>
-      <c r="D35" s="158">
+      <c r="D35" s="130">
         <v>0</v>
       </c>
       <c r="E35" s="35" t="s">
@@ -8605,108 +8647,108 @@
       <c r="CJ35" s="9"/>
       <c r="CK35" s="9"/>
     </row>
-    <row r="36" spans="1:89">
+    <row r="36" spans="1:89" x14ac:dyDescent="0.4">
       <c r="C36" s="35"/>
-      <c r="D36" s="158">
+      <c r="D36" s="130">
         <v>1</v>
       </c>
       <c r="E36" s="35" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="37" spans="1:89">
+    <row r="37" spans="1:89" x14ac:dyDescent="0.4">
       <c r="C37" s="35"/>
-      <c r="D37" s="158">
+      <c r="D37" s="130">
         <v>101</v>
       </c>
       <c r="E37" s="35" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="38" spans="1:89">
+    <row r="38" spans="1:89" x14ac:dyDescent="0.4">
       <c r="C38" s="35"/>
-      <c r="D38" s="158">
+      <c r="D38" s="130">
         <v>103</v>
       </c>
       <c r="E38" s="35" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="39" spans="1:89">
+    <row r="39" spans="1:89" x14ac:dyDescent="0.4">
       <c r="C39" s="35"/>
-      <c r="D39" s="158">
+      <c r="D39" s="130">
         <v>107</v>
       </c>
       <c r="E39" s="35" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="40" spans="1:89">
+    <row r="40" spans="1:89" x14ac:dyDescent="0.4">
       <c r="C40" s="35"/>
-      <c r="D40" s="158">
+      <c r="D40" s="130">
         <v>121</v>
       </c>
       <c r="E40" s="35" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="41" spans="1:89">
+    <row r="41" spans="1:89" x14ac:dyDescent="0.4">
       <c r="C41" s="35"/>
-      <c r="D41" s="158">
+      <c r="D41" s="130">
         <v>144</v>
       </c>
       <c r="E41" s="35" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="42" spans="1:89">
+    <row r="42" spans="1:89" x14ac:dyDescent="0.4">
       <c r="C42" s="35"/>
-      <c r="D42" s="158">
+      <c r="D42" s="130">
         <v>145</v>
       </c>
       <c r="E42" s="35" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="43" spans="1:89">
+    <row r="43" spans="1:89" x14ac:dyDescent="0.4">
       <c r="C43" s="35"/>
-      <c r="D43" s="158">
+      <c r="D43" s="130">
         <v>154</v>
       </c>
       <c r="E43" s="35" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="44" spans="1:89">
+    <row r="44" spans="1:89" x14ac:dyDescent="0.4">
       <c r="C44" s="35"/>
-      <c r="D44" s="158">
+      <c r="D44" s="130">
         <v>155</v>
       </c>
       <c r="E44" s="35" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="45" spans="1:89">
+    <row r="45" spans="1:89" x14ac:dyDescent="0.4">
       <c r="C45" s="35"/>
-      <c r="D45" s="158">
+      <c r="D45" s="130">
         <v>171</v>
       </c>
       <c r="E45" s="35" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="46" spans="1:89">
+    <row r="46" spans="1:89" x14ac:dyDescent="0.4">
       <c r="C46" s="35"/>
-      <c r="D46" s="158">
+      <c r="D46" s="130">
         <v>901</v>
       </c>
       <c r="E46" s="35" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="47" spans="1:89">
+    <row r="47" spans="1:89" x14ac:dyDescent="0.4">
       <c r="C47" s="7"/>
-      <c r="D47" s="159">
+      <c r="D47" s="131">
         <v>907</v>
       </c>
       <c r="E47" s="7" t="s">
@@ -8725,31 +8767,31 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.75" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -8760,7 +8802,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -8771,18 +8813,18 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="C7" s="8" t="s">
         <v>165</v>
@@ -8794,7 +8836,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
         <v>189</v>
@@ -8806,7 +8848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C10" s="34" t="s">
         <v>200</v>
       </c>
@@ -8823,7 +8865,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C11" s="35" t="s">
         <v>264</v>
       </c>
@@ -8840,7 +8882,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C12" s="36" t="s">
         <v>265</v>
       </c>
@@ -8857,7 +8899,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C13" s="36"/>
       <c r="D13" s="26">
         <v>5</v>
@@ -8869,7 +8911,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C14" s="37"/>
       <c r="D14" s="26">
         <v>6</v>
@@ -8878,7 +8920,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C15" s="38" t="s">
         <v>266</v>
       </c>
@@ -8889,7 +8931,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C16" s="36" t="s">
         <v>267</v>
       </c>
@@ -8900,7 +8942,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="C17" s="37"/>
       <c r="D17" s="26">
         <v>24</v>
@@ -8909,15 +8951,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B19" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B21" s="5"/>
       <c r="C21" t="s">
         <v>198</v>
@@ -8926,7 +8968,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
       <c r="C22" s="6" t="s">
         <v>12</v>
       </c>
@@ -9003,7 +9045,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A23" s="6"/>
       <c r="C23" s="30" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
@@ -9082,7 +9124,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A24" s="6"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -9109,27 +9151,28 @@
       <c r="Z24" s="9"/>
       <c r="AA24" s="9"/>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B28" s="101" t="s">
         <v>311</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8">
       <formula1>$G$11:$G$12</formula1>
@@ -9145,45 +9188,46 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A2:AK319"/>
+  <dimension ref="A2:AL319"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="29.625" customWidth="1"/>
+    <col min="5" max="5" width="29.25" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.375" customWidth="1"/>
+    <col min="24" max="24" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -9194,7 +9238,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -9205,18 +9249,18 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="C7" s="42" t="s">
         <v>199</v>
@@ -9246,7 +9290,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" s="6"/>
       <c r="C8" s="43">
         <v>0</v>
@@ -9276,102 +9320,111 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B9" s="6"/>
       <c r="L9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B10" s="6"/>
       <c r="C10" s="9"/>
       <c r="L10" s="77" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B11" s="34" t="s">
         <v>294</v>
       </c>
       <c r="C11" s="72" t="s">
         <v>305</v>
       </c>
-      <c r="D11" s="138" t="s">
+      <c r="D11" s="135" t="s">
         <v>299</v>
       </c>
-      <c r="E11" s="139"/>
-      <c r="F11" s="138" t="s">
+      <c r="E11" s="136"/>
+      <c r="F11" s="135" t="s">
         <v>300</v>
       </c>
-      <c r="G11" s="139"/>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="154" t="s">
+      <c r="G11" s="136"/>
+      <c r="L11" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B12" s="134" t="s">
         <v>279</v>
       </c>
       <c r="C12" s="48">
         <v>0</v>
       </c>
-      <c r="D12" s="150" t="s">
+      <c r="D12" s="137" t="s">
         <v>203</v>
       </c>
-      <c r="E12" s="151"/>
-      <c r="F12" s="140" t="s">
+      <c r="E12" s="138"/>
+      <c r="F12" s="151" t="s">
         <v>301</v>
       </c>
-      <c r="G12" s="141"/>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="154"/>
+      <c r="G12" s="152"/>
+      <c r="L12" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B13" s="134"/>
       <c r="C13" s="48">
         <v>1</v>
       </c>
-      <c r="D13" s="150" t="s">
+      <c r="D13" s="137" t="s">
         <v>202</v>
       </c>
-      <c r="E13" s="151"/>
-      <c r="F13" s="142" t="s">
+      <c r="E13" s="138"/>
+      <c r="F13" s="153" t="s">
         <v>308</v>
       </c>
-      <c r="G13" s="143"/>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="L13" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B14" s="134"/>
       <c r="C14" s="48">
         <v>2</v>
       </c>
-      <c r="D14" s="150" t="s">
+      <c r="D14" s="137" t="s">
         <v>201</v>
       </c>
-      <c r="E14" s="151"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="143"/>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="154"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="154"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B15" s="134"/>
       <c r="C15" s="49">
         <v>3</v>
       </c>
-      <c r="D15" s="150" t="s">
+      <c r="D15" s="137" t="s">
         <v>266</v>
       </c>
-      <c r="E15" s="151"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="143"/>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="154"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="154"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B16" s="134"/>
       <c r="C16" s="49">
         <v>4</v>
       </c>
-      <c r="D16" s="150" t="s">
+      <c r="D16" s="137" t="s">
         <v>267</v>
       </c>
-      <c r="E16" s="151"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="145"/>
-    </row>
-    <row r="17" spans="2:7">
+      <c r="E16" s="138"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="148"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="65" t="s">
         <v>298</v>
       </c>
@@ -9387,7 +9440,7 @@
       </c>
       <c r="G17" s="62"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="66"/>
       <c r="C18" s="63"/>
       <c r="D18" s="59"/>
@@ -9397,7 +9450,7 @@
       </c>
       <c r="G18" s="60"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="65" t="s">
         <v>303</v>
       </c>
@@ -9413,7 +9466,7 @@
       </c>
       <c r="G19" s="69"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="66"/>
       <c r="C20" s="63"/>
       <c r="D20" s="59"/>
@@ -9423,37 +9476,37 @@
       </c>
       <c r="G20" s="69"/>
     </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="152" t="s">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B21" s="132" t="s">
         <v>288</v>
       </c>
       <c r="C21" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="D21" s="150" t="s">
+      <c r="D21" s="137" t="s">
         <v>306</v>
       </c>
-      <c r="E21" s="151"/>
+      <c r="E21" s="138"/>
       <c r="F21" s="73" t="s">
         <v>301</v>
       </c>
       <c r="G21" s="74"/>
     </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="152"/>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B22" s="132"/>
       <c r="C22" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="D22" s="150" t="s">
+      <c r="D22" s="137" t="s">
         <v>307</v>
       </c>
-      <c r="E22" s="151"/>
+      <c r="E22" s="138"/>
       <c r="F22" s="75" t="s">
         <v>309</v>
       </c>
       <c r="G22" s="76"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="56" t="s">
         <v>39</v>
       </c>
@@ -9469,149 +9522,149 @@
       </c>
       <c r="G23" s="71"/>
     </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="152" t="s">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B24" s="132" t="s">
         <v>291</v>
       </c>
       <c r="C24" s="47">
         <v>1</v>
       </c>
-      <c r="D24" s="148" t="s">
+      <c r="D24" s="139" t="s">
         <v>289</v>
       </c>
-      <c r="E24" s="149"/>
-      <c r="F24" s="146" t="s">
+      <c r="E24" s="140"/>
+      <c r="F24" s="145" t="s">
         <v>301</v>
       </c>
-      <c r="G24" s="147"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="152"/>
+      <c r="G24" s="146"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B25" s="132"/>
       <c r="C25" s="47">
         <v>2</v>
       </c>
-      <c r="D25" s="136" t="s">
+      <c r="D25" s="141" t="s">
         <v>280</v>
       </c>
-      <c r="E25" s="137"/>
-      <c r="F25" s="130" t="s">
+      <c r="E25" s="142"/>
+      <c r="F25" s="149" t="s">
         <v>308</v>
       </c>
-      <c r="G25" s="131"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="152"/>
+      <c r="G25" s="150"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B26" s="132"/>
       <c r="C26" s="47">
         <v>3</v>
       </c>
-      <c r="D26" s="136" t="s">
+      <c r="D26" s="141" t="s">
         <v>281</v>
       </c>
-      <c r="E26" s="137"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="131"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="152"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="150"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B27" s="132"/>
       <c r="C27" s="47">
         <v>4</v>
       </c>
-      <c r="D27" s="136" t="s">
+      <c r="D27" s="141" t="s">
         <v>282</v>
       </c>
-      <c r="E27" s="137"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="131"/>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="152"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="150"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B28" s="132"/>
       <c r="C28" s="47">
         <v>5</v>
       </c>
-      <c r="D28" s="136" t="s">
+      <c r="D28" s="141" t="s">
         <v>283</v>
       </c>
-      <c r="E28" s="137"/>
-      <c r="F28" s="134"/>
-      <c r="G28" s="135"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="152" t="s">
+      <c r="E28" s="142"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="144"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B29" s="132" t="s">
         <v>292</v>
       </c>
       <c r="C29" s="47">
         <v>1</v>
       </c>
-      <c r="D29" s="148" t="s">
+      <c r="D29" s="139" t="s">
         <v>290</v>
       </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="146" t="s">
+      <c r="E29" s="140"/>
+      <c r="F29" s="145" t="s">
         <v>301</v>
       </c>
-      <c r="G29" s="147"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="152"/>
+      <c r="G29" s="146"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B30" s="132"/>
       <c r="C30" s="47">
         <v>2</v>
       </c>
-      <c r="D30" s="136" t="s">
+      <c r="D30" s="141" t="s">
         <v>284</v>
       </c>
-      <c r="E30" s="137"/>
-      <c r="F30" s="130" t="s">
+      <c r="E30" s="142"/>
+      <c r="F30" s="149" t="s">
         <v>308</v>
       </c>
-      <c r="G30" s="131"/>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="153" t="s">
+      <c r="G30" s="150"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B31" s="133" t="s">
         <v>293</v>
       </c>
       <c r="C31" s="47">
         <v>2</v>
       </c>
-      <c r="D31" s="136" t="s">
+      <c r="D31" s="141" t="s">
         <v>285</v>
       </c>
-      <c r="E31" s="137"/>
-      <c r="F31" s="132" t="s">
+      <c r="E31" s="142"/>
+      <c r="F31" s="155" t="s">
         <v>301</v>
       </c>
-      <c r="G31" s="133"/>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="153"/>
+      <c r="G31" s="156"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B32" s="133"/>
       <c r="C32" s="47">
         <v>3</v>
       </c>
-      <c r="D32" s="136" t="s">
+      <c r="D32" s="141" t="s">
         <v>286</v>
       </c>
-      <c r="E32" s="137"/>
-      <c r="F32" s="134" t="s">
+      <c r="E32" s="142"/>
+      <c r="F32" s="143" t="s">
         <v>308</v>
       </c>
-      <c r="G32" s="135"/>
-    </row>
-    <row r="33" spans="1:36">
+      <c r="G32" s="144"/>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.4">
       <c r="B33" s="6"/>
       <c r="C33" s="9"/>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.4">
       <c r="B34" s="6"/>
       <c r="C34" s="9"/>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.4">
       <c r="B36" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.4">
       <c r="B37" s="5"/>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.4">
       <c r="B38" s="5"/>
       <c r="C38" t="s">
         <v>198</v>
@@ -9619,10 +9672,9 @@
       <c r="D38" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="W38" s="13" t="s">
+      <c r="X38" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="X38" s="14"/>
       <c r="Y38" s="14"/>
       <c r="Z38" s="14"/>
       <c r="AA38" s="14"/>
@@ -9634,9 +9686,10 @@
       <c r="AG38" s="14"/>
       <c r="AH38" s="14"/>
       <c r="AI38" s="14"/>
-      <c r="AJ38" s="15"/>
-    </row>
-    <row r="39" spans="1:36">
+      <c r="AJ38" s="14"/>
+      <c r="AK38" s="15"/>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.4">
       <c r="C39" s="6" t="s">
         <v>12</v>
       </c>
@@ -9698,49 +9751,52 @@
         <v>129</v>
       </c>
       <c r="W39" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="X39" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="X39" s="8" t="s">
+      <c r="Y39" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="Y39" s="8" t="s">
+      <c r="Z39" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="Z39" s="8" t="s">
+      <c r="AA39" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="AA39" s="8" t="s">
+      <c r="AB39" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="AB39" s="8" t="s">
+      <c r="AC39" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="AC39" s="8" t="s">
+      <c r="AD39" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="AD39" s="8" t="s">
+      <c r="AE39" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="AE39" s="8" t="s">
+      <c r="AF39" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="AF39" s="8" t="s">
+      <c r="AG39" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="AG39" s="8" t="s">
+      <c r="AH39" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="AH39" s="8" t="s">
+      <c r="AI39" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="AI39" s="8" t="s">
+      <c r="AJ39" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="AJ39" s="8" t="s">
+      <c r="AK39" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A40" s="6"/>
       <c r="C40" s="30" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
@@ -9804,7 +9860,7 @@
         <v>85</v>
       </c>
       <c r="W40" s="7" t="s">
-        <v>85</v>
+        <v>524</v>
       </c>
       <c r="X40" s="7" t="s">
         <v>85</v>
@@ -9845,8 +9901,11 @@
       <c r="AJ40" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="41" spans="1:36">
+      <c r="AK40" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A41" s="6"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -9867,9 +9926,7 @@
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
-      <c r="W41" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="W41" s="7"/>
       <c r="X41" s="7" t="s">
         <v>85</v>
       </c>
@@ -9909,8 +9966,11 @@
       <c r="AJ41" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="42" spans="1:36">
+      <c r="AK41" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A42" s="6"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -9931,9 +9991,7 @@
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
       <c r="V42" s="7"/>
-      <c r="W42" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="W42" s="7"/>
       <c r="X42" s="7" t="s">
         <v>85</v>
       </c>
@@ -9973,8 +10031,11 @@
       <c r="AJ42" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="43" spans="1:36">
+      <c r="AK42" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A43" s="6"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -9995,9 +10056,7 @@
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
-      <c r="W43" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="W43" s="7"/>
       <c r="X43" s="7" t="s">
         <v>85</v>
       </c>
@@ -10037,8 +10096,11 @@
       <c r="AJ43" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="44" spans="1:36">
+      <c r="AK43" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A44" s="6"/>
       <c r="D44" s="7" t="s">
         <v>85</v>
@@ -10098,7 +10160,7 @@
         <v>85</v>
       </c>
       <c r="W44" s="7" t="s">
-        <v>85</v>
+        <v>524</v>
       </c>
       <c r="X44" s="7" t="s">
         <v>85</v>
@@ -10139,8 +10201,11 @@
       <c r="AJ44" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="45" spans="1:36">
+      <c r="AK44" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A45" s="6"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -10161,9 +10226,7 @@
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
-      <c r="W45" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="W45" s="7"/>
       <c r="X45" s="7" t="s">
         <v>85</v>
       </c>
@@ -10203,8 +10266,11 @@
       <c r="AJ45" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="46" spans="1:36">
+      <c r="AK45" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A46" s="6"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -10225,9 +10291,7 @@
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
       <c r="V46" s="7"/>
-      <c r="W46" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="W46" s="7"/>
       <c r="X46" s="7" t="s">
         <v>85</v>
       </c>
@@ -10267,8 +10331,11 @@
       <c r="AJ46" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="47" spans="1:36">
+      <c r="AK46" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A47" s="6"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -10303,28 +10370,29 @@
       <c r="AH47" s="9"/>
       <c r="AI47" s="9"/>
       <c r="AJ47" s="9"/>
-    </row>
-    <row r="58" spans="5:6" ht="15" customHeight="1">
+      <c r="AK47" s="9"/>
+    </row>
+    <row r="58" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E58" s="45"/>
       <c r="F58" s="46"/>
     </row>
-    <row r="59" spans="5:6" ht="18.75" customHeight="1">
+    <row r="59" spans="5:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E59" s="45"/>
       <c r="F59" s="46"/>
     </row>
-    <row r="60" spans="5:6" ht="18.75" customHeight="1">
+    <row r="60" spans="5:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E60" s="45"/>
       <c r="F60" s="46"/>
     </row>
-    <row r="61" spans="5:6" ht="15" customHeight="1">
+    <row r="61" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E61" s="45"/>
       <c r="F61" s="46"/>
     </row>
-    <row r="62" spans="5:6" ht="18.75" customHeight="1">
+    <row r="62" spans="5:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E62" s="45"/>
       <c r="F62" s="46"/>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A67" s="50"/>
       <c r="B67" s="50"/>
       <c r="C67" s="50"/>
@@ -10362,8 +10430,9 @@
       <c r="AI67" s="50"/>
       <c r="AJ67" s="50"/>
       <c r="AK67" s="50"/>
-    </row>
-    <row r="68" spans="1:37">
+      <c r="AL67" s="50"/>
+    </row>
+    <row r="68" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A68" s="50"/>
       <c r="B68" s="50"/>
       <c r="C68" s="50"/>
@@ -10401,8 +10470,9 @@
       <c r="AI68" s="50"/>
       <c r="AJ68" s="50"/>
       <c r="AK68" s="50"/>
-    </row>
-    <row r="69" spans="1:37">
+      <c r="AL68" s="50"/>
+    </row>
+    <row r="69" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A69" s="50"/>
       <c r="B69" s="50"/>
       <c r="C69" s="50"/>
@@ -10440,8 +10510,9 @@
       <c r="AI69" s="50"/>
       <c r="AJ69" s="50"/>
       <c r="AK69" s="50"/>
-    </row>
-    <row r="70" spans="1:37">
+      <c r="AL69" s="50"/>
+    </row>
+    <row r="70" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A70" s="50"/>
       <c r="B70" s="50"/>
       <c r="C70" s="50"/>
@@ -10464,8 +10535,8 @@
       <c r="T70" s="50"/>
       <c r="U70" s="50"/>
       <c r="V70" s="50"/>
-      <c r="W70" s="52"/>
-      <c r="X70" s="53"/>
+      <c r="W70" s="50"/>
+      <c r="X70" s="52"/>
       <c r="Y70" s="53"/>
       <c r="Z70" s="53"/>
       <c r="AA70" s="53"/>
@@ -10478,9 +10549,10 @@
       <c r="AH70" s="53"/>
       <c r="AI70" s="53"/>
       <c r="AJ70" s="53"/>
-      <c r="AK70" s="50"/>
-    </row>
-    <row r="71" spans="1:37">
+      <c r="AK70" s="53"/>
+      <c r="AL70" s="50"/>
+    </row>
+    <row r="71" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A71" s="50"/>
       <c r="B71" s="50"/>
       <c r="C71" s="50"/>
@@ -10517,9 +10589,10 @@
       <c r="AH71" s="51"/>
       <c r="AI71" s="51"/>
       <c r="AJ71" s="51"/>
-      <c r="AK71" s="50"/>
-    </row>
-    <row r="72" spans="1:37">
+      <c r="AK71" s="51"/>
+      <c r="AL71" s="50"/>
+    </row>
+    <row r="72" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A72" s="50"/>
       <c r="B72" s="50"/>
       <c r="C72" s="50"/>
@@ -10557,8 +10630,9 @@
       <c r="AI72" s="50"/>
       <c r="AJ72" s="50"/>
       <c r="AK72" s="50"/>
-    </row>
-    <row r="73" spans="1:37">
+      <c r="AL72" s="50"/>
+    </row>
+    <row r="73" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A73" s="50"/>
       <c r="B73" s="50"/>
       <c r="C73" s="50"/>
@@ -10596,8 +10670,9 @@
       <c r="AI73" s="50"/>
       <c r="AJ73" s="50"/>
       <c r="AK73" s="50"/>
-    </row>
-    <row r="74" spans="1:37">
+      <c r="AL73" s="50"/>
+    </row>
+    <row r="74" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A74" s="50"/>
       <c r="B74" s="50"/>
       <c r="C74" s="50"/>
@@ -10635,8 +10710,9 @@
       <c r="AI74" s="50"/>
       <c r="AJ74" s="50"/>
       <c r="AK74" s="50"/>
-    </row>
-    <row r="75" spans="1:37">
+      <c r="AL74" s="50"/>
+    </row>
+    <row r="75" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A75" s="50"/>
       <c r="B75" s="50"/>
       <c r="C75" s="50"/>
@@ -10674,8 +10750,9 @@
       <c r="AI75" s="50"/>
       <c r="AJ75" s="50"/>
       <c r="AK75" s="50"/>
-    </row>
-    <row r="76" spans="1:37">
+      <c r="AL75" s="50"/>
+    </row>
+    <row r="76" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A76" s="50"/>
       <c r="B76" s="50"/>
       <c r="C76" s="50"/>
@@ -10713,8 +10790,9 @@
       <c r="AI76" s="50"/>
       <c r="AJ76" s="50"/>
       <c r="AK76" s="50"/>
-    </row>
-    <row r="77" spans="1:37">
+      <c r="AL76" s="50"/>
+    </row>
+    <row r="77" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A77" s="50"/>
       <c r="B77" s="50"/>
       <c r="C77" s="50"/>
@@ -10752,8 +10830,9 @@
       <c r="AI77" s="50"/>
       <c r="AJ77" s="50"/>
       <c r="AK77" s="50"/>
-    </row>
-    <row r="78" spans="1:37">
+      <c r="AL77" s="50"/>
+    </row>
+    <row r="78" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A78" s="50"/>
       <c r="B78" s="50"/>
       <c r="C78" s="50"/>
@@ -10791,8 +10870,9 @@
       <c r="AI78" s="50"/>
       <c r="AJ78" s="50"/>
       <c r="AK78" s="50"/>
-    </row>
-    <row r="79" spans="1:37">
+      <c r="AL78" s="50"/>
+    </row>
+    <row r="79" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A79" s="50"/>
       <c r="B79" s="50"/>
       <c r="C79" s="50"/>
@@ -10830,8 +10910,9 @@
       <c r="AI79" s="50"/>
       <c r="AJ79" s="50"/>
       <c r="AK79" s="50"/>
-    </row>
-    <row r="80" spans="1:37">
+      <c r="AL79" s="50"/>
+    </row>
+    <row r="80" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A80" s="50"/>
       <c r="B80" s="50"/>
       <c r="C80" s="50"/>
@@ -10869,8 +10950,9 @@
       <c r="AI80" s="50"/>
       <c r="AJ80" s="50"/>
       <c r="AK80" s="50"/>
-    </row>
-    <row r="81" spans="1:37">
+      <c r="AL80" s="50"/>
+    </row>
+    <row r="81" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A81" s="50"/>
       <c r="B81" s="50"/>
       <c r="C81" s="50"/>
@@ -10908,8 +10990,9 @@
       <c r="AI81" s="50"/>
       <c r="AJ81" s="50"/>
       <c r="AK81" s="50"/>
-    </row>
-    <row r="82" spans="1:37">
+      <c r="AL81" s="50"/>
+    </row>
+    <row r="82" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A82" s="50"/>
       <c r="B82" s="50"/>
       <c r="C82" s="50"/>
@@ -10947,8 +11030,9 @@
       <c r="AI82" s="50"/>
       <c r="AJ82" s="50"/>
       <c r="AK82" s="50"/>
-    </row>
-    <row r="83" spans="1:37">
+      <c r="AL82" s="50"/>
+    </row>
+    <row r="83" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A83" s="50"/>
       <c r="B83" s="50"/>
       <c r="C83" s="50"/>
@@ -10986,8 +11070,9 @@
       <c r="AI83" s="50"/>
       <c r="AJ83" s="50"/>
       <c r="AK83" s="50"/>
-    </row>
-    <row r="84" spans="1:37">
+      <c r="AL83" s="50"/>
+    </row>
+    <row r="84" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A84" s="50"/>
       <c r="B84" s="50"/>
       <c r="C84" s="50"/>
@@ -11025,8 +11110,9 @@
       <c r="AI84" s="50"/>
       <c r="AJ84" s="50"/>
       <c r="AK84" s="50"/>
-    </row>
-    <row r="85" spans="1:37">
+      <c r="AL84" s="50"/>
+    </row>
+    <row r="85" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A85" s="50"/>
       <c r="B85" s="50"/>
       <c r="C85" s="50"/>
@@ -11064,8 +11150,9 @@
       <c r="AI85" s="50"/>
       <c r="AJ85" s="50"/>
       <c r="AK85" s="50"/>
-    </row>
-    <row r="86" spans="1:37">
+      <c r="AL85" s="50"/>
+    </row>
+    <row r="86" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A86" s="50"/>
       <c r="B86" s="50"/>
       <c r="C86" s="50"/>
@@ -11103,8 +11190,9 @@
       <c r="AI86" s="50"/>
       <c r="AJ86" s="50"/>
       <c r="AK86" s="50"/>
-    </row>
-    <row r="87" spans="1:37">
+      <c r="AL86" s="50"/>
+    </row>
+    <row r="87" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A87" s="50"/>
       <c r="B87" s="50"/>
       <c r="C87" s="50"/>
@@ -11142,8 +11230,9 @@
       <c r="AI87" s="50"/>
       <c r="AJ87" s="50"/>
       <c r="AK87" s="50"/>
-    </row>
-    <row r="88" spans="1:37">
+      <c r="AL87" s="50"/>
+    </row>
+    <row r="88" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A88" s="50"/>
       <c r="B88" s="50"/>
       <c r="C88" s="50"/>
@@ -11181,8 +11270,9 @@
       <c r="AI88" s="50"/>
       <c r="AJ88" s="50"/>
       <c r="AK88" s="50"/>
-    </row>
-    <row r="89" spans="1:37">
+      <c r="AL88" s="50"/>
+    </row>
+    <row r="89" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A89" s="50"/>
       <c r="B89" s="50"/>
       <c r="C89" s="50"/>
@@ -11220,8 +11310,9 @@
       <c r="AI89" s="50"/>
       <c r="AJ89" s="50"/>
       <c r="AK89" s="50"/>
-    </row>
-    <row r="90" spans="1:37">
+      <c r="AL89" s="50"/>
+    </row>
+    <row r="90" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A90" s="50"/>
       <c r="B90" s="50"/>
       <c r="C90" s="50"/>
@@ -11259,8 +11350,9 @@
       <c r="AI90" s="50"/>
       <c r="AJ90" s="50"/>
       <c r="AK90" s="50"/>
-    </row>
-    <row r="91" spans="1:37">
+      <c r="AL90" s="50"/>
+    </row>
+    <row r="91" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A91" s="50"/>
       <c r="B91" s="50"/>
       <c r="C91" s="50"/>
@@ -11298,8 +11390,9 @@
       <c r="AI91" s="50"/>
       <c r="AJ91" s="50"/>
       <c r="AK91" s="50"/>
-    </row>
-    <row r="92" spans="1:37">
+      <c r="AL91" s="50"/>
+    </row>
+    <row r="92" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A92" s="50"/>
       <c r="B92" s="50"/>
       <c r="C92" s="50"/>
@@ -11337,8 +11430,9 @@
       <c r="AI92" s="50"/>
       <c r="AJ92" s="50"/>
       <c r="AK92" s="50"/>
-    </row>
-    <row r="93" spans="1:37">
+      <c r="AL92" s="50"/>
+    </row>
+    <row r="93" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A93" s="50"/>
       <c r="B93" s="50"/>
       <c r="C93" s="50"/>
@@ -11376,8 +11470,9 @@
       <c r="AI93" s="50"/>
       <c r="AJ93" s="50"/>
       <c r="AK93" s="50"/>
-    </row>
-    <row r="94" spans="1:37">
+      <c r="AL93" s="50"/>
+    </row>
+    <row r="94" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A94" s="50"/>
       <c r="B94" s="50"/>
       <c r="C94" s="50"/>
@@ -11415,8 +11510,9 @@
       <c r="AI94" s="50"/>
       <c r="AJ94" s="50"/>
       <c r="AK94" s="50"/>
-    </row>
-    <row r="95" spans="1:37">
+      <c r="AL94" s="50"/>
+    </row>
+    <row r="95" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A95" s="50"/>
       <c r="B95" s="50"/>
       <c r="C95" s="50"/>
@@ -11454,8 +11550,9 @@
       <c r="AI95" s="50"/>
       <c r="AJ95" s="50"/>
       <c r="AK95" s="50"/>
-    </row>
-    <row r="96" spans="1:37">
+      <c r="AL95" s="50"/>
+    </row>
+    <row r="96" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A96" s="50"/>
       <c r="B96" s="50"/>
       <c r="C96" s="50"/>
@@ -11493,8 +11590,9 @@
       <c r="AI96" s="50"/>
       <c r="AJ96" s="50"/>
       <c r="AK96" s="50"/>
-    </row>
-    <row r="97" spans="1:37">
+      <c r="AL96" s="50"/>
+    </row>
+    <row r="97" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A97" s="50"/>
       <c r="B97" s="50"/>
       <c r="C97" s="50"/>
@@ -11532,8 +11630,9 @@
       <c r="AI97" s="50"/>
       <c r="AJ97" s="50"/>
       <c r="AK97" s="50"/>
-    </row>
-    <row r="98" spans="1:37">
+      <c r="AL97" s="50"/>
+    </row>
+    <row r="98" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A98" s="50"/>
       <c r="B98" s="50"/>
       <c r="C98" s="50"/>
@@ -11571,8 +11670,9 @@
       <c r="AI98" s="50"/>
       <c r="AJ98" s="50"/>
       <c r="AK98" s="50"/>
-    </row>
-    <row r="99" spans="1:37">
+      <c r="AL98" s="50"/>
+    </row>
+    <row r="99" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A99" s="50"/>
       <c r="B99" s="50"/>
       <c r="C99" s="50"/>
@@ -11610,8 +11710,9 @@
       <c r="AI99" s="50"/>
       <c r="AJ99" s="50"/>
       <c r="AK99" s="50"/>
-    </row>
-    <row r="100" spans="1:37">
+      <c r="AL99" s="50"/>
+    </row>
+    <row r="100" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A100" s="50"/>
       <c r="B100" s="50"/>
       <c r="C100" s="50"/>
@@ -11649,8 +11750,9 @@
       <c r="AI100" s="50"/>
       <c r="AJ100" s="50"/>
       <c r="AK100" s="50"/>
-    </row>
-    <row r="101" spans="1:37">
+      <c r="AL100" s="50"/>
+    </row>
+    <row r="101" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A101" s="50"/>
       <c r="B101" s="50"/>
       <c r="C101" s="50"/>
@@ -11688,8 +11790,9 @@
       <c r="AI101" s="50"/>
       <c r="AJ101" s="50"/>
       <c r="AK101" s="50"/>
-    </row>
-    <row r="102" spans="1:37">
+      <c r="AL101" s="50"/>
+    </row>
+    <row r="102" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A102" s="50"/>
       <c r="B102" s="50"/>
       <c r="C102" s="50"/>
@@ -11727,8 +11830,9 @@
       <c r="AI102" s="50"/>
       <c r="AJ102" s="50"/>
       <c r="AK102" s="50"/>
-    </row>
-    <row r="103" spans="1:37">
+      <c r="AL102" s="50"/>
+    </row>
+    <row r="103" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A103" s="50"/>
       <c r="B103" s="50"/>
       <c r="C103" s="50"/>
@@ -11766,8 +11870,9 @@
       <c r="AI103" s="50"/>
       <c r="AJ103" s="50"/>
       <c r="AK103" s="50"/>
-    </row>
-    <row r="104" spans="1:37">
+      <c r="AL103" s="50"/>
+    </row>
+    <row r="104" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A104" s="50"/>
       <c r="B104" s="50"/>
       <c r="C104" s="50"/>
@@ -11805,8 +11910,9 @@
       <c r="AI104" s="50"/>
       <c r="AJ104" s="50"/>
       <c r="AK104" s="50"/>
-    </row>
-    <row r="105" spans="1:37">
+      <c r="AL104" s="50"/>
+    </row>
+    <row r="105" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A105" s="50"/>
       <c r="B105" s="50"/>
       <c r="C105" s="50"/>
@@ -11844,8 +11950,9 @@
       <c r="AI105" s="50"/>
       <c r="AJ105" s="50"/>
       <c r="AK105" s="50"/>
-    </row>
-    <row r="106" spans="1:37">
+      <c r="AL105" s="50"/>
+    </row>
+    <row r="106" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A106" s="50"/>
       <c r="B106" s="50"/>
       <c r="C106" s="50"/>
@@ -11883,8 +11990,9 @@
       <c r="AI106" s="54"/>
       <c r="AJ106" s="54"/>
       <c r="AK106" s="54"/>
-    </row>
-    <row r="107" spans="1:37">
+      <c r="AL106" s="54"/>
+    </row>
+    <row r="107" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A107" s="50"/>
       <c r="B107" s="50"/>
       <c r="C107" s="50"/>
@@ -11922,8 +12030,9 @@
       <c r="AI107" s="54"/>
       <c r="AJ107" s="54"/>
       <c r="AK107" s="54"/>
-    </row>
-    <row r="108" spans="1:37">
+      <c r="AL107" s="54"/>
+    </row>
+    <row r="108" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A108" s="50"/>
       <c r="B108" s="50"/>
       <c r="C108" s="50"/>
@@ -11961,8 +12070,9 @@
       <c r="AI108" s="50"/>
       <c r="AJ108" s="50"/>
       <c r="AK108" s="50"/>
-    </row>
-    <row r="109" spans="1:37">
+      <c r="AL108" s="50"/>
+    </row>
+    <row r="109" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A109" s="50"/>
       <c r="B109" s="50"/>
       <c r="C109" s="50"/>
@@ -12000,8 +12110,9 @@
       <c r="AI109" s="50"/>
       <c r="AJ109" s="50"/>
       <c r="AK109" s="50"/>
-    </row>
-    <row r="110" spans="1:37">
+      <c r="AL109" s="50"/>
+    </row>
+    <row r="110" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A110" s="50"/>
       <c r="B110" s="50"/>
       <c r="C110" s="50"/>
@@ -12039,8 +12150,9 @@
       <c r="AI110" s="50"/>
       <c r="AJ110" s="50"/>
       <c r="AK110" s="50"/>
-    </row>
-    <row r="111" spans="1:37">
+      <c r="AL110" s="50"/>
+    </row>
+    <row r="111" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A111" s="50"/>
       <c r="B111" s="50"/>
       <c r="C111" s="50"/>
@@ -12078,8 +12190,9 @@
       <c r="AI111" s="50"/>
       <c r="AJ111" s="50"/>
       <c r="AK111" s="50"/>
-    </row>
-    <row r="112" spans="1:37">
+      <c r="AL111" s="50"/>
+    </row>
+    <row r="112" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A112" s="50"/>
       <c r="B112" s="50"/>
       <c r="C112" s="50"/>
@@ -12117,8 +12230,9 @@
       <c r="AI112" s="50"/>
       <c r="AJ112" s="50"/>
       <c r="AK112" s="50"/>
-    </row>
-    <row r="113" spans="1:37">
+      <c r="AL112" s="50"/>
+    </row>
+    <row r="113" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A113" s="50"/>
       <c r="B113" s="50"/>
       <c r="C113" s="50"/>
@@ -12156,8 +12270,9 @@
       <c r="AI113" s="50"/>
       <c r="AJ113" s="50"/>
       <c r="AK113" s="50"/>
-    </row>
-    <row r="114" spans="1:37">
+      <c r="AL113" s="50"/>
+    </row>
+    <row r="114" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A114" s="50"/>
       <c r="B114" s="50"/>
       <c r="C114" s="50"/>
@@ -12195,8 +12310,9 @@
       <c r="AI114" s="50"/>
       <c r="AJ114" s="50"/>
       <c r="AK114" s="50"/>
-    </row>
-    <row r="115" spans="1:37">
+      <c r="AL114" s="50"/>
+    </row>
+    <row r="115" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A115" s="50"/>
       <c r="B115" s="50"/>
       <c r="C115" s="50"/>
@@ -12234,8 +12350,9 @@
       <c r="AI115" s="50"/>
       <c r="AJ115" s="50"/>
       <c r="AK115" s="50"/>
-    </row>
-    <row r="116" spans="1:37">
+      <c r="AL115" s="50"/>
+    </row>
+    <row r="116" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A116" s="50"/>
       <c r="B116" s="50"/>
       <c r="C116" s="50"/>
@@ -12273,8 +12390,9 @@
       <c r="AI116" s="50"/>
       <c r="AJ116" s="50"/>
       <c r="AK116" s="50"/>
-    </row>
-    <row r="117" spans="1:37">
+      <c r="AL116" s="50"/>
+    </row>
+    <row r="117" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A117" s="50"/>
       <c r="B117" s="50"/>
       <c r="C117" s="50"/>
@@ -12312,8 +12430,9 @@
       <c r="AI117" s="50"/>
       <c r="AJ117" s="50"/>
       <c r="AK117" s="50"/>
-    </row>
-    <row r="118" spans="1:37">
+      <c r="AL117" s="50"/>
+    </row>
+    <row r="118" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A118" s="50"/>
       <c r="B118" s="50"/>
       <c r="C118" s="50"/>
@@ -12351,8 +12470,9 @@
       <c r="AI118" s="50"/>
       <c r="AJ118" s="50"/>
       <c r="AK118" s="50"/>
-    </row>
-    <row r="119" spans="1:37">
+      <c r="AL118" s="50"/>
+    </row>
+    <row r="119" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A119" s="50"/>
       <c r="B119" s="50"/>
       <c r="C119" s="50"/>
@@ -12390,8 +12510,9 @@
       <c r="AI119" s="50"/>
       <c r="AJ119" s="50"/>
       <c r="AK119" s="50"/>
-    </row>
-    <row r="120" spans="1:37">
+      <c r="AL119" s="50"/>
+    </row>
+    <row r="120" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A120" s="50"/>
       <c r="B120" s="50"/>
       <c r="C120" s="50"/>
@@ -12429,8 +12550,9 @@
       <c r="AI120" s="50"/>
       <c r="AJ120" s="50"/>
       <c r="AK120" s="50"/>
-    </row>
-    <row r="121" spans="1:37">
+      <c r="AL120" s="50"/>
+    </row>
+    <row r="121" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A121" s="50"/>
       <c r="B121" s="50"/>
       <c r="C121" s="50"/>
@@ -12468,8 +12590,9 @@
       <c r="AI121" s="50"/>
       <c r="AJ121" s="50"/>
       <c r="AK121" s="50"/>
-    </row>
-    <row r="122" spans="1:37">
+      <c r="AL121" s="50"/>
+    </row>
+    <row r="122" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A122" s="50"/>
       <c r="B122" s="50"/>
       <c r="C122" s="50"/>
@@ -12507,8 +12630,9 @@
       <c r="AI122" s="50"/>
       <c r="AJ122" s="50"/>
       <c r="AK122" s="50"/>
-    </row>
-    <row r="123" spans="1:37">
+      <c r="AL122" s="50"/>
+    </row>
+    <row r="123" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A123" s="50"/>
       <c r="B123" s="50"/>
       <c r="C123" s="50"/>
@@ -12546,8 +12670,9 @@
       <c r="AI123" s="50"/>
       <c r="AJ123" s="50"/>
       <c r="AK123" s="50"/>
-    </row>
-    <row r="124" spans="1:37">
+      <c r="AL123" s="50"/>
+    </row>
+    <row r="124" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A124" s="50"/>
       <c r="B124" s="50"/>
       <c r="C124" s="50"/>
@@ -12585,8 +12710,9 @@
       <c r="AI124" s="50"/>
       <c r="AJ124" s="50"/>
       <c r="AK124" s="50"/>
-    </row>
-    <row r="125" spans="1:37">
+      <c r="AL124" s="50"/>
+    </row>
+    <row r="125" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A125" s="50"/>
       <c r="B125" s="50"/>
       <c r="C125" s="50"/>
@@ -12624,8 +12750,9 @@
       <c r="AI125" s="50"/>
       <c r="AJ125" s="50"/>
       <c r="AK125" s="50"/>
-    </row>
-    <row r="126" spans="1:37">
+      <c r="AL125" s="50"/>
+    </row>
+    <row r="126" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A126" s="50"/>
       <c r="B126" s="50"/>
       <c r="C126" s="50"/>
@@ -12663,8 +12790,9 @@
       <c r="AI126" s="50"/>
       <c r="AJ126" s="50"/>
       <c r="AK126" s="50"/>
-    </row>
-    <row r="127" spans="1:37">
+      <c r="AL126" s="50"/>
+    </row>
+    <row r="127" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A127" s="50"/>
       <c r="B127" s="50"/>
       <c r="C127" s="50"/>
@@ -12702,8 +12830,9 @@
       <c r="AI127" s="50"/>
       <c r="AJ127" s="50"/>
       <c r="AK127" s="50"/>
-    </row>
-    <row r="128" spans="1:37">
+      <c r="AL127" s="50"/>
+    </row>
+    <row r="128" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A128" s="50"/>
       <c r="B128" s="50"/>
       <c r="C128" s="50"/>
@@ -12741,8 +12870,9 @@
       <c r="AI128" s="50"/>
       <c r="AJ128" s="50"/>
       <c r="AK128" s="50"/>
-    </row>
-    <row r="129" spans="1:37">
+      <c r="AL128" s="50"/>
+    </row>
+    <row r="129" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A129" s="50"/>
       <c r="B129" s="50"/>
       <c r="C129" s="50"/>
@@ -12780,8 +12910,9 @@
       <c r="AI129" s="50"/>
       <c r="AJ129" s="50"/>
       <c r="AK129" s="50"/>
-    </row>
-    <row r="130" spans="1:37">
+      <c r="AL129" s="50"/>
+    </row>
+    <row r="130" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A130" s="50"/>
       <c r="B130" s="50"/>
       <c r="C130" s="50"/>
@@ -12819,8 +12950,9 @@
       <c r="AI130" s="50"/>
       <c r="AJ130" s="50"/>
       <c r="AK130" s="50"/>
-    </row>
-    <row r="131" spans="1:37">
+      <c r="AL130" s="50"/>
+    </row>
+    <row r="131" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A131" s="50"/>
       <c r="B131" s="50"/>
       <c r="C131" s="50"/>
@@ -12858,8 +12990,9 @@
       <c r="AI131" s="50"/>
       <c r="AJ131" s="50"/>
       <c r="AK131" s="50"/>
-    </row>
-    <row r="132" spans="1:37">
+      <c r="AL131" s="50"/>
+    </row>
+    <row r="132" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A132" s="50"/>
       <c r="B132" s="50"/>
       <c r="C132" s="50"/>
@@ -12897,8 +13030,9 @@
       <c r="AI132" s="50"/>
       <c r="AJ132" s="50"/>
       <c r="AK132" s="50"/>
-    </row>
-    <row r="133" spans="1:37">
+      <c r="AL132" s="50"/>
+    </row>
+    <row r="133" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A133" s="50"/>
       <c r="B133" s="50"/>
       <c r="C133" s="50"/>
@@ -12936,8 +13070,9 @@
       <c r="AI133" s="50"/>
       <c r="AJ133" s="50"/>
       <c r="AK133" s="50"/>
-    </row>
-    <row r="134" spans="1:37">
+      <c r="AL133" s="50"/>
+    </row>
+    <row r="134" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A134" s="50"/>
       <c r="B134" s="50"/>
       <c r="C134" s="50"/>
@@ -12975,8 +13110,9 @@
       <c r="AI134" s="50"/>
       <c r="AJ134" s="50"/>
       <c r="AK134" s="50"/>
-    </row>
-    <row r="135" spans="1:37">
+      <c r="AL134" s="50"/>
+    </row>
+    <row r="135" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A135" s="50"/>
       <c r="B135" s="50"/>
       <c r="C135" s="50"/>
@@ -13014,8 +13150,9 @@
       <c r="AI135" s="50"/>
       <c r="AJ135" s="50"/>
       <c r="AK135" s="50"/>
-    </row>
-    <row r="136" spans="1:37">
+      <c r="AL135" s="50"/>
+    </row>
+    <row r="136" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A136" s="50"/>
       <c r="B136" s="50"/>
       <c r="C136" s="50"/>
@@ -13053,8 +13190,9 @@
       <c r="AI136" s="50"/>
       <c r="AJ136" s="50"/>
       <c r="AK136" s="50"/>
-    </row>
-    <row r="137" spans="1:37">
+      <c r="AL136" s="50"/>
+    </row>
+    <row r="137" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A137" s="50"/>
       <c r="B137" s="50"/>
       <c r="C137" s="50"/>
@@ -13092,8 +13230,9 @@
       <c r="AI137" s="50"/>
       <c r="AJ137" s="50"/>
       <c r="AK137" s="50"/>
-    </row>
-    <row r="138" spans="1:37">
+      <c r="AL137" s="50"/>
+    </row>
+    <row r="138" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A138" s="50"/>
       <c r="B138" s="50"/>
       <c r="C138" s="50"/>
@@ -13131,8 +13270,9 @@
       <c r="AI138" s="50"/>
       <c r="AJ138" s="50"/>
       <c r="AK138" s="50"/>
-    </row>
-    <row r="139" spans="1:37">
+      <c r="AL138" s="50"/>
+    </row>
+    <row r="139" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A139" s="50"/>
       <c r="B139" s="50"/>
       <c r="C139" s="50"/>
@@ -13170,8 +13310,9 @@
       <c r="AI139" s="50"/>
       <c r="AJ139" s="50"/>
       <c r="AK139" s="50"/>
-    </row>
-    <row r="140" spans="1:37">
+      <c r="AL139" s="50"/>
+    </row>
+    <row r="140" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A140" s="50"/>
       <c r="B140" s="50"/>
       <c r="C140" s="50"/>
@@ -13209,8 +13350,9 @@
       <c r="AI140" s="50"/>
       <c r="AJ140" s="50"/>
       <c r="AK140" s="50"/>
-    </row>
-    <row r="141" spans="1:37">
+      <c r="AL140" s="50"/>
+    </row>
+    <row r="141" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A141" s="50"/>
       <c r="B141" s="50"/>
       <c r="C141" s="50"/>
@@ -13248,8 +13390,9 @@
       <c r="AI141" s="50"/>
       <c r="AJ141" s="50"/>
       <c r="AK141" s="50"/>
-    </row>
-    <row r="142" spans="1:37">
+      <c r="AL141" s="50"/>
+    </row>
+    <row r="142" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A142" s="50"/>
       <c r="B142" s="50"/>
       <c r="C142" s="50"/>
@@ -13287,8 +13430,9 @@
       <c r="AI142" s="50"/>
       <c r="AJ142" s="50"/>
       <c r="AK142" s="50"/>
-    </row>
-    <row r="143" spans="1:37">
+      <c r="AL142" s="50"/>
+    </row>
+    <row r="143" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A143" s="50"/>
       <c r="B143" s="50"/>
       <c r="C143" s="50"/>
@@ -13326,8 +13470,9 @@
       <c r="AI143" s="50"/>
       <c r="AJ143" s="50"/>
       <c r="AK143" s="50"/>
-    </row>
-    <row r="144" spans="1:37">
+      <c r="AL143" s="50"/>
+    </row>
+    <row r="144" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A144" s="50"/>
       <c r="B144" s="50"/>
       <c r="C144" s="50"/>
@@ -13365,8 +13510,9 @@
       <c r="AI144" s="50"/>
       <c r="AJ144" s="50"/>
       <c r="AK144" s="50"/>
-    </row>
-    <row r="145" spans="1:37">
+      <c r="AL144" s="50"/>
+    </row>
+    <row r="145" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A145" s="50"/>
       <c r="B145" s="50"/>
       <c r="C145" s="50"/>
@@ -13404,8 +13550,9 @@
       <c r="AI145" s="50"/>
       <c r="AJ145" s="50"/>
       <c r="AK145" s="50"/>
-    </row>
-    <row r="146" spans="1:37">
+      <c r="AL145" s="50"/>
+    </row>
+    <row r="146" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A146" s="50"/>
       <c r="B146" s="50"/>
       <c r="C146" s="50"/>
@@ -13443,8 +13590,9 @@
       <c r="AI146" s="50"/>
       <c r="AJ146" s="50"/>
       <c r="AK146" s="50"/>
-    </row>
-    <row r="147" spans="1:37">
+      <c r="AL146" s="50"/>
+    </row>
+    <row r="147" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A147" s="50"/>
       <c r="B147" s="50"/>
       <c r="C147" s="50"/>
@@ -13482,8 +13630,9 @@
       <c r="AI147" s="50"/>
       <c r="AJ147" s="50"/>
       <c r="AK147" s="50"/>
-    </row>
-    <row r="148" spans="1:37">
+      <c r="AL147" s="50"/>
+    </row>
+    <row r="148" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A148" s="50"/>
       <c r="B148" s="50"/>
       <c r="C148" s="50"/>
@@ -13521,8 +13670,9 @@
       <c r="AI148" s="50"/>
       <c r="AJ148" s="50"/>
       <c r="AK148" s="50"/>
-    </row>
-    <row r="149" spans="1:37">
+      <c r="AL148" s="50"/>
+    </row>
+    <row r="149" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A149" s="50"/>
       <c r="B149" s="50"/>
       <c r="C149" s="50"/>
@@ -13560,8 +13710,9 @@
       <c r="AI149" s="50"/>
       <c r="AJ149" s="50"/>
       <c r="AK149" s="50"/>
-    </row>
-    <row r="150" spans="1:37">
+      <c r="AL149" s="50"/>
+    </row>
+    <row r="150" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A150" s="50"/>
       <c r="B150" s="50"/>
       <c r="C150" s="50"/>
@@ -13599,8 +13750,9 @@
       <c r="AI150" s="50"/>
       <c r="AJ150" s="50"/>
       <c r="AK150" s="50"/>
-    </row>
-    <row r="151" spans="1:37">
+      <c r="AL150" s="50"/>
+    </row>
+    <row r="151" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A151" s="50"/>
       <c r="B151" s="50"/>
       <c r="C151" s="50"/>
@@ -13638,8 +13790,9 @@
       <c r="AI151" s="50"/>
       <c r="AJ151" s="50"/>
       <c r="AK151" s="50"/>
-    </row>
-    <row r="152" spans="1:37">
+      <c r="AL151" s="50"/>
+    </row>
+    <row r="152" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A152" s="50"/>
       <c r="B152" s="50"/>
       <c r="C152" s="50"/>
@@ -13677,8 +13830,9 @@
       <c r="AI152" s="50"/>
       <c r="AJ152" s="50"/>
       <c r="AK152" s="50"/>
-    </row>
-    <row r="153" spans="1:37">
+      <c r="AL152" s="50"/>
+    </row>
+    <row r="153" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A153" s="50"/>
       <c r="B153" s="50"/>
       <c r="C153" s="50"/>
@@ -13716,8 +13870,9 @@
       <c r="AI153" s="50"/>
       <c r="AJ153" s="50"/>
       <c r="AK153" s="50"/>
-    </row>
-    <row r="154" spans="1:37">
+      <c r="AL153" s="50"/>
+    </row>
+    <row r="154" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A154" s="50"/>
       <c r="B154" s="50"/>
       <c r="C154" s="50"/>
@@ -13755,8 +13910,9 @@
       <c r="AI154" s="50"/>
       <c r="AJ154" s="50"/>
       <c r="AK154" s="50"/>
-    </row>
-    <row r="155" spans="1:37">
+      <c r="AL154" s="50"/>
+    </row>
+    <row r="155" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A155" s="50"/>
       <c r="B155" s="50"/>
       <c r="C155" s="50"/>
@@ -13794,8 +13950,9 @@
       <c r="AI155" s="50"/>
       <c r="AJ155" s="50"/>
       <c r="AK155" s="50"/>
-    </row>
-    <row r="156" spans="1:37">
+      <c r="AL155" s="50"/>
+    </row>
+    <row r="156" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A156" s="50"/>
       <c r="B156" s="50"/>
       <c r="C156" s="50"/>
@@ -13833,8 +13990,9 @@
       <c r="AI156" s="50"/>
       <c r="AJ156" s="50"/>
       <c r="AK156" s="50"/>
-    </row>
-    <row r="157" spans="1:37">
+      <c r="AL156" s="50"/>
+    </row>
+    <row r="157" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A157" s="50"/>
       <c r="B157" s="50"/>
       <c r="C157" s="50"/>
@@ -13872,8 +14030,9 @@
       <c r="AI157" s="50"/>
       <c r="AJ157" s="50"/>
       <c r="AK157" s="50"/>
-    </row>
-    <row r="158" spans="1:37">
+      <c r="AL157" s="50"/>
+    </row>
+    <row r="158" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A158" s="50"/>
       <c r="B158" s="50"/>
       <c r="C158" s="50"/>
@@ -13911,8 +14070,9 @@
       <c r="AI158" s="50"/>
       <c r="AJ158" s="50"/>
       <c r="AK158" s="50"/>
-    </row>
-    <row r="159" spans="1:37">
+      <c r="AL158" s="50"/>
+    </row>
+    <row r="159" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A159" s="50"/>
       <c r="B159" s="50"/>
       <c r="C159" s="50"/>
@@ -13950,8 +14110,9 @@
       <c r="AI159" s="50"/>
       <c r="AJ159" s="50"/>
       <c r="AK159" s="50"/>
-    </row>
-    <row r="160" spans="1:37">
+      <c r="AL159" s="50"/>
+    </row>
+    <row r="160" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A160" s="50"/>
       <c r="B160" s="50"/>
       <c r="C160" s="50"/>
@@ -13989,8 +14150,9 @@
       <c r="AI160" s="50"/>
       <c r="AJ160" s="50"/>
       <c r="AK160" s="50"/>
-    </row>
-    <row r="161" spans="1:37">
+      <c r="AL160" s="50"/>
+    </row>
+    <row r="161" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A161" s="50"/>
       <c r="B161" s="50"/>
       <c r="C161" s="50"/>
@@ -14028,8 +14190,9 @@
       <c r="AI161" s="50"/>
       <c r="AJ161" s="50"/>
       <c r="AK161" s="50"/>
-    </row>
-    <row r="162" spans="1:37">
+      <c r="AL161" s="50"/>
+    </row>
+    <row r="162" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A162" s="50"/>
       <c r="B162" s="50"/>
       <c r="C162" s="50"/>
@@ -14067,8 +14230,9 @@
       <c r="AI162" s="50"/>
       <c r="AJ162" s="50"/>
       <c r="AK162" s="50"/>
-    </row>
-    <row r="163" spans="1:37">
+      <c r="AL162" s="50"/>
+    </row>
+    <row r="163" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A163" s="50"/>
       <c r="B163" s="50"/>
       <c r="C163" s="50"/>
@@ -14106,8 +14270,9 @@
       <c r="AI163" s="50"/>
       <c r="AJ163" s="50"/>
       <c r="AK163" s="50"/>
-    </row>
-    <row r="164" spans="1:37">
+      <c r="AL163" s="50"/>
+    </row>
+    <row r="164" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A164" s="50"/>
       <c r="B164" s="50"/>
       <c r="C164" s="50"/>
@@ -14145,8 +14310,9 @@
       <c r="AI164" s="50"/>
       <c r="AJ164" s="50"/>
       <c r="AK164" s="50"/>
-    </row>
-    <row r="165" spans="1:37">
+      <c r="AL164" s="50"/>
+    </row>
+    <row r="165" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A165" s="50"/>
       <c r="B165" s="50"/>
       <c r="C165" s="50"/>
@@ -14184,8 +14350,9 @@
       <c r="AI165" s="50"/>
       <c r="AJ165" s="50"/>
       <c r="AK165" s="50"/>
-    </row>
-    <row r="166" spans="1:37">
+      <c r="AL165" s="50"/>
+    </row>
+    <row r="166" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A166" s="50"/>
       <c r="B166" s="50"/>
       <c r="C166" s="50"/>
@@ -14223,8 +14390,9 @@
       <c r="AI166" s="50"/>
       <c r="AJ166" s="50"/>
       <c r="AK166" s="50"/>
-    </row>
-    <row r="167" spans="1:37">
+      <c r="AL166" s="50"/>
+    </row>
+    <row r="167" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A167" s="50"/>
       <c r="B167" s="50"/>
       <c r="C167" s="50"/>
@@ -14262,8 +14430,9 @@
       <c r="AI167" s="50"/>
       <c r="AJ167" s="50"/>
       <c r="AK167" s="50"/>
-    </row>
-    <row r="168" spans="1:37">
+      <c r="AL167" s="50"/>
+    </row>
+    <row r="168" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A168" s="50"/>
       <c r="B168" s="50"/>
       <c r="C168" s="50"/>
@@ -14301,8 +14470,9 @@
       <c r="AI168" s="50"/>
       <c r="AJ168" s="50"/>
       <c r="AK168" s="50"/>
-    </row>
-    <row r="169" spans="1:37">
+      <c r="AL168" s="50"/>
+    </row>
+    <row r="169" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A169" s="50"/>
       <c r="B169" s="50"/>
       <c r="C169" s="50"/>
@@ -14340,8 +14510,9 @@
       <c r="AI169" s="50"/>
       <c r="AJ169" s="50"/>
       <c r="AK169" s="50"/>
-    </row>
-    <row r="170" spans="1:37">
+      <c r="AL169" s="50"/>
+    </row>
+    <row r="170" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A170" s="50"/>
       <c r="B170" s="50"/>
       <c r="C170" s="50"/>
@@ -14379,8 +14550,9 @@
       <c r="AI170" s="50"/>
       <c r="AJ170" s="50"/>
       <c r="AK170" s="50"/>
-    </row>
-    <row r="171" spans="1:37">
+      <c r="AL170" s="50"/>
+    </row>
+    <row r="171" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A171" s="50"/>
       <c r="B171" s="50"/>
       <c r="C171" s="50"/>
@@ -14418,8 +14590,9 @@
       <c r="AI171" s="50"/>
       <c r="AJ171" s="50"/>
       <c r="AK171" s="50"/>
-    </row>
-    <row r="172" spans="1:37">
+      <c r="AL171" s="50"/>
+    </row>
+    <row r="172" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A172" s="50"/>
       <c r="B172" s="50"/>
       <c r="C172" s="50"/>
@@ -14457,8 +14630,9 @@
       <c r="AI172" s="50"/>
       <c r="AJ172" s="50"/>
       <c r="AK172" s="50"/>
-    </row>
-    <row r="173" spans="1:37">
+      <c r="AL172" s="50"/>
+    </row>
+    <row r="173" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A173" s="50"/>
       <c r="B173" s="50"/>
       <c r="C173" s="50"/>
@@ -14496,8 +14670,9 @@
       <c r="AI173" s="50"/>
       <c r="AJ173" s="50"/>
       <c r="AK173" s="50"/>
-    </row>
-    <row r="174" spans="1:37">
+      <c r="AL173" s="50"/>
+    </row>
+    <row r="174" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A174" s="50"/>
       <c r="B174" s="50"/>
       <c r="C174" s="50"/>
@@ -14535,8 +14710,9 @@
       <c r="AI174" s="50"/>
       <c r="AJ174" s="50"/>
       <c r="AK174" s="50"/>
-    </row>
-    <row r="175" spans="1:37">
+      <c r="AL174" s="50"/>
+    </row>
+    <row r="175" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A175" s="50"/>
       <c r="B175" s="50"/>
       <c r="C175" s="50"/>
@@ -14574,8 +14750,9 @@
       <c r="AI175" s="50"/>
       <c r="AJ175" s="50"/>
       <c r="AK175" s="50"/>
-    </row>
-    <row r="176" spans="1:37">
+      <c r="AL175" s="50"/>
+    </row>
+    <row r="176" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A176" s="50"/>
       <c r="B176" s="50"/>
       <c r="C176" s="50"/>
@@ -14613,8 +14790,9 @@
       <c r="AI176" s="50"/>
       <c r="AJ176" s="50"/>
       <c r="AK176" s="50"/>
-    </row>
-    <row r="177" spans="1:37">
+      <c r="AL176" s="50"/>
+    </row>
+    <row r="177" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A177" s="50"/>
       <c r="B177" s="50"/>
       <c r="C177" s="50"/>
@@ -14652,8 +14830,9 @@
       <c r="AI177" s="50"/>
       <c r="AJ177" s="50"/>
       <c r="AK177" s="50"/>
-    </row>
-    <row r="178" spans="1:37">
+      <c r="AL177" s="50"/>
+    </row>
+    <row r="178" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A178" s="50"/>
       <c r="B178" s="50"/>
       <c r="C178" s="50"/>
@@ -14691,8 +14870,9 @@
       <c r="AI178" s="50"/>
       <c r="AJ178" s="50"/>
       <c r="AK178" s="50"/>
-    </row>
-    <row r="179" spans="1:37">
+      <c r="AL178" s="50"/>
+    </row>
+    <row r="179" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A179" s="50"/>
       <c r="B179" s="50"/>
       <c r="C179" s="50"/>
@@ -14730,8 +14910,9 @@
       <c r="AI179" s="50"/>
       <c r="AJ179" s="50"/>
       <c r="AK179" s="50"/>
-    </row>
-    <row r="180" spans="1:37">
+      <c r="AL179" s="50"/>
+    </row>
+    <row r="180" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A180" s="50"/>
       <c r="B180" s="50"/>
       <c r="C180" s="50"/>
@@ -14769,8 +14950,9 @@
       <c r="AI180" s="50"/>
       <c r="AJ180" s="50"/>
       <c r="AK180" s="50"/>
-    </row>
-    <row r="181" spans="1:37">
+      <c r="AL180" s="50"/>
+    </row>
+    <row r="181" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A181" s="50"/>
       <c r="B181" s="50"/>
       <c r="C181" s="50"/>
@@ -14808,8 +14990,9 @@
       <c r="AI181" s="50"/>
       <c r="AJ181" s="50"/>
       <c r="AK181" s="50"/>
-    </row>
-    <row r="182" spans="1:37">
+      <c r="AL181" s="50"/>
+    </row>
+    <row r="182" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A182" s="50"/>
       <c r="B182" s="50"/>
       <c r="C182" s="50"/>
@@ -14847,8 +15030,9 @@
       <c r="AI182" s="50"/>
       <c r="AJ182" s="50"/>
       <c r="AK182" s="50"/>
-    </row>
-    <row r="183" spans="1:37">
+      <c r="AL182" s="50"/>
+    </row>
+    <row r="183" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A183" s="50"/>
       <c r="B183" s="50"/>
       <c r="C183" s="50"/>
@@ -14886,8 +15070,9 @@
       <c r="AI183" s="50"/>
       <c r="AJ183" s="50"/>
       <c r="AK183" s="50"/>
-    </row>
-    <row r="184" spans="1:37">
+      <c r="AL183" s="50"/>
+    </row>
+    <row r="184" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A184" s="50"/>
       <c r="B184" s="50"/>
       <c r="C184" s="50"/>
@@ -14925,8 +15110,9 @@
       <c r="AI184" s="50"/>
       <c r="AJ184" s="50"/>
       <c r="AK184" s="50"/>
-    </row>
-    <row r="185" spans="1:37">
+      <c r="AL184" s="50"/>
+    </row>
+    <row r="185" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A185" s="50"/>
       <c r="B185" s="50"/>
       <c r="C185" s="50"/>
@@ -14964,8 +15150,9 @@
       <c r="AI185" s="50"/>
       <c r="AJ185" s="50"/>
       <c r="AK185" s="50"/>
-    </row>
-    <row r="186" spans="1:37">
+      <c r="AL185" s="50"/>
+    </row>
+    <row r="186" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A186" s="50"/>
       <c r="B186" s="50"/>
       <c r="C186" s="50"/>
@@ -15003,8 +15190,9 @@
       <c r="AI186" s="50"/>
       <c r="AJ186" s="50"/>
       <c r="AK186" s="50"/>
-    </row>
-    <row r="187" spans="1:37">
+      <c r="AL186" s="50"/>
+    </row>
+    <row r="187" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A187" s="50"/>
       <c r="B187" s="50"/>
       <c r="C187" s="50"/>
@@ -15042,8 +15230,9 @@
       <c r="AI187" s="50"/>
       <c r="AJ187" s="50"/>
       <c r="AK187" s="50"/>
-    </row>
-    <row r="188" spans="1:37">
+      <c r="AL187" s="50"/>
+    </row>
+    <row r="188" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A188" s="50"/>
       <c r="B188" s="50"/>
       <c r="C188" s="50"/>
@@ -15081,8 +15270,9 @@
       <c r="AI188" s="50"/>
       <c r="AJ188" s="50"/>
       <c r="AK188" s="50"/>
-    </row>
-    <row r="189" spans="1:37">
+      <c r="AL188" s="50"/>
+    </row>
+    <row r="189" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A189" s="50"/>
       <c r="B189" s="50"/>
       <c r="C189" s="50"/>
@@ -15120,8 +15310,9 @@
       <c r="AI189" s="50"/>
       <c r="AJ189" s="50"/>
       <c r="AK189" s="50"/>
-    </row>
-    <row r="190" spans="1:37">
+      <c r="AL189" s="50"/>
+    </row>
+    <row r="190" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A190" s="50"/>
       <c r="B190" s="50"/>
       <c r="C190" s="50"/>
@@ -15159,8 +15350,9 @@
       <c r="AI190" s="50"/>
       <c r="AJ190" s="50"/>
       <c r="AK190" s="50"/>
-    </row>
-    <row r="191" spans="1:37">
+      <c r="AL190" s="50"/>
+    </row>
+    <row r="191" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A191" s="50"/>
       <c r="B191" s="50"/>
       <c r="C191" s="50"/>
@@ -15198,8 +15390,9 @@
       <c r="AI191" s="50"/>
       <c r="AJ191" s="50"/>
       <c r="AK191" s="50"/>
-    </row>
-    <row r="192" spans="1:37">
+      <c r="AL191" s="50"/>
+    </row>
+    <row r="192" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A192" s="50"/>
       <c r="B192" s="50"/>
       <c r="C192" s="50"/>
@@ -15237,8 +15430,9 @@
       <c r="AI192" s="50"/>
       <c r="AJ192" s="50"/>
       <c r="AK192" s="50"/>
-    </row>
-    <row r="193" spans="1:37">
+      <c r="AL192" s="50"/>
+    </row>
+    <row r="193" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A193" s="50"/>
       <c r="B193" s="50"/>
       <c r="C193" s="50"/>
@@ -15276,8 +15470,9 @@
       <c r="AI193" s="50"/>
       <c r="AJ193" s="50"/>
       <c r="AK193" s="50"/>
-    </row>
-    <row r="194" spans="1:37">
+      <c r="AL193" s="50"/>
+    </row>
+    <row r="194" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A194" s="50"/>
       <c r="B194" s="50"/>
       <c r="C194" s="50"/>
@@ -15315,8 +15510,9 @@
       <c r="AI194" s="50"/>
       <c r="AJ194" s="50"/>
       <c r="AK194" s="50"/>
-    </row>
-    <row r="195" spans="1:37">
+      <c r="AL194" s="50"/>
+    </row>
+    <row r="195" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A195" s="50"/>
       <c r="B195" s="50"/>
       <c r="C195" s="50"/>
@@ -15354,8 +15550,9 @@
       <c r="AI195" s="50"/>
       <c r="AJ195" s="50"/>
       <c r="AK195" s="50"/>
-    </row>
-    <row r="196" spans="1:37">
+      <c r="AL195" s="50"/>
+    </row>
+    <row r="196" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A196" s="50"/>
       <c r="B196" s="50"/>
       <c r="C196" s="50"/>
@@ -15393,8 +15590,9 @@
       <c r="AI196" s="50"/>
       <c r="AJ196" s="50"/>
       <c r="AK196" s="50"/>
-    </row>
-    <row r="197" spans="1:37">
+      <c r="AL196" s="50"/>
+    </row>
+    <row r="197" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A197" s="50"/>
       <c r="B197" s="50"/>
       <c r="C197" s="50"/>
@@ -15432,8 +15630,9 @@
       <c r="AI197" s="50"/>
       <c r="AJ197" s="50"/>
       <c r="AK197" s="50"/>
-    </row>
-    <row r="198" spans="1:37">
+      <c r="AL197" s="50"/>
+    </row>
+    <row r="198" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A198" s="50"/>
       <c r="B198" s="50"/>
       <c r="C198" s="50"/>
@@ -15471,8 +15670,9 @@
       <c r="AI198" s="50"/>
       <c r="AJ198" s="50"/>
       <c r="AK198" s="50"/>
-    </row>
-    <row r="199" spans="1:37">
+      <c r="AL198" s="50"/>
+    </row>
+    <row r="199" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A199" s="50"/>
       <c r="B199" s="50"/>
       <c r="C199" s="50"/>
@@ -15510,8 +15710,9 @@
       <c r="AI199" s="50"/>
       <c r="AJ199" s="50"/>
       <c r="AK199" s="50"/>
-    </row>
-    <row r="200" spans="1:37">
+      <c r="AL199" s="50"/>
+    </row>
+    <row r="200" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A200" s="50"/>
       <c r="B200" s="50"/>
       <c r="C200" s="50"/>
@@ -15549,8 +15750,9 @@
       <c r="AI200" s="50"/>
       <c r="AJ200" s="50"/>
       <c r="AK200" s="50"/>
-    </row>
-    <row r="201" spans="1:37">
+      <c r="AL200" s="50"/>
+    </row>
+    <row r="201" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A201" s="50"/>
       <c r="B201" s="50"/>
       <c r="C201" s="50"/>
@@ -15588,8 +15790,9 @@
       <c r="AI201" s="50"/>
       <c r="AJ201" s="50"/>
       <c r="AK201" s="50"/>
-    </row>
-    <row r="202" spans="1:37">
+      <c r="AL201" s="50"/>
+    </row>
+    <row r="202" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A202" s="50"/>
       <c r="B202" s="50"/>
       <c r="C202" s="50"/>
@@ -15627,8 +15830,9 @@
       <c r="AI202" s="50"/>
       <c r="AJ202" s="50"/>
       <c r="AK202" s="50"/>
-    </row>
-    <row r="203" spans="1:37">
+      <c r="AL202" s="50"/>
+    </row>
+    <row r="203" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A203" s="50"/>
       <c r="B203" s="50"/>
       <c r="C203" s="50"/>
@@ -15666,8 +15870,9 @@
       <c r="AI203" s="50"/>
       <c r="AJ203" s="50"/>
       <c r="AK203" s="50"/>
-    </row>
-    <row r="204" spans="1:37">
+      <c r="AL203" s="50"/>
+    </row>
+    <row r="204" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A204" s="50"/>
       <c r="B204" s="50"/>
       <c r="C204" s="50"/>
@@ -15705,8 +15910,9 @@
       <c r="AI204" s="50"/>
       <c r="AJ204" s="50"/>
       <c r="AK204" s="50"/>
-    </row>
-    <row r="205" spans="1:37">
+      <c r="AL204" s="50"/>
+    </row>
+    <row r="205" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A205" s="50"/>
       <c r="B205" s="50"/>
       <c r="C205" s="50"/>
@@ -15744,8 +15950,9 @@
       <c r="AI205" s="50"/>
       <c r="AJ205" s="50"/>
       <c r="AK205" s="50"/>
-    </row>
-    <row r="206" spans="1:37">
+      <c r="AL205" s="50"/>
+    </row>
+    <row r="206" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A206" s="50"/>
       <c r="B206" s="50"/>
       <c r="C206" s="50"/>
@@ -15783,8 +15990,9 @@
       <c r="AI206" s="50"/>
       <c r="AJ206" s="50"/>
       <c r="AK206" s="50"/>
-    </row>
-    <row r="207" spans="1:37">
+      <c r="AL206" s="50"/>
+    </row>
+    <row r="207" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A207" s="50"/>
       <c r="B207" s="50"/>
       <c r="C207" s="50"/>
@@ -15822,8 +16030,9 @@
       <c r="AI207" s="50"/>
       <c r="AJ207" s="50"/>
       <c r="AK207" s="50"/>
-    </row>
-    <row r="208" spans="1:37">
+      <c r="AL207" s="50"/>
+    </row>
+    <row r="208" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A208" s="50"/>
       <c r="B208" s="50"/>
       <c r="C208" s="50"/>
@@ -15861,8 +16070,9 @@
       <c r="AI208" s="50"/>
       <c r="AJ208" s="50"/>
       <c r="AK208" s="50"/>
-    </row>
-    <row r="209" spans="1:37">
+      <c r="AL208" s="50"/>
+    </row>
+    <row r="209" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A209" s="50"/>
       <c r="B209" s="50"/>
       <c r="C209" s="50"/>
@@ -15900,8 +16110,9 @@
       <c r="AI209" s="50"/>
       <c r="AJ209" s="50"/>
       <c r="AK209" s="50"/>
-    </row>
-    <row r="210" spans="1:37">
+      <c r="AL209" s="50"/>
+    </row>
+    <row r="210" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A210" s="50"/>
       <c r="B210" s="50"/>
       <c r="C210" s="50"/>
@@ -15939,8 +16150,9 @@
       <c r="AI210" s="50"/>
       <c r="AJ210" s="50"/>
       <c r="AK210" s="50"/>
-    </row>
-    <row r="211" spans="1:37">
+      <c r="AL210" s="50"/>
+    </row>
+    <row r="211" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A211" s="50"/>
       <c r="B211" s="50"/>
       <c r="C211" s="50"/>
@@ -15978,8 +16190,9 @@
       <c r="AI211" s="50"/>
       <c r="AJ211" s="50"/>
       <c r="AK211" s="50"/>
-    </row>
-    <row r="212" spans="1:37">
+      <c r="AL211" s="50"/>
+    </row>
+    <row r="212" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A212" s="50"/>
       <c r="B212" s="50"/>
       <c r="C212" s="50"/>
@@ -16017,8 +16230,9 @@
       <c r="AI212" s="50"/>
       <c r="AJ212" s="50"/>
       <c r="AK212" s="50"/>
-    </row>
-    <row r="213" spans="1:37">
+      <c r="AL212" s="50"/>
+    </row>
+    <row r="213" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A213" s="50"/>
       <c r="B213" s="50"/>
       <c r="C213" s="50"/>
@@ -16056,8 +16270,9 @@
       <c r="AI213" s="50"/>
       <c r="AJ213" s="50"/>
       <c r="AK213" s="50"/>
-    </row>
-    <row r="214" spans="1:37">
+      <c r="AL213" s="50"/>
+    </row>
+    <row r="214" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A214" s="50"/>
       <c r="B214" s="50"/>
       <c r="C214" s="50"/>
@@ -16095,8 +16310,9 @@
       <c r="AI214" s="50"/>
       <c r="AJ214" s="50"/>
       <c r="AK214" s="50"/>
-    </row>
-    <row r="215" spans="1:37">
+      <c r="AL214" s="50"/>
+    </row>
+    <row r="215" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A215" s="50"/>
       <c r="B215" s="50"/>
       <c r="C215" s="50"/>
@@ -16134,8 +16350,9 @@
       <c r="AI215" s="50"/>
       <c r="AJ215" s="50"/>
       <c r="AK215" s="50"/>
-    </row>
-    <row r="216" spans="1:37">
+      <c r="AL215" s="50"/>
+    </row>
+    <row r="216" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A216" s="50"/>
       <c r="B216" s="50"/>
       <c r="C216" s="50"/>
@@ -16173,8 +16390,9 @@
       <c r="AI216" s="50"/>
       <c r="AJ216" s="50"/>
       <c r="AK216" s="50"/>
-    </row>
-    <row r="217" spans="1:37">
+      <c r="AL216" s="50"/>
+    </row>
+    <row r="217" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A217" s="50"/>
       <c r="B217" s="50"/>
       <c r="C217" s="50"/>
@@ -16212,8 +16430,9 @@
       <c r="AI217" s="50"/>
       <c r="AJ217" s="50"/>
       <c r="AK217" s="50"/>
-    </row>
-    <row r="218" spans="1:37">
+      <c r="AL217" s="50"/>
+    </row>
+    <row r="218" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A218" s="50"/>
       <c r="B218" s="50"/>
       <c r="C218" s="50"/>
@@ -16251,8 +16470,9 @@
       <c r="AI218" s="50"/>
       <c r="AJ218" s="50"/>
       <c r="AK218" s="50"/>
-    </row>
-    <row r="219" spans="1:37">
+      <c r="AL218" s="50"/>
+    </row>
+    <row r="219" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A219" s="50"/>
       <c r="B219" s="50"/>
       <c r="C219" s="50"/>
@@ -16290,8 +16510,9 @@
       <c r="AI219" s="50"/>
       <c r="AJ219" s="50"/>
       <c r="AK219" s="50"/>
-    </row>
-    <row r="220" spans="1:37">
+      <c r="AL219" s="50"/>
+    </row>
+    <row r="220" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A220" s="50"/>
       <c r="B220" s="50"/>
       <c r="C220" s="50"/>
@@ -16329,8 +16550,9 @@
       <c r="AI220" s="50"/>
       <c r="AJ220" s="50"/>
       <c r="AK220" s="50"/>
-    </row>
-    <row r="221" spans="1:37">
+      <c r="AL220" s="50"/>
+    </row>
+    <row r="221" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A221" s="50"/>
       <c r="B221" s="50"/>
       <c r="C221" s="50"/>
@@ -16368,8 +16590,9 @@
       <c r="AI221" s="50"/>
       <c r="AJ221" s="50"/>
       <c r="AK221" s="50"/>
-    </row>
-    <row r="222" spans="1:37">
+      <c r="AL221" s="50"/>
+    </row>
+    <row r="222" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A222" s="50"/>
       <c r="B222" s="50"/>
       <c r="C222" s="50"/>
@@ -16407,8 +16630,9 @@
       <c r="AI222" s="50"/>
       <c r="AJ222" s="50"/>
       <c r="AK222" s="50"/>
-    </row>
-    <row r="223" spans="1:37">
+      <c r="AL222" s="50"/>
+    </row>
+    <row r="223" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A223" s="50"/>
       <c r="B223" s="50"/>
       <c r="C223" s="50"/>
@@ -16446,8 +16670,9 @@
       <c r="AI223" s="50"/>
       <c r="AJ223" s="50"/>
       <c r="AK223" s="50"/>
-    </row>
-    <row r="224" spans="1:37">
+      <c r="AL223" s="50"/>
+    </row>
+    <row r="224" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A224" s="50"/>
       <c r="B224" s="50"/>
       <c r="C224" s="50"/>
@@ -16485,8 +16710,9 @@
       <c r="AI224" s="50"/>
       <c r="AJ224" s="50"/>
       <c r="AK224" s="50"/>
-    </row>
-    <row r="225" spans="1:37">
+      <c r="AL224" s="50"/>
+    </row>
+    <row r="225" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A225" s="50"/>
       <c r="B225" s="50"/>
       <c r="C225" s="50"/>
@@ -16524,8 +16750,9 @@
       <c r="AI225" s="50"/>
       <c r="AJ225" s="50"/>
       <c r="AK225" s="50"/>
-    </row>
-    <row r="226" spans="1:37">
+      <c r="AL225" s="50"/>
+    </row>
+    <row r="226" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A226" s="50"/>
       <c r="B226" s="50"/>
       <c r="C226" s="50"/>
@@ -16563,8 +16790,9 @@
       <c r="AI226" s="50"/>
       <c r="AJ226" s="50"/>
       <c r="AK226" s="50"/>
-    </row>
-    <row r="227" spans="1:37">
+      <c r="AL226" s="50"/>
+    </row>
+    <row r="227" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A227" s="50"/>
       <c r="B227" s="50"/>
       <c r="C227" s="50"/>
@@ -16602,8 +16830,9 @@
       <c r="AI227" s="50"/>
       <c r="AJ227" s="50"/>
       <c r="AK227" s="50"/>
-    </row>
-    <row r="228" spans="1:37">
+      <c r="AL227" s="50"/>
+    </row>
+    <row r="228" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A228" s="50"/>
       <c r="B228" s="50"/>
       <c r="C228" s="50"/>
@@ -16641,8 +16870,9 @@
       <c r="AI228" s="50"/>
       <c r="AJ228" s="50"/>
       <c r="AK228" s="50"/>
-    </row>
-    <row r="229" spans="1:37">
+      <c r="AL228" s="50"/>
+    </row>
+    <row r="229" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A229" s="50"/>
       <c r="B229" s="50"/>
       <c r="C229" s="50"/>
@@ -16680,8 +16910,9 @@
       <c r="AI229" s="50"/>
       <c r="AJ229" s="50"/>
       <c r="AK229" s="50"/>
-    </row>
-    <row r="230" spans="1:37">
+      <c r="AL229" s="50"/>
+    </row>
+    <row r="230" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A230" s="50"/>
       <c r="B230" s="50"/>
       <c r="C230" s="50"/>
@@ -16719,8 +16950,9 @@
       <c r="AI230" s="50"/>
       <c r="AJ230" s="50"/>
       <c r="AK230" s="50"/>
-    </row>
-    <row r="231" spans="1:37">
+      <c r="AL230" s="50"/>
+    </row>
+    <row r="231" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A231" s="50"/>
       <c r="B231" s="50"/>
       <c r="C231" s="50"/>
@@ -16758,8 +16990,9 @@
       <c r="AI231" s="50"/>
       <c r="AJ231" s="50"/>
       <c r="AK231" s="50"/>
-    </row>
-    <row r="232" spans="1:37">
+      <c r="AL231" s="50"/>
+    </row>
+    <row r="232" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A232" s="50"/>
       <c r="B232" s="50"/>
       <c r="C232" s="50"/>
@@ -16797,8 +17030,9 @@
       <c r="AI232" s="50"/>
       <c r="AJ232" s="50"/>
       <c r="AK232" s="50"/>
-    </row>
-    <row r="233" spans="1:37">
+      <c r="AL232" s="50"/>
+    </row>
+    <row r="233" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A233" s="50"/>
       <c r="B233" s="50"/>
       <c r="C233" s="50"/>
@@ -16836,8 +17070,9 @@
       <c r="AI233" s="50"/>
       <c r="AJ233" s="50"/>
       <c r="AK233" s="50"/>
-    </row>
-    <row r="234" spans="1:37">
+      <c r="AL233" s="50"/>
+    </row>
+    <row r="234" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A234" s="50"/>
       <c r="B234" s="50"/>
       <c r="C234" s="50"/>
@@ -16875,8 +17110,9 @@
       <c r="AI234" s="50"/>
       <c r="AJ234" s="50"/>
       <c r="AK234" s="50"/>
-    </row>
-    <row r="235" spans="1:37">
+      <c r="AL234" s="50"/>
+    </row>
+    <row r="235" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A235" s="50"/>
       <c r="B235" s="50"/>
       <c r="C235" s="50"/>
@@ -16914,8 +17150,9 @@
       <c r="AI235" s="50"/>
       <c r="AJ235" s="50"/>
       <c r="AK235" s="50"/>
-    </row>
-    <row r="236" spans="1:37">
+      <c r="AL235" s="50"/>
+    </row>
+    <row r="236" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A236" s="50"/>
       <c r="B236" s="50"/>
       <c r="C236" s="50"/>
@@ -16953,8 +17190,9 @@
       <c r="AI236" s="50"/>
       <c r="AJ236" s="50"/>
       <c r="AK236" s="50"/>
-    </row>
-    <row r="237" spans="1:37">
+      <c r="AL236" s="50"/>
+    </row>
+    <row r="237" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A237" s="50"/>
       <c r="B237" s="50"/>
       <c r="C237" s="50"/>
@@ -16992,8 +17230,9 @@
       <c r="AI237" s="50"/>
       <c r="AJ237" s="50"/>
       <c r="AK237" s="50"/>
-    </row>
-    <row r="238" spans="1:37">
+      <c r="AL237" s="50"/>
+    </row>
+    <row r="238" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A238" s="50"/>
       <c r="B238" s="50"/>
       <c r="C238" s="50"/>
@@ -17031,8 +17270,9 @@
       <c r="AI238" s="50"/>
       <c r="AJ238" s="50"/>
       <c r="AK238" s="50"/>
-    </row>
-    <row r="239" spans="1:37">
+      <c r="AL238" s="50"/>
+    </row>
+    <row r="239" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A239" s="50"/>
       <c r="B239" s="50"/>
       <c r="C239" s="50"/>
@@ -17070,8 +17310,9 @@
       <c r="AI239" s="50"/>
       <c r="AJ239" s="50"/>
       <c r="AK239" s="50"/>
-    </row>
-    <row r="240" spans="1:37">
+      <c r="AL239" s="50"/>
+    </row>
+    <row r="240" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A240" s="50"/>
       <c r="B240" s="50"/>
       <c r="C240" s="50"/>
@@ -17109,8 +17350,9 @@
       <c r="AI240" s="50"/>
       <c r="AJ240" s="50"/>
       <c r="AK240" s="50"/>
-    </row>
-    <row r="241" spans="1:37">
+      <c r="AL240" s="50"/>
+    </row>
+    <row r="241" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A241" s="50"/>
       <c r="B241" s="50"/>
       <c r="C241" s="50"/>
@@ -17148,8 +17390,9 @@
       <c r="AI241" s="50"/>
       <c r="AJ241" s="50"/>
       <c r="AK241" s="50"/>
-    </row>
-    <row r="242" spans="1:37">
+      <c r="AL241" s="50"/>
+    </row>
+    <row r="242" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A242" s="50"/>
       <c r="B242" s="50"/>
       <c r="C242" s="50"/>
@@ -17187,8 +17430,9 @@
       <c r="AI242" s="50"/>
       <c r="AJ242" s="50"/>
       <c r="AK242" s="50"/>
-    </row>
-    <row r="243" spans="1:37">
+      <c r="AL242" s="50"/>
+    </row>
+    <row r="243" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A243" s="50"/>
       <c r="B243" s="50"/>
       <c r="C243" s="50"/>
@@ -17226,8 +17470,9 @@
       <c r="AI243" s="50"/>
       <c r="AJ243" s="50"/>
       <c r="AK243" s="50"/>
-    </row>
-    <row r="244" spans="1:37">
+      <c r="AL243" s="50"/>
+    </row>
+    <row r="244" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A244" s="50"/>
       <c r="B244" s="50"/>
       <c r="C244" s="50"/>
@@ -17265,8 +17510,9 @@
       <c r="AI244" s="50"/>
       <c r="AJ244" s="50"/>
       <c r="AK244" s="50"/>
-    </row>
-    <row r="245" spans="1:37">
+      <c r="AL244" s="50"/>
+    </row>
+    <row r="245" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A245" s="50"/>
       <c r="B245" s="50"/>
       <c r="C245" s="50"/>
@@ -17304,8 +17550,9 @@
       <c r="AI245" s="50"/>
       <c r="AJ245" s="50"/>
       <c r="AK245" s="50"/>
-    </row>
-    <row r="246" spans="1:37">
+      <c r="AL245" s="50"/>
+    </row>
+    <row r="246" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A246" s="50"/>
       <c r="B246" s="50"/>
       <c r="C246" s="50"/>
@@ -17343,8 +17590,9 @@
       <c r="AI246" s="50"/>
       <c r="AJ246" s="50"/>
       <c r="AK246" s="50"/>
-    </row>
-    <row r="247" spans="1:37">
+      <c r="AL246" s="50"/>
+    </row>
+    <row r="247" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A247" s="50"/>
       <c r="B247" s="50"/>
       <c r="C247" s="50"/>
@@ -17382,8 +17630,9 @@
       <c r="AI247" s="50"/>
       <c r="AJ247" s="50"/>
       <c r="AK247" s="50"/>
-    </row>
-    <row r="248" spans="1:37">
+      <c r="AL247" s="50"/>
+    </row>
+    <row r="248" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A248" s="50"/>
       <c r="B248" s="50"/>
       <c r="C248" s="50"/>
@@ -17421,8 +17670,9 @@
       <c r="AI248" s="50"/>
       <c r="AJ248" s="50"/>
       <c r="AK248" s="50"/>
-    </row>
-    <row r="249" spans="1:37">
+      <c r="AL248" s="50"/>
+    </row>
+    <row r="249" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A249" s="50"/>
       <c r="B249" s="50"/>
       <c r="C249" s="50"/>
@@ -17460,8 +17710,9 @@
       <c r="AI249" s="50"/>
       <c r="AJ249" s="50"/>
       <c r="AK249" s="50"/>
-    </row>
-    <row r="250" spans="1:37">
+      <c r="AL249" s="50"/>
+    </row>
+    <row r="250" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A250" s="50"/>
       <c r="B250" s="50"/>
       <c r="C250" s="50"/>
@@ -17499,8 +17750,9 @@
       <c r="AI250" s="50"/>
       <c r="AJ250" s="50"/>
       <c r="AK250" s="50"/>
-    </row>
-    <row r="251" spans="1:37">
+      <c r="AL250" s="50"/>
+    </row>
+    <row r="251" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A251" s="50"/>
       <c r="B251" s="50"/>
       <c r="C251" s="50"/>
@@ -17538,8 +17790,9 @@
       <c r="AI251" s="50"/>
       <c r="AJ251" s="50"/>
       <c r="AK251" s="50"/>
-    </row>
-    <row r="252" spans="1:37">
+      <c r="AL251" s="50"/>
+    </row>
+    <row r="252" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A252" s="50"/>
       <c r="B252" s="50"/>
       <c r="C252" s="50"/>
@@ -17577,8 +17830,9 @@
       <c r="AI252" s="50"/>
       <c r="AJ252" s="50"/>
       <c r="AK252" s="50"/>
-    </row>
-    <row r="253" spans="1:37">
+      <c r="AL252" s="50"/>
+    </row>
+    <row r="253" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A253" s="50"/>
       <c r="B253" s="50"/>
       <c r="C253" s="50"/>
@@ -17616,8 +17870,9 @@
       <c r="AI253" s="50"/>
       <c r="AJ253" s="50"/>
       <c r="AK253" s="50"/>
-    </row>
-    <row r="254" spans="1:37">
+      <c r="AL253" s="50"/>
+    </row>
+    <row r="254" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A254" s="50"/>
       <c r="B254" s="50"/>
       <c r="C254" s="50"/>
@@ -17655,8 +17910,9 @@
       <c r="AI254" s="50"/>
       <c r="AJ254" s="50"/>
       <c r="AK254" s="50"/>
-    </row>
-    <row r="255" spans="1:37">
+      <c r="AL254" s="50"/>
+    </row>
+    <row r="255" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A255" s="50"/>
       <c r="B255" s="50"/>
       <c r="C255" s="50"/>
@@ -17694,8 +17950,9 @@
       <c r="AI255" s="50"/>
       <c r="AJ255" s="50"/>
       <c r="AK255" s="50"/>
-    </row>
-    <row r="256" spans="1:37">
+      <c r="AL255" s="50"/>
+    </row>
+    <row r="256" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A256" s="50"/>
       <c r="B256" s="50"/>
       <c r="C256" s="50"/>
@@ -17733,8 +17990,9 @@
       <c r="AI256" s="50"/>
       <c r="AJ256" s="50"/>
       <c r="AK256" s="50"/>
-    </row>
-    <row r="257" spans="1:37">
+      <c r="AL256" s="50"/>
+    </row>
+    <row r="257" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A257" s="50"/>
       <c r="B257" s="50"/>
       <c r="C257" s="50"/>
@@ -17772,8 +18030,9 @@
       <c r="AI257" s="50"/>
       <c r="AJ257" s="50"/>
       <c r="AK257" s="50"/>
-    </row>
-    <row r="258" spans="1:37">
+      <c r="AL257" s="50"/>
+    </row>
+    <row r="258" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A258" s="50"/>
       <c r="B258" s="50"/>
       <c r="C258" s="50"/>
@@ -17811,8 +18070,9 @@
       <c r="AI258" s="50"/>
       <c r="AJ258" s="50"/>
       <c r="AK258" s="50"/>
-    </row>
-    <row r="259" spans="1:37">
+      <c r="AL258" s="50"/>
+    </row>
+    <row r="259" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A259" s="50"/>
       <c r="B259" s="50"/>
       <c r="C259" s="50"/>
@@ -17850,8 +18110,9 @@
       <c r="AI259" s="50"/>
       <c r="AJ259" s="50"/>
       <c r="AK259" s="50"/>
-    </row>
-    <row r="260" spans="1:37">
+      <c r="AL259" s="50"/>
+    </row>
+    <row r="260" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A260" s="50"/>
       <c r="B260" s="50"/>
       <c r="C260" s="50"/>
@@ -17889,8 +18150,9 @@
       <c r="AI260" s="50"/>
       <c r="AJ260" s="50"/>
       <c r="AK260" s="50"/>
-    </row>
-    <row r="261" spans="1:37">
+      <c r="AL260" s="50"/>
+    </row>
+    <row r="261" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A261" s="50"/>
       <c r="B261" s="50"/>
       <c r="C261" s="50"/>
@@ -17928,8 +18190,9 @@
       <c r="AI261" s="50"/>
       <c r="AJ261" s="50"/>
       <c r="AK261" s="50"/>
-    </row>
-    <row r="262" spans="1:37">
+      <c r="AL261" s="50"/>
+    </row>
+    <row r="262" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A262" s="50"/>
       <c r="B262" s="50"/>
       <c r="C262" s="50"/>
@@ -17967,8 +18230,9 @@
       <c r="AI262" s="50"/>
       <c r="AJ262" s="50"/>
       <c r="AK262" s="50"/>
-    </row>
-    <row r="263" spans="1:37">
+      <c r="AL262" s="50"/>
+    </row>
+    <row r="263" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A263" s="50"/>
       <c r="B263" s="50"/>
       <c r="C263" s="50"/>
@@ -18006,8 +18270,9 @@
       <c r="AI263" s="50"/>
       <c r="AJ263" s="50"/>
       <c r="AK263" s="50"/>
-    </row>
-    <row r="264" spans="1:37">
+      <c r="AL263" s="50"/>
+    </row>
+    <row r="264" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A264" s="50"/>
       <c r="B264" s="50"/>
       <c r="C264" s="50"/>
@@ -18045,8 +18310,9 @@
       <c r="AI264" s="50"/>
       <c r="AJ264" s="50"/>
       <c r="AK264" s="50"/>
-    </row>
-    <row r="265" spans="1:37">
+      <c r="AL264" s="50"/>
+    </row>
+    <row r="265" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A265" s="50"/>
       <c r="B265" s="50"/>
       <c r="C265" s="50"/>
@@ -18084,8 +18350,9 @@
       <c r="AI265" s="50"/>
       <c r="AJ265" s="50"/>
       <c r="AK265" s="50"/>
-    </row>
-    <row r="266" spans="1:37">
+      <c r="AL265" s="50"/>
+    </row>
+    <row r="266" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A266" s="50"/>
       <c r="B266" s="50"/>
       <c r="C266" s="50"/>
@@ -18123,8 +18390,9 @@
       <c r="AI266" s="50"/>
       <c r="AJ266" s="50"/>
       <c r="AK266" s="50"/>
-    </row>
-    <row r="267" spans="1:37">
+      <c r="AL266" s="50"/>
+    </row>
+    <row r="267" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A267" s="50"/>
       <c r="B267" s="50"/>
       <c r="C267" s="50"/>
@@ -18162,8 +18430,9 @@
       <c r="AI267" s="50"/>
       <c r="AJ267" s="50"/>
       <c r="AK267" s="50"/>
-    </row>
-    <row r="268" spans="1:37">
+      <c r="AL267" s="50"/>
+    </row>
+    <row r="268" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A268" s="50"/>
       <c r="B268" s="50"/>
       <c r="C268" s="50"/>
@@ -18201,8 +18470,9 @@
       <c r="AI268" s="50"/>
       <c r="AJ268" s="50"/>
       <c r="AK268" s="50"/>
-    </row>
-    <row r="269" spans="1:37">
+      <c r="AL268" s="50"/>
+    </row>
+    <row r="269" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A269" s="50"/>
       <c r="B269" s="50"/>
       <c r="C269" s="50"/>
@@ -18240,8 +18510,9 @@
       <c r="AI269" s="50"/>
       <c r="AJ269" s="50"/>
       <c r="AK269" s="50"/>
-    </row>
-    <row r="270" spans="1:37">
+      <c r="AL269" s="50"/>
+    </row>
+    <row r="270" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A270" s="50"/>
       <c r="B270" s="50"/>
       <c r="C270" s="50"/>
@@ -18279,8 +18550,9 @@
       <c r="AI270" s="50"/>
       <c r="AJ270" s="50"/>
       <c r="AK270" s="50"/>
-    </row>
-    <row r="271" spans="1:37">
+      <c r="AL270" s="50"/>
+    </row>
+    <row r="271" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A271" s="50"/>
       <c r="B271" s="50"/>
       <c r="C271" s="50"/>
@@ -18318,8 +18590,9 @@
       <c r="AI271" s="50"/>
       <c r="AJ271" s="50"/>
       <c r="AK271" s="50"/>
-    </row>
-    <row r="272" spans="1:37">
+      <c r="AL271" s="50"/>
+    </row>
+    <row r="272" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A272" s="50"/>
       <c r="B272" s="50"/>
       <c r="C272" s="50"/>
@@ -18357,8 +18630,9 @@
       <c r="AI272" s="50"/>
       <c r="AJ272" s="50"/>
       <c r="AK272" s="50"/>
-    </row>
-    <row r="273" spans="1:37">
+      <c r="AL272" s="50"/>
+    </row>
+    <row r="273" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A273" s="50"/>
       <c r="B273" s="50"/>
       <c r="C273" s="50"/>
@@ -18396,8 +18670,9 @@
       <c r="AI273" s="50"/>
       <c r="AJ273" s="50"/>
       <c r="AK273" s="50"/>
-    </row>
-    <row r="274" spans="1:37">
+      <c r="AL273" s="50"/>
+    </row>
+    <row r="274" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A274" s="50"/>
       <c r="B274" s="50"/>
       <c r="C274" s="50"/>
@@ -18435,8 +18710,9 @@
       <c r="AI274" s="50"/>
       <c r="AJ274" s="50"/>
       <c r="AK274" s="50"/>
-    </row>
-    <row r="275" spans="1:37">
+      <c r="AL274" s="50"/>
+    </row>
+    <row r="275" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A275" s="50"/>
       <c r="B275" s="50"/>
       <c r="C275" s="50"/>
@@ -18474,8 +18750,9 @@
       <c r="AI275" s="50"/>
       <c r="AJ275" s="50"/>
       <c r="AK275" s="50"/>
-    </row>
-    <row r="276" spans="1:37">
+      <c r="AL275" s="50"/>
+    </row>
+    <row r="276" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A276" s="50"/>
       <c r="B276" s="50"/>
       <c r="C276" s="50"/>
@@ -18513,8 +18790,9 @@
       <c r="AI276" s="50"/>
       <c r="AJ276" s="50"/>
       <c r="AK276" s="50"/>
-    </row>
-    <row r="277" spans="1:37">
+      <c r="AL276" s="50"/>
+    </row>
+    <row r="277" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A277" s="50"/>
       <c r="B277" s="50"/>
       <c r="C277" s="50"/>
@@ -18552,8 +18830,9 @@
       <c r="AI277" s="50"/>
       <c r="AJ277" s="50"/>
       <c r="AK277" s="50"/>
-    </row>
-    <row r="278" spans="1:37">
+      <c r="AL277" s="50"/>
+    </row>
+    <row r="278" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A278" s="50"/>
       <c r="B278" s="50"/>
       <c r="C278" s="50"/>
@@ -18591,8 +18870,9 @@
       <c r="AI278" s="50"/>
       <c r="AJ278" s="50"/>
       <c r="AK278" s="50"/>
-    </row>
-    <row r="279" spans="1:37">
+      <c r="AL278" s="50"/>
+    </row>
+    <row r="279" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A279" s="50"/>
       <c r="B279" s="50"/>
       <c r="C279" s="50"/>
@@ -18630,8 +18910,9 @@
       <c r="AI279" s="50"/>
       <c r="AJ279" s="50"/>
       <c r="AK279" s="50"/>
-    </row>
-    <row r="280" spans="1:37">
+      <c r="AL279" s="50"/>
+    </row>
+    <row r="280" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A280" s="50"/>
       <c r="B280" s="50"/>
       <c r="C280" s="50"/>
@@ -18669,8 +18950,9 @@
       <c r="AI280" s="50"/>
       <c r="AJ280" s="50"/>
       <c r="AK280" s="50"/>
-    </row>
-    <row r="281" spans="1:37">
+      <c r="AL280" s="50"/>
+    </row>
+    <row r="281" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A281" s="50"/>
       <c r="B281" s="50"/>
       <c r="C281" s="50"/>
@@ -18708,8 +18990,9 @@
       <c r="AI281" s="50"/>
       <c r="AJ281" s="50"/>
       <c r="AK281" s="50"/>
-    </row>
-    <row r="282" spans="1:37">
+      <c r="AL281" s="50"/>
+    </row>
+    <row r="282" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A282" s="50"/>
       <c r="B282" s="50"/>
       <c r="C282" s="50"/>
@@ -18747,8 +19030,9 @@
       <c r="AI282" s="50"/>
       <c r="AJ282" s="50"/>
       <c r="AK282" s="50"/>
-    </row>
-    <row r="283" spans="1:37">
+      <c r="AL282" s="50"/>
+    </row>
+    <row r="283" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A283" s="50"/>
       <c r="B283" s="50"/>
       <c r="C283" s="50"/>
@@ -18786,8 +19070,9 @@
       <c r="AI283" s="50"/>
       <c r="AJ283" s="50"/>
       <c r="AK283" s="50"/>
-    </row>
-    <row r="284" spans="1:37">
+      <c r="AL283" s="50"/>
+    </row>
+    <row r="284" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A284" s="50"/>
       <c r="B284" s="50"/>
       <c r="C284" s="50"/>
@@ -18825,8 +19110,9 @@
       <c r="AI284" s="50"/>
       <c r="AJ284" s="50"/>
       <c r="AK284" s="50"/>
-    </row>
-    <row r="285" spans="1:37">
+      <c r="AL284" s="50"/>
+    </row>
+    <row r="285" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A285" s="50"/>
       <c r="B285" s="50"/>
       <c r="C285" s="50"/>
@@ -18864,8 +19150,9 @@
       <c r="AI285" s="50"/>
       <c r="AJ285" s="50"/>
       <c r="AK285" s="50"/>
-    </row>
-    <row r="286" spans="1:37">
+      <c r="AL285" s="50"/>
+    </row>
+    <row r="286" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A286" s="50"/>
       <c r="B286" s="50"/>
       <c r="C286" s="50"/>
@@ -18903,8 +19190,9 @@
       <c r="AI286" s="50"/>
       <c r="AJ286" s="50"/>
       <c r="AK286" s="50"/>
-    </row>
-    <row r="287" spans="1:37">
+      <c r="AL286" s="50"/>
+    </row>
+    <row r="287" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A287" s="50"/>
       <c r="B287" s="50"/>
       <c r="C287" s="50"/>
@@ -18942,8 +19230,9 @@
       <c r="AI287" s="50"/>
       <c r="AJ287" s="50"/>
       <c r="AK287" s="50"/>
-    </row>
-    <row r="288" spans="1:37">
+      <c r="AL287" s="50"/>
+    </row>
+    <row r="288" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A288" s="50"/>
       <c r="B288" s="50"/>
       <c r="C288" s="50"/>
@@ -18981,8 +19270,9 @@
       <c r="AI288" s="50"/>
       <c r="AJ288" s="50"/>
       <c r="AK288" s="50"/>
-    </row>
-    <row r="289" spans="1:37">
+      <c r="AL288" s="50"/>
+    </row>
+    <row r="289" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A289" s="50"/>
       <c r="B289" s="50"/>
       <c r="C289" s="50"/>
@@ -19020,8 +19310,9 @@
       <c r="AI289" s="50"/>
       <c r="AJ289" s="50"/>
       <c r="AK289" s="50"/>
-    </row>
-    <row r="290" spans="1:37">
+      <c r="AL289" s="50"/>
+    </row>
+    <row r="290" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A290" s="50"/>
       <c r="B290" s="50"/>
       <c r="C290" s="50"/>
@@ -19059,8 +19350,9 @@
       <c r="AI290" s="50"/>
       <c r="AJ290" s="50"/>
       <c r="AK290" s="50"/>
-    </row>
-    <row r="291" spans="1:37">
+      <c r="AL290" s="50"/>
+    </row>
+    <row r="291" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A291" s="50"/>
       <c r="B291" s="50"/>
       <c r="C291" s="50"/>
@@ -19098,8 +19390,9 @@
       <c r="AI291" s="50"/>
       <c r="AJ291" s="50"/>
       <c r="AK291" s="50"/>
-    </row>
-    <row r="292" spans="1:37">
+      <c r="AL291" s="50"/>
+    </row>
+    <row r="292" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A292" s="50"/>
       <c r="B292" s="50"/>
       <c r="C292" s="50"/>
@@ -19137,8 +19430,9 @@
       <c r="AI292" s="50"/>
       <c r="AJ292" s="50"/>
       <c r="AK292" s="50"/>
-    </row>
-    <row r="293" spans="1:37">
+      <c r="AL292" s="50"/>
+    </row>
+    <row r="293" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A293" s="50"/>
       <c r="B293" s="50"/>
       <c r="C293" s="50"/>
@@ -19176,8 +19470,9 @@
       <c r="AI293" s="50"/>
       <c r="AJ293" s="50"/>
       <c r="AK293" s="50"/>
-    </row>
-    <row r="294" spans="1:37">
+      <c r="AL293" s="50"/>
+    </row>
+    <row r="294" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A294" s="50"/>
       <c r="B294" s="50"/>
       <c r="C294" s="50"/>
@@ -19215,8 +19510,9 @@
       <c r="AI294" s="50"/>
       <c r="AJ294" s="50"/>
       <c r="AK294" s="50"/>
-    </row>
-    <row r="295" spans="1:37">
+      <c r="AL294" s="50"/>
+    </row>
+    <row r="295" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A295" s="50"/>
       <c r="B295" s="50"/>
       <c r="C295" s="50"/>
@@ -19254,8 +19550,9 @@
       <c r="AI295" s="50"/>
       <c r="AJ295" s="50"/>
       <c r="AK295" s="50"/>
-    </row>
-    <row r="296" spans="1:37">
+      <c r="AL295" s="50"/>
+    </row>
+    <row r="296" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A296" s="50"/>
       <c r="B296" s="50"/>
       <c r="C296" s="50"/>
@@ -19293,8 +19590,9 @@
       <c r="AI296" s="50"/>
       <c r="AJ296" s="50"/>
       <c r="AK296" s="50"/>
-    </row>
-    <row r="297" spans="1:37">
+      <c r="AL296" s="50"/>
+    </row>
+    <row r="297" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A297" s="50"/>
       <c r="B297" s="50"/>
       <c r="C297" s="50"/>
@@ -19332,8 +19630,9 @@
       <c r="AI297" s="50"/>
       <c r="AJ297" s="50"/>
       <c r="AK297" s="50"/>
-    </row>
-    <row r="298" spans="1:37">
+      <c r="AL297" s="50"/>
+    </row>
+    <row r="298" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A298" s="50"/>
       <c r="B298" s="50"/>
       <c r="C298" s="50"/>
@@ -19371,8 +19670,9 @@
       <c r="AI298" s="50"/>
       <c r="AJ298" s="50"/>
       <c r="AK298" s="50"/>
-    </row>
-    <row r="299" spans="1:37">
+      <c r="AL298" s="50"/>
+    </row>
+    <row r="299" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A299" s="50"/>
       <c r="B299" s="50"/>
       <c r="C299" s="50"/>
@@ -19410,8 +19710,9 @@
       <c r="AI299" s="50"/>
       <c r="AJ299" s="50"/>
       <c r="AK299" s="50"/>
-    </row>
-    <row r="300" spans="1:37">
+      <c r="AL299" s="50"/>
+    </row>
+    <row r="300" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A300" s="50"/>
       <c r="B300" s="50"/>
       <c r="C300" s="50"/>
@@ -19449,8 +19750,9 @@
       <c r="AI300" s="50"/>
       <c r="AJ300" s="50"/>
       <c r="AK300" s="50"/>
-    </row>
-    <row r="301" spans="1:37">
+      <c r="AL300" s="50"/>
+    </row>
+    <row r="301" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A301" s="50"/>
       <c r="B301" s="50"/>
       <c r="C301" s="50"/>
@@ -19488,8 +19790,9 @@
       <c r="AI301" s="50"/>
       <c r="AJ301" s="50"/>
       <c r="AK301" s="50"/>
-    </row>
-    <row r="302" spans="1:37">
+      <c r="AL301" s="50"/>
+    </row>
+    <row r="302" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A302" s="50"/>
       <c r="B302" s="50"/>
       <c r="C302" s="50"/>
@@ -19527,8 +19830,9 @@
       <c r="AI302" s="50"/>
       <c r="AJ302" s="50"/>
       <c r="AK302" s="50"/>
-    </row>
-    <row r="303" spans="1:37">
+      <c r="AL302" s="50"/>
+    </row>
+    <row r="303" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A303" s="50"/>
       <c r="B303" s="50"/>
       <c r="C303" s="50"/>
@@ -19566,8 +19870,9 @@
       <c r="AI303" s="50"/>
       <c r="AJ303" s="50"/>
       <c r="AK303" s="50"/>
-    </row>
-    <row r="304" spans="1:37">
+      <c r="AL303" s="50"/>
+    </row>
+    <row r="304" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A304" s="50"/>
       <c r="B304" s="50"/>
       <c r="C304" s="50"/>
@@ -19605,8 +19910,9 @@
       <c r="AI304" s="50"/>
       <c r="AJ304" s="50"/>
       <c r="AK304" s="50"/>
-    </row>
-    <row r="305" spans="1:37">
+      <c r="AL304" s="50"/>
+    </row>
+    <row r="305" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A305" s="50"/>
       <c r="B305" s="50"/>
       <c r="C305" s="50"/>
@@ -19644,8 +19950,9 @@
       <c r="AI305" s="50"/>
       <c r="AJ305" s="50"/>
       <c r="AK305" s="50"/>
-    </row>
-    <row r="306" spans="1:37">
+      <c r="AL305" s="50"/>
+    </row>
+    <row r="306" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A306" s="50"/>
       <c r="B306" s="50"/>
       <c r="C306" s="50"/>
@@ -19683,8 +19990,9 @@
       <c r="AI306" s="50"/>
       <c r="AJ306" s="50"/>
       <c r="AK306" s="50"/>
-    </row>
-    <row r="307" spans="1:37">
+      <c r="AL306" s="50"/>
+    </row>
+    <row r="307" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A307" s="50"/>
       <c r="B307" s="50"/>
       <c r="C307" s="50"/>
@@ -19722,8 +20030,9 @@
       <c r="AI307" s="50"/>
       <c r="AJ307" s="50"/>
       <c r="AK307" s="50"/>
-    </row>
-    <row r="308" spans="1:37">
+      <c r="AL307" s="50"/>
+    </row>
+    <row r="308" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A308" s="50"/>
       <c r="B308" s="50"/>
       <c r="C308" s="50"/>
@@ -19761,8 +20070,9 @@
       <c r="AI308" s="50"/>
       <c r="AJ308" s="50"/>
       <c r="AK308" s="50"/>
-    </row>
-    <row r="309" spans="1:37">
+      <c r="AL308" s="50"/>
+    </row>
+    <row r="309" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A309" s="50"/>
       <c r="B309" s="50"/>
       <c r="C309" s="50"/>
@@ -19800,8 +20110,9 @@
       <c r="AI309" s="50"/>
       <c r="AJ309" s="50"/>
       <c r="AK309" s="50"/>
-    </row>
-    <row r="310" spans="1:37">
+      <c r="AL309" s="50"/>
+    </row>
+    <row r="310" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A310" s="50"/>
       <c r="B310" s="50"/>
       <c r="C310" s="50"/>
@@ -19839,8 +20150,9 @@
       <c r="AI310" s="50"/>
       <c r="AJ310" s="50"/>
       <c r="AK310" s="50"/>
-    </row>
-    <row r="311" spans="1:37">
+      <c r="AL310" s="50"/>
+    </row>
+    <row r="311" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A311" s="50"/>
       <c r="B311" s="50"/>
       <c r="C311" s="50"/>
@@ -19878,8 +20190,9 @@
       <c r="AI311" s="50"/>
       <c r="AJ311" s="50"/>
       <c r="AK311" s="50"/>
-    </row>
-    <row r="312" spans="1:37">
+      <c r="AL311" s="50"/>
+    </row>
+    <row r="312" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A312" s="50"/>
       <c r="B312" s="50"/>
       <c r="C312" s="50"/>
@@ -19917,8 +20230,9 @@
       <c r="AI312" s="50"/>
       <c r="AJ312" s="50"/>
       <c r="AK312" s="50"/>
-    </row>
-    <row r="313" spans="1:37">
+      <c r="AL312" s="50"/>
+    </row>
+    <row r="313" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A313" s="50"/>
       <c r="B313" s="50"/>
       <c r="C313" s="50"/>
@@ -19956,8 +20270,9 @@
       <c r="AI313" s="50"/>
       <c r="AJ313" s="50"/>
       <c r="AK313" s="50"/>
-    </row>
-    <row r="314" spans="1:37">
+      <c r="AL313" s="50"/>
+    </row>
+    <row r="314" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A314" s="50"/>
       <c r="B314" s="50"/>
       <c r="C314" s="50"/>
@@ -19995,8 +20310,9 @@
       <c r="AI314" s="50"/>
       <c r="AJ314" s="50"/>
       <c r="AK314" s="50"/>
-    </row>
-    <row r="315" spans="1:37">
+      <c r="AL314" s="50"/>
+    </row>
+    <row r="315" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A315" s="50"/>
       <c r="B315" s="50"/>
       <c r="C315" s="50"/>
@@ -20034,8 +20350,9 @@
       <c r="AI315" s="50"/>
       <c r="AJ315" s="50"/>
       <c r="AK315" s="50"/>
-    </row>
-    <row r="316" spans="1:37">
+      <c r="AL315" s="50"/>
+    </row>
+    <row r="316" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A316" s="50"/>
       <c r="B316" s="50"/>
       <c r="C316" s="50"/>
@@ -20073,8 +20390,9 @@
       <c r="AI316" s="50"/>
       <c r="AJ316" s="50"/>
       <c r="AK316" s="50"/>
-    </row>
-    <row r="317" spans="1:37">
+      <c r="AL316" s="50"/>
+    </row>
+    <row r="317" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A317" s="50"/>
       <c r="B317" s="50"/>
       <c r="C317" s="50"/>
@@ -20112,8 +20430,9 @@
       <c r="AI317" s="50"/>
       <c r="AJ317" s="50"/>
       <c r="AK317" s="50"/>
-    </row>
-    <row r="318" spans="1:37">
+      <c r="AL317" s="50"/>
+    </row>
+    <row r="318" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A318" s="50"/>
       <c r="B318" s="50"/>
       <c r="C318" s="50"/>
@@ -20151,8 +20470,9 @@
       <c r="AI318" s="50"/>
       <c r="AJ318" s="50"/>
       <c r="AK318" s="50"/>
-    </row>
-    <row r="319" spans="1:37">
+      <c r="AL318" s="50"/>
+    </row>
+    <row r="319" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A319" s="50"/>
       <c r="B319" s="50"/>
       <c r="C319" s="50"/>
@@ -20190,46 +20510,47 @@
       <c r="AI319" s="50"/>
       <c r="AJ319" s="50"/>
       <c r="AK319" s="50"/>
+      <c r="AL319" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="5">
@@ -20260,33 +20581,33 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7.125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -20297,7 +20618,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -20308,18 +20629,18 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="C7" s="8" t="s">
         <v>199</v>
@@ -20334,7 +20655,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="6"/>
       <c r="C8" s="7">
         <v>0</v>
@@ -20349,7 +20670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C10" s="34" t="s">
         <v>200</v>
       </c>
@@ -20369,7 +20690,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C11" s="26">
         <v>0</v>
       </c>
@@ -20389,7 +20710,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C12" s="26">
         <v>1</v>
       </c>
@@ -20409,7 +20730,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C13" s="26">
         <v>2</v>
       </c>
@@ -20420,7 +20741,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C14" s="39">
         <v>3</v>
       </c>
@@ -20428,7 +20749,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C15" s="39">
         <v>4</v>
       </c>
@@ -20436,15 +20757,15 @@
         <v>267</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B19" s="5"/>
       <c r="C19" t="s">
         <v>10</v>
@@ -20453,7 +20774,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
@@ -20521,7 +20842,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A21" s="6"/>
       <c r="C21" s="30" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
@@ -20591,7 +20912,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A22" s="6"/>
       <c r="D22" s="7" t="s">
         <v>85</v>
@@ -20657,7 +20978,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A23" s="6"/>
       <c r="D23" s="7" t="s">
         <v>85</v>
@@ -20723,7 +21044,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A24" s="6"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -20748,27 +21069,28 @@
       <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B28" s="101" t="s">
         <v>311</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8">
       <formula1>$I$11:$I$12</formula1>
@@ -20790,16 +21112,16 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="28.875" customWidth="1"/>
+    <col min="5" max="5" width="23.75" customWidth="1"/>
+    <col min="6" max="6" width="33.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -20808,7 +21130,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -20817,12 +21139,12 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>221</v>
@@ -20831,7 +21153,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="C7" s="8" t="s">
         <v>222</v>
@@ -20843,7 +21165,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
         <v>224</v>
@@ -20855,15 +21177,15 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
       <c r="C12" t="s">
         <v>198</v>
@@ -20872,7 +21194,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
@@ -20883,7 +21205,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
       <c r="C14" s="30" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
@@ -20896,12 +21218,12 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="6"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B17" s="34" t="s">
         <v>227</v>
       </c>
@@ -20909,7 +21231,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B18" s="26" t="s">
         <v>228</v>
       </c>
@@ -20917,7 +21239,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B19" s="26" t="s">
         <v>230</v>
       </c>
@@ -20925,7 +21247,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B20" s="26" t="s">
         <v>232</v>
       </c>
@@ -20933,7 +21255,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B21" s="26" t="s">
         <v>234</v>
       </c>
@@ -20941,7 +21263,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B22" s="26" t="s">
         <v>236</v>
       </c>
@@ -20949,7 +21271,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B23" s="26" t="s">
         <v>238</v>
       </c>
@@ -20957,7 +21279,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B24" s="26" t="s">
         <v>240</v>
       </c>
@@ -20965,7 +21287,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B25" s="26" t="s">
         <v>242</v>
       </c>
@@ -20973,7 +21295,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B26" s="26" t="s">
         <v>244</v>
       </c>
@@ -20981,7 +21303,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B27" s="26" t="s">
         <v>246</v>
       </c>
@@ -21001,16 +21323,16 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="35.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="35.875" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -21019,7 +21341,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -21028,12 +21350,12 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>249</v>
@@ -21042,7 +21364,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="C7" s="8" t="s">
         <v>223</v>
@@ -21057,7 +21379,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
         <v>225</v>
@@ -21072,15 +21394,15 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
       <c r="C12" t="s">
         <v>198</v>
@@ -21089,7 +21411,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
@@ -21100,7 +21422,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
       <c r="C14" s="30" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
@@ -21113,12 +21435,12 @@
         <v>253</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="6"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B17" s="34" t="s">
         <v>254</v>
       </c>
@@ -21126,7 +21448,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B18" s="26" t="s">
         <v>255</v>
       </c>
@@ -21134,7 +21456,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B19" s="26" t="s">
         <v>257</v>
       </c>
@@ -21154,31 +21476,31 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="82" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="82" customWidth="1"/>
+    <col min="1" max="1" width="7.875" style="82" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="82" customWidth="1"/>
     <col min="3" max="3" width="17" style="82" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="82" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="82" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="82" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="82" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="82" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="82" customWidth="1"/>
     <col min="7" max="7" width="12" style="82" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="82" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="82" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="82" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" style="82" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" style="82" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" style="82" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="82" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="82" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" style="82" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" style="82" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="82" bestFit="1" customWidth="1"/>
-    <col min="19" max="24" width="10.42578125" style="82" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="82" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="82" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="82" customWidth="1"/>
+    <col min="11" max="11" width="19.75" style="82" customWidth="1"/>
+    <col min="12" max="12" width="16.875" style="82" customWidth="1"/>
+    <col min="13" max="13" width="20.625" style="82" customWidth="1"/>
+    <col min="14" max="14" width="14.75" style="82" customWidth="1"/>
+    <col min="15" max="15" width="10.375" style="82" customWidth="1"/>
+    <col min="16" max="16" width="13.875" style="82" customWidth="1"/>
+    <col min="17" max="17" width="10.375" style="82" customWidth="1"/>
+    <col min="18" max="18" width="12.625" style="82" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="10.375" style="82" customWidth="1"/>
     <col min="25" max="16384" width="9" style="82"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -21189,7 +21511,7 @@
       <c r="E2" s="80"/>
       <c r="F2" s="81"/>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -21200,18 +21522,18 @@
       <c r="E3" s="80"/>
       <c r="F3" s="81"/>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B5" s="83" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B6" s="84"/>
       <c r="C6" s="84" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B7" s="84"/>
       <c r="C7" s="42" t="s">
         <v>312</v>
@@ -21220,7 +21542,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B8" s="84"/>
       <c r="C8" s="98">
         <v>1</v>
@@ -21229,28 +21551,28 @@
         <v>314</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C10" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="D10" s="155" t="s">
+      <c r="D10" s="157" t="s">
         <v>268</v>
       </c>
-      <c r="E10" s="156"/>
+      <c r="E10" s="158"/>
       <c r="H10" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="I10" s="155" t="s">
+      <c r="I10" s="157" t="s">
         <v>268</v>
       </c>
-      <c r="J10" s="156"/>
-      <c r="K10" s="157" t="s">
+      <c r="J10" s="158"/>
+      <c r="K10" s="159" t="s">
         <v>300</v>
       </c>
-      <c r="L10" s="157"/>
-      <c r="M10" s="157"/>
-    </row>
-    <row r="11" spans="2:13" ht="15.75">
+      <c r="L10" s="159"/>
+      <c r="M10" s="159"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B11" s="90" t="s">
         <v>315</v>
       </c>
@@ -21275,7 +21597,7 @@
       <c r="L11" s="80"/>
       <c r="M11" s="81"/>
     </row>
-    <row r="12" spans="2:13" ht="15.75">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B12" s="93"/>
       <c r="C12" s="91">
         <v>2</v>
@@ -21296,7 +21618,7 @@
       <c r="L12" s="80"/>
       <c r="M12" s="81"/>
     </row>
-    <row r="13" spans="2:13" ht="15.75">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B13" s="93"/>
       <c r="C13" s="91">
         <v>3</v>
@@ -21319,7 +21641,7 @@
       <c r="L13" s="80"/>
       <c r="M13" s="81"/>
     </row>
-    <row r="14" spans="2:13" ht="15.75">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B14" s="93"/>
       <c r="C14" s="91">
         <v>4</v>
@@ -21342,7 +21664,7 @@
       <c r="L14" s="80"/>
       <c r="M14" s="81"/>
     </row>
-    <row r="15" spans="2:13" ht="15.75">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B15" s="93"/>
       <c r="C15" s="91">
         <v>5</v>
@@ -21363,7 +21685,7 @@
       <c r="L15" s="80"/>
       <c r="M15" s="81"/>
     </row>
-    <row r="16" spans="2:13" ht="15.75">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B16" s="93"/>
       <c r="C16" s="91">
         <v>6</v>
@@ -21384,7 +21706,7 @@
       <c r="L16" s="80"/>
       <c r="M16" s="81"/>
     </row>
-    <row r="17" spans="2:18" ht="15.75">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B17" s="93"/>
       <c r="C17" s="91">
         <v>7</v>
@@ -21405,7 +21727,7 @@
       <c r="L17" s="80"/>
       <c r="M17" s="81"/>
     </row>
-    <row r="18" spans="2:18" ht="15.75">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B18" s="93"/>
       <c r="C18" s="91">
         <v>8</v>
@@ -21426,7 +21748,7 @@
       <c r="L18" s="80"/>
       <c r="M18" s="81"/>
     </row>
-    <row r="19" spans="2:18" ht="15.75">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B19" s="94"/>
       <c r="C19" s="91">
         <v>9</v>
@@ -21447,7 +21769,7 @@
       <c r="L19" s="80"/>
       <c r="M19" s="81"/>
     </row>
-    <row r="20" spans="2:18" ht="15.75">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B20" s="94"/>
       <c r="C20" s="91">
         <v>10</v>
@@ -21457,7 +21779,7 @@
       </c>
       <c r="E20" s="81"/>
     </row>
-    <row r="21" spans="2:18" ht="15.75">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B21" s="94"/>
       <c r="C21" s="91">
         <v>11</v>
@@ -21467,7 +21789,7 @@
       </c>
       <c r="E21" s="81"/>
     </row>
-    <row r="22" spans="2:18" ht="15.75">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B22" s="94"/>
       <c r="C22" s="91">
         <v>12</v>
@@ -21477,7 +21799,7 @@
       </c>
       <c r="E22" s="81"/>
     </row>
-    <row r="23" spans="2:18" ht="15.75">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B23" s="94"/>
       <c r="C23" s="91">
         <v>13</v>
@@ -21487,7 +21809,7 @@
       </c>
       <c r="E23" s="81"/>
     </row>
-    <row r="24" spans="2:18" ht="15.75">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B24" s="94"/>
       <c r="C24" s="91">
         <v>14</v>
@@ -21497,7 +21819,7 @@
       </c>
       <c r="E24" s="81"/>
     </row>
-    <row r="25" spans="2:18" ht="15.75">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B25" s="95"/>
       <c r="C25" s="91">
         <v>15</v>
@@ -21507,15 +21829,15 @@
       </c>
       <c r="E25" s="81"/>
     </row>
-    <row r="28" spans="2:18">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B28" s="83" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:18">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.4">
       <c r="D29" s="83"/>
     </row>
-    <row r="30" spans="2:18" ht="15.75">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.4">
       <c r="C30" s="82" t="s">
         <v>198</v>
       </c>
@@ -21523,7 +21845,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="31" spans="2:18">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.4">
       <c r="C31" s="84" t="s">
         <v>12</v>
       </c>
@@ -21573,7 +21895,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="32" spans="2:18" ht="15.75">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.4">
       <c r="C32" s="85" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
         <v>(D32に関数入力)</v>
@@ -21624,7 +21946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="3:20">
+    <row r="33" spans="3:20" x14ac:dyDescent="0.4">
       <c r="F33" s="78">
         <v>2</v>
       </c>
@@ -21665,7 +21987,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="3:20">
+    <row r="34" spans="3:20" x14ac:dyDescent="0.4">
       <c r="F34" s="78">
         <v>3</v>
       </c>
@@ -21706,11 +22028,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="3:20" ht="15.75">
+    <row r="35" spans="3:20" x14ac:dyDescent="0.4">
       <c r="J35" s="50"/>
       <c r="K35" s="88"/>
     </row>
-    <row r="36" spans="3:20" ht="15.75">
+    <row r="36" spans="3:20" x14ac:dyDescent="0.4">
       <c r="C36" s="82" t="s">
         <v>198</v>
       </c>
@@ -21720,7 +22042,7 @@
       <c r="F36" s="50"/>
       <c r="G36" s="88"/>
     </row>
-    <row r="37" spans="3:20">
+    <row r="37" spans="3:20" x14ac:dyDescent="0.4">
       <c r="C37" s="84" t="s">
         <v>12</v>
       </c>
@@ -21776,7 +22098,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="38" spans="3:20" ht="15.75">
+    <row r="38" spans="3:20" x14ac:dyDescent="0.4">
       <c r="C38" s="85" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
         <v>(D38に関数入力)</v>
@@ -21833,7 +22155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="3:20">
+    <row r="39" spans="3:20" x14ac:dyDescent="0.4">
       <c r="F39" s="78">
         <v>2</v>
       </c>
@@ -21880,7 +22202,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="3:20">
+    <row r="40" spans="3:20" x14ac:dyDescent="0.4">
       <c r="F40" s="78">
         <v>3</v>
       </c>
@@ -21927,7 +22249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="3:20">
+    <row r="41" spans="3:20" x14ac:dyDescent="0.4">
       <c r="F41" s="50"/>
       <c r="G41" s="50"/>
       <c r="H41" s="50"/>
@@ -21942,7 +22264,7 @@
       <c r="Q41" s="50"/>
       <c r="R41" s="50"/>
     </row>
-    <row r="42" spans="3:20" ht="15.75">
+    <row r="42" spans="3:20" x14ac:dyDescent="0.4">
       <c r="C42" s="82" t="s">
         <v>198</v>
       </c>
@@ -21952,7 +22274,7 @@
       <c r="F42" s="50"/>
       <c r="G42" s="88"/>
     </row>
-    <row r="43" spans="3:20">
+    <row r="43" spans="3:20" x14ac:dyDescent="0.4">
       <c r="C43" s="84" t="s">
         <v>12</v>
       </c>
@@ -22002,7 +22324,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="44" spans="3:20" ht="15.75">
+    <row r="44" spans="3:20" x14ac:dyDescent="0.4">
       <c r="C44" s="85" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
         <v>(D44に関数入力)</v>
@@ -22053,7 +22375,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="3:20">
+    <row r="45" spans="3:20" x14ac:dyDescent="0.4">
       <c r="F45" s="78">
         <v>2</v>
       </c>
@@ -22094,7 +22416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="3:20">
+    <row r="46" spans="3:20" x14ac:dyDescent="0.4">
       <c r="F46" s="78">
         <v>3</v>
       </c>
@@ -22135,7 +22457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="3:20" ht="15.75">
+    <row r="48" spans="3:20" x14ac:dyDescent="0.4">
       <c r="C48" s="82" t="s">
         <v>198</v>
       </c>
@@ -22146,7 +22468,7 @@
       <c r="F48" s="50"/>
       <c r="G48" s="88"/>
     </row>
-    <row r="49" spans="3:18">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.4">
       <c r="C49" s="84" t="s">
         <v>12</v>
       </c>
@@ -22196,7 +22518,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="50" spans="3:18" ht="15.75">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.4">
       <c r="C50" s="85" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
         <v>(D50に関数入力)</v>
@@ -22247,7 +22569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="3:18">
+    <row r="51" spans="3:18" x14ac:dyDescent="0.4">
       <c r="F51" s="78">
         <v>2</v>
       </c>
@@ -22288,7 +22610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="3:18">
+    <row r="52" spans="3:18" x14ac:dyDescent="0.4">
       <c r="F52" s="78">
         <v>3</v>
       </c>
@@ -22329,10 +22651,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="3:18">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.4">
       <c r="E53" s="50"/>
     </row>
-    <row r="54" spans="3:18" ht="15.75">
+    <row r="54" spans="3:18" x14ac:dyDescent="0.4">
       <c r="C54" s="82" t="s">
         <v>198</v>
       </c>
@@ -22343,7 +22665,7 @@
       <c r="F54" s="50"/>
       <c r="G54" s="88"/>
     </row>
-    <row r="55" spans="3:18">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.4">
       <c r="C55" s="84" t="s">
         <v>12</v>
       </c>
@@ -22384,7 +22706,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="56" spans="3:18" ht="15.75">
+    <row r="56" spans="3:18" x14ac:dyDescent="0.4">
       <c r="C56" s="85" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
         <v>(D56に関数入力)</v>
@@ -22426,7 +22748,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="57" spans="3:18">
+    <row r="57" spans="3:18" x14ac:dyDescent="0.4">
       <c r="F57" s="78">
         <v>2</v>
       </c>
@@ -22458,7 +22780,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="58" spans="3:18">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.4">
       <c r="F58" s="78">
         <v>3</v>
       </c>
@@ -22490,7 +22812,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="60" spans="3:18" ht="15.75">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.4">
       <c r="C60" s="82" t="s">
         <v>198</v>
       </c>
@@ -22501,7 +22823,7 @@
       <c r="F60" s="50"/>
       <c r="G60" s="50"/>
     </row>
-    <row r="61" spans="3:18">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.4">
       <c r="C61" s="84" t="s">
         <v>12</v>
       </c>
@@ -22539,7 +22861,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="62" spans="3:18" ht="15.75">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.4">
       <c r="C62" s="85" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
         <v>(D62に関数入力)</v>
@@ -22578,7 +22900,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="63" spans="3:18">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.4">
       <c r="F63" s="78">
         <v>2</v>
       </c>
@@ -22607,7 +22929,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="64" spans="3:18">
+    <row r="64" spans="3:18" x14ac:dyDescent="0.4">
       <c r="F64" s="78">
         <v>3</v>
       </c>
@@ -22642,6 +22964,7 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:M10"/>
   </mergeCells>
+  <phoneticPr fontId="2"/>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
       <formula1>$C$11:$C$25</formula1>

--- a/sample/ExcelMacro/kabuSTATION_API_function_sample.xlsx
+++ b/sample/ExcelMacro/kabuSTATION_API_function_sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fsv1\システム戦略部\900_Work\lu\kabu STATION\2021_デイトレ信用\70.リリース\GitHubリリース\function_sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OLDPC\kabuSTATION\workspace\resourse\sample\ExcelMacro\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,9 +25,10 @@
     <sheet name="規制情報" sheetId="16" r:id="rId11"/>
     <sheet name="優先市場" sheetId="17" r:id="rId12"/>
     <sheet name="ソフトリミット" sheetId="18" r:id="rId13"/>
-    <sheet name="銘柄登録" sheetId="7" r:id="rId14"/>
-    <sheet name="銘柄登録解除" sheetId="8" r:id="rId15"/>
-    <sheet name="銘柄登録全解除" sheetId="9" r:id="rId16"/>
+    <sheet name="プレミアム料取得" sheetId="19" r:id="rId14"/>
+    <sheet name="銘柄登録" sheetId="7" r:id="rId15"/>
+    <sheet name="銘柄登録解除" sheetId="8" r:id="rId16"/>
+    <sheet name="銘柄登録全解除" sheetId="9" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">注文約定照会!$B$5:$J$8</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="553">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -2372,12 +2373,6 @@
     <t>制限終了日（※②）</t>
   </si>
   <si>
-    <t>制限開始日（※②）</t>
-  </si>
-  <si>
-    <t>理由（※①）</t>
-  </si>
-  <si>
     <t>規制売買</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2842,6 +2837,204 @@
   </si>
   <si>
     <t>xxxx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MARGINPREMIUM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>=MARGINPREMIUM(C8)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレミアム料入力区分</t>
+  </si>
+  <si>
+    <t>定義値</t>
+  </si>
+  <si>
+    <t>説明</t>
+  </si>
+  <si>
+    <t>理由（※①）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確定プレミアム料（※①）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>制限開始日（※②）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上限プレミアム料（※②）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下限プレミアム料（※②）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>指定した銘柄のプレミアム料を取得するAPI</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xxxx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>=MARGINPREMIUM()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一般信用（長期）</t>
+    <rPh sb="0" eb="4">
+      <t>イッパンシンヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一般信用（デイトレ）</t>
+    <rPh sb="0" eb="4">
+      <t>イッパンシンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※入札銘柄の場合、入札受付中は随時更新します。受付時間外は、確定したプレミアム料を返します。</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウサツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>メイガラ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="9" eb="14">
+      <t>ニュウサツウケツケチュウ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ズイジコウシン</t>
+    </rPh>
+    <rPh sb="23" eb="28">
+      <t>ウケツケジカンガイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※非入札銘柄の場合、常に固定値を返します。</t>
+    <rPh sb="1" eb="6">
+      <t>ヒニュウサツメイガラ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>コテイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※信用取引不可の場合、nullを返します。</t>
+    <rPh sb="1" eb="5">
+      <t>シンヨウトリヒキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※19:30~翌営業日のプレミアム料になります。</t>
+    <rPh sb="7" eb="11">
+      <t>ヨクエイギョウビ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※①</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレミアム料刻値（※③）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※プレミアム料がない場合は、nullを返します。</t>
+    <rPh sb="6" eb="7">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※③</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※入札可能銘柄以外は、nullを返します。</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウサツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>メイガラ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※②</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一般信用（長期/デイトレ）非対応銘柄</t>
+    <rPh sb="5" eb="7">
+      <t>チョウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレミアム料がない銘柄</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレミアム料が固定の銘柄</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレミアム料が入札で決定する銘柄</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2852,7 +3045,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2974,8 +3167,32 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2997,6 +3214,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFAFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3293,7 +3522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -3512,31 +3741,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3545,29 +3833,11 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3581,11 +3851,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3595,6 +3892,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4180,7 +4492,7 @@
         <v>14</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
@@ -4364,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -4375,7 +4687,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="104" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D3" s="105"/>
       <c r="E3" s="105"/>
@@ -4389,7 +4701,7 @@
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F6" s="29"/>
     </row>
@@ -4399,7 +4711,7 @@
         <v>320</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E7" s="27"/>
     </row>
@@ -4416,159 +4728,159 @@
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C10" s="124"/>
       <c r="D10" s="127" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E10" s="127" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G10" s="124"/>
       <c r="H10" s="127" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="I10" s="127" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C11" s="123" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D11" s="116" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E11" s="118" t="s">
+        <v>472</v>
+      </c>
+      <c r="G11" s="123" t="s">
+        <v>477</v>
+      </c>
+      <c r="H11" s="116" t="s">
         <v>474</v>
       </c>
-      <c r="G11" s="123" t="s">
-        <v>479</v>
-      </c>
-      <c r="H11" s="116" t="s">
+      <c r="I11" s="118" t="s">
         <v>476</v>
-      </c>
-      <c r="I11" s="118" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C12" s="120"/>
       <c r="D12" s="116" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E12" s="118" t="s">
+        <v>466</v>
+      </c>
+      <c r="G12" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="H12" s="116" t="s">
         <v>468</v>
       </c>
-      <c r="G12" s="120" t="s">
-        <v>472</v>
-      </c>
-      <c r="H12" s="116" t="s">
-        <v>470</v>
-      </c>
       <c r="I12" s="118" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C13" s="120"/>
       <c r="D13" s="116" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E13" s="118" t="s">
+        <v>459</v>
+      </c>
+      <c r="G13" s="117" t="s">
+        <v>463</v>
+      </c>
+      <c r="H13" s="116" t="s">
         <v>461</v>
       </c>
-      <c r="G13" s="117" t="s">
-        <v>465</v>
-      </c>
-      <c r="H13" s="116" t="s">
-        <v>463</v>
-      </c>
       <c r="I13" s="118" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C14" s="121"/>
       <c r="D14" s="116" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E14" s="115" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C17" s="124"/>
       <c r="D17" s="127" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E17" s="127" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G17" s="124"/>
       <c r="H17" s="127" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="I17" s="127" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C18" s="123" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D18" s="116" t="s">
+        <v>474</v>
+      </c>
+      <c r="E18" s="118" t="s">
         <v>476</v>
       </c>
-      <c r="E18" s="118" t="s">
-        <v>478</v>
-      </c>
       <c r="G18" s="123" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H18" s="116" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="I18" s="118" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C19" s="120"/>
       <c r="D19" s="116" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E19" s="118" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G19" s="120"/>
       <c r="H19" s="116" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I19" s="118" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C20" s="120"/>
       <c r="D20" s="116" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E20" s="118" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G20" s="117"/>
       <c r="H20" s="116" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I20" s="118" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C21" s="120"/>
       <c r="D21" s="116" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E21" s="118" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L21" s="113"/>
       <c r="M21" s="114"/>
@@ -4577,10 +4889,10 @@
     <row r="22" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C22" s="120"/>
       <c r="D22" s="116" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E22" s="115" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L22" s="113"/>
       <c r="M22" s="114"/>
@@ -4589,10 +4901,10 @@
     <row r="23" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C23" s="120"/>
       <c r="D23" s="116" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E23" s="118" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L23" s="113"/>
       <c r="M23" s="114"/>
@@ -4601,10 +4913,10 @@
     <row r="24" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C24" s="120"/>
       <c r="D24" s="116" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E24" s="118" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L24" s="113"/>
       <c r="M24" s="114"/>
@@ -4613,10 +4925,10 @@
     <row r="25" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C25" s="117"/>
       <c r="D25" s="116" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E25" s="118" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L25" s="113"/>
       <c r="M25" s="114"/>
@@ -4635,10 +4947,10 @@
     <row r="28" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C28" s="124"/>
       <c r="D28" s="127" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E28" s="127" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L28" s="113"/>
       <c r="M28" s="114"/>
@@ -4646,13 +4958,13 @@
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C29" s="123" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D29" s="116" t="s">
+        <v>474</v>
+      </c>
+      <c r="E29" s="118" t="s">
         <v>476</v>
-      </c>
-      <c r="E29" s="118" t="s">
-        <v>478</v>
       </c>
       <c r="L29" s="113"/>
       <c r="M29" s="114"/>
@@ -4660,13 +4972,13 @@
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C30" s="122" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D30" s="116" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E30" s="118" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="L30" s="113"/>
       <c r="M30" s="114"/>
@@ -4674,13 +4986,13 @@
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C31" s="120" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D31" s="116" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E31" s="118" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L31" s="113"/>
       <c r="M31" s="114"/>
@@ -4689,10 +5001,10 @@
     <row r="32" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C32" s="120"/>
       <c r="D32" s="116" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E32" s="118" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L32" s="113"/>
       <c r="M32" s="114"/>
@@ -4701,10 +5013,10 @@
     <row r="33" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C33" s="120"/>
       <c r="D33" s="116" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E33" s="118" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L33" s="113"/>
       <c r="M33" s="114"/>
@@ -4713,10 +5025,10 @@
     <row r="34" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C34" s="120"/>
       <c r="D34" s="116" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E34" s="115" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L34" s="113"/>
       <c r="M34" s="114"/>
@@ -4725,10 +5037,10 @@
     <row r="35" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C35" s="120"/>
       <c r="D35" s="116" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E35" s="118" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L35" s="113"/>
       <c r="M35" s="114"/>
@@ -4737,10 +5049,10 @@
     <row r="36" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C36" s="120"/>
       <c r="D36" s="116" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E36" s="118" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L36" s="113"/>
       <c r="M36" s="114"/>
@@ -4749,10 +5061,10 @@
     <row r="37" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C37" s="119"/>
       <c r="D37" s="116" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E37" s="118" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L37" s="113"/>
       <c r="M37" s="114"/>
@@ -4761,10 +5073,10 @@
     <row r="38" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C38" s="117"/>
       <c r="D38" s="116" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E38" s="115" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L38" s="113"/>
       <c r="M38" s="114"/>
@@ -4794,7 +5106,7 @@
         <v>10</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.4">
@@ -4805,19 +5117,19 @@
         <v>320</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>433</v>
+        <v>528</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>432</v>
+        <v>530</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>431</v>
@@ -4965,17 +5277,17 @@
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -5021,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -5030,7 +5342,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="104" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D3" s="106"/>
     </row>
@@ -5042,7 +5354,7 @@
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F6" s="29"/>
     </row>
@@ -5076,7 +5388,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
@@ -5087,7 +5399,7 @@
         <v>320</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
@@ -5120,7 +5432,7 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D19" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.4">
@@ -5136,10 +5448,10 @@
     <row r="21" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C21" s="124"/>
       <c r="D21" s="127" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E21" s="127" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F21" s="46"/>
       <c r="G21" s="46"/>
@@ -5150,40 +5462,40 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C22" s="123" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D22" s="116" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E22" s="118" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C23" s="120"/>
       <c r="D23" s="116" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E23" s="118" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C24" s="120"/>
       <c r="D24" s="116" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E24" s="118" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C25" s="121"/>
       <c r="D25" s="116" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E25" s="115" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.4">
@@ -5238,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
@@ -5248,7 +5560,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="104" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D3" s="105"/>
       <c r="E3" s="106"/>
@@ -5261,7 +5573,7 @@
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F6" s="29"/>
     </row>
@@ -5284,7 +5596,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
@@ -5292,22 +5604,22 @@
         <v>12</v>
       </c>
       <c r="D11" s="103" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E11" s="103" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F11" s="103" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G11" s="103" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H11" s="103" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
@@ -5410,6 +5722,354 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P40"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="9" style="136"/>
+    <col min="3" max="3" width="19.125" style="136" customWidth="1"/>
+    <col min="4" max="4" width="18" style="136" customWidth="1"/>
+    <col min="5" max="14" width="21" style="136" customWidth="1"/>
+    <col min="15" max="16" width="22.25" style="136" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="136"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B2" s="132" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="132" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B3" s="137" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="132" t="s">
+        <v>523</v>
+      </c>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="C6" s="138" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="C7" s="139" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="C8" s="140" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="C12" s="142" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="143" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="C13" s="135"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="147" t="s">
+        <v>536</v>
+      </c>
+      <c r="H13" s="146"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="146"/>
+      <c r="K13" s="146"/>
+      <c r="L13" s="146"/>
+      <c r="M13" s="147" t="s">
+        <v>537</v>
+      </c>
+      <c r="N13" s="148"/>
+      <c r="O13" s="160"/>
+      <c r="P13" s="160"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="C14" s="149" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="150" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="159" t="s">
+        <v>525</v>
+      </c>
+      <c r="F14" s="159" t="s">
+        <v>529</v>
+      </c>
+      <c r="G14" s="159" t="s">
+        <v>531</v>
+      </c>
+      <c r="H14" s="159" t="s">
+        <v>532</v>
+      </c>
+      <c r="I14" s="159" t="s">
+        <v>543</v>
+      </c>
+      <c r="J14" s="159" t="s">
+        <v>525</v>
+      </c>
+      <c r="K14" s="159" t="s">
+        <v>529</v>
+      </c>
+      <c r="L14" s="159" t="s">
+        <v>531</v>
+      </c>
+      <c r="M14" s="159" t="s">
+        <v>532</v>
+      </c>
+      <c r="N14" s="159" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="C15" s="135" t="str">
+        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
+        <v>(D15に関数入力)</v>
+      </c>
+      <c r="D15" s="151" t="s">
+        <v>534</v>
+      </c>
+      <c r="E15" s="151" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="151" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="151" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="151" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="151" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="151" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="151" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="151" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="151" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" s="151" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
+      <c r="M16" s="151"/>
+      <c r="N16" s="151"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="D17" s="151"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="151"/>
+      <c r="L17" s="151"/>
+      <c r="M17" s="151"/>
+      <c r="N17" s="151"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="151"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="151"/>
+      <c r="J19" s="151"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="151"/>
+      <c r="N19" s="151"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="D20" s="151"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="151"/>
+      <c r="K20" s="151"/>
+      <c r="L20" s="151"/>
+      <c r="M20" s="151"/>
+      <c r="N20" s="151"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C23" s="152" t="s">
+        <v>525</v>
+      </c>
+      <c r="D23" s="153" t="s">
+        <v>526</v>
+      </c>
+      <c r="E23" s="192" t="s">
+        <v>527</v>
+      </c>
+      <c r="F23" s="193"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C24" s="163"/>
+      <c r="D24" s="155" t="s">
+        <v>548</v>
+      </c>
+      <c r="E24" s="194" t="s">
+        <v>549</v>
+      </c>
+      <c r="F24" s="194"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C25" s="154"/>
+      <c r="D25" s="155">
+        <v>0</v>
+      </c>
+      <c r="E25" s="195" t="s">
+        <v>550</v>
+      </c>
+      <c r="F25" s="195"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C26" s="154"/>
+      <c r="D26" s="156">
+        <v>1</v>
+      </c>
+      <c r="E26" s="196" t="s">
+        <v>551</v>
+      </c>
+      <c r="F26" s="196"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C27" s="157"/>
+      <c r="D27" s="155">
+        <v>2</v>
+      </c>
+      <c r="E27" s="195" t="s">
+        <v>552</v>
+      </c>
+      <c r="F27" s="195"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="D29" s="161" t="s">
+        <v>542</v>
+      </c>
+      <c r="E29" s="136" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="D30" s="162"/>
+      <c r="E30" s="136" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="E31" s="136" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="E32" s="136" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D33" s="162" t="s">
+        <v>547</v>
+      </c>
+      <c r="E33" s="136" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D34" s="162" t="s">
+        <v>545</v>
+      </c>
+      <c r="E34" s="136" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D40" s="158"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A2:I40"/>
@@ -5791,7 +6451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A2:I40"/>
@@ -6099,12 +6759,12 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>40</v>
@@ -6127,7 +6787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A2:I20"/>
@@ -8554,13 +9214,13 @@
     </row>
     <row r="35" spans="1:89" x14ac:dyDescent="0.4">
       <c r="C35" s="35" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D35" s="130">
         <v>0</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
@@ -8662,7 +9322,7 @@
         <v>101</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="38" spans="1:89" x14ac:dyDescent="0.4">
@@ -8671,7 +9331,7 @@
         <v>103</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="39" spans="1:89" x14ac:dyDescent="0.4">
@@ -8680,7 +9340,7 @@
         <v>107</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="40" spans="1:89" x14ac:dyDescent="0.4">
@@ -8689,7 +9349,7 @@
         <v>121</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="41" spans="1:89" x14ac:dyDescent="0.4">
@@ -8698,7 +9358,7 @@
         <v>144</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="42" spans="1:89" x14ac:dyDescent="0.4">
@@ -8707,7 +9367,7 @@
         <v>145</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="43" spans="1:89" x14ac:dyDescent="0.4">
@@ -8716,7 +9376,7 @@
         <v>154</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="44" spans="1:89" x14ac:dyDescent="0.4">
@@ -8725,7 +9385,7 @@
         <v>155</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="45" spans="1:89" x14ac:dyDescent="0.4">
@@ -8734,7 +9394,7 @@
         <v>171</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="46" spans="1:89" x14ac:dyDescent="0.4">
@@ -8743,7 +9403,7 @@
         <v>901</v>
       </c>
       <c r="E46" s="35" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="47" spans="1:89" x14ac:dyDescent="0.4">
@@ -8752,7 +9412,7 @@
         <v>907</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -9340,89 +10000,89 @@
       <c r="C11" s="72" t="s">
         <v>305</v>
       </c>
-      <c r="D11" s="135" t="s">
+      <c r="D11" s="172" t="s">
         <v>299</v>
       </c>
-      <c r="E11" s="136"/>
-      <c r="F11" s="135" t="s">
+      <c r="E11" s="173"/>
+      <c r="F11" s="172" t="s">
         <v>300</v>
       </c>
-      <c r="G11" s="136"/>
+      <c r="G11" s="173"/>
       <c r="L11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B12" s="134" t="s">
+      <c r="B12" s="188" t="s">
         <v>279</v>
       </c>
       <c r="C12" s="48">
         <v>0</v>
       </c>
-      <c r="D12" s="137" t="s">
+      <c r="D12" s="184" t="s">
         <v>203</v>
       </c>
-      <c r="E12" s="138"/>
-      <c r="F12" s="151" t="s">
+      <c r="E12" s="185"/>
+      <c r="F12" s="174" t="s">
         <v>301</v>
       </c>
-      <c r="G12" s="152"/>
+      <c r="G12" s="175"/>
       <c r="L12" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B13" s="134"/>
+      <c r="B13" s="188"/>
       <c r="C13" s="48">
         <v>1</v>
       </c>
-      <c r="D13" s="137" t="s">
+      <c r="D13" s="184" t="s">
         <v>202</v>
       </c>
-      <c r="E13" s="138"/>
-      <c r="F13" s="153" t="s">
+      <c r="E13" s="185"/>
+      <c r="F13" s="176" t="s">
         <v>308</v>
       </c>
-      <c r="G13" s="154"/>
+      <c r="G13" s="177"/>
       <c r="L13" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B14" s="134"/>
+      <c r="B14" s="188"/>
       <c r="C14" s="48">
         <v>2</v>
       </c>
-      <c r="D14" s="137" t="s">
+      <c r="D14" s="184" t="s">
         <v>201</v>
       </c>
-      <c r="E14" s="138"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="154"/>
+      <c r="E14" s="185"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="177"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B15" s="134"/>
+      <c r="B15" s="188"/>
       <c r="C15" s="49">
         <v>3</v>
       </c>
-      <c r="D15" s="137" t="s">
+      <c r="D15" s="184" t="s">
         <v>266</v>
       </c>
-      <c r="E15" s="138"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="154"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="176"/>
+      <c r="G15" s="177"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B16" s="134"/>
+      <c r="B16" s="188"/>
       <c r="C16" s="49">
         <v>4</v>
       </c>
-      <c r="D16" s="137" t="s">
+      <c r="D16" s="184" t="s">
         <v>267</v>
       </c>
-      <c r="E16" s="138"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="148"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="179"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="65" t="s">
@@ -9477,30 +10137,30 @@
       <c r="G20" s="69"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="132" t="s">
+      <c r="B21" s="186" t="s">
         <v>288</v>
       </c>
       <c r="C21" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="D21" s="137" t="s">
+      <c r="D21" s="184" t="s">
         <v>306</v>
       </c>
-      <c r="E21" s="138"/>
+      <c r="E21" s="185"/>
       <c r="F21" s="73" t="s">
         <v>301</v>
       </c>
       <c r="G21" s="74"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="132"/>
+      <c r="B22" s="186"/>
       <c r="C22" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="D22" s="137" t="s">
+      <c r="D22" s="184" t="s">
         <v>307</v>
       </c>
-      <c r="E22" s="138"/>
+      <c r="E22" s="185"/>
       <c r="F22" s="75" t="s">
         <v>309</v>
       </c>
@@ -9523,130 +10183,130 @@
       <c r="G23" s="71"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="132" t="s">
+      <c r="B24" s="186" t="s">
         <v>291</v>
       </c>
       <c r="C24" s="47">
         <v>1</v>
       </c>
-      <c r="D24" s="139" t="s">
+      <c r="D24" s="182" t="s">
         <v>289</v>
       </c>
-      <c r="E24" s="140"/>
-      <c r="F24" s="145" t="s">
+      <c r="E24" s="183"/>
+      <c r="F24" s="180" t="s">
         <v>301</v>
       </c>
-      <c r="G24" s="146"/>
+      <c r="G24" s="181"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="132"/>
+      <c r="B25" s="186"/>
       <c r="C25" s="47">
         <v>2</v>
       </c>
-      <c r="D25" s="141" t="s">
+      <c r="D25" s="170" t="s">
         <v>280</v>
       </c>
-      <c r="E25" s="142"/>
-      <c r="F25" s="149" t="s">
+      <c r="E25" s="171"/>
+      <c r="F25" s="164" t="s">
         <v>308</v>
       </c>
-      <c r="G25" s="150"/>
+      <c r="G25" s="165"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B26" s="132"/>
+      <c r="B26" s="186"/>
       <c r="C26" s="47">
         <v>3</v>
       </c>
-      <c r="D26" s="141" t="s">
+      <c r="D26" s="170" t="s">
         <v>281</v>
       </c>
-      <c r="E26" s="142"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="150"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="165"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="132"/>
+      <c r="B27" s="186"/>
       <c r="C27" s="47">
         <v>4</v>
       </c>
-      <c r="D27" s="141" t="s">
+      <c r="D27" s="170" t="s">
         <v>282</v>
       </c>
-      <c r="E27" s="142"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="150"/>
+      <c r="E27" s="171"/>
+      <c r="F27" s="164"/>
+      <c r="G27" s="165"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B28" s="132"/>
+      <c r="B28" s="186"/>
       <c r="C28" s="47">
         <v>5</v>
       </c>
-      <c r="D28" s="141" t="s">
+      <c r="D28" s="170" t="s">
         <v>283</v>
       </c>
-      <c r="E28" s="142"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="144"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="169"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B29" s="132" t="s">
+      <c r="B29" s="186" t="s">
         <v>292</v>
       </c>
       <c r="C29" s="47">
         <v>1</v>
       </c>
-      <c r="D29" s="139" t="s">
+      <c r="D29" s="182" t="s">
         <v>290</v>
       </c>
-      <c r="E29" s="140"/>
-      <c r="F29" s="145" t="s">
+      <c r="E29" s="183"/>
+      <c r="F29" s="180" t="s">
         <v>301</v>
       </c>
-      <c r="G29" s="146"/>
+      <c r="G29" s="181"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="132"/>
+      <c r="B30" s="186"/>
       <c r="C30" s="47">
         <v>2</v>
       </c>
-      <c r="D30" s="141" t="s">
+      <c r="D30" s="170" t="s">
         <v>284</v>
       </c>
-      <c r="E30" s="142"/>
-      <c r="F30" s="149" t="s">
+      <c r="E30" s="171"/>
+      <c r="F30" s="164" t="s">
         <v>308</v>
       </c>
-      <c r="G30" s="150"/>
+      <c r="G30" s="165"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="133" t="s">
+      <c r="B31" s="187" t="s">
         <v>293</v>
       </c>
       <c r="C31" s="47">
         <v>2</v>
       </c>
-      <c r="D31" s="141" t="s">
+      <c r="D31" s="170" t="s">
         <v>285</v>
       </c>
-      <c r="E31" s="142"/>
-      <c r="F31" s="155" t="s">
+      <c r="E31" s="171"/>
+      <c r="F31" s="166" t="s">
         <v>301</v>
       </c>
-      <c r="G31" s="156"/>
+      <c r="G31" s="167"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B32" s="133"/>
+      <c r="B32" s="187"/>
       <c r="C32" s="47">
         <v>3</v>
       </c>
-      <c r="D32" s="141" t="s">
+      <c r="D32" s="170" t="s">
         <v>286</v>
       </c>
-      <c r="E32" s="142"/>
-      <c r="F32" s="143" t="s">
+      <c r="E32" s="171"/>
+      <c r="F32" s="168" t="s">
         <v>308</v>
       </c>
-      <c r="G32" s="144"/>
+      <c r="G32" s="169"/>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.4">
       <c r="B33" s="6"/>
@@ -9751,7 +10411,7 @@
         <v>129</v>
       </c>
       <c r="W39" s="8" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="X39" s="8" t="s">
         <v>130</v>
@@ -9860,7 +10520,7 @@
         <v>85</v>
       </c>
       <c r="W40" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="X40" s="7" t="s">
         <v>85</v>
@@ -10160,7 +10820,7 @@
         <v>85</v>
       </c>
       <c r="W44" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="X44" s="7" t="s">
         <v>85</v>
@@ -20514,43 +21174,43 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="5">
@@ -21555,22 +22215,22 @@
       <c r="C10" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="D10" s="157" t="s">
+      <c r="D10" s="189" t="s">
         <v>268</v>
       </c>
-      <c r="E10" s="158"/>
+      <c r="E10" s="190"/>
       <c r="H10" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="I10" s="157" t="s">
+      <c r="I10" s="189" t="s">
         <v>268</v>
       </c>
-      <c r="J10" s="158"/>
-      <c r="K10" s="159" t="s">
+      <c r="J10" s="190"/>
+      <c r="K10" s="191" t="s">
         <v>300</v>
       </c>
-      <c r="L10" s="159"/>
-      <c r="M10" s="159"/>
+      <c r="L10" s="191"/>
+      <c r="M10" s="191"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B11" s="90" t="s">

--- a/sample/ExcelMacro/kabuSTATION_API_function_sample.xlsx
+++ b/sample/ExcelMacro/kabuSTATION_API_function_sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OLDPC\kabuSTATION\workspace\resourse\sample\ExcelMacro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fsv1\システム戦略部\900_Work\Vorthanak\KabuSAPI\東証再編\kabusapi\sample\ExcelMacro\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="551">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -2122,50 +2122,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>T1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>東証一部</t>
-    <rPh sb="0" eb="2">
-      <t>トウショウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチブ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>T2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>東証二部</t>
-    <rPh sb="0" eb="2">
-      <t>トウショウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニブ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TM</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>マザーズ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>JQ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>JASDAQ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>M</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2232,9 +2188,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>関数入力する際、「"」ダブルクォーテーションで囲む必要があります。</t>
-  </si>
-  <si>
     <t>追加情報（※）出力フラグ</t>
   </si>
   <si>
@@ -3035,6 +2988,40 @@
   </si>
   <si>
     <t>プレミアム料が入札で決定する銘柄</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TP</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東証プライム</t>
+    <rPh sb="0" eb="2">
+      <t>トウショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東証スタンダード</t>
+    <rPh sb="0" eb="2">
+      <t>トウショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東証グロース</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>関数入力する際、「"」ダブルクォーテーションで囲む必要があります。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3045,7 +3032,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3191,6 +3178,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -3230,7 +3224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -3518,11 +3512,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -3694,14 +3697,8 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
@@ -3809,6 +3806,18 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3892,6 +3901,33 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -4381,11 +4417,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="101" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -4395,12 +4431,12 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="104" t="s">
-        <v>400</v>
-      </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="106"/>
+      <c r="C3" s="102" t="s">
+        <v>391</v>
+      </c>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="104"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
@@ -4410,21 +4446,21 @@
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F6" s="29"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="E7" s="27"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E8" s="28"/>
     </row>
@@ -4445,7 +4481,7 @@
         <v>198</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
@@ -4453,16 +4489,16 @@
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>323</v>
@@ -4476,10 +4512,10 @@
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
         <v>(D14に関数入力)</v>
       </c>
-      <c r="D14" s="107" t="s">
-        <v>407</v>
-      </c>
-      <c r="E14" s="108" t="s">
+      <c r="D14" s="105" t="s">
+        <v>398</v>
+      </c>
+      <c r="E14" s="106" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="26" t="s">
@@ -4492,12 +4528,12 @@
         <v>14</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D15" s="26"/>
-      <c r="E15" s="108"/>
+      <c r="E15" s="106"/>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
@@ -4520,100 +4556,100 @@
       <c r="I17" s="26"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="109"/>
-      <c r="C20" s="110" t="s">
-        <v>390</v>
+      <c r="B20" s="107"/>
+      <c r="C20" s="108" t="s">
+        <v>381</v>
       </c>
       <c r="D20" s="34" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C21" s="109" t="s">
+        <v>394</v>
+      </c>
+      <c r="D21" s="109" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C22" s="109" t="s">
+        <v>400</v>
+      </c>
+      <c r="D22" s="109" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C23" s="109" t="s">
+        <v>402</v>
+      </c>
+      <c r="D23" s="109" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C24" s="109" t="s">
+        <v>404</v>
+      </c>
+      <c r="D24" s="109" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C25" s="109" t="s">
+        <v>406</v>
+      </c>
+      <c r="D25" s="109" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C26" s="109" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C21" s="111" t="s">
-        <v>403</v>
-      </c>
-      <c r="D21" s="111" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C22" s="111" t="s">
+      <c r="D26" s="109" t="s">
         <v>409</v>
       </c>
-      <c r="D22" s="111" t="s">
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C27" s="109" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C23" s="111" t="s">
+      <c r="D27" s="109" t="s">
         <v>411</v>
       </c>
-      <c r="D23" s="111" t="s">
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C28" s="109" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C24" s="111" t="s">
+      <c r="D28" s="109" t="s">
         <v>413</v>
       </c>
-      <c r="D24" s="111" t="s">
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C29" s="109" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C25" s="111" t="s">
+      <c r="D29" s="109" t="s">
         <v>415</v>
       </c>
-      <c r="D25" s="111" t="s">
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C30" s="109" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C26" s="111" t="s">
+      <c r="D30" s="109" t="s">
         <v>417</v>
       </c>
-      <c r="D26" s="111" t="s">
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C31" s="109" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C27" s="111" t="s">
+      <c r="D31" s="109" t="s">
         <v>419</v>
-      </c>
-      <c r="D27" s="111" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C28" s="111" t="s">
-        <v>421</v>
-      </c>
-      <c r="D28" s="111" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C29" s="111" t="s">
-        <v>423</v>
-      </c>
-      <c r="D29" s="111" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C30" s="111" t="s">
-        <v>425</v>
-      </c>
-      <c r="D30" s="111" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C31" s="111" t="s">
-        <v>427</v>
-      </c>
-      <c r="D31" s="111" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
@@ -4672,11 +4708,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="101" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -4686,12 +4722,12 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="104" t="s">
-        <v>485</v>
-      </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="106"/>
+      <c r="C3" s="102" t="s">
+        <v>476</v>
+      </c>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="104"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
@@ -4701,7 +4737,7 @@
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="F6" s="29"/>
     </row>
@@ -4711,7 +4747,7 @@
         <v>320</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="E7" s="27"/>
     </row>
@@ -4726,371 +4762,371 @@
       <c r="E8" s="28"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C10" s="124"/>
-      <c r="D10" s="127" t="s">
-        <v>482</v>
-      </c>
-      <c r="E10" s="127" t="s">
-        <v>481</v>
-      </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="127" t="s">
-        <v>482</v>
-      </c>
-      <c r="I10" s="127" t="s">
-        <v>481</v>
+      <c r="C10" s="122"/>
+      <c r="D10" s="125" t="s">
+        <v>473</v>
+      </c>
+      <c r="E10" s="125" t="s">
+        <v>472</v>
+      </c>
+      <c r="G10" s="122"/>
+      <c r="H10" s="125" t="s">
+        <v>473</v>
+      </c>
+      <c r="I10" s="125" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C11" s="123" t="s">
-        <v>480</v>
-      </c>
-      <c r="D11" s="116" t="s">
+      <c r="C11" s="121" t="s">
+        <v>471</v>
+      </c>
+      <c r="D11" s="114" t="s">
+        <v>459</v>
+      </c>
+      <c r="E11" s="116" t="s">
+        <v>463</v>
+      </c>
+      <c r="G11" s="121" t="s">
         <v>468</v>
       </c>
-      <c r="E11" s="118" t="s">
+      <c r="H11" s="114" t="s">
+        <v>465</v>
+      </c>
+      <c r="I11" s="116" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C12" s="118"/>
+      <c r="D12" s="114" t="s">
+        <v>449</v>
+      </c>
+      <c r="E12" s="116" t="s">
+        <v>457</v>
+      </c>
+      <c r="G12" s="118" t="s">
+        <v>461</v>
+      </c>
+      <c r="H12" s="114" t="s">
+        <v>459</v>
+      </c>
+      <c r="I12" s="116" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C13" s="118"/>
+      <c r="D13" s="114" t="s">
+        <v>443</v>
+      </c>
+      <c r="E13" s="116" t="s">
+        <v>450</v>
+      </c>
+      <c r="G13" s="115" t="s">
+        <v>454</v>
+      </c>
+      <c r="H13" s="114" t="s">
+        <v>452</v>
+      </c>
+      <c r="I13" s="116" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C14" s="119"/>
+      <c r="D14" s="114" t="s">
+        <v>439</v>
+      </c>
+      <c r="E14" s="113" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C17" s="122"/>
+      <c r="D17" s="125" t="s">
+        <v>473</v>
+      </c>
+      <c r="E17" s="125" t="s">
         <v>472</v>
       </c>
-      <c r="G11" s="123" t="s">
-        <v>477</v>
-      </c>
-      <c r="H11" s="116" t="s">
-        <v>474</v>
-      </c>
-      <c r="I11" s="118" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C12" s="120"/>
-      <c r="D12" s="116" t="s">
+      <c r="G17" s="122"/>
+      <c r="H17" s="125" t="s">
+        <v>473</v>
+      </c>
+      <c r="I17" s="125" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C18" s="121" t="s">
+        <v>470</v>
+      </c>
+      <c r="D18" s="114" t="s">
+        <v>465</v>
+      </c>
+      <c r="E18" s="116" t="s">
+        <v>467</v>
+      </c>
+      <c r="G18" s="121" t="s">
+        <v>466</v>
+      </c>
+      <c r="H18" s="114" t="s">
+        <v>465</v>
+      </c>
+      <c r="I18" s="116" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C19" s="118"/>
+      <c r="D19" s="114" t="s">
+        <v>459</v>
+      </c>
+      <c r="E19" s="116" t="s">
+        <v>463</v>
+      </c>
+      <c r="G19" s="118"/>
+      <c r="H19" s="114" t="s">
+        <v>459</v>
+      </c>
+      <c r="I19" s="116" t="s">
         <v>458</v>
       </c>
-      <c r="E12" s="118" t="s">
-        <v>466</v>
-      </c>
-      <c r="G12" s="120" t="s">
-        <v>470</v>
-      </c>
-      <c r="H12" s="116" t="s">
-        <v>468</v>
-      </c>
-      <c r="I12" s="118" t="s">
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C20" s="118"/>
+      <c r="D20" s="114" t="s">
+        <v>449</v>
+      </c>
+      <c r="E20" s="116" t="s">
+        <v>457</v>
+      </c>
+      <c r="G20" s="115"/>
+      <c r="H20" s="114" t="s">
+        <v>452</v>
+      </c>
+      <c r="I20" s="116" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C21" s="118"/>
+      <c r="D21" s="114" t="s">
+        <v>443</v>
+      </c>
+      <c r="E21" s="116" t="s">
+        <v>450</v>
+      </c>
+      <c r="L21" s="111"/>
+      <c r="M21" s="112"/>
+      <c r="N21" s="111"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C22" s="118"/>
+      <c r="D22" s="114" t="s">
+        <v>439</v>
+      </c>
+      <c r="E22" s="113" t="s">
+        <v>447</v>
+      </c>
+      <c r="L22" s="111"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="111"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C23" s="118"/>
+      <c r="D23" s="114" t="s">
+        <v>431</v>
+      </c>
+      <c r="E23" s="116" t="s">
+        <v>444</v>
+      </c>
+      <c r="L23" s="111"/>
+      <c r="M23" s="112"/>
+      <c r="N23" s="111"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C24" s="118"/>
+      <c r="D24" s="114" t="s">
+        <v>441</v>
+      </c>
+      <c r="E24" s="116" t="s">
+        <v>440</v>
+      </c>
+      <c r="L24" s="111"/>
+      <c r="M24" s="112"/>
+      <c r="N24" s="111"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C25" s="115"/>
+      <c r="D25" s="114" t="s">
+        <v>437</v>
+      </c>
+      <c r="E25" s="116" t="s">
+        <v>436</v>
+      </c>
+      <c r="L25" s="111"/>
+      <c r="M25" s="112"/>
+      <c r="N25" s="111"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="L26" s="111"/>
+      <c r="M26" s="112"/>
+      <c r="N26" s="111"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="L27" s="111"/>
+      <c r="M27" s="112"/>
+      <c r="N27" s="111"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C28" s="122"/>
+      <c r="D28" s="125" t="s">
+        <v>473</v>
+      </c>
+      <c r="E28" s="125" t="s">
+        <v>472</v>
+      </c>
+      <c r="L28" s="111"/>
+      <c r="M28" s="112"/>
+      <c r="N28" s="111"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C29" s="121" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C13" s="120"/>
-      <c r="D13" s="116" t="s">
+      <c r="D29" s="114" t="s">
+        <v>465</v>
+      </c>
+      <c r="E29" s="116" t="s">
+        <v>467</v>
+      </c>
+      <c r="L29" s="111"/>
+      <c r="M29" s="112"/>
+      <c r="N29" s="111"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C30" s="120" t="s">
+        <v>461</v>
+      </c>
+      <c r="D30" s="114" t="s">
+        <v>459</v>
+      </c>
+      <c r="E30" s="116" t="s">
+        <v>462</v>
+      </c>
+      <c r="L30" s="111"/>
+      <c r="M30" s="112"/>
+      <c r="N30" s="111"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C31" s="118" t="s">
+        <v>456</v>
+      </c>
+      <c r="D31" s="114" t="s">
         <v>452</v>
       </c>
-      <c r="E13" s="118" t="s">
-        <v>459</v>
-      </c>
-      <c r="G13" s="117" t="s">
-        <v>463</v>
-      </c>
-      <c r="H13" s="116" t="s">
-        <v>461</v>
-      </c>
-      <c r="I13" s="118" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C14" s="121"/>
-      <c r="D14" s="116" t="s">
+      <c r="E31" s="116" t="s">
+        <v>455</v>
+      </c>
+      <c r="L31" s="111"/>
+      <c r="M31" s="112"/>
+      <c r="N31" s="111"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C32" s="118"/>
+      <c r="D32" s="114" t="s">
+        <v>449</v>
+      </c>
+      <c r="E32" s="116" t="s">
         <v>448</v>
       </c>
-      <c r="E14" s="115" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C17" s="124"/>
-      <c r="D17" s="127" t="s">
-        <v>482</v>
-      </c>
-      <c r="E17" s="127" t="s">
-        <v>481</v>
-      </c>
-      <c r="G17" s="124"/>
-      <c r="H17" s="127" t="s">
-        <v>482</v>
-      </c>
-      <c r="I17" s="127" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C18" s="123" t="s">
-        <v>479</v>
-      </c>
-      <c r="D18" s="116" t="s">
-        <v>474</v>
-      </c>
-      <c r="E18" s="118" t="s">
-        <v>476</v>
-      </c>
-      <c r="G18" s="123" t="s">
-        <v>475</v>
-      </c>
-      <c r="H18" s="116" t="s">
-        <v>474</v>
-      </c>
-      <c r="I18" s="118" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C19" s="120"/>
-      <c r="D19" s="116" t="s">
-        <v>468</v>
-      </c>
-      <c r="E19" s="118" t="s">
-        <v>472</v>
-      </c>
-      <c r="G19" s="120"/>
-      <c r="H19" s="116" t="s">
-        <v>468</v>
-      </c>
-      <c r="I19" s="118" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C20" s="120"/>
-      <c r="D20" s="116" t="s">
-        <v>458</v>
-      </c>
-      <c r="E20" s="118" t="s">
-        <v>466</v>
-      </c>
-      <c r="G20" s="117"/>
-      <c r="H20" s="116" t="s">
-        <v>461</v>
-      </c>
-      <c r="I20" s="118" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C21" s="120"/>
-      <c r="D21" s="116" t="s">
-        <v>452</v>
-      </c>
-      <c r="E21" s="118" t="s">
-        <v>459</v>
-      </c>
-      <c r="L21" s="113"/>
-      <c r="M21" s="114"/>
-      <c r="N21" s="113"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C22" s="120"/>
-      <c r="D22" s="116" t="s">
-        <v>448</v>
-      </c>
-      <c r="E22" s="115" t="s">
-        <v>456</v>
-      </c>
-      <c r="L22" s="113"/>
-      <c r="M22" s="114"/>
-      <c r="N22" s="113"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C23" s="120"/>
-      <c r="D23" s="116" t="s">
-        <v>440</v>
-      </c>
-      <c r="E23" s="118" t="s">
-        <v>453</v>
-      </c>
-      <c r="L23" s="113"/>
-      <c r="M23" s="114"/>
-      <c r="N23" s="113"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C24" s="120"/>
-      <c r="D24" s="116" t="s">
-        <v>450</v>
-      </c>
-      <c r="E24" s="118" t="s">
-        <v>449</v>
-      </c>
-      <c r="L24" s="113"/>
-      <c r="M24" s="114"/>
-      <c r="N24" s="113"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C25" s="117"/>
-      <c r="D25" s="116" t="s">
+      <c r="L32" s="111"/>
+      <c r="M32" s="112"/>
+      <c r="N32" s="111"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C33" s="118"/>
+      <c r="D33" s="114" t="s">
         <v>446</v>
       </c>
-      <c r="E25" s="118" t="s">
+      <c r="E33" s="116" t="s">
         <v>445</v>
       </c>
-      <c r="L25" s="113"/>
-      <c r="M25" s="114"/>
-      <c r="N25" s="113"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="L26" s="113"/>
-      <c r="M26" s="114"/>
-      <c r="N26" s="113"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="L27" s="113"/>
-      <c r="M27" s="114"/>
-      <c r="N27" s="113"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C28" s="124"/>
-      <c r="D28" s="127" t="s">
-        <v>482</v>
-      </c>
-      <c r="E28" s="127" t="s">
-        <v>481</v>
-      </c>
-      <c r="L28" s="113"/>
-      <c r="M28" s="114"/>
-      <c r="N28" s="113"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C29" s="123" t="s">
-        <v>478</v>
-      </c>
-      <c r="D29" s="116" t="s">
-        <v>474</v>
-      </c>
-      <c r="E29" s="118" t="s">
-        <v>476</v>
-      </c>
-      <c r="L29" s="113"/>
-      <c r="M29" s="114"/>
-      <c r="N29" s="113"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C30" s="122" t="s">
-        <v>470</v>
-      </c>
-      <c r="D30" s="116" t="s">
-        <v>468</v>
-      </c>
-      <c r="E30" s="118" t="s">
-        <v>471</v>
-      </c>
-      <c r="L30" s="113"/>
-      <c r="M30" s="114"/>
-      <c r="N30" s="113"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C31" s="120" t="s">
-        <v>465</v>
-      </c>
-      <c r="D31" s="116" t="s">
-        <v>461</v>
-      </c>
-      <c r="E31" s="118" t="s">
-        <v>464</v>
-      </c>
-      <c r="L31" s="113"/>
-      <c r="M31" s="114"/>
-      <c r="N31" s="113"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C32" s="120"/>
-      <c r="D32" s="116" t="s">
-        <v>458</v>
-      </c>
-      <c r="E32" s="118" t="s">
-        <v>457</v>
-      </c>
-      <c r="L32" s="113"/>
-      <c r="M32" s="114"/>
-      <c r="N32" s="113"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C33" s="120"/>
-      <c r="D33" s="116" t="s">
-        <v>455</v>
-      </c>
-      <c r="E33" s="118" t="s">
-        <v>454</v>
-      </c>
-      <c r="L33" s="113"/>
-      <c r="M33" s="114"/>
-      <c r="N33" s="113"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="112"/>
+      <c r="N33" s="111"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C34" s="120"/>
-      <c r="D34" s="116" t="s">
-        <v>452</v>
-      </c>
-      <c r="E34" s="115" t="s">
-        <v>451</v>
-      </c>
-      <c r="L34" s="113"/>
-      <c r="M34" s="114"/>
-      <c r="N34" s="113"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="114" t="s">
+        <v>443</v>
+      </c>
+      <c r="E34" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="L34" s="111"/>
+      <c r="M34" s="112"/>
+      <c r="N34" s="111"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C35" s="120"/>
-      <c r="D35" s="116" t="s">
-        <v>448</v>
-      </c>
-      <c r="E35" s="118" t="s">
-        <v>447</v>
-      </c>
-      <c r="L35" s="113"/>
-      <c r="M35" s="114"/>
-      <c r="N35" s="113"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="114" t="s">
+        <v>439</v>
+      </c>
+      <c r="E35" s="116" t="s">
+        <v>438</v>
+      </c>
+      <c r="L35" s="111"/>
+      <c r="M35" s="112"/>
+      <c r="N35" s="111"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C36" s="120"/>
-      <c r="D36" s="116" t="s">
-        <v>444</v>
-      </c>
-      <c r="E36" s="118" t="s">
-        <v>443</v>
-      </c>
-      <c r="L36" s="113"/>
-      <c r="M36" s="114"/>
-      <c r="N36" s="113"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="114" t="s">
+        <v>435</v>
+      </c>
+      <c r="E36" s="116" t="s">
+        <v>434</v>
+      </c>
+      <c r="L36" s="111"/>
+      <c r="M36" s="112"/>
+      <c r="N36" s="111"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C37" s="119"/>
-      <c r="D37" s="116" t="s">
-        <v>442</v>
-      </c>
-      <c r="E37" s="118" t="s">
-        <v>441</v>
-      </c>
-      <c r="L37" s="113"/>
-      <c r="M37" s="114"/>
-      <c r="N37" s="113"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="114" t="s">
+        <v>433</v>
+      </c>
+      <c r="E37" s="116" t="s">
+        <v>432</v>
+      </c>
+      <c r="L37" s="111"/>
+      <c r="M37" s="112"/>
+      <c r="N37" s="111"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C38" s="117"/>
-      <c r="D38" s="116" t="s">
-        <v>440</v>
-      </c>
-      <c r="E38" s="115" t="s">
-        <v>439</v>
-      </c>
-      <c r="L38" s="113"/>
-      <c r="M38" s="114"/>
-      <c r="N38" s="113"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="114" t="s">
+        <v>431</v>
+      </c>
+      <c r="E38" s="113" t="s">
+        <v>430</v>
+      </c>
+      <c r="L38" s="111"/>
+      <c r="M38" s="112"/>
+      <c r="N38" s="111"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="L39" s="113"/>
-      <c r="M39" s="114"/>
-      <c r="N39" s="113"/>
+      <c r="L39" s="111"/>
+      <c r="M39" s="112"/>
+      <c r="N39" s="111"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="L40" s="113"/>
-      <c r="M40" s="114"/>
-      <c r="N40" s="113"/>
+      <c r="L40" s="111"/>
+      <c r="M40" s="112"/>
+      <c r="N40" s="111"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B42" s="5" t="s">
@@ -5106,7 +5142,7 @@
         <v>10</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.4">
@@ -5117,25 +5153,25 @@
         <v>320</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.4">
@@ -5143,10 +5179,10 @@
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
         <v>(D46に関数入力)</v>
       </c>
-      <c r="D46" s="108" t="s">
+      <c r="D46" s="106" t="s">
         <v>295</v>
       </c>
-      <c r="E46" s="108" t="s">
+      <c r="E46" s="106" t="s">
         <v>14</v>
       </c>
       <c r="F46" s="26" t="s">
@@ -5159,20 +5195,20 @@
         <v>14</v>
       </c>
       <c r="I46" s="26" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="J46" s="26" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K46" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="D47" s="108" t="s">
+      <c r="D47" s="106" t="s">
         <v>295</v>
       </c>
-      <c r="E47" s="108" t="s">
+      <c r="E47" s="106" t="s">
         <v>14</v>
       </c>
       <c r="F47" s="26" t="s">
@@ -5185,20 +5221,20 @@
         <v>14</v>
       </c>
       <c r="I47" s="26" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="J47" s="26" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K47" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="D48" s="108" t="s">
+      <c r="D48" s="106" t="s">
         <v>295</v>
       </c>
-      <c r="E48" s="108" t="s">
+      <c r="E48" s="106" t="s">
         <v>14</v>
       </c>
       <c r="F48" s="26" t="s">
@@ -5211,10 +5247,10 @@
         <v>14</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="J48" s="26" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K48" s="26" t="s">
         <v>14</v>
@@ -5222,7 +5258,7 @@
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D49" s="26"/>
-      <c r="E49" s="108"/>
+      <c r="E49" s="106"/>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
       <c r="H49" s="26"/>
@@ -5232,7 +5268,7 @@
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D50" s="26"/>
-      <c r="E50" s="108"/>
+      <c r="E50" s="106"/>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
       <c r="H50" s="26"/>
@@ -5277,17 +5313,17 @@
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -5329,11 +5365,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="101" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -5341,10 +5377,10 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="104" t="s">
-        <v>490</v>
-      </c>
-      <c r="D3" s="106"/>
+      <c r="C3" s="102" t="s">
+        <v>481</v>
+      </c>
+      <c r="D3" s="104"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
@@ -5354,7 +5390,7 @@
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="F6" s="29"/>
     </row>
@@ -5363,7 +5399,7 @@
       <c r="C7" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D7" s="126"/>
+      <c r="D7" s="124"/>
       <c r="E7" s="27"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
@@ -5371,7 +5407,7 @@
       <c r="C8" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="125"/>
+      <c r="D8" s="123"/>
       <c r="E8" s="28"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
@@ -5388,7 +5424,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
@@ -5399,7 +5435,7 @@
         <v>320</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
@@ -5407,32 +5443,32 @@
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
         <v>(D14に関数入力)</v>
       </c>
-      <c r="D14" s="108" t="s">
+      <c r="D14" s="106" t="s">
         <v>295</v>
       </c>
-      <c r="E14" s="108" t="s">
+      <c r="E14" s="106" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D15" s="26"/>
-      <c r="E15" s="108"/>
+      <c r="E15" s="106"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D16" s="26"/>
-      <c r="E16" s="108"/>
+      <c r="E16" s="106"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D17" s="26"/>
-      <c r="E17" s="108"/>
+      <c r="E17" s="106"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D18" s="26"/>
-      <c r="E18" s="108"/>
+      <c r="E18" s="106"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D19" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.4">
@@ -5446,12 +5482,12 @@
       <c r="K20" s="46"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C21" s="124"/>
-      <c r="D21" s="127" t="s">
-        <v>482</v>
-      </c>
-      <c r="E21" s="127" t="s">
-        <v>481</v>
+      <c r="C21" s="122"/>
+      <c r="D21" s="125" t="s">
+        <v>473</v>
+      </c>
+      <c r="E21" s="125" t="s">
+        <v>472</v>
       </c>
       <c r="F21" s="46"/>
       <c r="G21" s="46"/>
@@ -5461,41 +5497,41 @@
       <c r="K21" s="46"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C22" s="123" t="s">
-        <v>502</v>
-      </c>
-      <c r="D22" s="116" t="s">
-        <v>468</v>
-      </c>
-      <c r="E22" s="118" t="s">
-        <v>472</v>
+      <c r="C22" s="121" t="s">
+        <v>493</v>
+      </c>
+      <c r="D22" s="114" t="s">
+        <v>459</v>
+      </c>
+      <c r="E22" s="116" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C23" s="120"/>
-      <c r="D23" s="116" t="s">
-        <v>458</v>
-      </c>
-      <c r="E23" s="118" t="s">
-        <v>466</v>
+      <c r="C23" s="118"/>
+      <c r="D23" s="114" t="s">
+        <v>449</v>
+      </c>
+      <c r="E23" s="116" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C24" s="120"/>
-      <c r="D24" s="116" t="s">
-        <v>452</v>
-      </c>
-      <c r="E24" s="118" t="s">
-        <v>459</v>
+      <c r="C24" s="118"/>
+      <c r="D24" s="114" t="s">
+        <v>443</v>
+      </c>
+      <c r="E24" s="116" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C25" s="121"/>
-      <c r="D25" s="116" t="s">
-        <v>448</v>
-      </c>
-      <c r="E25" s="115" t="s">
-        <v>456</v>
+      <c r="C25" s="119"/>
+      <c r="D25" s="114" t="s">
+        <v>439</v>
+      </c>
+      <c r="E25" s="113" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.4">
@@ -5546,11 +5582,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="101" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
@@ -5559,11 +5595,11 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="104" t="s">
-        <v>499</v>
-      </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="106"/>
+      <c r="C3" s="102" t="s">
+        <v>490</v>
+      </c>
+      <c r="D3" s="103"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
@@ -5573,13 +5609,13 @@
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="F6" s="29"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
-      <c r="C7" s="126"/>
+      <c r="C7" s="124"/>
       <c r="D7" s="27"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
@@ -5596,30 +5632,30 @@
         <v>10</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="103" t="s">
-        <v>497</v>
-      </c>
-      <c r="E11" s="103" t="s">
-        <v>496</v>
-      </c>
-      <c r="F11" s="103" t="s">
-        <v>495</v>
-      </c>
-      <c r="G11" s="103" t="s">
-        <v>494</v>
-      </c>
-      <c r="H11" s="103" t="s">
-        <v>493</v>
+      <c r="D11" s="101" t="s">
+        <v>488</v>
+      </c>
+      <c r="E11" s="101" t="s">
+        <v>487</v>
+      </c>
+      <c r="F11" s="101" t="s">
+        <v>486</v>
+      </c>
+      <c r="G11" s="101" t="s">
+        <v>485</v>
+      </c>
+      <c r="H11" s="101" t="s">
+        <v>484</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
@@ -5627,56 +5663,56 @@
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
         <v>(D12に関数入力)</v>
       </c>
-      <c r="D12" s="108" t="s">
+      <c r="D12" s="106" t="s">
         <v>295</v>
       </c>
-      <c r="E12" s="108" t="s">
+      <c r="E12" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="108" t="s">
+      <c r="F12" s="106" t="s">
         <v>295</v>
       </c>
-      <c r="G12" s="108" t="s">
+      <c r="G12" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="108" t="s">
+      <c r="H12" s="106" t="s">
         <v>295</v>
       </c>
-      <c r="I12" s="108" t="s">
+      <c r="I12" s="106" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D13" s="26"/>
-      <c r="E13" s="108"/>
+      <c r="E13" s="106"/>
       <c r="F13" s="26"/>
-      <c r="G13" s="108"/>
+      <c r="G13" s="106"/>
       <c r="H13" s="26"/>
-      <c r="I13" s="108"/>
+      <c r="I13" s="106"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D14" s="26"/>
-      <c r="E14" s="108"/>
+      <c r="E14" s="106"/>
       <c r="F14" s="26"/>
-      <c r="G14" s="108"/>
+      <c r="G14" s="106"/>
       <c r="H14" s="26"/>
-      <c r="I14" s="108"/>
+      <c r="I14" s="106"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D15" s="26"/>
-      <c r="E15" s="108"/>
+      <c r="E15" s="106"/>
       <c r="F15" s="26"/>
-      <c r="G15" s="108"/>
+      <c r="G15" s="106"/>
       <c r="H15" s="26"/>
-      <c r="I15" s="108"/>
+      <c r="I15" s="106"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D16" s="26"/>
-      <c r="E16" s="108"/>
+      <c r="E16" s="106"/>
       <c r="F16" s="26"/>
-      <c r="G16" s="108"/>
+      <c r="G16" s="106"/>
       <c r="H16" s="26"/>
-      <c r="I16" s="108"/>
+      <c r="I16" s="106"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D17" s="46"/>
@@ -5712,7 +5748,7 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B21" s="112"/>
+      <c r="B21" s="110"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -5729,39 +5765,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9" style="136"/>
-    <col min="3" max="3" width="19.125" style="136" customWidth="1"/>
-    <col min="4" max="4" width="18" style="136" customWidth="1"/>
-    <col min="5" max="14" width="21" style="136" customWidth="1"/>
-    <col min="15" max="16" width="22.25" style="136" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="136"/>
+    <col min="1" max="2" width="9" style="134"/>
+    <col min="3" max="3" width="19.125" style="134" customWidth="1"/>
+    <col min="4" max="4" width="18" style="134" customWidth="1"/>
+    <col min="5" max="14" width="21" style="134" customWidth="1"/>
+    <col min="15" max="16" width="22.25" style="134" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="134"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="132" t="s">
-        <v>533</v>
-      </c>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
+      <c r="C2" s="130" t="s">
+        <v>524</v>
+      </c>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="132" t="s">
-        <v>523</v>
-      </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
+      <c r="C3" s="130" t="s">
+        <v>514</v>
+      </c>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
@@ -5769,17 +5805,17 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="C6" s="138" t="s">
-        <v>524</v>
+      <c r="C6" s="136" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="C7" s="139" t="s">
+      <c r="C7" s="137" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="C8" s="140" t="s">
+      <c r="C8" s="138" t="s">
         <v>295</v>
       </c>
     </row>
@@ -5787,273 +5823,273 @@
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="C12" s="142" t="s">
+      <c r="C12" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="143" t="s">
-        <v>535</v>
+      <c r="D12" s="141" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="C13" s="135"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="147" t="s">
-        <v>536</v>
-      </c>
-      <c r="H13" s="146"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="146"/>
-      <c r="K13" s="146"/>
-      <c r="L13" s="146"/>
-      <c r="M13" s="147" t="s">
-        <v>537</v>
-      </c>
-      <c r="N13" s="148"/>
-      <c r="O13" s="160"/>
-      <c r="P13" s="160"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="145" t="s">
+        <v>527</v>
+      </c>
+      <c r="H13" s="144"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="144"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="145" t="s">
+        <v>528</v>
+      </c>
+      <c r="N13" s="146"/>
+      <c r="O13" s="158"/>
+      <c r="P13" s="158"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="C14" s="149" t="s">
+      <c r="C14" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="150" t="s">
+      <c r="D14" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="159" t="s">
-        <v>525</v>
-      </c>
-      <c r="F14" s="159" t="s">
-        <v>529</v>
-      </c>
-      <c r="G14" s="159" t="s">
-        <v>531</v>
-      </c>
-      <c r="H14" s="159" t="s">
-        <v>532</v>
-      </c>
-      <c r="I14" s="159" t="s">
-        <v>543</v>
-      </c>
-      <c r="J14" s="159" t="s">
-        <v>525</v>
-      </c>
-      <c r="K14" s="159" t="s">
-        <v>529</v>
-      </c>
-      <c r="L14" s="159" t="s">
-        <v>531</v>
-      </c>
-      <c r="M14" s="159" t="s">
-        <v>532</v>
-      </c>
-      <c r="N14" s="159" t="s">
-        <v>543</v>
+      <c r="E14" s="157" t="s">
+        <v>516</v>
+      </c>
+      <c r="F14" s="157" t="s">
+        <v>520</v>
+      </c>
+      <c r="G14" s="157" t="s">
+        <v>522</v>
+      </c>
+      <c r="H14" s="157" t="s">
+        <v>523</v>
+      </c>
+      <c r="I14" s="157" t="s">
+        <v>534</v>
+      </c>
+      <c r="J14" s="157" t="s">
+        <v>516</v>
+      </c>
+      <c r="K14" s="157" t="s">
+        <v>520</v>
+      </c>
+      <c r="L14" s="157" t="s">
+        <v>522</v>
+      </c>
+      <c r="M14" s="157" t="s">
+        <v>523</v>
+      </c>
+      <c r="N14" s="157" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="C15" s="135" t="str">
+      <c r="C15" s="133" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
         <v>(D15に関数入力)</v>
       </c>
-      <c r="D15" s="151" t="s">
-        <v>534</v>
-      </c>
-      <c r="E15" s="151" t="s">
+      <c r="D15" s="149" t="s">
+        <v>525</v>
+      </c>
+      <c r="E15" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="151" t="s">
+      <c r="F15" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="151" t="s">
+      <c r="G15" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="151" t="s">
+      <c r="H15" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="151" t="s">
+      <c r="I15" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="151" t="s">
+      <c r="J15" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="151" t="s">
+      <c r="K15" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="L15" s="151" t="s">
+      <c r="L15" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="151" t="s">
+      <c r="M15" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="N15" s="151" t="s">
+      <c r="N15" s="149" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
-      <c r="M16" s="151"/>
-      <c r="N16" s="151"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="149"/>
+      <c r="K16" s="149"/>
+      <c r="L16" s="149"/>
+      <c r="M16" s="149"/>
+      <c r="N16" s="149"/>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="D17" s="151"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="151"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="151"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="151"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="149"/>
+      <c r="J17" s="149"/>
+      <c r="K17" s="149"/>
+      <c r="L17" s="149"/>
+      <c r="M17" s="149"/>
+      <c r="N17" s="149"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="151"/>
-      <c r="K18" s="151"/>
-      <c r="L18" s="151"/>
-      <c r="M18" s="151"/>
-      <c r="N18" s="151"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="149"/>
+      <c r="K18" s="149"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="149"/>
+      <c r="N18" s="149"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="D19" s="151"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="151"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="151"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="151"/>
-      <c r="M19" s="151"/>
-      <c r="N19" s="151"/>
+      <c r="D19" s="149"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="149"/>
+      <c r="G19" s="149"/>
+      <c r="H19" s="149"/>
+      <c r="I19" s="149"/>
+      <c r="J19" s="149"/>
+      <c r="K19" s="149"/>
+      <c r="L19" s="149"/>
+      <c r="M19" s="149"/>
+      <c r="N19" s="149"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="D20" s="151"/>
-      <c r="E20" s="151"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="151"/>
-      <c r="K20" s="151"/>
-      <c r="L20" s="151"/>
-      <c r="M20" s="151"/>
-      <c r="N20" s="151"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="149"/>
+      <c r="K20" s="149"/>
+      <c r="L20" s="149"/>
+      <c r="M20" s="149"/>
+      <c r="N20" s="149"/>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C23" s="152" t="s">
-        <v>525</v>
-      </c>
-      <c r="D23" s="153" t="s">
-        <v>526</v>
-      </c>
-      <c r="E23" s="192" t="s">
-        <v>527</v>
-      </c>
-      <c r="F23" s="193"/>
+      <c r="C23" s="150" t="s">
+        <v>516</v>
+      </c>
+      <c r="D23" s="151" t="s">
+        <v>517</v>
+      </c>
+      <c r="E23" s="203" t="s">
+        <v>518</v>
+      </c>
+      <c r="F23" s="204"/>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C24" s="163"/>
-      <c r="D24" s="155" t="s">
-        <v>548</v>
-      </c>
-      <c r="E24" s="194" t="s">
-        <v>549</v>
-      </c>
-      <c r="F24" s="194"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="153" t="s">
+        <v>539</v>
+      </c>
+      <c r="E24" s="205" t="s">
+        <v>540</v>
+      </c>
+      <c r="F24" s="205"/>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C25" s="154"/>
-      <c r="D25" s="155">
+      <c r="C25" s="152"/>
+      <c r="D25" s="153">
         <v>0</v>
       </c>
-      <c r="E25" s="195" t="s">
-        <v>550</v>
-      </c>
-      <c r="F25" s="195"/>
+      <c r="E25" s="206" t="s">
+        <v>541</v>
+      </c>
+      <c r="F25" s="206"/>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C26" s="154"/>
-      <c r="D26" s="156">
+      <c r="C26" s="152"/>
+      <c r="D26" s="154">
         <v>1</v>
       </c>
-      <c r="E26" s="196" t="s">
-        <v>551</v>
-      </c>
-      <c r="F26" s="196"/>
+      <c r="E26" s="207" t="s">
+        <v>542</v>
+      </c>
+      <c r="F26" s="207"/>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C27" s="157"/>
-      <c r="D27" s="155">
+      <c r="C27" s="155"/>
+      <c r="D27" s="153">
         <v>2</v>
       </c>
-      <c r="E27" s="195" t="s">
-        <v>552</v>
-      </c>
-      <c r="F27" s="195"/>
+      <c r="E27" s="206" t="s">
+        <v>543</v>
+      </c>
+      <c r="F27" s="206"/>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="D29" s="161" t="s">
-        <v>542</v>
-      </c>
-      <c r="E29" s="136" t="s">
+      <c r="D29" s="159" t="s">
+        <v>533</v>
+      </c>
+      <c r="E29" s="134" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="D30" s="160"/>
+      <c r="E30" s="134" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="E31" s="134" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="E32" s="134" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D33" s="160" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="D30" s="162"/>
-      <c r="E30" s="136" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="E31" s="136" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="E32" s="136" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D33" s="162" t="s">
-        <v>547</v>
-      </c>
-      <c r="E33" s="136" t="s">
-        <v>544</v>
+      <c r="E33" s="134" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D34" s="162" t="s">
-        <v>545</v>
-      </c>
-      <c r="E34" s="136" t="s">
-        <v>546</v>
+      <c r="D34" s="160" t="s">
+        <v>536</v>
+      </c>
+      <c r="E34" s="134" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D40" s="158"/>
+      <c r="D40" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6759,12 +6795,12 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>40</v>
@@ -6774,10 +6810,10 @@
       </c>
     </row>
     <row r="40" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C40" s="128" t="s">
-        <v>407</v>
-      </c>
-      <c r="D40" s="129">
+      <c r="C40" s="126" t="s">
+        <v>398</v>
+      </c>
+      <c r="D40" s="127">
         <v>300</v>
       </c>
     </row>
@@ -9214,13 +9250,13 @@
     </row>
     <row r="35" spans="1:89" x14ac:dyDescent="0.4">
       <c r="C35" s="35" t="s">
-        <v>505</v>
-      </c>
-      <c r="D35" s="130">
+        <v>496</v>
+      </c>
+      <c r="D35" s="128">
         <v>0</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
@@ -9309,7 +9345,7 @@
     </row>
     <row r="36" spans="1:89" x14ac:dyDescent="0.4">
       <c r="C36" s="35"/>
-      <c r="D36" s="130">
+      <c r="D36" s="128">
         <v>1</v>
       </c>
       <c r="E36" s="35" t="s">
@@ -9318,101 +9354,101 @@
     </row>
     <row r="37" spans="1:89" x14ac:dyDescent="0.4">
       <c r="C37" s="35"/>
-      <c r="D37" s="130">
+      <c r="D37" s="128">
         <v>101</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="38" spans="1:89" x14ac:dyDescent="0.4">
       <c r="C38" s="35"/>
-      <c r="D38" s="130">
+      <c r="D38" s="128">
         <v>103</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
     </row>
     <row r="39" spans="1:89" x14ac:dyDescent="0.4">
       <c r="C39" s="35"/>
-      <c r="D39" s="130">
+      <c r="D39" s="128">
         <v>107</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="40" spans="1:89" x14ac:dyDescent="0.4">
       <c r="C40" s="35"/>
-      <c r="D40" s="130">
+      <c r="D40" s="128">
         <v>121</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="41" spans="1:89" x14ac:dyDescent="0.4">
       <c r="C41" s="35"/>
-      <c r="D41" s="130">
+      <c r="D41" s="128">
         <v>144</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="42" spans="1:89" x14ac:dyDescent="0.4">
       <c r="C42" s="35"/>
-      <c r="D42" s="130">
+      <c r="D42" s="128">
         <v>145</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
     </row>
     <row r="43" spans="1:89" x14ac:dyDescent="0.4">
       <c r="C43" s="35"/>
-      <c r="D43" s="130">
+      <c r="D43" s="128">
         <v>154</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="44" spans="1:89" x14ac:dyDescent="0.4">
       <c r="C44" s="35"/>
-      <c r="D44" s="130">
+      <c r="D44" s="128">
         <v>155</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
     </row>
     <row r="45" spans="1:89" x14ac:dyDescent="0.4">
       <c r="C45" s="35"/>
-      <c r="D45" s="130">
+      <c r="D45" s="128">
         <v>171</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="46" spans="1:89" x14ac:dyDescent="0.4">
       <c r="C46" s="35"/>
-      <c r="D46" s="130">
+      <c r="D46" s="128">
         <v>901</v>
       </c>
       <c r="E46" s="35" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="47" spans="1:89" x14ac:dyDescent="0.4">
       <c r="C47" s="7"/>
-      <c r="D47" s="131">
+      <c r="D47" s="129">
         <v>907</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -9492,8 +9528,8 @@
       <c r="D7" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="E7" s="100" t="s">
-        <v>389</v>
+      <c r="E7" s="98" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
@@ -9519,10 +9555,10 @@
         <v>268</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
@@ -9539,7 +9575,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
@@ -9556,7 +9592,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
@@ -9568,7 +9604,7 @@
         <v>196</v>
       </c>
       <c r="H13" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
@@ -9625,7 +9661,7 @@
         <v>198</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.4">
@@ -9827,7 +9863,7 @@
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="B28" s="101" t="s">
+      <c r="B28" s="99" t="s">
         <v>311</v>
       </c>
     </row>
@@ -10000,89 +10036,89 @@
       <c r="C11" s="72" t="s">
         <v>305</v>
       </c>
-      <c r="D11" s="172" t="s">
+      <c r="D11" s="174" t="s">
         <v>299</v>
       </c>
-      <c r="E11" s="173"/>
-      <c r="F11" s="172" t="s">
+      <c r="E11" s="175"/>
+      <c r="F11" s="174" t="s">
         <v>300</v>
       </c>
-      <c r="G11" s="173"/>
+      <c r="G11" s="175"/>
       <c r="L11" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B12" s="188" t="s">
+      <c r="B12" s="190" t="s">
         <v>279</v>
       </c>
       <c r="C12" s="48">
         <v>0</v>
       </c>
-      <c r="D12" s="184" t="s">
+      <c r="D12" s="186" t="s">
         <v>203</v>
       </c>
-      <c r="E12" s="185"/>
-      <c r="F12" s="174" t="s">
+      <c r="E12" s="187"/>
+      <c r="F12" s="176" t="s">
         <v>301</v>
       </c>
-      <c r="G12" s="175"/>
+      <c r="G12" s="177"/>
       <c r="L12" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B13" s="188"/>
+      <c r="B13" s="190"/>
       <c r="C13" s="48">
         <v>1</v>
       </c>
-      <c r="D13" s="184" t="s">
+      <c r="D13" s="186" t="s">
         <v>202</v>
       </c>
-      <c r="E13" s="185"/>
-      <c r="F13" s="176" t="s">
+      <c r="E13" s="187"/>
+      <c r="F13" s="178" t="s">
         <v>308</v>
       </c>
-      <c r="G13" s="177"/>
+      <c r="G13" s="179"/>
       <c r="L13" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B14" s="188"/>
+      <c r="B14" s="190"/>
       <c r="C14" s="48">
         <v>2</v>
       </c>
-      <c r="D14" s="184" t="s">
+      <c r="D14" s="186" t="s">
         <v>201</v>
       </c>
-      <c r="E14" s="185"/>
-      <c r="F14" s="176"/>
-      <c r="G14" s="177"/>
+      <c r="E14" s="187"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="179"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B15" s="188"/>
+      <c r="B15" s="190"/>
       <c r="C15" s="49">
         <v>3</v>
       </c>
-      <c r="D15" s="184" t="s">
+      <c r="D15" s="186" t="s">
         <v>266</v>
       </c>
-      <c r="E15" s="185"/>
-      <c r="F15" s="176"/>
-      <c r="G15" s="177"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="179"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B16" s="188"/>
+      <c r="B16" s="190"/>
       <c r="C16" s="49">
         <v>4</v>
       </c>
-      <c r="D16" s="184" t="s">
+      <c r="D16" s="186" t="s">
         <v>267</v>
       </c>
-      <c r="E16" s="185"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="179"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="181"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="65" t="s">
@@ -10137,30 +10173,30 @@
       <c r="G20" s="69"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="186" t="s">
+      <c r="B21" s="188" t="s">
         <v>288</v>
       </c>
       <c r="C21" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="D21" s="184" t="s">
+      <c r="D21" s="186" t="s">
         <v>306</v>
       </c>
-      <c r="E21" s="185"/>
+      <c r="E21" s="187"/>
       <c r="F21" s="73" t="s">
         <v>301</v>
       </c>
       <c r="G21" s="74"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="186"/>
+      <c r="B22" s="188"/>
       <c r="C22" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="D22" s="184" t="s">
+      <c r="D22" s="186" t="s">
         <v>307</v>
       </c>
-      <c r="E22" s="185"/>
+      <c r="E22" s="187"/>
       <c r="F22" s="75" t="s">
         <v>309</v>
       </c>
@@ -10183,130 +10219,130 @@
       <c r="G23" s="71"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="186" t="s">
+      <c r="B24" s="188" t="s">
         <v>291</v>
       </c>
       <c r="C24" s="47">
         <v>1</v>
       </c>
-      <c r="D24" s="182" t="s">
+      <c r="D24" s="184" t="s">
         <v>289</v>
       </c>
-      <c r="E24" s="183"/>
-      <c r="F24" s="180" t="s">
+      <c r="E24" s="185"/>
+      <c r="F24" s="182" t="s">
         <v>301</v>
       </c>
-      <c r="G24" s="181"/>
+      <c r="G24" s="183"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="186"/>
+      <c r="B25" s="188"/>
       <c r="C25" s="47">
         <v>2</v>
       </c>
-      <c r="D25" s="170" t="s">
+      <c r="D25" s="172" t="s">
         <v>280</v>
       </c>
-      <c r="E25" s="171"/>
-      <c r="F25" s="164" t="s">
+      <c r="E25" s="173"/>
+      <c r="F25" s="166" t="s">
         <v>308</v>
       </c>
-      <c r="G25" s="165"/>
+      <c r="G25" s="167"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B26" s="186"/>
+      <c r="B26" s="188"/>
       <c r="C26" s="47">
         <v>3</v>
       </c>
-      <c r="D26" s="170" t="s">
+      <c r="D26" s="172" t="s">
         <v>281</v>
       </c>
-      <c r="E26" s="171"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="165"/>
+      <c r="E26" s="173"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="167"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="186"/>
+      <c r="B27" s="188"/>
       <c r="C27" s="47">
         <v>4</v>
       </c>
-      <c r="D27" s="170" t="s">
+      <c r="D27" s="172" t="s">
         <v>282</v>
       </c>
-      <c r="E27" s="171"/>
-      <c r="F27" s="164"/>
-      <c r="G27" s="165"/>
+      <c r="E27" s="173"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="167"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B28" s="186"/>
+      <c r="B28" s="188"/>
       <c r="C28" s="47">
         <v>5</v>
       </c>
-      <c r="D28" s="170" t="s">
+      <c r="D28" s="172" t="s">
         <v>283</v>
       </c>
-      <c r="E28" s="171"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="169"/>
+      <c r="E28" s="173"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="171"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B29" s="186" t="s">
+      <c r="B29" s="188" t="s">
         <v>292</v>
       </c>
       <c r="C29" s="47">
         <v>1</v>
       </c>
-      <c r="D29" s="182" t="s">
+      <c r="D29" s="184" t="s">
         <v>290</v>
       </c>
-      <c r="E29" s="183"/>
-      <c r="F29" s="180" t="s">
+      <c r="E29" s="185"/>
+      <c r="F29" s="182" t="s">
         <v>301</v>
       </c>
-      <c r="G29" s="181"/>
+      <c r="G29" s="183"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="186"/>
+      <c r="B30" s="188"/>
       <c r="C30" s="47">
         <v>2</v>
       </c>
-      <c r="D30" s="170" t="s">
+      <c r="D30" s="172" t="s">
         <v>284</v>
       </c>
-      <c r="E30" s="171"/>
-      <c r="F30" s="164" t="s">
+      <c r="E30" s="173"/>
+      <c r="F30" s="166" t="s">
         <v>308</v>
       </c>
-      <c r="G30" s="165"/>
+      <c r="G30" s="167"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="187" t="s">
+      <c r="B31" s="189" t="s">
         <v>293</v>
       </c>
       <c r="C31" s="47">
         <v>2</v>
       </c>
-      <c r="D31" s="170" t="s">
+      <c r="D31" s="172" t="s">
         <v>285</v>
       </c>
-      <c r="E31" s="171"/>
-      <c r="F31" s="166" t="s">
+      <c r="E31" s="173"/>
+      <c r="F31" s="168" t="s">
         <v>301</v>
       </c>
-      <c r="G31" s="167"/>
+      <c r="G31" s="169"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B32" s="187"/>
+      <c r="B32" s="189"/>
       <c r="C32" s="47">
         <v>3</v>
       </c>
-      <c r="D32" s="170" t="s">
+      <c r="D32" s="172" t="s">
         <v>286</v>
       </c>
-      <c r="E32" s="171"/>
-      <c r="F32" s="168" t="s">
+      <c r="E32" s="173"/>
+      <c r="F32" s="170" t="s">
         <v>308</v>
       </c>
-      <c r="G32" s="169"/>
+      <c r="G32" s="171"/>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.4">
       <c r="B33" s="6"/>
@@ -10411,7 +10447,7 @@
         <v>129</v>
       </c>
       <c r="W39" s="8" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="X39" s="8" t="s">
         <v>130</v>
@@ -10520,7 +10556,7 @@
         <v>85</v>
       </c>
       <c r="W40" s="7" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="X40" s="7" t="s">
         <v>85</v>
@@ -10820,7 +10856,7 @@
         <v>85</v>
       </c>
       <c r="W44" s="7" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="X44" s="7" t="s">
         <v>85</v>
@@ -21308,11 +21344,11 @@
       <c r="D7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="102" t="s">
+      <c r="E7" s="100" t="s">
         <v>292</v>
       </c>
-      <c r="F7" s="102" t="s">
-        <v>389</v>
+      <c r="F7" s="100" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
@@ -21341,13 +21377,13 @@
         <v>292</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
@@ -21361,13 +21397,13 @@
         <v>1</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="I11" s="26" t="b">
         <v>1</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
@@ -21387,7 +21423,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
@@ -21398,7 +21434,7 @@
         <v>201</v>
       </c>
       <c r="J13" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
@@ -21431,7 +21467,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.4">
@@ -21745,7 +21781,7 @@
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="B28" s="101" t="s">
+      <c r="B28" s="99" t="s">
         <v>311</v>
       </c>
     </row>
@@ -22134,7 +22170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -22160,40 +22196,40 @@
     <col min="25" max="16384" width="9" style="82"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="79" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="D2" s="80"/>
       <c r="E2" s="80"/>
       <c r="F2" s="81"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D3" s="80"/>
       <c r="E3" s="80"/>
       <c r="F3" s="81"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B5" s="83" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B6" s="84"/>
       <c r="C6" s="84" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B7" s="84"/>
       <c r="C7" s="42" t="s">
         <v>312</v>
@@ -22202,37 +22238,37 @@
         <v>313</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B8" s="84"/>
-      <c r="C8" s="98">
+      <c r="C8" s="97">
         <v>1</v>
       </c>
-      <c r="D8" s="98" t="s">
+      <c r="D8" s="97" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C10" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="D10" s="189" t="s">
+      <c r="D10" s="191" t="s">
         <v>268</v>
       </c>
-      <c r="E10" s="190"/>
+      <c r="E10" s="192"/>
       <c r="H10" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="I10" s="189" t="s">
+      <c r="I10" s="191" t="s">
         <v>268</v>
       </c>
-      <c r="J10" s="190"/>
-      <c r="K10" s="191" t="s">
+      <c r="J10" s="192"/>
+      <c r="K10" s="193" t="s">
         <v>300</v>
       </c>
-      <c r="L10" s="191"/>
-      <c r="M10" s="191"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="L10" s="193"/>
+      <c r="M10" s="193"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B11" s="90" t="s">
         <v>315</v>
       </c>
@@ -22246,18 +22282,20 @@
       <c r="G11" s="96" t="s">
         <v>316</v>
       </c>
-      <c r="H11" s="97" t="s">
+      <c r="H11" s="163" t="s">
         <v>314</v>
       </c>
       <c r="I11" s="92" t="s">
         <v>368</v>
       </c>
       <c r="J11" s="81"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="81"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="K11" s="194" t="s">
+        <v>550</v>
+      </c>
+      <c r="L11" s="195"/>
+      <c r="M11" s="196"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B12" s="93"/>
       <c r="C12" s="91">
         <v>2</v>
@@ -22267,18 +22305,18 @@
       </c>
       <c r="E12" s="81"/>
       <c r="G12" s="94"/>
-      <c r="H12" s="97" t="s">
+      <c r="H12" s="163" t="s">
         <v>369</v>
       </c>
       <c r="I12" s="92" t="s">
         <v>370</v>
       </c>
       <c r="J12" s="81"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="81"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="K12" s="197"/>
+      <c r="L12" s="198"/>
+      <c r="M12" s="199"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B13" s="93"/>
       <c r="C13" s="91">
         <v>3</v>
@@ -22288,20 +22326,19 @@
       </c>
       <c r="E13" s="81"/>
       <c r="G13" s="94"/>
-      <c r="H13" s="97" t="s">
-        <v>371</v>
-      </c>
-      <c r="I13" s="92" t="s">
-        <v>372</v>
+      <c r="H13" s="164" t="s">
+        <v>544</v>
+      </c>
+      <c r="I13" s="165" t="s">
+        <v>547</v>
       </c>
       <c r="J13" s="81"/>
-      <c r="K13" s="99" t="s">
-        <v>388</v>
-      </c>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="K13" s="197"/>
+      <c r="L13" s="198"/>
+      <c r="M13" s="199"/>
+      <c r="N13" s="162"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B14" s="93"/>
       <c r="C14" s="91">
         <v>4</v>
@@ -22311,20 +22348,19 @@
       </c>
       <c r="E14" s="81"/>
       <c r="G14" s="94"/>
-      <c r="H14" s="97" t="s">
-        <v>373</v>
-      </c>
-      <c r="I14" s="92" t="s">
-        <v>374</v>
+      <c r="H14" s="164" t="s">
+        <v>545</v>
+      </c>
+      <c r="I14" s="165" t="s">
+        <v>548</v>
       </c>
       <c r="J14" s="81"/>
-      <c r="K14" s="99" t="s">
-        <v>388</v>
-      </c>
-      <c r="L14" s="80"/>
-      <c r="M14" s="81"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="K14" s="197"/>
+      <c r="L14" s="198"/>
+      <c r="M14" s="199"/>
+      <c r="N14" s="162"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B15" s="93"/>
       <c r="C15" s="91">
         <v>5</v>
@@ -22334,18 +22370,19 @@
       </c>
       <c r="E15" s="81"/>
       <c r="G15" s="94"/>
-      <c r="H15" s="97" t="s">
-        <v>375</v>
-      </c>
-      <c r="I15" s="92" t="s">
-        <v>376</v>
+      <c r="H15" s="164" t="s">
+        <v>546</v>
+      </c>
+      <c r="I15" s="165" t="s">
+        <v>549</v>
       </c>
       <c r="J15" s="81"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="K15" s="197"/>
+      <c r="L15" s="198"/>
+      <c r="M15" s="199"/>
+      <c r="N15" s="162"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B16" s="93"/>
       <c r="C16" s="91">
         <v>6</v>
@@ -22355,16 +22392,16 @@
       </c>
       <c r="E16" s="81"/>
       <c r="G16" s="94"/>
-      <c r="H16" s="97" t="s">
-        <v>377</v>
+      <c r="H16" s="163" t="s">
+        <v>371</v>
       </c>
       <c r="I16" s="92" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="J16" s="81"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
+      <c r="K16" s="197"/>
+      <c r="L16" s="198"/>
+      <c r="M16" s="199"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B17" s="93"/>
@@ -22376,16 +22413,16 @@
       </c>
       <c r="E17" s="81"/>
       <c r="G17" s="94"/>
-      <c r="H17" s="97" t="s">
-        <v>379</v>
+      <c r="H17" s="163" t="s">
+        <v>373</v>
       </c>
       <c r="I17" s="92" t="s">
-        <v>380</v>
+        <v>196</v>
       </c>
       <c r="J17" s="81"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
+      <c r="K17" s="197"/>
+      <c r="L17" s="198"/>
+      <c r="M17" s="199"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B18" s="93"/>
@@ -22396,17 +22433,17 @@
         <v>360</v>
       </c>
       <c r="E18" s="81"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="97" t="s">
-        <v>381</v>
+      <c r="G18" s="95"/>
+      <c r="H18" s="163" t="s">
+        <v>374</v>
       </c>
       <c r="I18" s="92" t="s">
-        <v>196</v>
+        <v>375</v>
       </c>
       <c r="J18" s="81"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
+      <c r="K18" s="200"/>
+      <c r="L18" s="201"/>
+      <c r="M18" s="202"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B19" s="94"/>
@@ -22417,17 +22454,7 @@
         <v>361</v>
       </c>
       <c r="E19" s="81"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="97" t="s">
-        <v>382</v>
-      </c>
-      <c r="I19" s="92" t="s">
-        <v>383</v>
-      </c>
-      <c r="J19" s="81"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81"/>
+      <c r="G19" s="88"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B20" s="94"/>
@@ -22502,7 +22529,7 @@
         <v>198</v>
       </c>
       <c r="D30" s="89" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.4">
@@ -23619,20 +23646,22 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:M18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
       <formula1>$C$11:$C$25</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
-      <formula1>$H$11:$H$19</formula1>
+      <formula1>$H$11:$H$18</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sample/ExcelMacro/kabuSTATION_API_function_sample.xlsx
+++ b/sample/ExcelMacro/kabuSTATION_API_function_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DWTCL161\lu-①\kabuSTATION\ver5.19.1_オートスイープ\リリース物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tw.hosokawa\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C529838-41F3-42E6-9A6F-F2986FE2EA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718A666F-301F-468A-93D6-4C6AD99187E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="0" windowWidth="38325" windowHeight="21000" tabRatio="654" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="787" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="注文取消" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,17 @@
     <sheet name="注文約定照会" sheetId="5" r:id="rId5"/>
     <sheet name="残高照会" sheetId="14" r:id="rId6"/>
     <sheet name="先物銘柄コード取得" sheetId="10" r:id="rId7"/>
-    <sheet name="オプション銘柄コード取得" sheetId="11" r:id="rId8"/>
-    <sheet name="詳細ランキング" sheetId="12" r:id="rId9"/>
-    <sheet name="為替情報" sheetId="15" r:id="rId10"/>
-    <sheet name="規制情報" sheetId="16" r:id="rId11"/>
-    <sheet name="優先市場" sheetId="17" r:id="rId12"/>
-    <sheet name="ソフトリミット" sheetId="18" r:id="rId13"/>
-    <sheet name="プレミアム料取得" sheetId="19" r:id="rId14"/>
-    <sheet name="銘柄登録" sheetId="7" r:id="rId15"/>
-    <sheet name="銘柄登録解除" sheetId="8" r:id="rId16"/>
-    <sheet name="銘柄登録全解除" sheetId="9" r:id="rId17"/>
+    <sheet name="オプション,ミニオプション(限月)銘柄コード取得" sheetId="11" r:id="rId8"/>
+    <sheet name="ミニオプション(限週)銘柄コード取得" sheetId="20" r:id="rId9"/>
+    <sheet name="詳細ランキング" sheetId="12" r:id="rId10"/>
+    <sheet name="為替情報" sheetId="15" r:id="rId11"/>
+    <sheet name="規制情報" sheetId="16" r:id="rId12"/>
+    <sheet name="優先市場" sheetId="17" r:id="rId13"/>
+    <sheet name="ソフトリミット" sheetId="18" r:id="rId14"/>
+    <sheet name="プレミアム料取得" sheetId="19" r:id="rId15"/>
+    <sheet name="銘柄登録" sheetId="7" r:id="rId16"/>
+    <sheet name="銘柄登録解除" sheetId="8" r:id="rId17"/>
+    <sheet name="銘柄登録全解除" sheetId="9" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">注文約定照会!$B$5:$J$8</definedName>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="578">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -2727,10 +2728,6 @@
     <t>例：</t>
   </si>
   <si>
-    <t>SecurityType</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>指数</t>
   </si>
   <si>
@@ -3095,6 +3092,120 @@
     <rPh sb="11" eb="13">
       <t>ムコウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NK225micro</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日経225マイクロ先物</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オプションコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オプションコード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NK225op</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日経225オプション</t>
+    <rPh sb="0" eb="2">
+      <t>ニッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NK225miniop</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日経225ミニオプション</t>
+    <rPh sb="0" eb="2">
+      <t>ニッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NK225op</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>先物マイクロのワンショット上限（枚）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オプションミニのワンショット上限（枚）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>限週</t>
+    <rPh sb="0" eb="1">
+      <t>ゲンゲツ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SYMBOLNAME.MINIOPTIONWEEKLY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>=SYMBOLNAME.MINIOPTIONWEEKLY(C8,D8,E8,F8)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>138227226</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日経平均ミニオプション 23/06 1週限 プット 27250</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミニオプション(限週)銘柄コードを取得する</t>
+    <rPh sb="11" eb="13">
+      <t>メイガラ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オプション、ミニオプション(限月)銘柄コードを取得する</t>
+    <rPh sb="17" eb="19">
+      <t>メイガラ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日経225ミニOP</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>銘柄種別</t>
+    <rPh sb="0" eb="2">
+      <t>メイガラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>=SYMBOLNAME.OPTION(C8,D8,E8,F8)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3873,6 +3984,12 @@
     <xf numFmtId="49" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3998,12 +4115,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4453,6 +4564,1480 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="B2:T64"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="7.875" style="43" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="43" customWidth="1"/>
+    <col min="3" max="3" width="17" style="43" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="43" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="43" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="43" customWidth="1"/>
+    <col min="7" max="7" width="12" style="43" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="43" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="43" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="43" customWidth="1"/>
+    <col min="11" max="11" width="19.75" style="43" customWidth="1"/>
+    <col min="12" max="12" width="16.875" style="43" customWidth="1"/>
+    <col min="13" max="13" width="20.625" style="43" customWidth="1"/>
+    <col min="14" max="14" width="14.75" style="43" customWidth="1"/>
+    <col min="15" max="15" width="10.375" style="43" customWidth="1"/>
+    <col min="16" max="16" width="13.875" style="43" customWidth="1"/>
+    <col min="17" max="17" width="10.375" style="43" customWidth="1"/>
+    <col min="18" max="18" width="12.625" style="43" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="10.375" style="43" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="72" t="s">
+        <v>376</v>
+      </c>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="72" t="s">
+        <v>377</v>
+      </c>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="74"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B5" s="75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B6" s="44"/>
+      <c r="C6" s="44" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B7" s="44"/>
+      <c r="C7" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B8" s="44"/>
+      <c r="C8" s="87">
+        <v>1</v>
+      </c>
+      <c r="D8" s="87" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C10" s="65" t="s">
+        <v>352</v>
+      </c>
+      <c r="D10" s="172" t="s">
+        <v>268</v>
+      </c>
+      <c r="E10" s="173"/>
+      <c r="H10" s="65" t="s">
+        <v>352</v>
+      </c>
+      <c r="I10" s="172" t="s">
+        <v>268</v>
+      </c>
+      <c r="J10" s="173"/>
+      <c r="K10" s="174" t="s">
+        <v>300</v>
+      </c>
+      <c r="L10" s="174"/>
+      <c r="M10" s="174"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B11" s="80" t="s">
+        <v>315</v>
+      </c>
+      <c r="C11" s="81">
+        <v>1</v>
+      </c>
+      <c r="D11" s="82" t="s">
+        <v>353</v>
+      </c>
+      <c r="E11" s="74"/>
+      <c r="G11" s="86" t="s">
+        <v>316</v>
+      </c>
+      <c r="H11" s="142" t="s">
+        <v>314</v>
+      </c>
+      <c r="I11" s="82" t="s">
+        <v>368</v>
+      </c>
+      <c r="J11" s="74"/>
+      <c r="K11" s="175" t="s">
+        <v>549</v>
+      </c>
+      <c r="L11" s="176"/>
+      <c r="M11" s="177"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B12" s="83"/>
+      <c r="C12" s="81">
+        <v>2</v>
+      </c>
+      <c r="D12" s="82" t="s">
+        <v>354</v>
+      </c>
+      <c r="E12" s="74"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="142" t="s">
+        <v>369</v>
+      </c>
+      <c r="I12" s="82" t="s">
+        <v>370</v>
+      </c>
+      <c r="J12" s="74"/>
+      <c r="K12" s="178"/>
+      <c r="L12" s="179"/>
+      <c r="M12" s="180"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B13" s="83"/>
+      <c r="C13" s="81">
+        <v>3</v>
+      </c>
+      <c r="D13" s="82" t="s">
+        <v>355</v>
+      </c>
+      <c r="E13" s="74"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="143" t="s">
+        <v>543</v>
+      </c>
+      <c r="I13" s="144" t="s">
+        <v>546</v>
+      </c>
+      <c r="J13" s="74"/>
+      <c r="K13" s="178"/>
+      <c r="L13" s="179"/>
+      <c r="M13" s="180"/>
+      <c r="N13" s="141"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B14" s="83"/>
+      <c r="C14" s="81">
+        <v>4</v>
+      </c>
+      <c r="D14" s="82" t="s">
+        <v>356</v>
+      </c>
+      <c r="E14" s="74"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="143" t="s">
+        <v>544</v>
+      </c>
+      <c r="I14" s="144" t="s">
+        <v>547</v>
+      </c>
+      <c r="J14" s="74"/>
+      <c r="K14" s="178"/>
+      <c r="L14" s="179"/>
+      <c r="M14" s="180"/>
+      <c r="N14" s="141"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B15" s="83"/>
+      <c r="C15" s="81">
+        <v>5</v>
+      </c>
+      <c r="D15" s="82" t="s">
+        <v>357</v>
+      </c>
+      <c r="E15" s="74"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="143" t="s">
+        <v>545</v>
+      </c>
+      <c r="I15" s="144" t="s">
+        <v>548</v>
+      </c>
+      <c r="J15" s="74"/>
+      <c r="K15" s="178"/>
+      <c r="L15" s="179"/>
+      <c r="M15" s="180"/>
+      <c r="N15" s="141"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B16" s="83"/>
+      <c r="C16" s="81">
+        <v>6</v>
+      </c>
+      <c r="D16" s="82" t="s">
+        <v>358</v>
+      </c>
+      <c r="E16" s="74"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="142" t="s">
+        <v>371</v>
+      </c>
+      <c r="I16" s="82" t="s">
+        <v>372</v>
+      </c>
+      <c r="J16" s="74"/>
+      <c r="K16" s="178"/>
+      <c r="L16" s="179"/>
+      <c r="M16" s="180"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B17" s="83"/>
+      <c r="C17" s="81">
+        <v>7</v>
+      </c>
+      <c r="D17" s="82" t="s">
+        <v>359</v>
+      </c>
+      <c r="E17" s="74"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="142" t="s">
+        <v>373</v>
+      </c>
+      <c r="I17" s="82" t="s">
+        <v>196</v>
+      </c>
+      <c r="J17" s="74"/>
+      <c r="K17" s="178"/>
+      <c r="L17" s="179"/>
+      <c r="M17" s="180"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B18" s="83"/>
+      <c r="C18" s="81">
+        <v>8</v>
+      </c>
+      <c r="D18" s="82" t="s">
+        <v>360</v>
+      </c>
+      <c r="E18" s="74"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="142" t="s">
+        <v>374</v>
+      </c>
+      <c r="I18" s="82" t="s">
+        <v>375</v>
+      </c>
+      <c r="J18" s="74"/>
+      <c r="K18" s="181"/>
+      <c r="L18" s="182"/>
+      <c r="M18" s="183"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B19" s="84"/>
+      <c r="C19" s="81">
+        <v>9</v>
+      </c>
+      <c r="D19" s="82" t="s">
+        <v>361</v>
+      </c>
+      <c r="E19" s="74"/>
+      <c r="G19" s="78"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B20" s="84"/>
+      <c r="C20" s="81">
+        <v>10</v>
+      </c>
+      <c r="D20" s="82" t="s">
+        <v>362</v>
+      </c>
+      <c r="E20" s="74"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B21" s="84"/>
+      <c r="C21" s="81">
+        <v>11</v>
+      </c>
+      <c r="D21" s="82" t="s">
+        <v>363</v>
+      </c>
+      <c r="E21" s="74"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B22" s="84"/>
+      <c r="C22" s="81">
+        <v>12</v>
+      </c>
+      <c r="D22" s="82" t="s">
+        <v>364</v>
+      </c>
+      <c r="E22" s="74"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B23" s="84"/>
+      <c r="C23" s="81">
+        <v>13</v>
+      </c>
+      <c r="D23" s="82" t="s">
+        <v>365</v>
+      </c>
+      <c r="E23" s="74"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B24" s="84"/>
+      <c r="C24" s="81">
+        <v>14</v>
+      </c>
+      <c r="D24" s="82" t="s">
+        <v>366</v>
+      </c>
+      <c r="E24" s="74"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B25" s="85"/>
+      <c r="C25" s="81">
+        <v>15</v>
+      </c>
+      <c r="D25" s="82" t="s">
+        <v>367</v>
+      </c>
+      <c r="E25" s="74"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B28" s="75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="D29" s="75"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C30" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" s="79" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C31" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="P31" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q31" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="R31" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C32" s="47" t="str">
+        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
+        <v>(D32に関数入力)</v>
+      </c>
+      <c r="D32" s="76" t="s">
+        <v>295</v>
+      </c>
+      <c r="E32" s="77" t="s">
+        <v>330</v>
+      </c>
+      <c r="F32" s="71">
+        <v>1</v>
+      </c>
+      <c r="G32" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="H32" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="I32" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="J32" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="K32" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="L32" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="M32" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="N32" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="O32" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="P32" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q32" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="R32" s="71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="F33" s="71">
+        <v>2</v>
+      </c>
+      <c r="G33" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="H33" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="I33" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="J33" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="K33" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="L33" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="M33" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="N33" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="O33" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="P33" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q33" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="R33" s="71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="F34" s="71">
+        <v>3</v>
+      </c>
+      <c r="G34" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="H34" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="I34" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="J34" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="K34" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="L34" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="M34" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="N34" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="O34" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="P34" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q34" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="R34" s="71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="K35" s="78"/>
+    </row>
+    <row r="36" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="C36" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="G36" s="78"/>
+    </row>
+    <row r="37" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="C37" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="P37" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="R37" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="S37" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="T37" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="38" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="C38" s="47" t="str">
+        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
+        <v>(D38に関数入力)</v>
+      </c>
+      <c r="D38" s="76" t="s">
+        <v>295</v>
+      </c>
+      <c r="E38" s="77" t="s">
+        <v>330</v>
+      </c>
+      <c r="F38" s="71">
+        <v>1</v>
+      </c>
+      <c r="G38" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="H38" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="I38" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="J38" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="K38" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="L38" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="M38" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="N38" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="O38" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="P38" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q38" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="R38" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="S38" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="T38" s="71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="F39" s="71">
+        <v>2</v>
+      </c>
+      <c r="G39" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="H39" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="I39" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="J39" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="K39" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="L39" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="M39" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="N39" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="O39" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="P39" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q39" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="R39" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="S39" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="T39" s="71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="F40" s="71">
+        <v>3</v>
+      </c>
+      <c r="G40" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="H40" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="I40" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="J40" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="K40" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="L40" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="M40" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="N40" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="O40" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="P40" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q40" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="R40" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="S40" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="T40" s="71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="C42" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" s="79" t="s">
+        <v>339</v>
+      </c>
+      <c r="G42" s="78"/>
+    </row>
+    <row r="43" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="C43" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="P43" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q43" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="R43" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="44" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="C44" s="47" t="str">
+        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
+        <v>(D44に関数入力)</v>
+      </c>
+      <c r="D44" s="76" t="s">
+        <v>295</v>
+      </c>
+      <c r="E44" s="77" t="s">
+        <v>330</v>
+      </c>
+      <c r="F44" s="71">
+        <v>1</v>
+      </c>
+      <c r="G44" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="H44" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="I44" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="J44" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="K44" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="L44" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="M44" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="N44" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="O44" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="P44" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q44" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="R44" s="71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="F45" s="71">
+        <v>2</v>
+      </c>
+      <c r="G45" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="H45" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="I45" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="J45" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="K45" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="L45" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="M45" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="N45" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="O45" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="P45" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q45" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="R45" s="71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="F46" s="71">
+        <v>3</v>
+      </c>
+      <c r="G46" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="H46" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="I46" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="J46" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="K46" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="L46" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="M46" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="N46" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="O46" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="P46" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q46" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="R46" s="71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="C48" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="D48" s="79" t="s">
+        <v>341</v>
+      </c>
+      <c r="G48" s="78"/>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C49" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="P49" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q49" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="R49" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C50" s="47" t="str">
+        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
+        <v>(D50に関数入力)</v>
+      </c>
+      <c r="D50" s="76" t="s">
+        <v>295</v>
+      </c>
+      <c r="E50" s="77" t="s">
+        <v>330</v>
+      </c>
+      <c r="F50" s="71">
+        <v>1</v>
+      </c>
+      <c r="G50" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="H50" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="I50" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="J50" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="K50" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="L50" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="M50" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="N50" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="O50" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="P50" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q50" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="R50" s="71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="F51" s="71">
+        <v>2</v>
+      </c>
+      <c r="G51" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="H51" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="I51" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="J51" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="K51" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="L51" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="M51" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="N51" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="O51" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="P51" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q51" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="R51" s="71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="F52" s="71">
+        <v>3</v>
+      </c>
+      <c r="G52" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="H52" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="I52" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="J52" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="K52" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="L52" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="M52" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="N52" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="O52" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="P52" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q52" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="R52" s="71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C54" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="D54" s="79" t="s">
+        <v>343</v>
+      </c>
+      <c r="E54" s="78"/>
+      <c r="G54" s="78"/>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C55" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O55" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C56" s="47" t="str">
+        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
+        <v>(D56に関数入力)</v>
+      </c>
+      <c r="D56" s="76" t="s">
+        <v>295</v>
+      </c>
+      <c r="E56" s="77" t="s">
+        <v>330</v>
+      </c>
+      <c r="F56" s="71">
+        <v>1</v>
+      </c>
+      <c r="G56" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="H56" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="I56" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="J56" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="K56" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="L56" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="M56" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="N56" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="O56" s="71" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="F57" s="71">
+        <v>2</v>
+      </c>
+      <c r="G57" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="H57" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="I57" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="J57" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="K57" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="L57" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="M57" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="N57" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="O57" s="71" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="F58" s="71">
+        <v>3</v>
+      </c>
+      <c r="G58" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="H58" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="I58" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="J58" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="K58" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="L58" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="M58" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="N58" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="O58" s="71" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C60" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="D60" s="79" t="s">
+        <v>349</v>
+      </c>
+      <c r="E60" s="78"/>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C61" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="N61" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C62" s="47" t="str">
+        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
+        <v>(D62に関数入力)</v>
+      </c>
+      <c r="D62" s="76" t="s">
+        <v>295</v>
+      </c>
+      <c r="E62" s="77" t="s">
+        <v>330</v>
+      </c>
+      <c r="F62" s="71">
+        <v>1</v>
+      </c>
+      <c r="G62" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="H62" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="I62" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="J62" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="K62" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="L62" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="M62" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="N62" s="71" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="F63" s="71">
+        <v>2</v>
+      </c>
+      <c r="G63" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="H63" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="I63" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="J63" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="K63" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="L63" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="M63" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="N63" s="71" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="F64" s="71">
+        <v>3</v>
+      </c>
+      <c r="G64" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="H64" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="I64" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="J64" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="K64" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="L64" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="M64" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="N64" s="71" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:M18"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0800-000000000000}">
+      <formula1>$C$11:$C$25</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8" xr:uid="{00000000-0002-0000-0800-000001000000}">
+      <formula1>$H$11:$H$18</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B2:I35"/>
   <sheetViews>
@@ -4740,7 +6325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B2:N58"/>
   <sheetViews>
@@ -5223,10 +6808,10 @@
         <v>423</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>422</v>
@@ -5385,7 +6970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B2:F29"/>
   <sheetViews>
@@ -5589,11 +7174,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="B2:I21"/>
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B2:K21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5601,20 +7191,21 @@
     <col min="4" max="5" width="36.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.625" customWidth="1"/>
+    <col min="9" max="10" width="40.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B2" s="91" t="s">
         <v>0</v>
       </c>
@@ -5624,7 +7215,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5634,31 +7225,31 @@
       <c r="D3" s="93"/>
       <c r="E3" s="94"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>489</v>
       </c>
       <c r="F6" s="26"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" s="5"/>
       <c r="C10" t="s">
         <v>10</v>
@@ -5667,7 +7258,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
@@ -5684,13 +7275,19 @@
         <v>485</v>
       </c>
       <c r="H11" s="91" t="s">
+        <v>566</v>
+      </c>
+      <c r="I11" s="91" t="s">
         <v>484</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="91" t="s">
+        <v>567</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C12" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
         <v>(D12に関数入力)</v>
@@ -5708,43 +7305,57 @@
         <v>14</v>
       </c>
       <c r="H12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="J12" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D13" s="23"/>
       <c r="E13" s="7"/>
       <c r="F13" s="23"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H13" s="7"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D14" s="23"/>
       <c r="E14" s="7"/>
       <c r="F14" s="23"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H14" s="7"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D15" s="23"/>
       <c r="E15" s="7"/>
       <c r="F15" s="23"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H15" s="7"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D16" s="23"/>
       <c r="E16" s="7"/>
       <c r="F16" s="23"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E17" s="6"/>
@@ -5775,11 +7386,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B2:P40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5796,7 +7407,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="114" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D2" s="115"/>
       <c r="E2" s="115"/>
@@ -5807,7 +7418,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="114" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D3" s="115"/>
       <c r="E3" s="115"/>
@@ -5820,7 +7431,7 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C6" s="119" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.4">
@@ -5845,7 +7456,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="122" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.4">
@@ -5853,7 +7464,7 @@
       <c r="E13" s="124"/>
       <c r="F13" s="125"/>
       <c r="G13" s="126" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H13" s="125"/>
       <c r="I13" s="127"/>
@@ -5861,7 +7472,7 @@
       <c r="K13" s="125"/>
       <c r="L13" s="125"/>
       <c r="M13" s="126" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N13" s="127"/>
       <c r="O13" s="123"/>
@@ -5875,34 +7486,34 @@
         <v>39</v>
       </c>
       <c r="E14" s="137" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F14" s="137" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G14" s="137" t="s">
+        <v>521</v>
+      </c>
+      <c r="H14" s="137" t="s">
         <v>522</v>
       </c>
-      <c r="H14" s="137" t="s">
-        <v>523</v>
-      </c>
       <c r="I14" s="137" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J14" s="137" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K14" s="137" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L14" s="137" t="s">
+        <v>521</v>
+      </c>
+      <c r="M14" s="137" t="s">
         <v>522</v>
       </c>
-      <c r="M14" s="137" t="s">
-        <v>523</v>
-      </c>
       <c r="N14" s="137" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.4">
@@ -5911,7 +7522,7 @@
         <v>(D15に関数入力)</v>
       </c>
       <c r="D15" s="129" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E15" s="129" t="s">
         <v>14</v>
@@ -6011,94 +7622,94 @@
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C23" s="130" t="s">
+        <v>515</v>
+      </c>
+      <c r="D23" s="131" t="s">
         <v>516</v>
       </c>
-      <c r="D23" s="131" t="s">
+      <c r="E23" s="184" t="s">
         <v>517</v>
       </c>
-      <c r="E23" s="182" t="s">
-        <v>518</v>
-      </c>
-      <c r="F23" s="183"/>
+      <c r="F23" s="185"/>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C24" s="140"/>
       <c r="D24" s="133" t="s">
+        <v>538</v>
+      </c>
+      <c r="E24" s="186" t="s">
         <v>539</v>
       </c>
-      <c r="E24" s="184" t="s">
-        <v>540</v>
-      </c>
-      <c r="F24" s="184"/>
+      <c r="F24" s="186"/>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C25" s="132"/>
       <c r="D25" s="133">
         <v>0</v>
       </c>
-      <c r="E25" s="185" t="s">
-        <v>541</v>
-      </c>
-      <c r="F25" s="185"/>
+      <c r="E25" s="187" t="s">
+        <v>540</v>
+      </c>
+      <c r="F25" s="187"/>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C26" s="132"/>
       <c r="D26" s="134">
         <v>1</v>
       </c>
-      <c r="E26" s="186" t="s">
-        <v>542</v>
-      </c>
-      <c r="F26" s="186"/>
+      <c r="E26" s="188" t="s">
+        <v>541</v>
+      </c>
+      <c r="F26" s="188"/>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C27" s="135"/>
       <c r="D27" s="133">
         <v>2</v>
       </c>
-      <c r="E27" s="185" t="s">
-        <v>543</v>
-      </c>
-      <c r="F27" s="185"/>
+      <c r="E27" s="187" t="s">
+        <v>542</v>
+      </c>
+      <c r="F27" s="187"/>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.4">
       <c r="D29" s="138" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E29" s="117" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.4">
       <c r="D30" s="139"/>
       <c r="E30" s="117" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.4">
       <c r="E31" s="117" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.4">
       <c r="E32" s="117" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D33" s="139" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E33" s="117" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D34" s="139" t="s">
+        <v>535</v>
+      </c>
+      <c r="E34" s="117" t="s">
         <v>536</v>
-      </c>
-      <c r="E34" s="117" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.4">
@@ -6118,7 +7729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A2:H40"/>
@@ -6489,7 +8100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A2:H40"/>
@@ -6821,7 +8432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A2:H20"/>
@@ -7110,13 +8721,13 @@
         <v>183</v>
       </c>
       <c r="E18" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="H18" t="s">
         <v>552</v>
-      </c>
-      <c r="H18" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -7135,22 +8746,22 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H20" s="145" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H20" s="187" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H21" s="145" t="s">
         <v>555</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H21" s="187" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H22" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -7163,8 +8774,8 @@
       <c r="D23" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="H23" s="188" t="s">
-        <v>557</v>
+      <c r="H23" s="146" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
@@ -7265,11 +8876,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A2:CL47"/>
+  <sheetPr codeName="Sheet5">
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A2:CL49"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8153,143 +9766,55 @@
       <c r="AC27" s="7"/>
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
-      <c r="AF27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AY27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA27" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="7"/>
+      <c r="AK27" s="7"/>
+      <c r="AL27" s="7"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="7"/>
+      <c r="AO27" s="7"/>
+      <c r="AP27" s="7"/>
+      <c r="AQ27" s="7"/>
+      <c r="AR27" s="7"/>
+      <c r="AS27" s="7"/>
+      <c r="AT27" s="7"/>
+      <c r="AU27" s="7"/>
+      <c r="AV27" s="7"/>
+      <c r="AW27" s="7"/>
+      <c r="AX27" s="7"/>
+      <c r="AY27" s="7"/>
+      <c r="AZ27" s="7"/>
+      <c r="BA27" s="7"/>
       <c r="BB27" s="7"/>
       <c r="BC27" s="7"/>
       <c r="BD27" s="7"/>
       <c r="BE27" s="7"/>
       <c r="BF27" s="7"/>
-      <c r="BG27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BH27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BI27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BJ27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BK27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BL27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BM27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BN27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BO27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BP27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BQ27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BR27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BS27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BT27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BU27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BV27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BW27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BX27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BY27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BZ27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CA27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CB27" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="BG27" s="7"/>
+      <c r="BH27" s="7"/>
+      <c r="BI27" s="7"/>
+      <c r="BJ27" s="7"/>
+      <c r="BK27" s="7"/>
+      <c r="BL27" s="7"/>
+      <c r="BM27" s="7"/>
+      <c r="BN27" s="7"/>
+      <c r="BO27" s="7"/>
+      <c r="BP27" s="7"/>
+      <c r="BQ27" s="7"/>
+      <c r="BR27" s="7"/>
+      <c r="BS27" s="7"/>
+      <c r="BT27" s="7"/>
+      <c r="BU27" s="7"/>
+      <c r="BV27" s="7"/>
+      <c r="BW27" s="7"/>
+      <c r="BX27" s="7"/>
+      <c r="BY27" s="7"/>
+      <c r="BZ27" s="7"/>
+      <c r="CA27" s="7"/>
+      <c r="CB27" s="7"/>
       <c r="CC27" s="7"/>
       <c r="CD27" s="7"/>
       <c r="CE27" s="7"/>
@@ -8331,143 +9856,55 @@
       <c r="AC28" s="7"/>
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
-      <c r="AF28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AY28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA28" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="7"/>
+      <c r="AH28" s="7"/>
+      <c r="AI28" s="7"/>
+      <c r="AJ28" s="7"/>
+      <c r="AK28" s="7"/>
+      <c r="AL28" s="7"/>
+      <c r="AM28" s="7"/>
+      <c r="AN28" s="7"/>
+      <c r="AO28" s="7"/>
+      <c r="AP28" s="7"/>
+      <c r="AQ28" s="7"/>
+      <c r="AR28" s="7"/>
+      <c r="AS28" s="7"/>
+      <c r="AT28" s="7"/>
+      <c r="AU28" s="7"/>
+      <c r="AV28" s="7"/>
+      <c r="AW28" s="7"/>
+      <c r="AX28" s="7"/>
+      <c r="AY28" s="7"/>
+      <c r="AZ28" s="7"/>
+      <c r="BA28" s="7"/>
       <c r="BB28" s="7"/>
       <c r="BC28" s="7"/>
       <c r="BD28" s="7"/>
       <c r="BE28" s="7"/>
       <c r="BF28" s="7"/>
-      <c r="BG28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BH28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BI28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BJ28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BK28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BL28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BM28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BN28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BO28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BP28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BQ28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BR28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BS28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BT28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BU28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BV28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BW28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BX28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BY28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BZ28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CA28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CB28" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="BG28" s="7"/>
+      <c r="BH28" s="7"/>
+      <c r="BI28" s="7"/>
+      <c r="BJ28" s="7"/>
+      <c r="BK28" s="7"/>
+      <c r="BL28" s="7"/>
+      <c r="BM28" s="7"/>
+      <c r="BN28" s="7"/>
+      <c r="BO28" s="7"/>
+      <c r="BP28" s="7"/>
+      <c r="BQ28" s="7"/>
+      <c r="BR28" s="7"/>
+      <c r="BS28" s="7"/>
+      <c r="BT28" s="7"/>
+      <c r="BU28" s="7"/>
+      <c r="BV28" s="7"/>
+      <c r="BW28" s="7"/>
+      <c r="BX28" s="7"/>
+      <c r="BY28" s="7"/>
+      <c r="BZ28" s="7"/>
+      <c r="CA28" s="7"/>
+      <c r="CB28" s="7"/>
       <c r="CC28" s="7"/>
       <c r="CD28" s="7"/>
       <c r="CE28" s="7"/>
@@ -8481,267 +9918,93 @@
     </row>
     <row r="29" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A29" s="6"/>
-      <c r="D29" s="7">
-        <v>5401</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="N29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="R29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="S29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="T29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="U29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="V29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="W29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="X29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AY29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BF29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BH29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BI29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BJ29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BK29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BL29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BM29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BN29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BO29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BP29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BQ29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BR29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BS29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BT29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BU29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BV29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BW29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BX29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BY29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BZ29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CA29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CB29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CC29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CD29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CE29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CF29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CG29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CH29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CK29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CL29" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="7"/>
+      <c r="AJ29" s="7"/>
+      <c r="AK29" s="7"/>
+      <c r="AL29" s="7"/>
+      <c r="AM29" s="7"/>
+      <c r="AN29" s="7"/>
+      <c r="AO29" s="7"/>
+      <c r="AP29" s="7"/>
+      <c r="AQ29" s="7"/>
+      <c r="AR29" s="7"/>
+      <c r="AS29" s="7"/>
+      <c r="AT29" s="7"/>
+      <c r="AU29" s="7"/>
+      <c r="AV29" s="7"/>
+      <c r="AW29" s="7"/>
+      <c r="AX29" s="7"/>
+      <c r="AY29" s="7"/>
+      <c r="AZ29" s="7"/>
+      <c r="BA29" s="7"/>
+      <c r="BB29" s="7"/>
+      <c r="BC29" s="7"/>
+      <c r="BD29" s="7"/>
+      <c r="BE29" s="7"/>
+      <c r="BF29" s="7"/>
+      <c r="BG29" s="7"/>
+      <c r="BH29" s="7"/>
+      <c r="BI29" s="7"/>
+      <c r="BJ29" s="7"/>
+      <c r="BK29" s="7"/>
+      <c r="BL29" s="7"/>
+      <c r="BM29" s="7"/>
+      <c r="BN29" s="7"/>
+      <c r="BO29" s="7"/>
+      <c r="BP29" s="7"/>
+      <c r="BQ29" s="7"/>
+      <c r="BR29" s="7"/>
+      <c r="BS29" s="7"/>
+      <c r="BT29" s="7"/>
+      <c r="BU29" s="7"/>
+      <c r="BV29" s="7"/>
+      <c r="BW29" s="7"/>
+      <c r="BX29" s="7"/>
+      <c r="BY29" s="7"/>
+      <c r="BZ29" s="7"/>
+      <c r="CA29" s="7"/>
+      <c r="CB29" s="7"/>
+      <c r="CC29" s="7"/>
+      <c r="CD29" s="7"/>
+      <c r="CE29" s="7"/>
+      <c r="CF29" s="7"/>
+      <c r="CG29" s="7"/>
+      <c r="CH29" s="7"/>
+      <c r="CI29" s="7"/>
+      <c r="CJ29" s="7"/>
+      <c r="CK29" s="7"/>
+      <c r="CL29" s="7"/>
     </row>
     <row r="30" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A30" s="6"/>
@@ -8773,143 +10036,55 @@
       <c r="AC30" s="7"/>
       <c r="AD30" s="7"/>
       <c r="AE30" s="7"/>
-      <c r="AF30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AY30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA30" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="7"/>
+      <c r="AJ30" s="7"/>
+      <c r="AK30" s="7"/>
+      <c r="AL30" s="7"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="7"/>
+      <c r="AO30" s="7"/>
+      <c r="AP30" s="7"/>
+      <c r="AQ30" s="7"/>
+      <c r="AR30" s="7"/>
+      <c r="AS30" s="7"/>
+      <c r="AT30" s="7"/>
+      <c r="AU30" s="7"/>
+      <c r="AV30" s="7"/>
+      <c r="AW30" s="7"/>
+      <c r="AX30" s="7"/>
+      <c r="AY30" s="7"/>
+      <c r="AZ30" s="7"/>
+      <c r="BA30" s="7"/>
       <c r="BB30" s="7"/>
       <c r="BC30" s="7"/>
       <c r="BD30" s="7"/>
       <c r="BE30" s="7"/>
       <c r="BF30" s="7"/>
-      <c r="BG30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BH30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BI30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BJ30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BK30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BL30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BM30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BN30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BO30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BP30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BQ30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BR30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BS30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BT30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BU30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BV30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BW30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BX30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BY30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BZ30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CA30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CB30" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="BG30" s="7"/>
+      <c r="BH30" s="7"/>
+      <c r="BI30" s="7"/>
+      <c r="BJ30" s="7"/>
+      <c r="BK30" s="7"/>
+      <c r="BL30" s="7"/>
+      <c r="BM30" s="7"/>
+      <c r="BN30" s="7"/>
+      <c r="BO30" s="7"/>
+      <c r="BP30" s="7"/>
+      <c r="BQ30" s="7"/>
+      <c r="BR30" s="7"/>
+      <c r="BS30" s="7"/>
+      <c r="BT30" s="7"/>
+      <c r="BU30" s="7"/>
+      <c r="BV30" s="7"/>
+      <c r="BW30" s="7"/>
+      <c r="BX30" s="7"/>
+      <c r="BY30" s="7"/>
+      <c r="BZ30" s="7"/>
+      <c r="CA30" s="7"/>
+      <c r="CB30" s="7"/>
       <c r="CC30" s="7"/>
       <c r="CD30" s="7"/>
       <c r="CE30" s="7"/>
@@ -9187,11 +10362,8 @@
       <c r="CK33" s="6"/>
     </row>
     <row r="34" spans="1:89" x14ac:dyDescent="0.4">
-      <c r="C34" s="31" t="s">
-        <v>200</v>
-      </c>
       <c r="D34" s="31" t="s">
-        <v>193</v>
+        <v>576</v>
       </c>
       <c r="E34" s="31" t="s">
         <v>268</v>
@@ -9282,14 +10454,11 @@
       <c r="CK34" s="6"/>
     </row>
     <row r="35" spans="1:89" x14ac:dyDescent="0.4">
-      <c r="C35" s="32" t="s">
-        <v>496</v>
-      </c>
       <c r="D35" s="32">
         <v>0</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -9377,7 +10546,6 @@
       <c r="CK35" s="6"/>
     </row>
     <row r="36" spans="1:89" x14ac:dyDescent="0.4">
-      <c r="C36" s="32"/>
       <c r="D36" s="32">
         <v>1</v>
       </c>
@@ -9386,102 +10554,107 @@
       </c>
     </row>
     <row r="37" spans="1:89" x14ac:dyDescent="0.4">
-      <c r="C37" s="32"/>
       <c r="D37" s="32">
         <v>101</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="38" spans="1:89" x14ac:dyDescent="0.4">
-      <c r="C38" s="32"/>
       <c r="D38" s="32">
         <v>103</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="39" spans="1:89" x14ac:dyDescent="0.4">
-      <c r="C39" s="32"/>
       <c r="D39" s="32">
         <v>107</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="40" spans="1:89" x14ac:dyDescent="0.4">
-      <c r="C40" s="32"/>
       <c r="D40" s="32">
         <v>121</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="41" spans="1:89" x14ac:dyDescent="0.4">
-      <c r="C41" s="32"/>
       <c r="D41" s="32">
         <v>144</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="42" spans="1:89" x14ac:dyDescent="0.4">
-      <c r="C42" s="32"/>
       <c r="D42" s="32">
         <v>145</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="43" spans="1:89" x14ac:dyDescent="0.4">
-      <c r="C43" s="32"/>
       <c r="D43" s="32">
         <v>154</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="44" spans="1:89" x14ac:dyDescent="0.4">
-      <c r="C44" s="32"/>
       <c r="D44" s="32">
         <v>155</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="45" spans="1:89" x14ac:dyDescent="0.4">
-      <c r="C45" s="32"/>
       <c r="D45" s="32">
         <v>171</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="46" spans="1:89" x14ac:dyDescent="0.4">
-      <c r="C46" s="32"/>
       <c r="D46" s="32">
         <v>901</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="47" spans="1:89" x14ac:dyDescent="0.4">
-      <c r="C47" s="7"/>
       <c r="D47" s="7">
         <v>907</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="48" spans="1:89" x14ac:dyDescent="0.4">
+      <c r="D48" s="23">
+        <v>903</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D49" s="23">
+        <v>1001</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -9494,7 +10667,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:AA28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -9919,7 +11094,9 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:AL319"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -10069,89 +11246,89 @@
       <c r="C11" s="65" t="s">
         <v>305</v>
       </c>
-      <c r="D11" s="153" t="s">
+      <c r="D11" s="155" t="s">
         <v>299</v>
       </c>
-      <c r="E11" s="154"/>
-      <c r="F11" s="153" t="s">
+      <c r="E11" s="156"/>
+      <c r="F11" s="155" t="s">
         <v>300</v>
       </c>
-      <c r="G11" s="154"/>
+      <c r="G11" s="156"/>
       <c r="L11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B12" s="169" t="s">
+      <c r="B12" s="171" t="s">
         <v>279</v>
       </c>
       <c r="C12" s="42">
         <v>0</v>
       </c>
-      <c r="D12" s="165" t="s">
+      <c r="D12" s="167" t="s">
         <v>203</v>
       </c>
-      <c r="E12" s="166"/>
-      <c r="F12" s="155" t="s">
+      <c r="E12" s="168"/>
+      <c r="F12" s="157" t="s">
         <v>301</v>
       </c>
-      <c r="G12" s="156"/>
+      <c r="G12" s="158"/>
       <c r="L12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B13" s="169"/>
+      <c r="B13" s="171"/>
       <c r="C13" s="42">
         <v>1</v>
       </c>
-      <c r="D13" s="165" t="s">
+      <c r="D13" s="167" t="s">
         <v>202</v>
       </c>
-      <c r="E13" s="166"/>
-      <c r="F13" s="157" t="s">
+      <c r="E13" s="168"/>
+      <c r="F13" s="159" t="s">
         <v>308</v>
       </c>
-      <c r="G13" s="158"/>
+      <c r="G13" s="160"/>
       <c r="L13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B14" s="169"/>
+      <c r="B14" s="171"/>
       <c r="C14" s="42">
         <v>2</v>
       </c>
-      <c r="D14" s="165" t="s">
+      <c r="D14" s="167" t="s">
         <v>201</v>
       </c>
-      <c r="E14" s="166"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="158"/>
+      <c r="E14" s="168"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="160"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B15" s="169"/>
+      <c r="B15" s="171"/>
       <c r="C15" s="42">
         <v>3</v>
       </c>
-      <c r="D15" s="165" t="s">
+      <c r="D15" s="167" t="s">
         <v>266</v>
       </c>
-      <c r="E15" s="166"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="158"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="160"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B16" s="169"/>
+      <c r="B16" s="171"/>
       <c r="C16" s="42">
         <v>4</v>
       </c>
-      <c r="D16" s="165" t="s">
+      <c r="D16" s="167" t="s">
         <v>267</v>
       </c>
-      <c r="E16" s="166"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="160"/>
+      <c r="E16" s="168"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="162"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="58" t="s">
@@ -10206,30 +11383,30 @@
       <c r="G20" s="62"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="167" t="s">
+      <c r="B21" s="169" t="s">
         <v>288</v>
       </c>
       <c r="C21" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="D21" s="165" t="s">
+      <c r="D21" s="167" t="s">
         <v>306</v>
       </c>
-      <c r="E21" s="166"/>
+      <c r="E21" s="168"/>
       <c r="F21" s="66" t="s">
         <v>301</v>
       </c>
       <c r="G21" s="67"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="167"/>
+      <c r="B22" s="169"/>
       <c r="C22" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="D22" s="165" t="s">
+      <c r="D22" s="167" t="s">
         <v>307</v>
       </c>
-      <c r="E22" s="166"/>
+      <c r="E22" s="168"/>
       <c r="F22" s="68" t="s">
         <v>309</v>
       </c>
@@ -10252,130 +11429,130 @@
       <c r="G23" s="64"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="167" t="s">
+      <c r="B24" s="169" t="s">
         <v>291</v>
       </c>
       <c r="C24" s="41">
         <v>1</v>
       </c>
-      <c r="D24" s="163" t="s">
+      <c r="D24" s="165" t="s">
         <v>289</v>
       </c>
-      <c r="E24" s="164"/>
-      <c r="F24" s="161" t="s">
+      <c r="E24" s="166"/>
+      <c r="F24" s="163" t="s">
         <v>301</v>
       </c>
-      <c r="G24" s="162"/>
+      <c r="G24" s="164"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="167"/>
+      <c r="B25" s="169"/>
       <c r="C25" s="41">
         <v>2</v>
       </c>
-      <c r="D25" s="151" t="s">
+      <c r="D25" s="153" t="s">
         <v>280</v>
       </c>
-      <c r="E25" s="152"/>
-      <c r="F25" s="145" t="s">
+      <c r="E25" s="154"/>
+      <c r="F25" s="147" t="s">
         <v>308</v>
       </c>
-      <c r="G25" s="146"/>
+      <c r="G25" s="148"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B26" s="167"/>
+      <c r="B26" s="169"/>
       <c r="C26" s="41">
         <v>3</v>
       </c>
-      <c r="D26" s="151" t="s">
+      <c r="D26" s="153" t="s">
         <v>281</v>
       </c>
-      <c r="E26" s="152"/>
-      <c r="F26" s="145"/>
-      <c r="G26" s="146"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="148"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="167"/>
+      <c r="B27" s="169"/>
       <c r="C27" s="41">
         <v>4</v>
       </c>
-      <c r="D27" s="151" t="s">
+      <c r="D27" s="153" t="s">
         <v>282</v>
       </c>
-      <c r="E27" s="152"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="146"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="148"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B28" s="167"/>
+      <c r="B28" s="169"/>
       <c r="C28" s="41">
         <v>5</v>
       </c>
-      <c r="D28" s="151" t="s">
+      <c r="D28" s="153" t="s">
         <v>283</v>
       </c>
-      <c r="E28" s="152"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="150"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="152"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B29" s="167" t="s">
+      <c r="B29" s="169" t="s">
         <v>292</v>
       </c>
       <c r="C29" s="41">
         <v>1</v>
       </c>
-      <c r="D29" s="163" t="s">
+      <c r="D29" s="165" t="s">
         <v>290</v>
       </c>
-      <c r="E29" s="164"/>
-      <c r="F29" s="161" t="s">
+      <c r="E29" s="166"/>
+      <c r="F29" s="163" t="s">
         <v>301</v>
       </c>
-      <c r="G29" s="162"/>
+      <c r="G29" s="164"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="167"/>
+      <c r="B30" s="169"/>
       <c r="C30" s="41">
         <v>2</v>
       </c>
-      <c r="D30" s="151" t="s">
+      <c r="D30" s="153" t="s">
         <v>284</v>
       </c>
-      <c r="E30" s="152"/>
-      <c r="F30" s="145" t="s">
+      <c r="E30" s="154"/>
+      <c r="F30" s="147" t="s">
         <v>308</v>
       </c>
-      <c r="G30" s="146"/>
+      <c r="G30" s="148"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="168" t="s">
+      <c r="B31" s="170" t="s">
         <v>293</v>
       </c>
       <c r="C31" s="41">
         <v>2</v>
       </c>
-      <c r="D31" s="151" t="s">
+      <c r="D31" s="153" t="s">
         <v>285</v>
       </c>
-      <c r="E31" s="152"/>
-      <c r="F31" s="147" t="s">
+      <c r="E31" s="154"/>
+      <c r="F31" s="149" t="s">
         <v>301</v>
       </c>
-      <c r="G31" s="148"/>
+      <c r="G31" s="150"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B32" s="168"/>
+      <c r="B32" s="170"/>
       <c r="C32" s="41">
         <v>3</v>
       </c>
-      <c r="D32" s="151" t="s">
+      <c r="D32" s="153" t="s">
         <v>286</v>
       </c>
-      <c r="E32" s="152"/>
-      <c r="F32" s="149" t="s">
+      <c r="E32" s="154"/>
+      <c r="F32" s="151" t="s">
         <v>308</v>
       </c>
-      <c r="G32" s="150"/>
+      <c r="G32" s="152"/>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.4">
       <c r="B33" s="6"/>
@@ -10480,7 +11657,7 @@
         <v>129</v>
       </c>
       <c r="W39" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="X39" s="8" t="s">
         <v>130</v>
@@ -10589,7 +11766,7 @@
         <v>85</v>
       </c>
       <c r="W40" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="X40" s="7" t="s">
         <v>85</v>
@@ -10889,7 +12066,7 @@
         <v>85</v>
       </c>
       <c r="W44" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="X44" s="7" t="s">
         <v>85</v>
@@ -21303,7 +22480,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:Y28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -21832,9 +23011,14 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A2:F27"/>
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -22035,6 +23219,14 @@
         <v>247</v>
       </c>
     </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B28" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>558</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22043,29 +23235,32 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A2:G19"/>
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A2:H23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="19.875" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="29.75" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
     <col min="5" max="5" width="35.875" customWidth="1"/>
-    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>219</v>
+        <v>574</v>
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -22074,68 +23269,74 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="C7" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
       <c r="C12" t="s">
         <v>198</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
@@ -22146,7 +23347,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
       <c r="C14" s="27" t="str">
         <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
@@ -22159,32 +23360,56 @@
         <v>253</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B17" s="31" t="s">
-        <v>254</v>
+        <v>560</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B18" s="23" t="s">
-        <v>255</v>
+        <v>561</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>256</v>
+        <v>562</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B19" s="23" t="s">
+        <v>563</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B21" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B22" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B23" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C23" s="23" t="s">
         <v>258</v>
       </c>
     </row>
@@ -22195,1475 +23420,165 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="B2:T64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62959550-275B-4F2A-91AF-E20CCD4B47BC}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A2:H19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="43" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="43" customWidth="1"/>
-    <col min="3" max="3" width="17" style="43" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="43" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="43" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="43" customWidth="1"/>
-    <col min="7" max="7" width="12" style="43" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="43" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="43" customWidth="1"/>
-    <col min="10" max="10" width="14.625" style="43" customWidth="1"/>
-    <col min="11" max="11" width="19.75" style="43" customWidth="1"/>
-    <col min="12" max="12" width="16.875" style="43" customWidth="1"/>
-    <col min="13" max="13" width="20.625" style="43" customWidth="1"/>
-    <col min="14" max="14" width="14.75" style="43" customWidth="1"/>
-    <col min="15" max="15" width="10.375" style="43" customWidth="1"/>
-    <col min="16" max="16" width="13.875" style="43" customWidth="1"/>
-    <col min="17" max="17" width="10.375" style="43" customWidth="1"/>
-    <col min="18" max="18" width="12.625" style="43" bestFit="1" customWidth="1"/>
-    <col min="19" max="24" width="10.375" style="43" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="43"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="26.875" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="72" t="s">
-        <v>376</v>
-      </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="72" t="s">
-        <v>377</v>
-      </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B5" s="75" t="s">
+      <c r="C3" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B6" s="44"/>
-      <c r="C6" s="44" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B7" s="44"/>
-      <c r="C7" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B8" s="44"/>
-      <c r="C8" s="87">
-        <v>1</v>
-      </c>
-      <c r="D8" s="87" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C10" s="65" t="s">
-        <v>352</v>
-      </c>
-      <c r="D10" s="170" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="H6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B7" s="6"/>
+      <c r="C7" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="H7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B12" s="5"/>
+      <c r="C12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="6"/>
+      <c r="C14" s="27" t="str">
+        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
+        <v>(D14に関数入力)</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>571</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B17" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="E10" s="171"/>
-      <c r="H10" s="65" t="s">
-        <v>352</v>
-      </c>
-      <c r="I10" s="170" t="s">
-        <v>268</v>
-      </c>
-      <c r="J10" s="171"/>
-      <c r="K10" s="172" t="s">
-        <v>300</v>
-      </c>
-      <c r="L10" s="172"/>
-      <c r="M10" s="172"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B11" s="80" t="s">
-        <v>315</v>
-      </c>
-      <c r="C11" s="81">
-        <v>1</v>
-      </c>
-      <c r="D11" s="82" t="s">
-        <v>353</v>
-      </c>
-      <c r="E11" s="74"/>
-      <c r="G11" s="86" t="s">
-        <v>316</v>
-      </c>
-      <c r="H11" s="142" t="s">
-        <v>314</v>
-      </c>
-      <c r="I11" s="82" t="s">
-        <v>368</v>
-      </c>
-      <c r="J11" s="74"/>
-      <c r="K11" s="173" t="s">
-        <v>550</v>
-      </c>
-      <c r="L11" s="174"/>
-      <c r="M11" s="175"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B12" s="83"/>
-      <c r="C12" s="81">
-        <v>2</v>
-      </c>
-      <c r="D12" s="82" t="s">
-        <v>354</v>
-      </c>
-      <c r="E12" s="74"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="142" t="s">
-        <v>369</v>
-      </c>
-      <c r="I12" s="82" t="s">
-        <v>370</v>
-      </c>
-      <c r="J12" s="74"/>
-      <c r="K12" s="176"/>
-      <c r="L12" s="177"/>
-      <c r="M12" s="178"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B13" s="83"/>
-      <c r="C13" s="81">
-        <v>3</v>
-      </c>
-      <c r="D13" s="82" t="s">
-        <v>355</v>
-      </c>
-      <c r="E13" s="74"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="143" t="s">
-        <v>544</v>
-      </c>
-      <c r="I13" s="144" t="s">
-        <v>547</v>
-      </c>
-      <c r="J13" s="74"/>
-      <c r="K13" s="176"/>
-      <c r="L13" s="177"/>
-      <c r="M13" s="178"/>
-      <c r="N13" s="141"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B14" s="83"/>
-      <c r="C14" s="81">
-        <v>4</v>
-      </c>
-      <c r="D14" s="82" t="s">
-        <v>356</v>
-      </c>
-      <c r="E14" s="74"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="143" t="s">
-        <v>545</v>
-      </c>
-      <c r="I14" s="144" t="s">
-        <v>548</v>
-      </c>
-      <c r="J14" s="74"/>
-      <c r="K14" s="176"/>
-      <c r="L14" s="177"/>
-      <c r="M14" s="178"/>
-      <c r="N14" s="141"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B15" s="83"/>
-      <c r="C15" s="81">
-        <v>5</v>
-      </c>
-      <c r="D15" s="82" t="s">
-        <v>357</v>
-      </c>
-      <c r="E15" s="74"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="143" t="s">
-        <v>546</v>
-      </c>
-      <c r="I15" s="144" t="s">
-        <v>549</v>
-      </c>
-      <c r="J15" s="74"/>
-      <c r="K15" s="176"/>
-      <c r="L15" s="177"/>
-      <c r="M15" s="178"/>
-      <c r="N15" s="141"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B16" s="83"/>
-      <c r="C16" s="81">
-        <v>6</v>
-      </c>
-      <c r="D16" s="82" t="s">
-        <v>358</v>
-      </c>
-      <c r="E16" s="74"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="142" t="s">
-        <v>371</v>
-      </c>
-      <c r="I16" s="82" t="s">
-        <v>372</v>
-      </c>
-      <c r="J16" s="74"/>
-      <c r="K16" s="176"/>
-      <c r="L16" s="177"/>
-      <c r="M16" s="178"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B17" s="83"/>
-      <c r="C17" s="81">
-        <v>7</v>
-      </c>
-      <c r="D17" s="82" t="s">
-        <v>359</v>
-      </c>
-      <c r="E17" s="74"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="142" t="s">
-        <v>373</v>
-      </c>
-      <c r="I17" s="82" t="s">
-        <v>196</v>
-      </c>
-      <c r="J17" s="74"/>
-      <c r="K17" s="176"/>
-      <c r="L17" s="177"/>
-      <c r="M17" s="178"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B18" s="83"/>
-      <c r="C18" s="81">
-        <v>8</v>
-      </c>
-      <c r="D18" s="82" t="s">
-        <v>360</v>
-      </c>
-      <c r="E18" s="74"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="142" t="s">
-        <v>374</v>
-      </c>
-      <c r="I18" s="82" t="s">
-        <v>375</v>
-      </c>
-      <c r="J18" s="74"/>
-      <c r="K18" s="179"/>
-      <c r="L18" s="180"/>
-      <c r="M18" s="181"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B19" s="84"/>
-      <c r="C19" s="81">
-        <v>9</v>
-      </c>
-      <c r="D19" s="82" t="s">
-        <v>361</v>
-      </c>
-      <c r="E19" s="74"/>
-      <c r="G19" s="78"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B20" s="84"/>
-      <c r="C20" s="81">
-        <v>10</v>
-      </c>
-      <c r="D20" s="82" t="s">
-        <v>362</v>
-      </c>
-      <c r="E20" s="74"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B21" s="84"/>
-      <c r="C21" s="81">
-        <v>11</v>
-      </c>
-      <c r="D21" s="82" t="s">
-        <v>363</v>
-      </c>
-      <c r="E21" s="74"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B22" s="84"/>
-      <c r="C22" s="81">
-        <v>12</v>
-      </c>
-      <c r="D22" s="82" t="s">
-        <v>364</v>
-      </c>
-      <c r="E22" s="74"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B23" s="84"/>
-      <c r="C23" s="81">
-        <v>13</v>
-      </c>
-      <c r="D23" s="82" t="s">
-        <v>365</v>
-      </c>
-      <c r="E23" s="74"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B24" s="84"/>
-      <c r="C24" s="81">
-        <v>14</v>
-      </c>
-      <c r="D24" s="82" t="s">
-        <v>366</v>
-      </c>
-      <c r="E24" s="74"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B25" s="85"/>
-      <c r="C25" s="81">
-        <v>15</v>
-      </c>
-      <c r="D25" s="82" t="s">
-        <v>367</v>
-      </c>
-      <c r="E25" s="74"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B28" s="75" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="D29" s="75"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="C30" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="D30" s="79" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="C31" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="O31" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="P31" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q31" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="R31" s="8" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="C32" s="47" t="str">
-        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
-        <v>(D32に関数入力)</v>
-      </c>
-      <c r="D32" s="76" t="s">
-        <v>295</v>
-      </c>
-      <c r="E32" s="77" t="s">
-        <v>330</v>
-      </c>
-      <c r="F32" s="71">
-        <v>1</v>
-      </c>
-      <c r="G32" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="H32" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="I32" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="J32" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="K32" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="L32" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="M32" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="N32" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="O32" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="P32" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q32" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="R32" s="71" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="F33" s="71">
-        <v>2</v>
-      </c>
-      <c r="G33" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="H33" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="I33" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="J33" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="K33" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="L33" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="M33" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="N33" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="O33" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="P33" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q33" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="R33" s="71" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="F34" s="71">
-        <v>3</v>
-      </c>
-      <c r="G34" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="H34" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="I34" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="J34" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="K34" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="L34" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="M34" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="N34" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="O34" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="P34" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q34" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="R34" s="71" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="K35" s="78"/>
-    </row>
-    <row r="36" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C36" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="D36" s="79" t="s">
-        <v>331</v>
-      </c>
-      <c r="G36" s="78"/>
-    </row>
-    <row r="37" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C37" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="P37" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q37" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="R37" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="S37" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="T37" s="8" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="38" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C38" s="47" t="str">
-        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
-        <v>(D38に関数入力)</v>
-      </c>
-      <c r="D38" s="76" t="s">
-        <v>295</v>
-      </c>
-      <c r="E38" s="77" t="s">
-        <v>330</v>
-      </c>
-      <c r="F38" s="71">
-        <v>1</v>
-      </c>
-      <c r="G38" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="H38" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="I38" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="J38" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="K38" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="L38" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="M38" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="N38" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="O38" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="P38" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q38" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="R38" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="S38" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="T38" s="71" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="F39" s="71">
-        <v>2</v>
-      </c>
-      <c r="G39" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="H39" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="I39" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="J39" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="K39" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="L39" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="M39" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="N39" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="O39" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="P39" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q39" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="R39" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="S39" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="T39" s="71" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="F40" s="71">
-        <v>3</v>
-      </c>
-      <c r="G40" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="H40" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="I40" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="J40" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="K40" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="L40" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="M40" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="N40" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="O40" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="P40" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q40" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="R40" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="S40" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="T40" s="71" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C42" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="D42" s="79" t="s">
-        <v>339</v>
-      </c>
-      <c r="G42" s="78"/>
-    </row>
-    <row r="43" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C43" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="N43" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="O43" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="P43" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q43" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="R43" s="8" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="44" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C44" s="47" t="str">
-        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
-        <v>(D44に関数入力)</v>
-      </c>
-      <c r="D44" s="76" t="s">
-        <v>295</v>
-      </c>
-      <c r="E44" s="77" t="s">
-        <v>330</v>
-      </c>
-      <c r="F44" s="71">
-        <v>1</v>
-      </c>
-      <c r="G44" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="H44" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="I44" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="J44" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="K44" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="L44" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="M44" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="N44" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="O44" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="P44" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q44" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="R44" s="71" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="F45" s="71">
-        <v>2</v>
-      </c>
-      <c r="G45" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="H45" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="I45" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="J45" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="K45" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="L45" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="M45" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="N45" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="O45" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="P45" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q45" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="R45" s="71" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="F46" s="71">
-        <v>3</v>
-      </c>
-      <c r="G46" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="H46" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="I46" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="J46" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="K46" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="L46" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="M46" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="N46" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="O46" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="P46" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q46" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="R46" s="71" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C48" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="D48" s="79" t="s">
-        <v>341</v>
-      </c>
-      <c r="G48" s="78"/>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C49" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="J49" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="K49" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="M49" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="N49" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="O49" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="P49" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q49" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="R49" s="8" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C50" s="47" t="str">
-        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
-        <v>(D50に関数入力)</v>
-      </c>
-      <c r="D50" s="76" t="s">
-        <v>295</v>
-      </c>
-      <c r="E50" s="77" t="s">
-        <v>330</v>
-      </c>
-      <c r="F50" s="71">
-        <v>1</v>
-      </c>
-      <c r="G50" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="H50" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="I50" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="J50" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="K50" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="L50" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="M50" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="N50" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="O50" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="P50" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q50" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="R50" s="71" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="F51" s="71">
-        <v>2</v>
-      </c>
-      <c r="G51" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="H51" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="I51" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="J51" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="K51" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="L51" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="M51" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="N51" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="O51" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="P51" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q51" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="R51" s="71" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="F52" s="71">
-        <v>3</v>
-      </c>
-      <c r="G52" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="H52" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="I52" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="J52" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="K52" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="L52" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="M52" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="N52" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="O52" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="P52" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q52" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="R52" s="71" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C54" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="D54" s="79" t="s">
-        <v>343</v>
-      </c>
-      <c r="E54" s="78"/>
-      <c r="G54" s="78"/>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C55" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="I55" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="J55" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="K55" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="L55" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="M55" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="N55" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="O55" s="8" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C56" s="47" t="str">
-        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
-        <v>(D56に関数入力)</v>
-      </c>
-      <c r="D56" s="76" t="s">
-        <v>295</v>
-      </c>
-      <c r="E56" s="77" t="s">
-        <v>330</v>
-      </c>
-      <c r="F56" s="71">
-        <v>1</v>
-      </c>
-      <c r="G56" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="H56" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="I56" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="J56" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="K56" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="L56" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="M56" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="N56" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="O56" s="71" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="F57" s="71">
-        <v>2</v>
-      </c>
-      <c r="G57" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="H57" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="I57" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="J57" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="K57" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="L57" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="M57" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="N57" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="O57" s="71" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="F58" s="71">
-        <v>3</v>
-      </c>
-      <c r="G58" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="H58" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="I58" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="J58" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="K58" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="L58" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="M58" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="N58" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="O58" s="71" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C60" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="D60" s="79" t="s">
-        <v>349</v>
-      </c>
-      <c r="E60" s="78"/>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C61" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="J61" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="K61" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="L61" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="M61" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="N61" s="8" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C62" s="47" t="str">
-        <f>"(D"&amp;ROW()&amp;"に関数入力)"</f>
-        <v>(D62に関数入力)</v>
-      </c>
-      <c r="D62" s="76" t="s">
-        <v>295</v>
-      </c>
-      <c r="E62" s="77" t="s">
-        <v>330</v>
-      </c>
-      <c r="F62" s="71">
-        <v>1</v>
-      </c>
-      <c r="G62" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="H62" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="I62" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="J62" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="K62" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="L62" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="M62" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="N62" s="71" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="F63" s="71">
-        <v>2</v>
-      </c>
-      <c r="G63" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="H63" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="I63" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="J63" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="K63" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="L63" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="M63" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="N63" s="71" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="F64" s="71">
-        <v>3</v>
-      </c>
-      <c r="G64" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="H64" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="I64" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="J64" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="K64" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="L64" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="M64" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="N64" s="71" t="s">
-        <v>295</v>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B18" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B19" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K11:M18"/>
-  </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0800-000000000000}">
-      <formula1>$C$11:$C$25</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8" xr:uid="{00000000-0002-0000-0800-000001000000}">
-      <formula1>$H$11:$H$18</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sample/ExcelMacro/kabuSTATION_API_function_sample.xlsx
+++ b/sample/ExcelMacro/kabuSTATION_API_function_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tw.hosokawa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\06.VaR対応、東証マザーズ指数名変更\kabusapi\sample\ExcelMacro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718A666F-301F-468A-93D6-4C6AD99187E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7293E6D5-4306-4476-90FF-1EDA877D403B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="787" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="787" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="注文取消" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="577">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -1369,12 +1369,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MOTHERS</t>
-  </si>
-  <si>
-    <t>東証マザーズ先物</t>
-  </si>
-  <si>
     <t>JPX400</t>
   </si>
   <si>
@@ -2749,9 +2743,6 @@
     <t>日経平均VI</t>
   </si>
   <si>
-    <t>東証マザーズ指数先物</t>
-  </si>
-  <si>
     <t>TOPIX_REIT</t>
   </si>
   <si>
@@ -3206,6 +3197,14 @@
   </si>
   <si>
     <t>=SYMBOLNAME.OPTION(C8,D8,E8,F8)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GROWTH</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>グロース250先物</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4399,7 +4398,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:I19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4567,7 +4566,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:T64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4598,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="72" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D2" s="73"/>
       <c r="E2" s="73"/>
@@ -4609,7 +4610,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D3" s="73"/>
       <c r="E3" s="73"/>
@@ -4623,16 +4624,16 @@
     <row r="6" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B6" s="44"/>
       <c r="C6" s="44" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B7" s="44"/>
       <c r="C7" s="37" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.4">
@@ -4641,53 +4642,53 @@
         <v>1</v>
       </c>
       <c r="D8" s="87" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C10" s="65" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D10" s="172" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E10" s="173"/>
       <c r="H10" s="65" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I10" s="172" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J10" s="173"/>
       <c r="K10" s="174" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L10" s="174"/>
       <c r="M10" s="174"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B11" s="80" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C11" s="81">
         <v>1</v>
       </c>
       <c r="D11" s="82" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E11" s="74"/>
       <c r="G11" s="86" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H11" s="142" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I11" s="82" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J11" s="74"/>
       <c r="K11" s="175" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L11" s="176"/>
       <c r="M11" s="177"/>
@@ -4698,15 +4699,15 @@
         <v>2</v>
       </c>
       <c r="D12" s="82" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E12" s="74"/>
       <c r="G12" s="84"/>
       <c r="H12" s="142" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I12" s="82" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J12" s="74"/>
       <c r="K12" s="178"/>
@@ -4719,15 +4720,15 @@
         <v>3</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E13" s="74"/>
       <c r="G13" s="84"/>
       <c r="H13" s="143" t="s">
+        <v>540</v>
+      </c>
+      <c r="I13" s="144" t="s">
         <v>543</v>
-      </c>
-      <c r="I13" s="144" t="s">
-        <v>546</v>
       </c>
       <c r="J13" s="74"/>
       <c r="K13" s="178"/>
@@ -4741,15 +4742,15 @@
         <v>4</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E14" s="74"/>
       <c r="G14" s="84"/>
       <c r="H14" s="143" t="s">
+        <v>541</v>
+      </c>
+      <c r="I14" s="144" t="s">
         <v>544</v>
-      </c>
-      <c r="I14" s="144" t="s">
-        <v>547</v>
       </c>
       <c r="J14" s="74"/>
       <c r="K14" s="178"/>
@@ -4763,15 +4764,15 @@
         <v>5</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E15" s="74"/>
       <c r="G15" s="84"/>
       <c r="H15" s="143" t="s">
+        <v>542</v>
+      </c>
+      <c r="I15" s="144" t="s">
         <v>545</v>
-      </c>
-      <c r="I15" s="144" t="s">
-        <v>548</v>
       </c>
       <c r="J15" s="74"/>
       <c r="K15" s="178"/>
@@ -4785,15 +4786,15 @@
         <v>6</v>
       </c>
       <c r="D16" s="82" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E16" s="74"/>
       <c r="G16" s="84"/>
       <c r="H16" s="142" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I16" s="82" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J16" s="74"/>
       <c r="K16" s="178"/>
@@ -4806,12 +4807,12 @@
         <v>7</v>
       </c>
       <c r="D17" s="82" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E17" s="74"/>
       <c r="G17" s="84"/>
       <c r="H17" s="142" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I17" s="82" t="s">
         <v>196</v>
@@ -4827,15 +4828,15 @@
         <v>8</v>
       </c>
       <c r="D18" s="82" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E18" s="74"/>
       <c r="G18" s="85"/>
       <c r="H18" s="142" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I18" s="82" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J18" s="74"/>
       <c r="K18" s="181"/>
@@ -4848,7 +4849,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="82" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E19" s="74"/>
       <c r="G19" s="78"/>
@@ -4859,7 +4860,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="82" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E20" s="74"/>
     </row>
@@ -4869,7 +4870,7 @@
         <v>11</v>
       </c>
       <c r="D21" s="82" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E21" s="74"/>
     </row>
@@ -4879,7 +4880,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="82" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E22" s="74"/>
     </row>
@@ -4889,7 +4890,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="82" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E23" s="74"/>
     </row>
@@ -4899,7 +4900,7 @@
         <v>14</v>
       </c>
       <c r="D24" s="82" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E24" s="74"/>
     </row>
@@ -4909,7 +4910,7 @@
         <v>15</v>
       </c>
       <c r="D25" s="82" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E25" s="74"/>
     </row>
@@ -4926,7 +4927,7 @@
         <v>198</v>
       </c>
       <c r="D30" s="79" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.4">
@@ -4934,49 +4935,49 @@
         <v>12</v>
       </c>
       <c r="D31" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="G31" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="H31" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="I31" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="J31" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="K31" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="L31" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="M31" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="L31" s="8" t="s">
+      <c r="N31" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="M31" s="8" t="s">
+      <c r="O31" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="N31" s="8" t="s">
+      <c r="P31" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="O31" s="8" t="s">
+      <c r="Q31" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="P31" s="8" t="s">
+      <c r="R31" s="8" t="s">
         <v>327</v>
-      </c>
-      <c r="Q31" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="R31" s="8" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.4">
@@ -4985,46 +4986,46 @@
         <v>(D32に関数入力)</v>
       </c>
       <c r="D32" s="76" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E32" s="77" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F32" s="71">
         <v>1</v>
       </c>
       <c r="G32" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H32" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I32" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J32" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K32" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L32" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M32" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N32" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O32" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P32" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Q32" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="R32" s="71" t="s">
         <v>14</v>
@@ -5035,37 +5036,37 @@
         <v>2</v>
       </c>
       <c r="G33" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H33" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I33" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J33" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K33" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L33" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M33" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N33" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O33" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P33" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Q33" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="R33" s="71" t="s">
         <v>14</v>
@@ -5076,37 +5077,37 @@
         <v>3</v>
       </c>
       <c r="G34" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H34" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I34" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J34" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K34" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L34" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M34" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N34" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O34" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P34" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Q34" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="R34" s="71" t="s">
         <v>14</v>
@@ -5120,7 +5121,7 @@
         <v>198</v>
       </c>
       <c r="D36" s="79" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G36" s="78"/>
     </row>
@@ -5129,43 +5130,43 @@
         <v>12</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E37" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="M37" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="N37" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="M37" s="8" t="s">
+      <c r="O37" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="N37" s="8" t="s">
+      <c r="P37" s="8" t="s">
         <v>335</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="P37" s="8" t="s">
-        <v>337</v>
       </c>
       <c r="Q37" s="8" t="s">
         <v>58</v>
@@ -5177,7 +5178,7 @@
         <v>148</v>
       </c>
       <c r="T37" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" spans="3:20" x14ac:dyDescent="0.4">
@@ -5186,46 +5187,46 @@
         <v>(D38に関数入力)</v>
       </c>
       <c r="D38" s="76" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E38" s="77" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F38" s="71">
         <v>1</v>
       </c>
       <c r="G38" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H38" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I38" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J38" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K38" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L38" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M38" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N38" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O38" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P38" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Q38" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="R38" s="71" t="s">
         <v>14</v>
@@ -5242,37 +5243,37 @@
         <v>2</v>
       </c>
       <c r="G39" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H39" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I39" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J39" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K39" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L39" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M39" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N39" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O39" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P39" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Q39" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="R39" s="71" t="s">
         <v>14</v>
@@ -5289,37 +5290,37 @@
         <v>3</v>
       </c>
       <c r="G40" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H40" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I40" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J40" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K40" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L40" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M40" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N40" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O40" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P40" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Q40" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="R40" s="71" t="s">
         <v>14</v>
@@ -5336,7 +5337,7 @@
         <v>198</v>
       </c>
       <c r="D42" s="79" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G42" s="78"/>
     </row>
@@ -5345,49 +5346,49 @@
         <v>12</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G43" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="I43" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="J43" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="I43" s="8" t="s">
+      <c r="K43" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="J43" s="8" t="s">
+      <c r="L43" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="K43" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>323</v>
-      </c>
       <c r="M43" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="N43" s="8" t="s">
         <v>58</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="Q43" s="8" t="s">
         <v>148</v>
       </c>
       <c r="R43" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="44" spans="3:20" x14ac:dyDescent="0.4">
@@ -5396,46 +5397,46 @@
         <v>(D44に関数入力)</v>
       </c>
       <c r="D44" s="76" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E44" s="77" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F44" s="71">
         <v>1</v>
       </c>
       <c r="G44" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H44" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I44" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J44" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K44" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L44" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M44" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N44" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O44" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P44" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Q44" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="R44" s="71" t="s">
         <v>14</v>
@@ -5446,37 +5447,37 @@
         <v>2</v>
       </c>
       <c r="G45" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H45" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I45" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J45" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K45" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L45" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M45" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N45" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O45" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P45" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Q45" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="R45" s="71" t="s">
         <v>14</v>
@@ -5487,37 +5488,37 @@
         <v>3</v>
       </c>
       <c r="G46" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H46" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I46" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J46" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K46" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L46" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M46" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N46" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O46" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P46" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Q46" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="R46" s="71" t="s">
         <v>14</v>
@@ -5528,7 +5529,7 @@
         <v>198</v>
       </c>
       <c r="D48" s="79" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G48" s="78"/>
     </row>
@@ -5537,49 +5538,49 @@
         <v>12</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G49" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="I49" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="H49" s="8" t="s">
+      <c r="J49" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="I49" s="8" t="s">
+      <c r="K49" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="L49" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="K49" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>323</v>
-      </c>
       <c r="M49" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="N49" s="8" t="s">
         <v>61</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="P49" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="Q49" s="8" t="s">
         <v>148</v>
       </c>
       <c r="R49" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50" spans="3:18" x14ac:dyDescent="0.4">
@@ -5588,46 +5589,46 @@
         <v>(D50に関数入力)</v>
       </c>
       <c r="D50" s="76" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E50" s="77" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F50" s="71">
         <v>1</v>
       </c>
       <c r="G50" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H50" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I50" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J50" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K50" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L50" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M50" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N50" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O50" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P50" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Q50" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="R50" s="71" t="s">
         <v>14</v>
@@ -5638,37 +5639,37 @@
         <v>2</v>
       </c>
       <c r="G51" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H51" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I51" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J51" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K51" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L51" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M51" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N51" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O51" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P51" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Q51" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="R51" s="71" t="s">
         <v>14</v>
@@ -5679,37 +5680,37 @@
         <v>3</v>
       </c>
       <c r="G52" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H52" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I52" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J52" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K52" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L52" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M52" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N52" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O52" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P52" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Q52" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="R52" s="71" t="s">
         <v>14</v>
@@ -5720,7 +5721,7 @@
         <v>198</v>
       </c>
       <c r="D54" s="79" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E54" s="78"/>
       <c r="G54" s="78"/>
@@ -5730,40 +5731,40 @@
         <v>12</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H55" s="8" t="s">
         <v>89</v>
       </c>
       <c r="I55" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K55" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="J55" s="8" t="s">
+      <c r="L55" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="K55" s="8" t="s">
+      <c r="M55" s="8" t="s">
         <v>346</v>
-      </c>
-      <c r="L55" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="M55" s="8" t="s">
-        <v>348</v>
       </c>
       <c r="N55" s="8" t="s">
         <v>148</v>
       </c>
       <c r="O55" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="56" spans="3:18" x14ac:dyDescent="0.4">
@@ -5772,40 +5773,40 @@
         <v>(D56に関数入力)</v>
       </c>
       <c r="D56" s="76" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E56" s="77" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F56" s="71">
         <v>1</v>
       </c>
       <c r="G56" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H56" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I56" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J56" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K56" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L56" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M56" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N56" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O56" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57" spans="3:18" x14ac:dyDescent="0.4">
@@ -5813,31 +5814,31 @@
         <v>2</v>
       </c>
       <c r="G57" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H57" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I57" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J57" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K57" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L57" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M57" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N57" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O57" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58" spans="3:18" x14ac:dyDescent="0.4">
@@ -5845,31 +5846,31 @@
         <v>3</v>
       </c>
       <c r="G58" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H58" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I58" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J58" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K58" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L58" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M58" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N58" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O58" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="60" spans="3:18" x14ac:dyDescent="0.4">
@@ -5877,7 +5878,7 @@
         <v>198</v>
       </c>
       <c r="D60" s="79" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E60" s="78"/>
     </row>
@@ -5886,25 +5887,25 @@
         <v>12</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K61" s="8" t="s">
         <v>160</v>
@@ -5913,10 +5914,10 @@
         <v>50</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="62" spans="3:18" x14ac:dyDescent="0.4">
@@ -5925,37 +5926,37 @@
         <v>(D62に関数入力)</v>
       </c>
       <c r="D62" s="76" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E62" s="77" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F62" s="71">
         <v>1</v>
       </c>
       <c r="G62" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H62" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I62" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J62" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K62" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L62" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M62" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N62" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="63" spans="3:18" x14ac:dyDescent="0.4">
@@ -5963,28 +5964,28 @@
         <v>2</v>
       </c>
       <c r="G63" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H63" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I63" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J63" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K63" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L63" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M63" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N63" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="64" spans="3:18" x14ac:dyDescent="0.4">
@@ -5992,28 +5993,28 @@
         <v>3</v>
       </c>
       <c r="G64" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H64" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I64" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J64" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K64" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L64" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M64" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N64" s="71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -6067,7 +6068,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -6078,7 +6079,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="92" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D3" s="93"/>
       <c r="E3" s="93"/>
@@ -6092,21 +6093,21 @@
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F6" s="26"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E7" s="24"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E8" s="25"/>
     </row>
@@ -6127,7 +6128,7 @@
         <v>198</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
@@ -6135,22 +6136,22 @@
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>397</v>
-      </c>
       <c r="H13" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>323</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
@@ -6159,22 +6160,22 @@
         <v>(D14に関数入力)</v>
       </c>
       <c r="D14" s="95" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H14" s="23" t="s">
         <v>14</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
@@ -6204,98 +6205,98 @@
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="96"/>
       <c r="C20" s="97" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C21" s="98" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D21" s="98" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C22" s="98" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D22" s="98" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C23" s="98" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D23" s="98" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C24" s="98" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D24" s="98" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C25" s="98" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D25" s="98" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C26" s="98" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D26" s="98" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C27" s="98" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D27" s="98" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C28" s="98" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D28" s="98" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C29" s="98" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D29" s="98" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C30" s="98" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D30" s="98" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C31" s="98" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D31" s="98" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
@@ -6358,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -6369,7 +6370,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="92" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D3" s="93"/>
       <c r="E3" s="93"/>
@@ -6383,17 +6384,17 @@
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F6" s="26"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E7" s="24"/>
     </row>
@@ -6410,159 +6411,159 @@
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C10" s="100"/>
       <c r="D10" s="111" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E10" s="111" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G10" s="100"/>
       <c r="H10" s="111" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="I10" s="111" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C11" s="109" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D11" s="103" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E11" s="103" t="s">
+        <v>461</v>
+      </c>
+      <c r="G11" s="109" t="s">
+        <v>466</v>
+      </c>
+      <c r="H11" s="103" t="s">
         <v>463</v>
       </c>
-      <c r="G11" s="109" t="s">
-        <v>468</v>
-      </c>
-      <c r="H11" s="103" t="s">
+      <c r="I11" s="103" t="s">
         <v>465</v>
-      </c>
-      <c r="I11" s="103" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C12" s="106"/>
       <c r="D12" s="103" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E12" s="103" t="s">
+        <v>455</v>
+      </c>
+      <c r="G12" s="106" t="s">
+        <v>459</v>
+      </c>
+      <c r="H12" s="103" t="s">
         <v>457</v>
       </c>
-      <c r="G12" s="106" t="s">
-        <v>461</v>
-      </c>
-      <c r="H12" s="103" t="s">
-        <v>459</v>
-      </c>
       <c r="I12" s="103" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C13" s="106"/>
       <c r="D13" s="103" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E13" s="103" t="s">
+        <v>448</v>
+      </c>
+      <c r="G13" s="104" t="s">
+        <v>452</v>
+      </c>
+      <c r="H13" s="103" t="s">
         <v>450</v>
       </c>
-      <c r="G13" s="104" t="s">
-        <v>454</v>
-      </c>
-      <c r="H13" s="103" t="s">
-        <v>452</v>
-      </c>
       <c r="I13" s="103" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C14" s="107"/>
       <c r="D14" s="103" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E14" s="102" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C17" s="100"/>
       <c r="D17" s="111" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E17" s="111" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G17" s="100"/>
       <c r="H17" s="111" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="I17" s="111" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C18" s="109" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D18" s="103" t="s">
+        <v>463</v>
+      </c>
+      <c r="E18" s="103" t="s">
         <v>465</v>
       </c>
-      <c r="E18" s="103" t="s">
-        <v>467</v>
-      </c>
       <c r="G18" s="109" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H18" s="103" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="I18" s="103" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C19" s="106"/>
       <c r="D19" s="103" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E19" s="103" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G19" s="106"/>
       <c r="H19" s="103" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I19" s="103" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C20" s="106"/>
       <c r="D20" s="103" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E20" s="103" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G20" s="104"/>
       <c r="H20" s="103" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I20" s="103" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C21" s="106"/>
       <c r="D21" s="103" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E21" s="103" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L21" s="100"/>
       <c r="M21" s="101"/>
@@ -6571,10 +6572,10 @@
     <row r="22" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C22" s="106"/>
       <c r="D22" s="103" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E22" s="102" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L22" s="100"/>
       <c r="M22" s="101"/>
@@ -6583,10 +6584,10 @@
     <row r="23" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C23" s="106"/>
       <c r="D23" s="103" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E23" s="103" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L23" s="100"/>
       <c r="M23" s="101"/>
@@ -6595,10 +6596,10 @@
     <row r="24" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C24" s="106"/>
       <c r="D24" s="103" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E24" s="103" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L24" s="100"/>
       <c r="M24" s="101"/>
@@ -6607,10 +6608,10 @@
     <row r="25" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C25" s="104"/>
       <c r="D25" s="103" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E25" s="103" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="L25" s="100"/>
       <c r="M25" s="101"/>
@@ -6629,10 +6630,10 @@
     <row r="28" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C28" s="100"/>
       <c r="D28" s="111" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E28" s="111" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L28" s="100"/>
       <c r="M28" s="101"/>
@@ -6640,13 +6641,13 @@
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C29" s="109" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D29" s="103" t="s">
+        <v>463</v>
+      </c>
+      <c r="E29" s="103" t="s">
         <v>465</v>
-      </c>
-      <c r="E29" s="103" t="s">
-        <v>467</v>
       </c>
       <c r="L29" s="100"/>
       <c r="M29" s="101"/>
@@ -6654,13 +6655,13 @@
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C30" s="108" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D30" s="103" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E30" s="103" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L30" s="100"/>
       <c r="M30" s="101"/>
@@ -6668,13 +6669,13 @@
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C31" s="106" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D31" s="103" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E31" s="103" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L31" s="100"/>
       <c r="M31" s="101"/>
@@ -6683,10 +6684,10 @@
     <row r="32" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C32" s="106"/>
       <c r="D32" s="103" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E32" s="103" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L32" s="100"/>
       <c r="M32" s="101"/>
@@ -6695,10 +6696,10 @@
     <row r="33" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C33" s="106"/>
       <c r="D33" s="103" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E33" s="103" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L33" s="100"/>
       <c r="M33" s="101"/>
@@ -6707,10 +6708,10 @@
     <row r="34" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C34" s="106"/>
       <c r="D34" s="103" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E34" s="102" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L34" s="100"/>
       <c r="M34" s="101"/>
@@ -6719,10 +6720,10 @@
     <row r="35" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C35" s="106"/>
       <c r="D35" s="103" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E35" s="103" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L35" s="100"/>
       <c r="M35" s="101"/>
@@ -6731,10 +6732,10 @@
     <row r="36" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C36" s="106"/>
       <c r="D36" s="103" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E36" s="103" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L36" s="100"/>
       <c r="M36" s="101"/>
@@ -6743,10 +6744,10 @@
     <row r="37" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C37" s="105"/>
       <c r="D37" s="103" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E37" s="103" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="L37" s="100"/>
       <c r="M37" s="101"/>
@@ -6755,10 +6756,10 @@
     <row r="38" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C38" s="104"/>
       <c r="D38" s="103" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E38" s="102" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="L38" s="100"/>
       <c r="M38" s="101"/>
@@ -6788,7 +6789,7 @@
         <v>10</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.4">
@@ -6796,28 +6797,28 @@
         <v>12</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.4">
@@ -6826,25 +6827,25 @@
         <v>(D46に関数入力)</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H46" s="23" t="s">
         <v>14</v>
       </c>
       <c r="I46" s="23" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J46" s="23" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K46" s="23" t="s">
         <v>14</v>
@@ -6852,25 +6853,25 @@
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.4">
       <c r="D47" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G47" s="23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H47" s="23" t="s">
         <v>14</v>
       </c>
       <c r="I47" s="23" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J47" s="23" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K47" s="23" t="s">
         <v>14</v>
@@ -6878,25 +6879,25 @@
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.4">
       <c r="D48" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H48" s="23" t="s">
         <v>14</v>
       </c>
       <c r="I48" s="23" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J48" s="23" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K48" s="23" t="s">
         <v>14</v>
@@ -6945,17 +6946,17 @@
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -7001,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -7010,7 +7011,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="92" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D3" s="94"/>
     </row>
@@ -7022,14 +7023,14 @@
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F6" s="26"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E7" s="24"/>
     </row>
@@ -7055,7 +7056,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
@@ -7063,10 +7064,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
@@ -7075,7 +7076,7 @@
         <v>(D14に関数入力)</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -7099,7 +7100,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D19" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
@@ -7108,48 +7109,48 @@
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C21" s="100"/>
       <c r="D21" s="111" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E21" s="111" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C22" s="109" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D22" s="103" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E22" s="103" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C23" s="106"/>
       <c r="D23" s="103" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E23" s="103" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C24" s="106"/>
       <c r="D24" s="103" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E24" s="103" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C25" s="107"/>
       <c r="D25" s="103" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E25" s="102" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
@@ -7210,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
@@ -7220,7 +7221,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="92" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D3" s="93"/>
       <c r="E3" s="94"/>
@@ -7233,7 +7234,7 @@
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F6" s="26"/>
     </row>
@@ -7255,7 +7256,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
@@ -7263,28 +7264,28 @@
         <v>12</v>
       </c>
       <c r="D11" s="91" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E11" s="91" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F11" s="91" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G11" s="91" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H11" s="91" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="I11" s="91" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="J11" s="91" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
@@ -7293,13 +7294,13 @@
         <v>(D12に関数入力)</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>14</v>
@@ -7308,10 +7309,10 @@
         <v>14</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>14</v>
@@ -7407,7 +7408,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="114" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D2" s="115"/>
       <c r="E2" s="115"/>
@@ -7418,7 +7419,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="114" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D3" s="115"/>
       <c r="E3" s="115"/>
@@ -7431,17 +7432,17 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C6" s="119" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C7" s="120" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C8" s="121" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.4">
@@ -7456,7 +7457,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="122" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.4">
@@ -7464,7 +7465,7 @@
       <c r="E13" s="124"/>
       <c r="F13" s="125"/>
       <c r="G13" s="126" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H13" s="125"/>
       <c r="I13" s="127"/>
@@ -7472,7 +7473,7 @@
       <c r="K13" s="125"/>
       <c r="L13" s="125"/>
       <c r="M13" s="126" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="N13" s="127"/>
       <c r="O13" s="123"/>
@@ -7486,34 +7487,34 @@
         <v>39</v>
       </c>
       <c r="E14" s="137" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F14" s="137" t="s">
+        <v>516</v>
+      </c>
+      <c r="G14" s="137" t="s">
+        <v>518</v>
+      </c>
+      <c r="H14" s="137" t="s">
         <v>519</v>
       </c>
-      <c r="G14" s="137" t="s">
-        <v>521</v>
-      </c>
-      <c r="H14" s="137" t="s">
-        <v>522</v>
-      </c>
       <c r="I14" s="137" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J14" s="137" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="K14" s="137" t="s">
+        <v>516</v>
+      </c>
+      <c r="L14" s="137" t="s">
+        <v>518</v>
+      </c>
+      <c r="M14" s="137" t="s">
         <v>519</v>
       </c>
-      <c r="L14" s="137" t="s">
-        <v>521</v>
-      </c>
-      <c r="M14" s="137" t="s">
-        <v>522</v>
-      </c>
       <c r="N14" s="137" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.4">
@@ -7522,7 +7523,7 @@
         <v>(D15に関数入力)</v>
       </c>
       <c r="D15" s="129" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E15" s="129" t="s">
         <v>14</v>
@@ -7622,23 +7623,23 @@
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C23" s="130" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D23" s="131" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E23" s="184" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F23" s="185"/>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C24" s="140"/>
       <c r="D24" s="133" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E24" s="186" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F24" s="186"/>
     </row>
@@ -7648,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="187" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F25" s="187"/>
     </row>
@@ -7658,7 +7659,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="188" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F26" s="188"/>
     </row>
@@ -7668,48 +7669,48 @@
         <v>2</v>
       </c>
       <c r="E27" s="187" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F27" s="187"/>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.4">
       <c r="D29" s="138" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E29" s="117" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.4">
       <c r="D30" s="139"/>
       <c r="E30" s="117" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.4">
       <c r="E31" s="117" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.4">
       <c r="E32" s="117" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D33" s="139" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E33" s="117" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D34" s="139" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E34" s="117" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.4">
@@ -8020,12 +8021,12 @@
         <v>193</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B34" s="32" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C34" s="23">
         <v>1</v>
@@ -8036,7 +8037,7 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B35" s="33" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C35" s="23">
         <v>3</v>
@@ -8065,24 +8066,24 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B38" s="35" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C38" s="23">
         <v>2</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B39" s="33" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C39" s="23">
         <v>23</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.4">
@@ -8091,7 +8092,7 @@
         <v>24</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -8303,12 +8304,12 @@
         <v>193</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B23" s="32" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C23" s="23">
         <v>1</v>
@@ -8319,7 +8320,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B24" s="33" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C24" s="23">
         <v>3</v>
@@ -8348,24 +8349,24 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B27" s="35" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C27" s="23">
         <v>2</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B28" s="33" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C28" s="23">
         <v>23</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
@@ -8374,7 +8375,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
@@ -8404,12 +8405,12 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>40</v>
@@ -8420,7 +8421,7 @@
     </row>
     <row r="40" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C40" s="112" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D40" s="113">
         <v>300</v>
@@ -8585,7 +8586,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -8638,7 +8639,7 @@
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="29"/>
       <c r="C5" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -8647,7 +8648,7 @@
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" s="30"/>
       <c r="C6" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -8661,7 +8662,7 @@
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
@@ -8710,7 +8711,7 @@
         <v>198</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -8721,13 +8722,13 @@
         <v>183</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="H18" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -8746,22 +8747,22 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H20" s="145" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H21" s="145" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H22" s="6" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -8772,15 +8773,15 @@
         <v>193</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H23" s="146" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B24" s="32" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C24" s="23">
         <v>1</v>
@@ -8818,7 +8819,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B28" s="32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C28" s="23">
         <v>1</v>
@@ -8838,24 +8839,24 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B30" s="35" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C30" s="23">
         <v>2</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B31" s="33" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C31" s="23">
         <v>23</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
@@ -8864,7 +8865,7 @@
         <v>24</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -8881,16 +8882,14 @@
   </sheetPr>
   <dimension ref="A2:CL49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
     <col min="4" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.875" customWidth="1"/>
     <col min="6" max="6" width="10.375" customWidth="1"/>
     <col min="7" max="7" width="8.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.625" bestFit="1" customWidth="1"/>
@@ -9010,13 +9009,13 @@
         <v>193</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B12" s="6"/>
       <c r="C12" s="32" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D12" s="23">
         <v>1</v>
@@ -9028,7 +9027,7 @@
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B13" s="6"/>
       <c r="C13" s="33" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D13" s="23">
         <v>3</v>
@@ -9060,25 +9059,25 @@
     <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B16" s="6"/>
       <c r="C16" s="35" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D16" s="23">
         <v>2</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:90" x14ac:dyDescent="0.4">
       <c r="B17" s="6"/>
       <c r="C17" s="33" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D17" s="23">
         <v>23</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:90" x14ac:dyDescent="0.4">
@@ -9088,7 +9087,7 @@
         <v>24</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:90" x14ac:dyDescent="0.4">
@@ -10363,10 +10362,10 @@
     </row>
     <row r="34" spans="1:89" x14ac:dyDescent="0.4">
       <c r="D34" s="31" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -10458,7 +10457,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -10550,7 +10549,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:89" x14ac:dyDescent="0.4">
@@ -10558,7 +10557,7 @@
         <v>101</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="38" spans="1:89" x14ac:dyDescent="0.4">
@@ -10566,7 +10565,7 @@
         <v>103</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="39" spans="1:89" x14ac:dyDescent="0.4">
@@ -10574,7 +10573,7 @@
         <v>107</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="40" spans="1:89" x14ac:dyDescent="0.4">
@@ -10582,7 +10581,7 @@
         <v>121</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="41" spans="1:89" x14ac:dyDescent="0.4">
@@ -10590,7 +10589,7 @@
         <v>144</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="42" spans="1:89" x14ac:dyDescent="0.4">
@@ -10598,7 +10597,7 @@
         <v>145</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="43" spans="1:89" x14ac:dyDescent="0.4">
@@ -10606,7 +10605,7 @@
         <v>154</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>503</v>
+        <v>576</v>
       </c>
     </row>
     <row r="44" spans="1:89" x14ac:dyDescent="0.4">
@@ -10614,7 +10613,7 @@
         <v>155</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="45" spans="1:89" x14ac:dyDescent="0.4">
@@ -10622,7 +10621,7 @@
         <v>171</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="46" spans="1:89" x14ac:dyDescent="0.4">
@@ -10630,7 +10629,7 @@
         <v>901</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="47" spans="1:89" x14ac:dyDescent="0.4">
@@ -10638,7 +10637,7 @@
         <v>907</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="48" spans="1:89" x14ac:dyDescent="0.4">
@@ -10646,7 +10645,7 @@
         <v>903</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.4">
@@ -10654,7 +10653,7 @@
         <v>1001</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -10737,7 +10736,7 @@
         <v>166</v>
       </c>
       <c r="E7" s="88" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
@@ -10760,18 +10759,18 @@
         <v>193</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C11" s="32" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D11" s="23">
         <v>1</v>
@@ -10783,12 +10782,12 @@
         <v>1</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C12" s="33" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D12" s="23">
         <v>3</v>
@@ -10800,7 +10799,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
@@ -10812,7 +10811,7 @@
         <v>196</v>
       </c>
       <c r="H13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
@@ -10826,24 +10825,24 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C15" s="35" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D15" s="23">
         <v>2</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C16" s="33" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D16" s="23">
         <v>23</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
@@ -10852,7 +10851,7 @@
         <v>24</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.4">
@@ -10869,7 +10868,7 @@
         <v>198</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.4">
@@ -11072,7 +11071,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B28" s="89" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -11094,7 +11093,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:AL319"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -11163,7 +11162,7 @@
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.4">
@@ -11172,25 +11171,25 @@
         <v>199</v>
       </c>
       <c r="D7" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="F7" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="G7" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="H7" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="I7" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="J7" s="37" t="s">
         <v>276</v>
-      </c>
-      <c r="I7" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>278</v>
       </c>
       <c r="L7" t="s">
         <v>186</v>
@@ -11202,16 +11201,16 @@
         <v>0</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F8" s="39" t="b">
         <v>1</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H8" s="39">
         <v>2</v>
@@ -11236,31 +11235,31 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="L10" s="70" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B11" s="31" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D11" s="155" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E11" s="156"/>
       <c r="F11" s="155" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G11" s="156"/>
       <c r="L11" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B12" s="171" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C12" s="42">
         <v>0</v>
@@ -11270,11 +11269,11 @@
       </c>
       <c r="E12" s="168"/>
       <c r="F12" s="157" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G12" s="158"/>
       <c r="L12" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.4">
@@ -11287,11 +11286,11 @@
       </c>
       <c r="E13" s="168"/>
       <c r="F13" s="159" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G13" s="160"/>
       <c r="L13" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.4">
@@ -11312,7 +11311,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="167" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E15" s="168"/>
       <c r="F15" s="159"/>
@@ -11324,7 +11323,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="167" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E16" s="168"/>
       <c r="F16" s="161"/>
@@ -11332,17 +11331,17 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="58" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E17" s="55"/>
       <c r="F17" s="54" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G17" s="55"/>
     </row>
@@ -11352,23 +11351,23 @@
       <c r="D18" s="52"/>
       <c r="E18" s="53"/>
       <c r="F18" s="52" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G18" s="53"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="58" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D19" s="54" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E19" s="55"/>
       <c r="F19" s="61" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G19" s="62"/>
     </row>
@@ -11378,23 +11377,23 @@
       <c r="D20" s="52"/>
       <c r="E20" s="53"/>
       <c r="F20" s="61" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G20" s="62"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="169" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C21" s="42" t="b">
         <v>1</v>
       </c>
       <c r="D21" s="167" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E21" s="168"/>
       <c r="F21" s="66" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G21" s="67"/>
     </row>
@@ -11404,11 +11403,11 @@
         <v>0</v>
       </c>
       <c r="D22" s="167" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E22" s="168"/>
       <c r="F22" s="68" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G22" s="69"/>
     </row>
@@ -11424,23 +11423,23 @@
       </c>
       <c r="E23" s="51"/>
       <c r="F23" s="63" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G23" s="64"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="169" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C24" s="41">
         <v>1</v>
       </c>
       <c r="D24" s="165" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E24" s="166"/>
       <c r="F24" s="163" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G24" s="164"/>
     </row>
@@ -11450,11 +11449,11 @@
         <v>2</v>
       </c>
       <c r="D25" s="153" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E25" s="154"/>
       <c r="F25" s="147" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G25" s="148"/>
     </row>
@@ -11464,7 +11463,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="153" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E26" s="154"/>
       <c r="F26" s="147"/>
@@ -11476,7 +11475,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="153" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E27" s="154"/>
       <c r="F27" s="147"/>
@@ -11488,7 +11487,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="153" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E28" s="154"/>
       <c r="F28" s="151"/>
@@ -11496,17 +11495,17 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="169" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C29" s="41">
         <v>1</v>
       </c>
       <c r="D29" s="165" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E29" s="166"/>
       <c r="F29" s="163" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G29" s="164"/>
     </row>
@@ -11516,27 +11515,27 @@
         <v>2</v>
       </c>
       <c r="D30" s="153" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E30" s="154"/>
       <c r="F30" s="147" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G30" s="148"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="170" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C31" s="41">
         <v>2</v>
       </c>
       <c r="D31" s="153" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E31" s="154"/>
       <c r="F31" s="149" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G31" s="150"/>
     </row>
@@ -11546,11 +11545,11 @@
         <v>3</v>
       </c>
       <c r="D32" s="153" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E32" s="154"/>
       <c r="F32" s="151" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G32" s="152"/>
     </row>
@@ -11576,7 +11575,7 @@
         <v>198</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="X38" s="12" t="s">
         <v>110</v>
@@ -11657,7 +11656,7 @@
         <v>129</v>
       </c>
       <c r="W39" s="8" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="X39" s="8" t="s">
         <v>130</v>
@@ -11766,7 +11765,7 @@
         <v>85</v>
       </c>
       <c r="W40" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="X40" s="7" t="s">
         <v>85</v>
@@ -12066,7 +12065,7 @@
         <v>85</v>
       </c>
       <c r="W44" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="X44" s="7" t="s">
         <v>85</v>
@@ -22540,7 +22539,7 @@
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
@@ -22552,10 +22551,10 @@
         <v>39</v>
       </c>
       <c r="E7" s="90" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F7" s="90" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
@@ -22564,7 +22563,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E8" s="23">
         <v>1</v>
@@ -22578,19 +22577,19 @@
         <v>200</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
@@ -22604,13 +22603,13 @@
         <v>1</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I11" s="23" t="b">
         <v>1</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
@@ -22624,13 +22623,13 @@
         <v>2</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I12" s="23" t="b">
         <v>0</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
@@ -22641,7 +22640,7 @@
         <v>201</v>
       </c>
       <c r="J13" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
@@ -22649,7 +22648,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
@@ -22657,7 +22656,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.4">
@@ -22674,7 +22673,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.4">
@@ -22989,7 +22988,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B28" s="89" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -23016,14 +23015,12 @@
   </sheetPr>
   <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
     <col min="4" max="4" width="28.875" customWidth="1"/>
     <col min="5" max="5" width="23.75" customWidth="1"/>
     <col min="6" max="6" width="33.25" customWidth="1"/>
@@ -23136,7 +23133,7 @@
         <v>227</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.4">
@@ -23173,58 +23170,58 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B22" s="23" t="s">
-        <v>236</v>
+        <v>575</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>237</v>
+        <v>576</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B23" s="23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B28" s="23" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -23256,7 +23253,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -23265,7 +23262,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -23277,7 +23274,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H6" t="s">
         <v>186</v>
@@ -23286,16 +23283,16 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="C7" s="8" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>223</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H7" t="s">
         <v>188</v>
@@ -23304,7 +23301,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>225</v>
@@ -23313,7 +23310,7 @@
         <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H8" t="s">
         <v>187</v>
@@ -23333,7 +23330,7 @@
         <v>198</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -23357,7 +23354,7 @@
         <v>145123218</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -23367,50 +23364,50 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B17" s="31" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B18" s="23" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B19" s="23" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B21" s="31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B22" s="23" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B23" s="23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -23444,7 +23441,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -23453,7 +23450,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -23465,7 +23462,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="H6" t="s">
         <v>186</v>
@@ -23477,13 +23474,13 @@
         <v>223</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H7" t="s">
         <v>188</v>
@@ -23501,7 +23498,7 @@
         <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H8" t="s">
         <v>187</v>
@@ -23521,7 +23518,7 @@
         <v>198</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -23542,10 +23539,10 @@
         <v>(D14に関数入力)</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -23555,26 +23552,26 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B17" s="31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B18" s="23" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B19" s="23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/sample/ExcelMacro/kabuSTATION_API_function_sample.xlsx
+++ b/sample/ExcelMacro/kabuSTATION_API_function_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\14.不正アクセス防止対応API\kabusapi\sample\ExcelMacro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\15.MSSOR_Ph2\kabusapi\sample\ExcelMacro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66B771F-9AC5-489F-91CD-709D957F1E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816D03C6-A3BF-4FB5-A4EF-E1853DFF697C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="787" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="787" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="注文取消" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="578">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -3198,6 +3198,17 @@
   </si>
   <si>
     <t>=CANCELORDER(C8)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SOR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東証+</t>
+    <rPh sb="0" eb="2">
+      <t>トウショウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3982,31 +3993,22 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4015,29 +4017,11 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4051,11 +4035,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4391,7 +4402,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:I19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -4554,7 +4567,7 @@
   <dimension ref="B2:T64"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -6962,7 +6975,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B2:F29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -7722,7 +7737,9 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A2:H40"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -8571,9 +8588,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:H32"/>
+  <dimension ref="A2:H36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -8805,53 +8822,89 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="B28" s="32" t="s">
-        <v>266</v>
-      </c>
+      <c r="B28" s="33"/>
       <c r="C28" s="23">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>192</v>
+        <v>576</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="B29" s="33"/>
       <c r="C29" s="23">
+        <v>27</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" s="23">
+        <v>1</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" s="33"/>
+      <c r="C31" s="23">
         <v>3</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D31" s="23" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="B30" s="35" t="s">
+    <row r="32" spans="1:8">
+      <c r="B32" s="33"/>
+      <c r="C32" s="23">
+        <v>9</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="33"/>
+      <c r="C33" s="23">
+        <v>27</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C34" s="23">
         <v>2</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D34" s="23" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="B31" s="33" t="s">
+    <row r="35" spans="2:4">
+      <c r="B35" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C35" s="23">
         <v>23</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D35" s="23" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="B32" s="34"/>
-      <c r="C32" s="23">
+    <row r="36" spans="2:4">
+      <c r="B36" s="34"/>
+      <c r="C36" s="23">
         <v>24</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D36" s="23" t="s">
         <v>259</v>
       </c>
     </row>
@@ -8869,7 +8922,9 @@
   </sheetPr>
   <dimension ref="A2:CL49"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -10654,7 +10709,7 @@
   <dimension ref="A2:AA28"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -11080,8 +11135,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:AL319"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -11232,89 +11287,89 @@
       <c r="C11" s="65" t="s">
         <v>301</v>
       </c>
-      <c r="D11" s="150" t="s">
+      <c r="D11" s="155" t="s">
         <v>295</v>
       </c>
-      <c r="E11" s="151"/>
-      <c r="F11" s="150" t="s">
+      <c r="E11" s="156"/>
+      <c r="F11" s="155" t="s">
         <v>296</v>
       </c>
-      <c r="G11" s="151"/>
+      <c r="G11" s="156"/>
       <c r="L11" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="149" t="s">
+      <c r="B12" s="171" t="s">
         <v>275</v>
       </c>
       <c r="C12" s="42">
         <v>0</v>
       </c>
-      <c r="D12" s="152" t="s">
+      <c r="D12" s="167" t="s">
         <v>201</v>
       </c>
-      <c r="E12" s="153"/>
-      <c r="F12" s="166" t="s">
+      <c r="E12" s="168"/>
+      <c r="F12" s="157" t="s">
         <v>297</v>
       </c>
-      <c r="G12" s="167"/>
+      <c r="G12" s="158"/>
       <c r="L12" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="149"/>
+      <c r="B13" s="171"/>
       <c r="C13" s="42">
         <v>1</v>
       </c>
-      <c r="D13" s="152" t="s">
+      <c r="D13" s="167" t="s">
         <v>200</v>
       </c>
-      <c r="E13" s="153"/>
-      <c r="F13" s="168" t="s">
+      <c r="E13" s="168"/>
+      <c r="F13" s="159" t="s">
         <v>304</v>
       </c>
-      <c r="G13" s="169"/>
+      <c r="G13" s="160"/>
       <c r="L13" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="149"/>
+      <c r="B14" s="171"/>
       <c r="C14" s="42">
         <v>2</v>
       </c>
-      <c r="D14" s="152" t="s">
+      <c r="D14" s="167" t="s">
         <v>199</v>
       </c>
-      <c r="E14" s="153"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="169"/>
+      <c r="E14" s="168"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="160"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="149"/>
+      <c r="B15" s="171"/>
       <c r="C15" s="42">
         <v>3</v>
       </c>
-      <c r="D15" s="152" t="s">
+      <c r="D15" s="167" t="s">
         <v>262</v>
       </c>
-      <c r="E15" s="153"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="169"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="160"/>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="149"/>
+      <c r="B16" s="171"/>
       <c r="C16" s="42">
         <v>4</v>
       </c>
-      <c r="D16" s="152" t="s">
+      <c r="D16" s="167" t="s">
         <v>263</v>
       </c>
-      <c r="E16" s="153"/>
-      <c r="F16" s="162"/>
-      <c r="G16" s="163"/>
+      <c r="E16" s="168"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="162"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="58" t="s">
@@ -11369,30 +11424,30 @@
       <c r="G20" s="62"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="147" t="s">
+      <c r="B21" s="169" t="s">
         <v>284</v>
       </c>
       <c r="C21" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="D21" s="152" t="s">
+      <c r="D21" s="167" t="s">
         <v>302</v>
       </c>
-      <c r="E21" s="153"/>
+      <c r="E21" s="168"/>
       <c r="F21" s="66" t="s">
         <v>297</v>
       </c>
       <c r="G21" s="67"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="147"/>
+      <c r="B22" s="169"/>
       <c r="C22" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="D22" s="152" t="s">
+      <c r="D22" s="167" t="s">
         <v>303</v>
       </c>
-      <c r="E22" s="153"/>
+      <c r="E22" s="168"/>
       <c r="F22" s="68" t="s">
         <v>305</v>
       </c>
@@ -11415,130 +11470,130 @@
       <c r="G23" s="64"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="147" t="s">
+      <c r="B24" s="169" t="s">
         <v>287</v>
       </c>
       <c r="C24" s="41">
         <v>1</v>
       </c>
-      <c r="D24" s="154" t="s">
+      <c r="D24" s="165" t="s">
         <v>285</v>
       </c>
-      <c r="E24" s="155"/>
-      <c r="F24" s="160" t="s">
+      <c r="E24" s="166"/>
+      <c r="F24" s="163" t="s">
         <v>297</v>
       </c>
-      <c r="G24" s="161"/>
+      <c r="G24" s="164"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="147"/>
+      <c r="B25" s="169"/>
       <c r="C25" s="41">
         <v>2</v>
       </c>
-      <c r="D25" s="156" t="s">
+      <c r="D25" s="153" t="s">
         <v>276</v>
       </c>
-      <c r="E25" s="157"/>
-      <c r="F25" s="164" t="s">
+      <c r="E25" s="154"/>
+      <c r="F25" s="147" t="s">
         <v>304</v>
       </c>
-      <c r="G25" s="165"/>
+      <c r="G25" s="148"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="147"/>
+      <c r="B26" s="169"/>
       <c r="C26" s="41">
         <v>3</v>
       </c>
-      <c r="D26" s="156" t="s">
+      <c r="D26" s="153" t="s">
         <v>277</v>
       </c>
-      <c r="E26" s="157"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="165"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="148"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="147"/>
+      <c r="B27" s="169"/>
       <c r="C27" s="41">
         <v>4</v>
       </c>
-      <c r="D27" s="156" t="s">
+      <c r="D27" s="153" t="s">
         <v>278</v>
       </c>
-      <c r="E27" s="157"/>
-      <c r="F27" s="164"/>
-      <c r="G27" s="165"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="148"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="147"/>
+      <c r="B28" s="169"/>
       <c r="C28" s="41">
         <v>5</v>
       </c>
-      <c r="D28" s="156" t="s">
+      <c r="D28" s="153" t="s">
         <v>279</v>
       </c>
-      <c r="E28" s="157"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="159"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="152"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="147" t="s">
+      <c r="B29" s="169" t="s">
         <v>288</v>
       </c>
       <c r="C29" s="41">
         <v>1</v>
       </c>
-      <c r="D29" s="154" t="s">
+      <c r="D29" s="165" t="s">
         <v>286</v>
       </c>
-      <c r="E29" s="155"/>
-      <c r="F29" s="160" t="s">
+      <c r="E29" s="166"/>
+      <c r="F29" s="163" t="s">
         <v>297</v>
       </c>
-      <c r="G29" s="161"/>
+      <c r="G29" s="164"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="147"/>
+      <c r="B30" s="169"/>
       <c r="C30" s="41">
         <v>2</v>
       </c>
-      <c r="D30" s="156" t="s">
+      <c r="D30" s="153" t="s">
         <v>280</v>
       </c>
-      <c r="E30" s="157"/>
-      <c r="F30" s="164" t="s">
+      <c r="E30" s="154"/>
+      <c r="F30" s="147" t="s">
         <v>304</v>
       </c>
-      <c r="G30" s="165"/>
+      <c r="G30" s="148"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="148" t="s">
+      <c r="B31" s="170" t="s">
         <v>289</v>
       </c>
       <c r="C31" s="41">
         <v>2</v>
       </c>
-      <c r="D31" s="156" t="s">
+      <c r="D31" s="153" t="s">
         <v>281</v>
       </c>
-      <c r="E31" s="157"/>
-      <c r="F31" s="170" t="s">
+      <c r="E31" s="154"/>
+      <c r="F31" s="149" t="s">
         <v>297</v>
       </c>
-      <c r="G31" s="171"/>
+      <c r="G31" s="150"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="148"/>
+      <c r="B32" s="170"/>
       <c r="C32" s="41">
         <v>3</v>
       </c>
-      <c r="D32" s="156" t="s">
+      <c r="D32" s="153" t="s">
         <v>282</v>
       </c>
-      <c r="E32" s="157"/>
-      <c r="F32" s="158" t="s">
+      <c r="E32" s="154"/>
+      <c r="F32" s="151" t="s">
         <v>304</v>
       </c>
-      <c r="G32" s="159"/>
+      <c r="G32" s="152"/>
     </row>
     <row r="33" spans="1:37">
       <c r="B33" s="6"/>
@@ -22401,43 +22456,43 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="5">
@@ -22466,9 +22521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:Y28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -23003,7 +23056,7 @@
   <dimension ref="A2:F28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
